--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="164">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t xml:space="preserve">76632_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle</t>
   </si>
   <si>
     <t xml:space="preserve">76638_V5_combine</t>
@@ -532,7 +529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -553,11 +550,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -602,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -616,14 +608,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -652,14 +636,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
-      <selection pane="bottomRight" activeCell="H116" activeCellId="0" sqref="H116"/>
+      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
+      <selection pane="bottomRight" activeCell="H118" activeCellId="0" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5814,7 +5798,6 @@
       <c r="G113" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H113" s="4"/>
       <c r="I113" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J113, $K113, "/", $L113, "/", $E113,  $M113, $N113)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051_combine/outs/molecule_info.h5</v>
@@ -5864,7 +5847,6 @@
       <c r="G114" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H114" s="4"/>
       <c r="I114" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J114, $K114, "/", $L114, "/", $E114,  $M114, $N114)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine/outs/molecule_info.h5</v>
@@ -5914,7 +5896,6 @@
       <c r="G115" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H115" s="4"/>
       <c r="I115" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J115, $K115, "/", $L115, "/", $E115,  $M115, $N115)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/molecule_info.h5</v>
@@ -5964,9 +5945,6 @@
       <c r="G116" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H116" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="I116" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J116, $K116, "/", $L116, "/", $E116,  $M116, $N116)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/molecule_info.h5</v>
@@ -6008,7 +5986,7 @@
         <v>127</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>44</v>
@@ -6016,7 +5994,6 @@
       <c r="G117" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H117" s="4"/>
       <c r="I117" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J117, $K117, "/", $L117, "/", $E117,  $M117, $N117)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/molecule_info.h5</v>
@@ -6058,16 +6035,13 @@
         <v>128</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="I118" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J118, $K118, "/", $L118, "/", $E118,  $M118, $N118)</f>
@@ -6110,7 +6084,7 @@
         <v>130</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>44</v>
@@ -6118,7 +6092,6 @@
       <c r="G119" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H119" s="4"/>
       <c r="I119" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J119, $K119, "/", $L119, "/", $E119,  $M119, $N119)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/molecule_info.h5</v>
@@ -6160,7 +6133,7 @@
         <v>131</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>44</v>
@@ -6168,7 +6141,6 @@
       <c r="G120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H120" s="4"/>
       <c r="I120" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J120, $K120, "/", $L120, "/", $E120,  $M120, $N120)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/molecule_info.h5</v>
@@ -6210,7 +6182,7 @@
         <v>132</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>44</v>
@@ -6218,7 +6190,6 @@
       <c r="G121" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H121" s="4"/>
       <c r="I121" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($J121, $K121, "/", $L121, "/", $E121,  $M121, $N121)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/molecule_info.h5</v>
@@ -6245,9 +6216,6 @@
         <f aca="false">_xlfn.CONCAT($J121, $K121, "/", $L121, "/", $E121,  $M121, $O121,)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H122" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P121"/>
@@ -6275,314 +6243,314 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$125</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$E$1:$H$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$E$1:$G$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$E$1:$M$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">aggregation!$E$1:$M$102</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="182">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -48,21 +48,21 @@
     <t xml:space="preserve">sample_id_ori</t>
   </si>
   <si>
+    <t xml:space="preserve">Agg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Agg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisDate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sequencing_Type</t>
   </si>
   <si>
@@ -96,18 +96,18 @@
     <t xml:space="preserve">76615_V5</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGLT2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jia</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGLT2</t>
-  </si>
-  <si>
     <t xml:space="preserve">NovaSeq</t>
   </si>
   <si>
@@ -237,10 +237,10 @@
     <t xml:space="preserve">Buttons_Marmoset</t>
   </si>
   <si>
+    <t xml:space="preserve">Marmoset</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset</t>
   </si>
   <si>
     <t xml:space="preserve">NextSeq</t>
@@ -580,8 +580,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -654,7 +655,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,6 +674,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -697,17 +702,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="75" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="H76" activeCellId="0" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,11 +723,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="107.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="11.77"/>
@@ -798,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>63</v>
       </c>
@@ -826,7 +831,7 @@
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -859,7 +864,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>81</v>
       </c>
@@ -879,15 +884,15 @@
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -920,7 +925,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>102</v>
       </c>
@@ -940,19 +945,19 @@
         <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>26</v>
@@ -984,7 +989,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>114</v>
       </c>
@@ -1006,14 +1011,14 @@
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>26</v>
@@ -1045,7 +1050,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>71</v>
       </c>
@@ -1065,15 +1070,15 @@
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1106,7 +1111,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>100</v>
       </c>
@@ -1126,19 +1131,19 @@
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>26</v>
@@ -1170,7 +1175,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>115</v>
       </c>
@@ -1192,14 +1197,14 @@
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -1231,7 +1236,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>111</v>
       </c>
@@ -1251,16 +1256,19 @@
         <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>26</v>
@@ -1292,7 +1300,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>82</v>
       </c>
@@ -1312,15 +1320,15 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1353,7 +1361,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>108</v>
       </c>
@@ -1373,19 +1381,19 @@
         <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
@@ -1417,7 +1425,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>116</v>
       </c>
@@ -1439,14 +1447,14 @@
       <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>26</v>
@@ -1478,7 +1486,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>83</v>
       </c>
@@ -1498,15 +1506,15 @@
         <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1539,7 +1547,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>84</v>
       </c>
@@ -1559,12 +1567,12 @@
         <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1597,7 +1605,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>107</v>
       </c>
@@ -1617,19 +1625,19 @@
         <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>26</v>
@@ -1661,7 +1669,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>117</v>
       </c>
@@ -1681,16 +1689,16 @@
         <v>49</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>26</v>
@@ -1722,7 +1730,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>85</v>
       </c>
@@ -1742,15 +1750,15 @@
         <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -1783,7 +1791,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>103</v>
       </c>
@@ -1803,19 +1811,19 @@
         <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>26</v>
@@ -1847,7 +1855,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>118</v>
       </c>
@@ -1869,14 +1877,14 @@
       <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>26</v>
@@ -1908,7 +1916,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>86</v>
       </c>
@@ -1928,15 +1936,15 @@
         <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -1969,7 +1977,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>104</v>
       </c>
@@ -1989,19 +1997,19 @@
         <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>26</v>
@@ -2033,7 +2041,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>119</v>
       </c>
@@ -2055,14 +2063,14 @@
       <c r="G22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>26</v>
@@ -2094,7 +2102,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>87</v>
       </c>
@@ -2114,15 +2122,15 @@
         <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2155,7 +2163,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>106</v>
       </c>
@@ -2175,19 +2183,19 @@
         <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>26</v>
@@ -2219,7 +2227,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>120</v>
       </c>
@@ -2241,14 +2249,14 @@
       <c r="G25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>26</v>
@@ -2280,7 +2288,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>109</v>
       </c>
@@ -2302,14 +2310,17 @@
       <c r="G26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>26</v>
@@ -2341,7 +2352,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>110</v>
       </c>
@@ -2361,16 +2372,19 @@
         <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>20211117</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>26</v>
@@ -2402,7 +2416,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>67</v>
       </c>
@@ -2421,14 +2435,14 @@
       <c r="F28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>22</v>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>26</v>
@@ -2460,7 +2474,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>121</v>
       </c>
@@ -2479,10 +2493,10 @@
       <c r="F29" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -2499,7 +2513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>68</v>
       </c>
@@ -2518,14 +2532,14 @@
       <c r="F30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>22</v>
+      <c r="H30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>26</v>
@@ -2557,7 +2571,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>122</v>
       </c>
@@ -2576,10 +2590,10 @@
       <c r="F31" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -2596,7 +2610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10</v>
       </c>
@@ -2615,13 +2629,13 @@
       <c r="F32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -2654,7 +2668,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>23</v>
       </c>
@@ -2673,10 +2687,10 @@
       <c r="F33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -2709,7 +2723,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>26</v>
       </c>
@@ -2728,10 +2742,10 @@
       <c r="F34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -2764,7 +2778,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
@@ -2783,14 +2797,14 @@
       <c r="F35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>22</v>
+      <c r="H35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>26</v>
@@ -2822,7 +2836,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
@@ -2841,11 +2855,11 @@
       <c r="F36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>70</v>
+      <c r="I36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>26</v>
@@ -2877,7 +2891,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
@@ -2896,11 +2910,11 @@
       <c r="F37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>70</v>
+      <c r="I37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>26</v>
@@ -2932,7 +2946,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>69</v>
       </c>
@@ -2951,14 +2965,14 @@
       <c r="F38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>22</v>
+      <c r="H38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>26</v>
@@ -2990,7 +3004,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>123</v>
       </c>
@@ -3009,10 +3023,10 @@
       <c r="F39" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -3029,7 +3043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>70</v>
       </c>
@@ -3048,14 +3062,14 @@
       <c r="F40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>22</v>
+      <c r="H40" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>26</v>
@@ -3087,7 +3101,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>124</v>
       </c>
@@ -3106,10 +3120,10 @@
       <c r="F41" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="H41" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -3126,7 +3140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>60</v>
       </c>
@@ -3145,13 +3159,13 @@
       <c r="F42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -3184,7 +3198,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>14</v>
       </c>
@@ -3203,14 +3217,14 @@
       <c r="F43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>69</v>
+      <c r="H43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>71</v>
@@ -3242,7 +3256,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>51</v>
       </c>
@@ -3261,14 +3275,14 @@
       <c r="F44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>69</v>
+      <c r="H44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>26</v>
@@ -3300,7 +3314,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>59</v>
       </c>
@@ -3319,11 +3333,11 @@
       <c r="F45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>26</v>
@@ -3355,7 +3369,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>13</v>
       </c>
@@ -3374,14 +3388,14 @@
       <c r="F46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>69</v>
+      <c r="H46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>71</v>
@@ -3413,7 +3427,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>50</v>
       </c>
@@ -3432,14 +3446,14 @@
       <c r="F47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>69</v>
+      <c r="H47" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>26</v>
@@ -3471,7 +3485,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>57</v>
       </c>
@@ -3490,11 +3504,11 @@
       <c r="F48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>26</v>
@@ -3526,7 +3540,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>58</v>
       </c>
@@ -3545,11 +3559,11 @@
       <c r="F49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>26</v>
@@ -3581,7 +3595,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>4</v>
       </c>
@@ -3600,14 +3614,14 @@
       <c r="F50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>69</v>
+      <c r="H50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>71</v>
@@ -3639,7 +3653,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>18</v>
       </c>
@@ -3658,14 +3672,14 @@
       <c r="F51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>69</v>
+      <c r="H51" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>26</v>
@@ -3697,7 +3711,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>3</v>
       </c>
@@ -3716,14 +3730,14 @@
       <c r="F52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>69</v>
+      <c r="H52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>71</v>
@@ -3755,7 +3769,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>17</v>
       </c>
@@ -3774,14 +3788,14 @@
       <c r="F53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>69</v>
+      <c r="H53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>26</v>
@@ -3813,7 +3827,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>12</v>
       </c>
@@ -3832,14 +3846,14 @@
       <c r="F54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>69</v>
+      <c r="H54" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>71</v>
@@ -3871,7 +3885,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>49</v>
       </c>
@@ -3890,14 +3904,14 @@
       <c r="F55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>69</v>
+      <c r="H55" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>26</v>
@@ -3929,7 +3943,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -3948,11 +3962,11 @@
       <c r="F56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>26</v>
@@ -3984,7 +3998,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -4003,11 +4017,11 @@
       <c r="F57" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>26</v>
@@ -4039,7 +4053,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -4058,11 +4072,11 @@
       <c r="F58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>26</v>
@@ -4094,7 +4108,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>11</v>
       </c>
@@ -4113,14 +4127,14 @@
       <c r="F59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>69</v>
+      <c r="H59" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>71</v>
@@ -4152,7 +4166,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>48</v>
       </c>
@@ -4171,14 +4185,14 @@
       <c r="F60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>69</v>
+      <c r="H60" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>26</v>
@@ -4210,7 +4224,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>52</v>
       </c>
@@ -4229,11 +4243,11 @@
       <c r="F61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>26</v>
@@ -4266,7 +4280,7 @@
       </c>
       <c r="W61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>53</v>
       </c>
@@ -4285,11 +4299,11 @@
       <c r="F62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>26</v>
@@ -4322,7 +4336,7 @@
       </c>
       <c r="W62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -4341,13 +4355,13 @@
       <c r="F63" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L63" s="1" t="s">
@@ -4381,7 +4395,7 @@
       </c>
       <c r="W63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>72</v>
       </c>
@@ -4400,14 +4414,14 @@
       <c r="F64" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>22</v>
+      <c r="H64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>26</v>
@@ -4440,7 +4454,7 @@
       </c>
       <c r="W64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>73</v>
       </c>
@@ -4459,11 +4473,11 @@
       <c r="F65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>70</v>
+      <c r="I65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>26</v>
@@ -4496,7 +4510,7 @@
       </c>
       <c r="W65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>74</v>
       </c>
@@ -4515,11 +4529,11 @@
       <c r="F66" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>70</v>
+      <c r="I66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>26</v>
@@ -4552,7 +4566,7 @@
       </c>
       <c r="W66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>61</v>
       </c>
@@ -4571,13 +4585,13 @@
       <c r="F67" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L67" s="1" t="s">
@@ -4611,7 +4625,7 @@
       </c>
       <c r="W67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>2</v>
       </c>
@@ -4630,14 +4644,14 @@
       <c r="F68" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>69</v>
+      <c r="H68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>71</v>
@@ -4669,7 +4683,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>16</v>
       </c>
@@ -4688,14 +4702,14 @@
       <c r="F69" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>69</v>
+      <c r="H69" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>26</v>
@@ -4727,7 +4741,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>1</v>
       </c>
@@ -4746,14 +4760,14 @@
       <c r="F70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>69</v>
+      <c r="H70" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>71</v>
@@ -4785,7 +4799,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>15</v>
       </c>
@@ -4804,14 +4818,14 @@
       <c r="F71" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>69</v>
+      <c r="H71" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>26</v>
@@ -4843,7 +4857,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>5</v>
       </c>
@@ -4862,13 +4876,13 @@
       <c r="F72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L72" s="1" t="s">
@@ -4901,7 +4915,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>19</v>
       </c>
@@ -4920,13 +4934,13 @@
       <c r="F73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L73" s="1" t="s">
@@ -4959,7 +4973,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>46</v>
       </c>
@@ -4978,11 +4992,11 @@
       <c r="F74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>70</v>
+      <c r="I74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>26</v>
@@ -5014,7 +5028,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>47</v>
       </c>
@@ -5033,14 +5047,14 @@
       <c r="F75" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>22</v>
+      <c r="H75" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>26</v>
@@ -5092,43 +5106,43 @@
         <v>129</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J76" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M76" s="2" t="str">
+      <c r="M76" s="5" t="str">
         <f aca="false">_xlfn.CONCAT($N76, $O76, "/", $P76, "/", $F76,  $Q76, $R76)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/molecule_info.h5</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O76" s="2" t="s">
+      <c r="N76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O76" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="P76" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T76" s="2" t="str">
+      <c r="Q76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" s="5" t="str">
         <f aca="false">_xlfn.CONCAT($N76, $O76, "/", $P76, "/", $F76,  $Q76, $S76,)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/metrics_summary.csv</v>
       </c>
@@ -5153,16 +5167,16 @@
         <v>131</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J77" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>71</v>
@@ -5214,13 +5228,13 @@
         <v>132</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>71</v>
@@ -5272,16 +5286,16 @@
         <v>133</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>71</v>
@@ -5333,13 +5347,13 @@
         <v>134</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>26</v>
@@ -5391,13 +5405,13 @@
         <v>135</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>26</v>
@@ -5449,16 +5463,16 @@
         <v>136</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J82" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>26</v>
@@ -5510,13 +5524,13 @@
         <v>137</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>26</v>
@@ -5574,10 +5588,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>26</v>
@@ -5629,13 +5643,13 @@
         <v>139</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>26</v>
@@ -5687,13 +5701,13 @@
         <v>141</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>26</v>
@@ -5745,13 +5759,13 @@
         <v>142</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>26</v>
@@ -5809,10 +5823,10 @@
         <v>23</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>26</v>
@@ -5864,16 +5878,16 @@
         <v>143</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J89" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>26</v>
@@ -5925,19 +5939,19 @@
         <v>144</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J90" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K90" s="1" t="n">
+      <c r="J90" s="1" t="n">
         <v>20211105</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>26</v>
@@ -5989,14 +6003,14 @@
         <v>146</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I91" s="0"/>
-      <c r="J91" s="1" t="s">
+      <c r="H91" s="0"/>
+      <c r="I91" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>26</v>
@@ -6048,16 +6062,16 @@
         <v>145</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J92" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>26</v>
@@ -6109,16 +6123,16 @@
         <v>145</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>26</v>
@@ -6172,11 +6186,11 @@
       <c r="G94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>26</v>
@@ -6210,7 +6224,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B95" s="3" t="n">
         <v>29</v>
@@ -6225,26 +6239,23 @@
         <v>148</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J95" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M95" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N95, $O95, "/", $P95, "/", $F95,  $Q95, $R95)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/molecule_info.h5</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>27</v>
@@ -6266,12 +6277,12 @@
       </c>
       <c r="T95" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N95, $O95, "/", $P95, "/", $F95,  $Q95, $S95,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B96" s="3" t="n">
         <v>29</v>
@@ -6286,23 +6297,26 @@
         <v>148</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M96" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N96, $O96, "/", $P96, "/", $F96,  $Q96, $R96)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/molecule_info.h5</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>27</v>
@@ -6324,7 +6338,7 @@
       </c>
       <c r="T96" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N96, $O96, "/", $P96, "/", $F96,  $Q96, $S96,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6347,16 +6361,16 @@
         <v>151</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J97" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>26</v>
@@ -6409,14 +6423,14 @@
         <v>153</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I98" s="0"/>
-      <c r="J98" s="1" t="s">
+      <c r="H98" s="0"/>
+      <c r="I98" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>26</v>
@@ -6468,13 +6482,13 @@
         <v>152</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>26</v>
@@ -6532,13 +6546,13 @@
         <v>23</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K100" s="1" t="n">
+      <c r="J100" s="1" t="n">
         <v>20211103</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>26</v>
@@ -6590,14 +6604,14 @@
         <v>156</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I101" s="0"/>
-      <c r="J101" s="1" t="s">
+      <c r="H101" s="0"/>
+      <c r="I101" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>26</v>
@@ -6649,13 +6663,13 @@
         <v>155</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>26</v>
@@ -6707,19 +6721,19 @@
         <v>157</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J103" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K103" s="1" t="n">
+      <c r="J103" s="1" t="n">
         <v>20211103</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>26</v>
@@ -6771,19 +6785,19 @@
         <v>158</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J104" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K104" s="1" t="n">
+      <c r="J104" s="1" t="n">
         <v>20211103</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>26</v>
@@ -6842,13 +6856,13 @@
         <v>23</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J105" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K105" s="1" t="n">
+      <c r="J105" s="1" t="n">
         <v>20211103</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>26</v>
@@ -6900,16 +6914,16 @@
         <v>160</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K106" s="1" t="n">
+      <c r="J106" s="1" t="n">
         <v>20211108</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>26</v>
@@ -6961,14 +6975,14 @@
         <v>162</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I107" s="0"/>
-      <c r="J107" s="1" t="s">
+      <c r="H107" s="0"/>
+      <c r="I107" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>26</v>
@@ -7020,13 +7034,13 @@
         <v>161</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>26</v>
@@ -7078,19 +7092,19 @@
         <v>163</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J109" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K109" s="1" t="n">
+      <c r="J109" s="1" t="n">
         <v>20211103</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>26</v>
@@ -7142,16 +7156,16 @@
         <v>164</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K110" s="1" t="n">
+      <c r="J110" s="1" t="n">
         <v>20211106</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>26</v>
@@ -7209,13 +7223,13 @@
         <v>23</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J111" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K111" s="1" t="n">
+      <c r="J111" s="1" t="n">
         <v>20211108</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>26</v>
@@ -7267,13 +7281,13 @@
         <v>166</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>26</v>
@@ -7325,16 +7339,16 @@
         <v>167</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K113" s="1" t="n">
+      <c r="J113" s="1" t="n">
         <v>20211103</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>26</v>
@@ -7392,13 +7406,13 @@
         <v>23</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J114" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K114" s="1" t="n">
+      <c r="J114" s="1" t="n">
         <v>20211103</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>26</v>
@@ -7450,16 +7464,16 @@
         <v>169</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J115" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>26</v>
@@ -7511,16 +7525,16 @@
         <v>169</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J116" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>26</v>
@@ -7574,11 +7588,11 @@
       <c r="G117" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J117" s="1" t="s">
+      <c r="I117" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>26</v>
@@ -7630,13 +7644,13 @@
         <v>171</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="I118" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>26</v>
@@ -7694,10 +7708,10 @@
         <v>23</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J119" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>26</v>
@@ -7749,16 +7763,16 @@
         <v>173</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J120" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>26</v>
@@ -7810,19 +7824,19 @@
         <v>173</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I121" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K121" s="1" t="n">
+      <c r="J121" s="1" t="n">
         <v>20211117</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>26</v>
@@ -7874,16 +7888,16 @@
         <v>174</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K122" s="1" t="n">
+      <c r="J122" s="1" t="n">
         <v>20211117</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>26</v>
@@ -7935,16 +7949,16 @@
         <v>176</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J123" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>26</v>
@@ -7996,19 +8010,19 @@
         <v>176</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K124" s="1" t="n">
+      <c r="J124" s="1" t="n">
         <v>20211117</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>26</v>
@@ -8060,16 +8074,16 @@
         <v>177</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K125" s="1" t="n">
+      <c r="J125" s="1" t="n">
         <v>20211117</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>26</v>
@@ -8102,7 +8116,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T125"/>
+  <autoFilter ref="A1:T125">
+    <filterColumn colId="8">
+      <customFilters and="true">
+        <customFilter operator="equal" val="STARR"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8127,313 +8147,313 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="5" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>181</v>
       </c>
     </row>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,9 +12,10 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$125</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$E$1:$G$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$E$1:$M$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$125</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">aggregation!$E$1:$M$102</definedName>
   </definedNames>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="183">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -219,205 +220,208 @@
     <t xml:space="preserve">Amei-R1_Multiplex</t>
   </si>
   <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amei-R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amei-R2_Multiplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttons_Marmoset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmoset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NextSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seagate_SequencingFiles_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20190717_NextSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG_Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20190912_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con-R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con-R1_Multiplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con-R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con-R2_Multiplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aging_Mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_HFDOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Old_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_HFDYoung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Young_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Young_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO_HFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-HFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCAT_Mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20190613_NextSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG_KO_HFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20190816_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO_ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG_KO_ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_NDOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Old_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Old_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_NDYoung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Young_combine_force_5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Young_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norton_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norton_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmoset_Olaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16_HFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16-HFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG_P16_HFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16_ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG_P16_ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Marmoset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG_Rapa_Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Mar_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R2_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons_Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seagate_SequencingFiles_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190717_NextSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190912_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL_Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R1_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R2_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aging_Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Old_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO-HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCAT_Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190613_NextSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_KO_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190816_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_KO_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force_5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset_Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16-HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_P16_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_P16_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_Rapa_Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_15</t>
   </si>
   <si>
     <t xml:space="preserve">STARR</t>
@@ -702,17 +706,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="75" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
-      <selection pane="bottomRight" activeCell="H76" activeCellId="0" sqref="H76"/>
+      <selection pane="topRight" activeCell="H41" activeCellId="0" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -803,7 +805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>63</v>
       </c>
@@ -864,7 +866,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>81</v>
       </c>
@@ -925,7 +927,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>102</v>
       </c>
@@ -989,7 +991,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>114</v>
       </c>
@@ -1050,7 +1052,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>71</v>
       </c>
@@ -1111,7 +1113,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>100</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>115</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>111</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>82</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>108</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>116</v>
       </c>
@@ -1486,7 +1488,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>83</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>84</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>107</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>117</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>85</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>103</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>118</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>86</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>104</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>119</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>87</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>106</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>120</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>109</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>110</v>
       </c>
@@ -2416,7 +2418,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>67</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>121</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>68</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>122</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>10</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>23</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>26</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
@@ -2946,7 +2948,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>69</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>123</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>70</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>124</v>
       </c>
@@ -3140,7 +3142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>60</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>14</v>
       </c>
@@ -3256,7 +3258,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>51</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>59</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>13</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>50</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>57</v>
       </c>
@@ -3540,7 +3542,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>58</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>4</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>18</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>3</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>17</v>
       </c>
@@ -3827,7 +3829,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>12</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>49</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -4053,7 +4055,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>11</v>
       </c>
@@ -4166,7 +4168,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>48</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>52</v>
       </c>
@@ -4280,7 +4282,7 @@
       </c>
       <c r="W61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>53</v>
       </c>
@@ -4336,7 +4338,7 @@
       </c>
       <c r="W62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -4395,7 +4397,7 @@
       </c>
       <c r="W63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>72</v>
       </c>
@@ -4454,7 +4456,7 @@
       </c>
       <c r="W64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>73</v>
       </c>
@@ -4510,7 +4512,7 @@
       </c>
       <c r="W65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>74</v>
       </c>
@@ -4566,7 +4568,7 @@
       </c>
       <c r="W66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>61</v>
       </c>
@@ -4625,7 +4627,7 @@
       </c>
       <c r="W67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>2</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>16</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +4801,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>15</v>
       </c>
@@ -4857,7 +4859,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>5</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>19</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>46</v>
       </c>
@@ -5028,7 +5030,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>47</v>
       </c>
@@ -5109,10 +5111,10 @@
         <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>70</v>
@@ -5164,16 +5166,16 @@
         <v>128</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>70</v>
@@ -5225,13 +5227,13 @@
         <v>128</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>70</v>
@@ -5283,7 +5285,7 @@
         <v>128</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>34</v>
@@ -5292,7 +5294,7 @@
         <v>23</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>25</v>
@@ -5344,13 +5346,13 @@
         <v>128</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>70</v>
@@ -5402,13 +5404,13 @@
         <v>128</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>70</v>
@@ -5460,16 +5462,16 @@
         <v>128</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>70</v>
@@ -5521,13 +5523,13 @@
         <v>128</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>25</v>
@@ -5579,7 +5581,7 @@
         <v>128</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>22</v>
@@ -5588,7 +5590,7 @@
         <v>23</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>25</v>
@@ -5640,13 +5642,13 @@
         <v>128</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>25</v>
@@ -5695,16 +5697,16 @@
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>70</v>
@@ -5753,16 +5755,16 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>70</v>
@@ -5811,10 +5813,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>22</v>
@@ -5823,7 +5825,7 @@
         <v>23</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>25</v>
@@ -5872,19 +5874,19 @@
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>25</v>
@@ -5933,19 +5935,19 @@
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J90" s="1" t="n">
         <v>20211105</v>
@@ -5997,17 +5999,17 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H91" s="0"/>
       <c r="I91" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>70</v>
@@ -6056,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>34</v>
@@ -6068,7 +6070,7 @@
         <v>23</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>25</v>
@@ -6117,10 +6119,10 @@
         <v>39</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>34</v>
@@ -6129,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>25</v>
@@ -6178,16 +6180,16 @@
         <v>39</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>25</v>
@@ -6236,16 +6238,16 @@
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>70</v>
@@ -6294,10 +6296,10 @@
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>22</v>
@@ -6306,7 +6308,7 @@
         <v>23</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>25</v>
@@ -6355,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>34</v>
@@ -6367,7 +6369,7 @@
         <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>70</v>
@@ -6417,17 +6419,17 @@
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H98" s="0"/>
       <c r="I98" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>70</v>
@@ -6476,16 +6478,16 @@
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>25</v>
@@ -6534,10 +6536,10 @@
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>22</v>
@@ -6546,7 +6548,7 @@
         <v>23</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J100" s="1" t="n">
         <v>20211103</v>
@@ -6598,17 +6600,17 @@
         <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H101" s="0"/>
       <c r="I101" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>70</v>
@@ -6657,16 +6659,16 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>25</v>
@@ -6715,19 +6717,19 @@
         <v>2</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J103" s="1" t="n">
         <v>20211103</v>
@@ -6779,19 +6781,19 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J104" s="1" t="n">
         <v>20211103</v>
@@ -6844,10 +6846,10 @@
         <v>2</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>22</v>
@@ -6856,7 +6858,7 @@
         <v>23</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J105" s="1" t="n">
         <v>20211103</v>
@@ -6908,16 +6910,16 @@
         <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J106" s="1" t="n">
         <v>20211108</v>
@@ -6969,17 +6971,17 @@
         <v>2</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H107" s="0"/>
       <c r="I107" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>70</v>
@@ -7028,16 +7030,16 @@
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>25</v>
@@ -7086,19 +7088,19 @@
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J109" s="1" t="n">
         <v>20211103</v>
@@ -7150,16 +7152,16 @@
         <v>2</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J110" s="1" t="n">
         <v>20211106</v>
@@ -7211,10 +7213,10 @@
         <v>2</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>22</v>
@@ -7223,7 +7225,7 @@
         <v>23</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J111" s="1" t="n">
         <v>20211108</v>
@@ -7275,16 +7277,16 @@
         <v>20</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>25</v>
@@ -7333,16 +7335,16 @@
         <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J113" s="1" t="n">
         <v>20211103</v>
@@ -7394,10 +7396,10 @@
         <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>22</v>
@@ -7406,7 +7408,7 @@
         <v>23</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J114" s="1" t="n">
         <v>20211103</v>
@@ -7458,10 +7460,10 @@
         <v>20</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>34</v>
@@ -7470,7 +7472,7 @@
         <v>23</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>25</v>
@@ -7519,10 +7521,10 @@
         <v>39</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>34</v>
@@ -7531,7 +7533,7 @@
         <v>23</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>25</v>
@@ -7580,16 +7582,16 @@
         <v>39</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>25</v>
@@ -7638,16 +7640,16 @@
         <v>39</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>25</v>
@@ -7696,10 +7698,10 @@
         <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>22</v>
@@ -7708,7 +7710,7 @@
         <v>23</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>25</v>
@@ -7757,10 +7759,10 @@
         <v>39</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>34</v>
@@ -7769,7 +7771,7 @@
         <v>23</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>25</v>
@@ -7818,10 +7820,10 @@
         <v>20</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>34</v>
@@ -7830,7 +7832,7 @@
         <v>23</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J121" s="1" t="n">
         <v>20211117</v>
@@ -7882,16 +7884,16 @@
         <v>20</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J122" s="1" t="n">
         <v>20211117</v>
@@ -7943,10 +7945,10 @@
         <v>20</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>34</v>
@@ -7955,7 +7957,7 @@
         <v>23</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>25</v>
@@ -8004,10 +8006,10 @@
         <v>20</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>34</v>
@@ -8016,7 +8018,7 @@
         <v>23</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J124" s="1" t="n">
         <v>20211117</v>
@@ -8068,16 +8070,16 @@
         <v>20</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="I125" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J125" s="1" t="n">
         <v>20211117</v>
@@ -8116,13 +8118,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T125">
-    <filterColumn colId="8">
-      <customFilters and="true">
-        <customFilter operator="equal" val="STARR"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="H41:H44"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8142,7 +8138,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="H41 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8164,13 +8160,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -8178,7 +8174,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -8190,271 +8186,271 @@
         <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,6 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$128</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$E$1:$G$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$E$1:$M$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="185">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -43,7 +44,7 @@
     <t xml:space="preserve">Lane</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample_ID</t>
+    <t xml:space="preserve">sample_id</t>
   </si>
   <si>
     <t xml:space="preserve">sample_id_ori</t>
@@ -524,9 +525,6 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_051_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_049_combine</t>
@@ -709,6 +707,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -721,7 +723,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7439,7 +7441,7 @@
         <v>164</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>46</v>
@@ -7497,10 +7499,10 @@
         <v>137</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>46</v>
@@ -7558,7 +7560,7 @@
         <v>138</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>77</v>
@@ -7619,7 +7621,7 @@
         <v>130</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>77</v>
@@ -7680,7 +7682,7 @@
         <v>140</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>77</v>
@@ -7741,7 +7743,7 @@
         <v>141</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>44</v>
@@ -7802,7 +7804,7 @@
         <v>143</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>77</v>
@@ -7863,7 +7865,7 @@
         <v>144</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>77</v>
@@ -7924,7 +7926,7 @@
         <v>145</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>77</v>
@@ -7982,13 +7984,13 @@
         <v>122</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>123</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>124</v>
@@ -8021,13 +8023,13 @@
         <v>122</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>126</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>124</v>
@@ -8060,13 +8062,13 @@
         <v>122</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>127</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>124</v>
@@ -8099,13 +8101,13 @@
         <v>122</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>128</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>124</v>
@@ -8141,13 +8143,10 @@
         <v>163</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>116</v>
@@ -8205,7 +8204,7 @@
         <v>145</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>44</v>
@@ -8266,13 +8265,10 @@
         <v>162</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>116</v>
@@ -8314,6 +8310,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T128"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8321,6 +8318,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8354,13 +8352,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -8368,7 +8366,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>28</v>
@@ -8380,271 +8378,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,13 +12,14 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$128</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$129</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$E$1:$G$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$E$1:$M$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$A$1:$T$125</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">aggregation!$E$1:$M$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$128</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$125</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">aggregation!$E$1:$M$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="186">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -573,6 +574,9 @@
   </si>
   <si>
     <t xml:space="preserve">76658_V5_force10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_combine_force10000</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -716,14 +720,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W128"/>
+  <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="H130" activeCellId="0" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -733,7 +737,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
@@ -8309,8 +8313,72 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J129" s="1" t="n">
+        <v>20211208</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M129" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N129, $O129, "/", $P129, "/", $F129,  $Q129, $R129)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine_force10000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N129, $O129, "/", $P129, "/", $F129,  $Q129, $S129,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine_force10000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T128"/>
+  <autoFilter ref="A1:T129"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8352,13 +8420,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -8366,7 +8434,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>28</v>
@@ -8378,271 +8446,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -717,17 +717,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
-      <selection pane="bottomRight" activeCell="H130" activeCellId="0" sqref="H130"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G81" activeCellId="0" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,7 +818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -876,7 +876,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -934,7 +934,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -992,7 +992,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_015_Next/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015fix/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="W61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="W62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="W63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="W67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>135</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>46</v>
@@ -5376,7 +5376,7 @@
         <v>136</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>46</v>
@@ -5475,7 +5475,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="W104" s="0"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force15000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
@@ -8378,10 +8378,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T129"/>
+  <autoFilter ref="A1:T129">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="STARR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8716,7 +8722,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\ExperimentSummaryFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB354946-B39E-431E-9723-46723C79D874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="aggregation" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="aggregation" sheetId="1" r:id="rId1"/>
+    <sheet name="path" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$129</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$E$1:$G$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$E$1:$M$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$128</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$125</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">aggregation!$E$1:$M$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">aggregation!$A$1:$T$128</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">aggregation!$H$41:$H$44</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">aggregation!$A$1:$T$125</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">aggregation!$A$1:$T$105</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">aggregation!$E$1:$M$102</definedName>
+    <definedName name="_FilterDatabase_1" localSheetId="0">aggregation!$E$1:$G$98</definedName>
+    <definedName name="_FilterDatabase_1_1" localSheetId="0">aggregation!$E$1:$M$100</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -33,573 +47,569 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="186">
   <si>
-    <t xml:space="preserve">Counts_List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQ_List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencing_Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_id_ori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencing_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule_h5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CountsFolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final_Folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileNameAggr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileNameMetrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCAT_Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/media/jianie/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seagate_SequencingFiles_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190613_NextSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/outs/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule_info.h5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metrics_summary.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16-HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO-HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190717_NextSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_15_forced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_15_premrna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015_Next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons_Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aging_Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_P16_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NovaSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190816_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_P16_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_KO_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_KO_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_Rapa_Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_STARR_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190912_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forced_STARR_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_STARR_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG_Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_STARR_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_STARR_015fix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL_Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015_Nova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_016_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR026h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force_5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Old_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset_Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76615_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGLT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seagate_SequencingFiles_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masternak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L1_count_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L2_counts_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_041_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_041_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210830_L3_counts_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_028_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032_force3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_039_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_016_force7000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032_force2500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force2600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_039_force1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_051_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_049_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V11_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R1_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R2_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R1_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R2_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_force10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5_combine_force15000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5_force10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_combine_force10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/media/jianie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outs/molecule_info.h5</t>
+    <t>Counts_List</t>
+  </si>
+  <si>
+    <t>SQ_List</t>
+  </si>
+  <si>
+    <t>Sequencing_Date</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample_id_ori</t>
+  </si>
+  <si>
+    <t>Agg</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>AnalysisDate</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Sequencing_Type</t>
+  </si>
+  <si>
+    <t>molecule_h5</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>CountsFolder</t>
+  </si>
+  <si>
+    <t>Final_Folder</t>
+  </si>
+  <si>
+    <t>FileNameAggr</t>
+  </si>
+  <si>
+    <t>FileNameMetrics</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>P16_ND</t>
+  </si>
+  <si>
+    <t>P16-ND</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>ALCAT_Mouse</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>NextSeq</t>
+  </si>
+  <si>
+    <t>/media/jianie/</t>
+  </si>
+  <si>
+    <t>Seagate_SequencingFiles_1</t>
+  </si>
+  <si>
+    <t>20190613_NextSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>/outs/</t>
+  </si>
+  <si>
+    <t>molecule_info.h5</t>
+  </si>
+  <si>
+    <t>metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>P16_HFD</t>
+  </si>
+  <si>
+    <t>P16-HFD</t>
+  </si>
+  <si>
+    <t>KO_ND</t>
+  </si>
+  <si>
+    <t>KO-ND</t>
+  </si>
+  <si>
+    <t>KO_HFD</t>
+  </si>
+  <si>
+    <t>KO-HFD</t>
+  </si>
+  <si>
+    <t>Rapa</t>
+  </si>
+  <si>
+    <t>Rapa_Marmoset</t>
+  </si>
+  <si>
+    <t>Marmoset</t>
+  </si>
+  <si>
+    <t>STARR_015</t>
+  </si>
+  <si>
+    <t>STARR_15</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>STARR</t>
+  </si>
+  <si>
+    <t>20190717_NextSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>STARR_15_forced</t>
+  </si>
+  <si>
+    <t>STARR_15_premrna</t>
+  </si>
+  <si>
+    <t>STARR_015_Next</t>
+  </si>
+  <si>
+    <t>Jia</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Buttons_Marmoset</t>
+  </si>
+  <si>
+    <t>ND_Young</t>
+  </si>
+  <si>
+    <t>Aging_Mouse</t>
+  </si>
+  <si>
+    <t>ND_Old</t>
+  </si>
+  <si>
+    <t>HFD_Young</t>
+  </si>
+  <si>
+    <t>HFD_Old</t>
+  </si>
+  <si>
+    <t>NG_P16_ND</t>
+  </si>
+  <si>
+    <t>NovaSeq</t>
+  </si>
+  <si>
+    <t>20190816_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>NG_P16_HFD</t>
+  </si>
+  <si>
+    <t>NG_KO_ND</t>
+  </si>
+  <si>
+    <t>NG_KO_HFD</t>
+  </si>
+  <si>
+    <t>NG_Rapa_Mar</t>
+  </si>
+  <si>
+    <t>NG_STARR_015</t>
+  </si>
+  <si>
+    <t>20190912_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>STARR_016</t>
+  </si>
+  <si>
+    <t>Forced_STARR_016</t>
+  </si>
+  <si>
+    <t>NG_STARR_016</t>
+  </si>
+  <si>
+    <t>NG_Buttons</t>
+  </si>
+  <si>
+    <t>All_STARR_015</t>
+  </si>
+  <si>
+    <t>All_STARR_015fix</t>
+  </si>
+  <si>
+    <t>ALL_Buttons</t>
+  </si>
+  <si>
+    <t>STARR_015_combine</t>
+  </si>
+  <si>
+    <t>STARR_015_combine_force</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>STARR_015_Nova</t>
+  </si>
+  <si>
+    <t>STARR_016_force</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Button_combine</t>
+  </si>
+  <si>
+    <t>Button_combine_force</t>
+  </si>
+  <si>
+    <t>STARR_026h</t>
+  </si>
+  <si>
+    <t>Nova_STARR026h</t>
+  </si>
+  <si>
+    <t>20191121_NovaSeq_Counts</t>
+  </si>
+  <si>
+    <t>STARR_024</t>
+  </si>
+  <si>
+    <t>Nova_STARR024</t>
+  </si>
+  <si>
+    <t>STARR_031</t>
+  </si>
+  <si>
+    <t>Nova_STARR031</t>
+  </si>
+  <si>
+    <t>STARR_028</t>
+  </si>
+  <si>
+    <t>Nova_STARR028</t>
+  </si>
+  <si>
+    <t>STARR_026</t>
+  </si>
+  <si>
+    <t>Nova_STARR026</t>
+  </si>
+  <si>
+    <t>STARR_032</t>
+  </si>
+  <si>
+    <t>Nova_STARR032</t>
+  </si>
+  <si>
+    <t>Rapa_Mar_combine</t>
+  </si>
+  <si>
+    <t>Rapa_Mar</t>
+  </si>
+  <si>
+    <t>Nova_NDYoung</t>
+  </si>
+  <si>
+    <t>Nova_NDOld</t>
+  </si>
+  <si>
+    <t>Nova_HFDYoung</t>
+  </si>
+  <si>
+    <t>Nova_HFDOld</t>
+  </si>
+  <si>
+    <t>ND_Young_combine_force_5000</t>
+  </si>
+  <si>
+    <t>ND_Young_combine_force</t>
+  </si>
+  <si>
+    <t>ND_Old_force</t>
+  </si>
+  <si>
+    <t>ND_Old_combine_force</t>
+  </si>
+  <si>
+    <t>HFD_Young_combine_force</t>
+  </si>
+  <si>
+    <t>HFD_Young_combine</t>
+  </si>
+  <si>
+    <t>HFD_Old_combine</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Evie</t>
+  </si>
+  <si>
+    <t>20210114_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Marmoset_Olaf</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>76615_V5</t>
+  </si>
+  <si>
+    <t>SGLT2</t>
+  </si>
+  <si>
+    <t>Seagate_SequencingFiles_2</t>
+  </si>
+  <si>
+    <t>20210126_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t>STARR_039</t>
+  </si>
+  <si>
+    <t>STARR_041</t>
+  </si>
+  <si>
+    <t>STARR_043</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Amei-R1</t>
+  </si>
+  <si>
+    <t>Masternak</t>
+  </si>
+  <si>
+    <t>20210716_L1_count_dual</t>
+  </si>
+  <si>
+    <t>Amei-R2</t>
+  </si>
+  <si>
+    <t>Con-R1</t>
+  </si>
+  <si>
+    <t>Con-R2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>76632_V5</t>
+  </si>
+  <si>
+    <t>20210716_L2_counts_single</t>
+  </si>
+  <si>
+    <t>Norton_combine</t>
+  </si>
+  <si>
+    <t>Norton_combine_force</t>
+  </si>
+  <si>
+    <t>STARR_024_combine</t>
+  </si>
+  <si>
+    <t>STARR_041_combine</t>
+  </si>
+  <si>
+    <t>STARR_041_combine_force</t>
+  </si>
+  <si>
+    <t>STARR_049</t>
+  </si>
+  <si>
+    <t>76632_V11</t>
+  </si>
+  <si>
+    <t>20210830_L3_counts_dual</t>
+  </si>
+  <si>
+    <t>76638_V5</t>
+  </si>
+  <si>
+    <t>76638_V5_Muscle</t>
+  </si>
+  <si>
+    <t>76638_V5_Muscle_force</t>
+  </si>
+  <si>
+    <t>76643_V5</t>
+  </si>
+  <si>
+    <t>76647_V5</t>
+  </si>
+  <si>
+    <t>76649_V5</t>
+  </si>
+  <si>
+    <t>STARR_051</t>
+  </si>
+  <si>
+    <t>STARR_028_force2000</t>
+  </si>
+  <si>
+    <t>STARR_031_force</t>
+  </si>
+  <si>
+    <t>STARR_032_force3000</t>
+  </si>
+  <si>
+    <t>STARR_039_force2000</t>
+  </si>
+  <si>
+    <t>STARR_016_force7000</t>
+  </si>
+  <si>
+    <t>STARR_031_force3000</t>
+  </si>
+  <si>
+    <t>STARR_032_force2500</t>
+  </si>
+  <si>
+    <t>STARR_031_force2600</t>
+  </si>
+  <si>
+    <t>STARR_032_force2000</t>
+  </si>
+  <si>
+    <t>STARR_031_force2000</t>
+  </si>
+  <si>
+    <t>STARR_039_force1500</t>
+  </si>
+  <si>
+    <t>SequencingFiles_3</t>
+  </si>
+  <si>
+    <t>20211105_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>76656_V5</t>
+  </si>
+  <si>
+    <t>76658_V5</t>
+  </si>
+  <si>
+    <t>76638_V11</t>
+  </si>
+  <si>
+    <t>STARR_051_combine</t>
+  </si>
+  <si>
+    <t>STARR_049_combine</t>
+  </si>
+  <si>
+    <t>76632_V11_combine</t>
+  </si>
+  <si>
+    <t>76632_V5_combine</t>
+  </si>
+  <si>
+    <t>76638_V5_combine</t>
+  </si>
+  <si>
+    <t>76638_V5_Muscle_combine</t>
+  </si>
+  <si>
+    <t>76643_V5_combine</t>
+  </si>
+  <si>
+    <t>76647_V5_combine</t>
+  </si>
+  <si>
+    <t>76649_V5_combine</t>
+  </si>
+  <si>
+    <t>Amei-R1_Multiplex</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>Amei-R2_Multiplex</t>
+  </si>
+  <si>
+    <t>Con-R1_Multiplex</t>
+  </si>
+  <si>
+    <t>Con-R2_Multiplex</t>
+  </si>
+  <si>
+    <t>76638_V11_force10000</t>
+  </si>
+  <si>
+    <t>76649_V5_combine_force15000</t>
+  </si>
+  <si>
+    <t>76658_V5_force10000</t>
+  </si>
+  <si>
+    <t>76638_V5_Muscle_combine_force10000</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>/media/jianie</t>
+  </si>
+  <si>
+    <t>outs/molecule_info.h5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -608,23 +618,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="C059"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -637,7 +631,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -645,118 +639,378 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:W129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AMI129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G81" activeCellId="0" sqref="G81"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="107.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="24.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="31.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="111.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="23" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1019" style="3" width="11.57"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="1"/>
+    <col min="13" max="13" width="107.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="111.88671875" style="2" customWidth="1"/>
+    <col min="23" max="1018" width="11.5546875" style="1"/>
+    <col min="1019" max="1023" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,14 +1072,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:20" hidden="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>20190613</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -850,7 +1104,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N2, $O2, "/", $P2, "/", $F2,  $Q2, $R2)</f>
+        <f t="shared" ref="M2:M33" si="0">_xlfn.CONCAT($N2, $O2, "/", $P2, "/", $F2,  $Q2, $R2)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/molecule_info.h5</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -872,18 +1126,18 @@
         <v>32</v>
       </c>
       <c r="T2" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N2, $O2, "/", $P2, "/", $F2,  $Q2, $S2,)</f>
+        <f t="shared" ref="T2:T33" si="1">_xlfn.CONCAT($N2, $O2, "/", $P2, "/", $F2,  $Q2, $S2,)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:20" hidden="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>20190613</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -908,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N3, $O3, "/", $P3, "/", $F3,  $Q3, $R3)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/molecule_info.h5</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -930,18 +1184,18 @@
         <v>32</v>
       </c>
       <c r="T3" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N3, $O3, "/", $P3, "/", $F3,  $Q3, $S3,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:20" hidden="1">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>20190613</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -966,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N4, $O4, "/", $P4, "/", $F4,  $Q4, $R4)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/molecule_info.h5</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -988,18 +1242,18 @@
         <v>32</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N4, $O4, "/", $P4, "/", $F4,  $Q4, $S4,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:20" hidden="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>20190613</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1024,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N5, $O5, "/", $P5, "/", $F5,  $Q5, $R5)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/molecule_info.h5</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -1046,18 +1300,18 @@
         <v>32</v>
       </c>
       <c r="T5" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N5, $O5, "/", $P5, "/", $F5,  $Q5, $S5,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:20" hidden="1">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>20190613</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1082,7 +1336,7 @@
         <v>26</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N6, $O6, "/", $P6, "/", $F6,  $Q6, $R6)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/molecule_info.h5</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1104,18 +1358,18 @@
         <v>32</v>
       </c>
       <c r="T6" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N6, $O6, "/", $P6, "/", $F6,  $Q6, $S6,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>20190717</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1143,7 +1397,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="5" t="str">
-        <f aca="false">_xlfn.CONCAT($N7, $O7, "/", $P7, "/", $F7,  $Q7, $R7)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/molecule_info.h5</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -1165,18 +1419,18 @@
         <v>32</v>
       </c>
       <c r="T7" s="5" t="str">
-        <f aca="false">_xlfn.CONCAT($N7, $O7, "/", $P7, "/", $F7,  $Q7, $S7,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>20190717</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1204,7 +1458,7 @@
         <v>26</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N8, $O8, "/", $P8, "/", $F8,  $Q8, $R8)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_forced/outs/molecule_info.h5</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1226,18 +1480,18 @@
         <v>32</v>
       </c>
       <c r="T8" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N8, $O8, "/", $P8, "/", $F8,  $Q8, $S8,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_forced/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>20190717</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1262,7 +1516,7 @@
         <v>26</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N9, $O9, "/", $P9, "/", $F9,  $Q9, $R9)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_premrna/outs/molecule_info.h5</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1284,18 +1538,18 @@
         <v>32</v>
       </c>
       <c r="T9" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N9, $O9, "/", $P9, "/", $F9,  $Q9, $S9,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_premrna/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>20190717</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1323,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N10, $O10, "/", $P10, "/", $F10,  $Q10, $R10)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_015_Next/outs/molecule_info.h5</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1345,18 +1599,18 @@
         <v>32</v>
       </c>
       <c r="T10" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N10, $O10, "/", $P10, "/", $F10,  $Q10, $S10,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_015_Next/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:20" hidden="1">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>20190717</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1381,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N11, $O11, "/", $P11, "/", $F11,  $Q11, $R11)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/molecule_info.h5</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1403,18 +1657,18 @@
         <v>32</v>
       </c>
       <c r="T11" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N11, $O11, "/", $P11, "/", $F11,  $Q11, $S11,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:20" hidden="1">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>20190717</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1439,7 +1693,7 @@
         <v>26</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N12, $O12, "/", $P12, "/", $F12,  $Q12, $R12)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/molecule_info.h5</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1461,18 +1715,18 @@
         <v>32</v>
       </c>
       <c r="T12" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N12, $O12, "/", $P12, "/", $F12,  $Q12, $S12,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:20" hidden="1">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>20190717</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1497,7 +1751,7 @@
         <v>26</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N13, $O13, "/", $P13, "/", $F13,  $Q13, $R13)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/molecule_info.h5</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1519,18 +1773,18 @@
         <v>32</v>
       </c>
       <c r="T13" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N13, $O13, "/", $P13, "/", $F13,  $Q13, $S13,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:20" hidden="1">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>20190717</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1555,7 +1809,7 @@
         <v>26</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N14, $O14, "/", $P14, "/", $F14,  $Q14, $R14)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/molecule_info.h5</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -1577,18 +1831,18 @@
         <v>32</v>
       </c>
       <c r="T14" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N14, $O14, "/", $P14, "/", $F14,  $Q14, $S14,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:20" hidden="1">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>20190717</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1613,7 +1867,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N15, $O15, "/", $P15, "/", $F15,  $Q15, $R15)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/molecule_info.h5</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -1635,21 +1889,21 @@
         <v>32</v>
       </c>
       <c r="T15" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N15, $O15, "/", $P15, "/", $F15,  $Q15, $S15,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:20" hidden="1">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>20190816</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1671,7 +1925,7 @@
         <v>60</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N16, $O16, "/", $P16, "/", $F16,  $Q16, $R16)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/molecule_info.h5</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -1693,21 +1947,21 @@
         <v>32</v>
       </c>
       <c r="T16" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N16, $O16, "/", $P16, "/", $F16,  $Q16, $S16,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:20" hidden="1">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>20190816</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1729,7 +1983,7 @@
         <v>60</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N17, $O17, "/", $P17, "/", $F17,  $Q17, $R17)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/molecule_info.h5</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -1751,21 +2005,21 @@
         <v>32</v>
       </c>
       <c r="T17" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N17, $O17, "/", $P17, "/", $F17,  $Q17, $S17,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:20" hidden="1">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>20190816</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1787,7 +2041,7 @@
         <v>60</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N18, $O18, "/", $P18, "/", $F18,  $Q18, $R18)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/molecule_info.h5</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -1809,21 +2063,21 @@
         <v>32</v>
       </c>
       <c r="T18" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N18, $O18, "/", $P18, "/", $F18,  $Q18, $S18,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:20" hidden="1">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>20190816</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1845,7 +2099,7 @@
         <v>60</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N19, $O19, "/", $P19, "/", $F19,  $Q19, $R19)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/molecule_info.h5</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -1867,21 +2121,21 @@
         <v>32</v>
       </c>
       <c r="T19" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N19, $O19, "/", $P19, "/", $F19,  $Q19, $S19,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:20" hidden="1">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>20190816</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1903,7 +2157,7 @@
         <v>60</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N20, $O20, "/", $P20, "/", $F20,  $Q20, $R20)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/molecule_info.h5</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -1925,21 +2179,21 @@
         <v>32</v>
       </c>
       <c r="T20" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N20, $O20, "/", $P20, "/", $F20,  $Q20, $S20,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>20190912</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1961,7 +2215,7 @@
         <v>60</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N21, $O21, "/", $P21, "/", $F21,  $Q21, $R21)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_015/outs/molecule_info.h5</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -1983,21 +2237,21 @@
         <v>32</v>
       </c>
       <c r="T21" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N21, $O21, "/", $P21, "/", $F21,  $Q21, $S21,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>20190912</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2019,7 +2273,7 @@
         <v>60</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N22, $O22, "/", $P22, "/", $F22,  $Q22, $R22)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Forced_STARR_016/outs/molecule_info.h5</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2041,21 +2295,21 @@
         <v>32</v>
       </c>
       <c r="T22" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N22, $O22, "/", $P22, "/", $F22,  $Q22, $S22,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Forced_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="3">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>20190912</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2077,7 +2331,7 @@
         <v>60</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N23, $O23, "/", $P23, "/", $F23,  $Q23, $R23)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_016/outs/molecule_info.h5</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2099,21 +2353,21 @@
         <v>32</v>
       </c>
       <c r="T23" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N23, $O23, "/", $P23, "/", $F23,  $Q23, $S23,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:20" hidden="1">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>20190912</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2132,7 +2386,7 @@
         <v>60</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N24, $O24, "/", $P24, "/", $F24,  $Q24, $R24)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/molecule_info.h5</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2154,21 +2408,21 @@
         <v>32</v>
       </c>
       <c r="T24" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N24, $O24, "/", $P24, "/", $F24,  $Q24, $S24,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="3">
         <v>17</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>20190912</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2190,7 +2444,7 @@
         <v>60</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N25, $O25, "/", $P25, "/", $F25,  $Q25, $R25)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015/outs/molecule_info.h5</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2212,21 +2466,21 @@
         <v>32</v>
       </c>
       <c r="T25" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N25, $O25, "/", $P25, "/", $F25,  $Q25, $S25,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="3">
         <v>17</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>20190912</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2251,7 +2505,7 @@
         <v>60</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N26, $O26, "/", $P26, "/", $F26,  $Q26, $R26)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015fix/outs/molecule_info.h5</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2273,21 +2527,21 @@
         <v>32</v>
       </c>
       <c r="T26" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N26, $O26, "/", $P26, "/", $F26,  $Q26, $S26,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015fix/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:20" hidden="1">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>19</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>20190912</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2306,7 +2560,7 @@
         <v>60</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N27, $O27, "/", $P27, "/", $F27,  $Q27, $R27)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/molecule_info.h5</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2328,21 +2582,21 @@
         <v>32</v>
       </c>
       <c r="T27" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N27, $O27, "/", $P27, "/", $F27,  $Q27, $S27,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="n">
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
         <v>17</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>20190912</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2364,7 +2618,7 @@
         <v>60</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N28, $O28, "/", $P28, "/", $F28,  $Q28, $R28)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2386,21 +2640,21 @@
         <v>32</v>
       </c>
       <c r="T28" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N28, $O28, "/", $P28, "/", $F28,  $Q28, $S28,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="3">
         <v>17</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>20190912</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2425,7 +2679,7 @@
         <v>60</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N29, $O29, "/", $P29, "/", $F29,  $Q29, $R29)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force/outs/molecule_info.h5</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -2447,21 +2701,21 @@
         <v>32</v>
       </c>
       <c r="T29" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N29, $O29, "/", $P29, "/", $F29,  $Q29, $S29,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="3">
         <v>17</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>20190912</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2483,7 +2737,7 @@
         <v>60</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N30, $O30, "/", $P30, "/", $F30,  $Q30, $R30)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_Nova/outs/molecule_info.h5</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -2505,21 +2759,21 @@
         <v>32</v>
       </c>
       <c r="T30" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N30, $O30, "/", $P30, "/", $F30,  $Q30, $S30,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_Nova/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="n">
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>20190912</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2544,7 +2798,7 @@
         <v>60</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N31, $O31, "/", $P31, "/", $F31,  $Q31, $R31)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016/outs/molecule_info.h5</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -2566,21 +2820,21 @@
         <v>32</v>
       </c>
       <c r="T31" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N31, $O31, "/", $P31, "/", $F31,  $Q31, $S31,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="n">
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
         <v>18</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>20190912</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2605,7 +2859,7 @@
         <v>60</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N32, $O32, "/", $P32, "/", $F32,  $Q32, $R32)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/molecule_info.h5</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -2627,21 +2881,21 @@
         <v>32</v>
       </c>
       <c r="T32" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N32, $O32, "/", $P32, "/", $F32,  $Q32, $S32,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="n">
+    <row r="33" spans="1:20" hidden="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
         <v>19</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>20190912</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -2663,7 +2917,7 @@
         <v>60</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N33, $O33, "/", $P33, "/", $F33,  $Q33, $R33)</f>
+        <f t="shared" si="0"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/molecule_info.h5</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -2685,21 +2939,21 @@
         <v>32</v>
       </c>
       <c r="T33" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N33, $O33, "/", $P33, "/", $F33,  $Q33, $S33,)</f>
+        <f t="shared" si="1"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:20" hidden="1">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="3">
         <v>19</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>20190912</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2718,7 +2972,7 @@
         <v>60</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N34, $O34, "/", $P34, "/", $F34,  $Q34, $R34)</f>
+        <f t="shared" ref="M34:M65" si="2">_xlfn.CONCAT($N34, $O34, "/", $P34, "/", $F34,  $Q34, $R34)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -2740,21 +2994,21 @@
         <v>32</v>
       </c>
       <c r="T34" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N34, $O34, "/", $P34, "/", $F34,  $Q34, $S34,)</f>
+        <f t="shared" ref="T34:T65" si="3">_xlfn.CONCAT($N34, $O34, "/", $P34, "/", $F34,  $Q34, $S34,)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:20" hidden="1">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="3">
         <v>19</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>20190912</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2773,7 +3027,7 @@
         <v>60</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N35, $O35, "/", $P35, "/", $F35,  $Q35, $R35)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/molecule_info.h5</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -2795,21 +3049,21 @@
         <v>32</v>
       </c>
       <c r="T35" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N35, $O35, "/", $P35, "/", $F35,  $Q35, $S35,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="3">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>20191121</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2834,7 +3088,7 @@
         <v>60</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N36, $O36, "/", $P36, "/", $F36,  $Q36, $R36)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026h/outs/molecule_info.h5</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -2856,21 +3110,21 @@
         <v>32</v>
       </c>
       <c r="T36" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N36, $O36, "/", $P36, "/", $F36,  $Q36, $S36,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026h/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="3">
         <v>26</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>20191121</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="3">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2882,7 +3136,7 @@
       <c r="G37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="0"/>
+      <c r="H37"/>
       <c r="I37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2893,7 +3147,7 @@
         <v>60</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N37, $O37, "/", $P37, "/", $F37,  $Q37, $R37)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR024/outs/molecule_info.h5</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -2915,21 +3169,21 @@
         <v>32</v>
       </c>
       <c r="T37" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N37, $O37, "/", $P37, "/", $F37,  $Q37, $S37,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="C38" s="1" t="n">
+      <c r="B38" s="3">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
         <v>20191121</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="3">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2941,7 +3195,7 @@
       <c r="G38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="0"/>
+      <c r="H38"/>
       <c r="I38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2952,7 +3206,7 @@
         <v>60</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N38, $O38, "/", $P38, "/", $F38,  $Q38, $R38)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR031/outs/molecule_info.h5</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -2974,21 +3228,21 @@
         <v>32</v>
       </c>
       <c r="T38" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N38, $O38, "/", $P38, "/", $F38,  $Q38, $S38,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="3">
         <v>28</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>20191121</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="3">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3000,7 +3254,7 @@
       <c r="G39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="0"/>
+      <c r="H39"/>
       <c r="I39" s="1" t="s">
         <v>46</v>
       </c>
@@ -3011,7 +3265,7 @@
         <v>60</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N39, $O39, "/", $P39, "/", $F39,  $Q39, $R39)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR028/outs/molecule_info.h5</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3033,21 +3287,21 @@
         <v>32</v>
       </c>
       <c r="T39" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N39, $O39, "/", $P39, "/", $F39,  $Q39, $S39,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="3">
         <v>29</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>20191121</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="3">
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3069,7 +3323,7 @@
         <v>60</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N40, $O40, "/", $P40, "/", $F40,  $Q40, $R40)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/molecule_info.h5</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3091,21 +3345,21 @@
         <v>32</v>
       </c>
       <c r="T40" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N40, $O40, "/", $P40, "/", $F40,  $Q40, $S40,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C41" s="1" t="n">
+      <c r="B41" s="3">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
         <v>20191121</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3117,7 +3371,7 @@
       <c r="G41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="0"/>
+      <c r="H41"/>
       <c r="I41" s="1" t="s">
         <v>46</v>
       </c>
@@ -3128,7 +3382,7 @@
         <v>60</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N41, $O41, "/", $P41, "/", $F41,  $Q41, $R41)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR032/outs/molecule_info.h5</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3150,21 +3404,21 @@
         <v>32</v>
       </c>
       <c r="T41" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N41, $O41, "/", $P41, "/", $F41,  $Q41, $S41,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="3">
         <v>29</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>20191121</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="3">
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3189,7 +3443,7 @@
         <v>60</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N42, $O42, "/", $P42, "/", $F42,  $Q42, $R42)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/molecule_info.h5</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3211,21 +3465,21 @@
         <v>32</v>
       </c>
       <c r="T42" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N42, $O42, "/", $P42, "/", $F42,  $Q42, $S42,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:20">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="3">
         <v>26</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>20191121</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="3">
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3250,7 +3504,7 @@
         <v>60</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N43, $O43, "/", $P43, "/", $F43,  $Q43, $R43)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024/outs/molecule_info.h5</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3272,21 +3526,21 @@
         <v>32</v>
       </c>
       <c r="T43" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N43, $O43, "/", $P43, "/", $F43,  $Q43, $S43,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:20">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1" t="n">
+      <c r="B44" s="3">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1">
         <v>20191121</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="3">
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3308,7 +3562,7 @@
         <v>60</v>
       </c>
       <c r="M44" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N44, $O44, "/", $P44, "/", $F44,  $Q44, $R44)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031/outs/molecule_info.h5</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3330,21 +3584,21 @@
         <v>32</v>
       </c>
       <c r="T44" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N44, $O44, "/", $P44, "/", $F44,  $Q44, $S44,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:20">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="3">
         <v>28</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>20191121</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3366,7 +3620,7 @@
         <v>60</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N45, $O45, "/", $P45, "/", $F45,  $Q45, $R45)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/molecule_info.h5</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -3388,21 +3642,21 @@
         <v>32</v>
       </c>
       <c r="T45" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N45, $O45, "/", $P45, "/", $F45,  $Q45, $S45,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:20">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C46" s="1" t="n">
+      <c r="B46" s="3">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
         <v>20191121</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="3">
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3424,7 +3678,7 @@
         <v>60</v>
       </c>
       <c r="M46" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N46, $O46, "/", $P46, "/", $F46,  $Q46, $R46)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032/outs/molecule_info.h5</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -3446,21 +3700,21 @@
         <v>32</v>
       </c>
       <c r="T46" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N46, $O46, "/", $P46, "/", $F46,  $Q46, $S46,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:20" hidden="1">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="3">
         <v>24</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>20191121</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3479,7 +3733,7 @@
         <v>60</v>
       </c>
       <c r="M47" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N47, $O47, "/", $P47, "/", $F47,  $Q47, $R47)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -3501,21 +3755,21 @@
         <v>32</v>
       </c>
       <c r="T47" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N47, $O47, "/", $P47, "/", $F47,  $Q47, $S47,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:20" hidden="1">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="3">
         <v>24</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>20191121</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3537,7 +3791,7 @@
         <v>60</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N48, $O48, "/", $P48, "/", $F48,  $Q48, $R48)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar/outs/molecule_info.h5</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -3559,21 +3813,21 @@
         <v>32</v>
       </c>
       <c r="T48" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N48, $O48, "/", $P48, "/", $F48,  $Q48, $S48,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:23" hidden="1">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3">
         <v>23</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>20191121</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3595,7 +3849,7 @@
         <v>60</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N49, $O49, "/", $P49, "/", $F49,  $Q49, $R49)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/molecule_info.h5</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3617,21 +3871,21 @@
         <v>32</v>
       </c>
       <c r="T49" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N49, $O49, "/", $P49, "/", $F49,  $Q49, $S49,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:23" hidden="1">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3">
         <v>21</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>20191121</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3653,7 +3907,7 @@
         <v>60</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N50, $O50, "/", $P50, "/", $F50,  $Q50, $R50)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/molecule_info.h5</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -3675,21 +3929,21 @@
         <v>32</v>
       </c>
       <c r="T50" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N50, $O50, "/", $P50, "/", $F50,  $Q50, $S50,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:23" hidden="1">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="1">
         <v>20191121</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3711,7 +3965,7 @@
         <v>60</v>
       </c>
       <c r="M51" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N51, $O51, "/", $P51, "/", $F51,  $Q51, $R51)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/molecule_info.h5</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -3733,21 +3987,21 @@
         <v>32</v>
       </c>
       <c r="T51" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N51, $O51, "/", $P51, "/", $F51,  $Q51, $S51,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:23" hidden="1">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3">
         <v>22</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="1">
         <v>20191121</v>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3769,7 +4023,7 @@
         <v>60</v>
       </c>
       <c r="M52" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N52, $O52, "/", $P52, "/", $F52,  $Q52, $R52)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/molecule_info.h5</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -3791,21 +4045,21 @@
         <v>32</v>
       </c>
       <c r="T52" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N52, $O52, "/", $P52, "/", $F52,  $Q52, $S52,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:23" hidden="1">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="3">
         <v>23</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>20191121</v>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3824,7 +4078,7 @@
         <v>60</v>
       </c>
       <c r="M53" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N53, $O53, "/", $P53, "/", $F53,  $Q53, $R53)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/molecule_info.h5</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -3846,21 +4100,21 @@
         <v>32</v>
       </c>
       <c r="T53" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N53, $O53, "/", $P53, "/", $F53,  $Q53, $S53,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:23" hidden="1">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="3">
         <v>23</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="1">
         <v>20191121</v>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3879,7 +4133,7 @@
         <v>60</v>
       </c>
       <c r="M54" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N54, $O54, "/", $P54, "/", $F54,  $Q54, $R54)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/molecule_info.h5</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -3901,21 +4155,21 @@
         <v>32</v>
       </c>
       <c r="T54" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N54, $O54, "/", $P54, "/", $F54,  $Q54, $S54,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:23" hidden="1">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="3">
         <v>21</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="1">
         <v>20191121</v>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="D55" s="3">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3934,7 +4188,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N55, $O55, "/", $P55, "/", $F55,  $Q55, $R55)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/molecule_info.h5</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -3956,21 +4210,21 @@
         <v>32</v>
       </c>
       <c r="T55" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N55, $O55, "/", $P55, "/", $F55,  $Q55, $S55,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:23" hidden="1">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="3">
         <v>21</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="1">
         <v>20191121</v>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -3989,7 +4243,7 @@
         <v>60</v>
       </c>
       <c r="M56" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N56, $O56, "/", $P56, "/", $F56,  $Q56, $R56)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/molecule_info.h5</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4011,21 +4265,21 @@
         <v>32</v>
       </c>
       <c r="T56" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N56, $O56, "/", $P56, "/", $F56,  $Q56, $S56,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:23" hidden="1">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="3">
         <v>21</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="1">
         <v>20191121</v>
       </c>
-      <c r="D57" s="3" t="n">
+      <c r="D57" s="3">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4044,7 +4298,7 @@
         <v>60</v>
       </c>
       <c r="M57" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N57, $O57, "/", $P57, "/", $F57,  $Q57, $R57)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/molecule_info.h5</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4066,21 +4320,21 @@
         <v>32</v>
       </c>
       <c r="T57" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N57, $O57, "/", $P57, "/", $F57,  $Q57, $S57,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:23" hidden="1">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="3">
         <v>20</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="1">
         <v>20191121</v>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4099,7 +4353,7 @@
         <v>60</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N58, $O58, "/", $P58, "/", $F58,  $Q58, $R58)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/molecule_info.h5</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4121,21 +4375,21 @@
         <v>32</v>
       </c>
       <c r="T58" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N58, $O58, "/", $P58, "/", $F58,  $Q58, $S58,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:23" hidden="1">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="3">
         <v>20</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="1">
         <v>20191121</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4154,7 +4408,7 @@
         <v>60</v>
       </c>
       <c r="M59" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N59, $O59, "/", $P59, "/", $F59,  $Q59, $R59)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4176,21 +4430,21 @@
         <v>32</v>
       </c>
       <c r="T59" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N59, $O59, "/", $P59, "/", $F59,  $Q59, $S59,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:23" hidden="1">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="3">
         <v>22</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="1">
         <v>20191121</v>
       </c>
-      <c r="D60" s="3" t="n">
+      <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4209,7 +4463,7 @@
         <v>60</v>
       </c>
       <c r="M60" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N60, $O60, "/", $P60, "/", $F60,  $Q60, $R60)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4231,18 +4485,18 @@
         <v>32</v>
       </c>
       <c r="T60" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N60, $O60, "/", $P60, "/", $F60,  $Q60, $S60,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="n">
+    <row r="61" spans="1:23" hidden="1">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
         <v>33</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C61" s="1">
         <v>20210114</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4267,7 +4521,7 @@
         <v>60</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N61, $O61, "/", $P61, "/", $F61,  $Q61, $R61)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/molecule_info.h5</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4289,19 +4543,19 @@
         <v>32</v>
       </c>
       <c r="T61" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N61, $O61, "/", $P61, "/", $F61,  $Q61, $S61,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
-      <c r="W61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="W61"/>
+    </row>
+    <row r="62" spans="1:23" hidden="1">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C62" s="1" t="n">
+      <c r="B62" s="3">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1">
         <v>20210114</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4326,7 +4580,7 @@
         <v>60</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N62, $O62, "/", $P62, "/", $F62,  $Q62, $R62)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Marmoset_Olaf/outs/molecule_info.h5</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4348,19 +4602,19 @@
         <v>32</v>
       </c>
       <c r="T62" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N62, $O62, "/", $P62, "/", $F62,  $Q62, $S62,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Marmoset_Olaf/outs/metrics_summary.csv</v>
       </c>
-      <c r="W62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="W62"/>
+    </row>
+    <row r="63" spans="1:23" hidden="1">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="C63" s="1" t="n">
+      <c r="B63" s="3">
+        <v>31</v>
+      </c>
+      <c r="C63" s="1">
         <v>20210114</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4385,7 +4639,7 @@
         <v>60</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N63, $O63, "/", $P63, "/", $F63,  $Q63, $R63)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Norton/outs/molecule_info.h5</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4407,19 +4661,19 @@
         <v>32</v>
       </c>
       <c r="T63" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N63, $O63, "/", $P63, "/", $F63,  $Q63, $S63,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Norton/outs/metrics_summary.csv</v>
       </c>
-      <c r="W63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="W63"/>
+    </row>
+    <row r="64" spans="1:23" hidden="1">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="3">
         <v>35</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="1">
         <v>20210126</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4447,7 +4701,7 @@
         <v>60</v>
       </c>
       <c r="M64" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N64, $O64, "/", $P64, "/", $F64,  $Q64, $R64)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4469,19 +4723,19 @@
         <v>32</v>
       </c>
       <c r="T64" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N64, $O64, "/", $P64, "/", $F64,  $Q64, $S64,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
-      <c r="W64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="W64"/>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="3">
         <v>34</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="1">
         <v>20210126</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4506,7 +4760,7 @@
         <v>60</v>
       </c>
       <c r="M65" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N65, $O65, "/", $P65, "/", $F65,  $Q65, $R65)</f>
+        <f t="shared" si="2"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039/outs/molecule_info.h5</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4528,19 +4782,19 @@
         <v>32</v>
       </c>
       <c r="T65" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N65, $O65, "/", $P65, "/", $F65,  $Q65, $S65,)</f>
+        <f t="shared" si="3"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039/outs/metrics_summary.csv</v>
       </c>
-      <c r="W65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="W65"/>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="3">
         <v>36</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="1">
         <v>20210126</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4568,7 +4822,7 @@
         <v>60</v>
       </c>
       <c r="M66" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N66, $O66, "/", $P66, "/", $F66,  $Q66, $R66)</f>
+        <f t="shared" ref="M66:M97" si="4">_xlfn.CONCAT($N66, $O66, "/", $P66, "/", $F66,  $Q66, $R66)</f>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_041/outs/molecule_info.h5</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4590,19 +4844,19 @@
         <v>32</v>
       </c>
       <c r="T66" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N66, $O66, "/", $P66, "/", $F66,  $Q66, $S66,)</f>
+        <f t="shared" ref="T66:T97" si="5">_xlfn.CONCAT($N66, $O66, "/", $P66, "/", $F66,  $Q66, $S66,)</f>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_041/outs/metrics_summary.csv</v>
       </c>
-      <c r="W66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="W66"/>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="3">
         <v>37</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C67" s="1">
         <v>20210126</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4630,7 +4884,7 @@
         <v>60</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N67, $O67, "/", $P67, "/", $F67,  $Q67, $R67)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_043/outs/molecule_info.h5</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -4652,19 +4906,19 @@
         <v>32</v>
       </c>
       <c r="T67" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N67, $O67, "/", $P67, "/", $F67,  $Q67, $S67,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_043/outs/metrics_summary.csv</v>
       </c>
-      <c r="W67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="W67"/>
+    </row>
+    <row r="68" spans="1:23" hidden="1">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="3">
         <v>40</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="1">
         <v>20210716</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4689,7 +4943,7 @@
         <v>60</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N68, $O68, "/", $P68, "/", $F68,  $Q68, $R68)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/molecule_info.h5</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -4711,18 +4965,18 @@
         <v>32</v>
       </c>
       <c r="T68" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N68, $O68, "/", $P68, "/", $F68,  $Q68, $S68,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:23" hidden="1">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="3">
         <v>41</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="1">
         <v>20210716</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4747,7 +5001,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N69, $O69, "/", $P69, "/", $F69,  $Q69, $R69)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/molecule_info.h5</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -4769,18 +5023,18 @@
         <v>32</v>
       </c>
       <c r="T69" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N69, $O69, "/", $P69, "/", $F69,  $Q69, $S69,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:23" hidden="1">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="3">
         <v>38</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="1">
         <v>20210716</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4805,7 +5059,7 @@
         <v>60</v>
       </c>
       <c r="M70" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N70, $O70, "/", $P70, "/", $F70,  $Q70, $R70)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/molecule_info.h5</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -4827,18 +5081,18 @@
         <v>32</v>
       </c>
       <c r="T70" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N70, $O70, "/", $P70, "/", $F70,  $Q70, $S70,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:23" hidden="1">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="3">
         <v>39</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C71" s="1">
         <v>20210716</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4863,7 +5117,7 @@
         <v>60</v>
       </c>
       <c r="M71" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N71, $O71, "/", $P71, "/", $F71,  $Q71, $R71)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/molecule_info.h5</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -4885,18 +5139,18 @@
         <v>32</v>
       </c>
       <c r="T71" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N71, $O71, "/", $P71, "/", $F71,  $Q71, $S71,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:23" hidden="1">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="3">
         <v>49</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C72" s="1">
         <v>20210716</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4924,7 +5178,7 @@
         <v>60</v>
       </c>
       <c r="M72" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N72, $O72, "/", $P72, "/", $F72,  $Q72, $R72)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -4946,18 +5200,18 @@
         <v>32</v>
       </c>
       <c r="T72" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N72, $O72, "/", $P72, "/", $F72,  $Q72, $S72,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:23" hidden="1">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="3">
         <v>46</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C73" s="1">
         <v>20210716</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4982,7 +5236,7 @@
         <v>60</v>
       </c>
       <c r="M73" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N73, $O73, "/", $P73, "/", $F73,  $Q73, $R73)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/molecule_info.h5</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5004,18 +5258,18 @@
         <v>32</v>
       </c>
       <c r="T73" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N73, $O73, "/", $P73, "/", $F73,  $Q73, $S73,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:23" hidden="1">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="3">
         <v>46</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="C74" s="1">
         <v>20210716</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -5037,7 +5291,7 @@
         <v>60</v>
       </c>
       <c r="M74" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N74, $O74, "/", $P74, "/", $F74,  $Q74, $R74)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5059,18 +5313,18 @@
         <v>32</v>
       </c>
       <c r="T74" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N74, $O74, "/", $P74, "/", $F74,  $Q74, $S74,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:23" hidden="1">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="3">
         <v>46</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="C75" s="1">
         <v>20210716</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5092,7 +5346,7 @@
         <v>60</v>
       </c>
       <c r="M75" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N75, $O75, "/", $P75, "/", $F75,  $Q75, $R75)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine_force/outs/molecule_info.h5</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5114,18 +5368,18 @@
         <v>32</v>
       </c>
       <c r="T75" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N75, $O75, "/", $P75, "/", $F75,  $Q75, $S75,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:23">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="3">
         <v>48</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="C76" s="1">
         <v>20210716</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -5153,7 +5407,7 @@
         <v>60</v>
       </c>
       <c r="M76" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N76, $O76, "/", $P76, "/", $F76,  $Q76, $R76)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024/outs/molecule_info.h5</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5175,18 +5429,18 @@
         <v>32</v>
       </c>
       <c r="T76" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N76, $O76, "/", $P76, "/", $F76,  $Q76, $S76,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:23">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="3">
         <v>48</v>
       </c>
-      <c r="C77" s="1" t="n">
+      <c r="C77" s="1">
         <v>20210716</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -5211,7 +5465,7 @@
         <v>60</v>
       </c>
       <c r="M77" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N77, $O77, "/", $P77, "/", $F77,  $Q77, $R77)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5233,18 +5487,18 @@
         <v>32</v>
       </c>
       <c r="T77" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N77, $O77, "/", $P77, "/", $F77,  $Q77, $S77,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:23">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="3">
         <v>47</v>
       </c>
-      <c r="C78" s="1" t="n">
+      <c r="C78" s="1">
         <v>20210716</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -5272,7 +5526,7 @@
         <v>60</v>
       </c>
       <c r="M78" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N78, $O78, "/", $P78, "/", $F78,  $Q78, $R78)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041/outs/molecule_info.h5</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5294,18 +5548,18 @@
         <v>32</v>
       </c>
       <c r="T78" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N78, $O78, "/", $P78, "/", $F78,  $Q78, $S78,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:23">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="1">
         <v>47</v>
       </c>
-      <c r="C79" s="1" t="n">
+      <c r="C79" s="1">
         <v>20210716</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5330,7 +5584,7 @@
         <v>60</v>
       </c>
       <c r="M79" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N79, $O79, "/", $P79, "/", $F79,  $Q79, $R79)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5352,18 +5606,18 @@
         <v>32</v>
       </c>
       <c r="T79" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N79, $O79, "/", $P79, "/", $F79,  $Q79, $S79,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:23">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="1">
         <v>47</v>
       </c>
-      <c r="C80" s="1" t="n">
+      <c r="C80" s="1">
         <v>20210716</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5388,7 +5642,7 @@
         <v>60</v>
       </c>
       <c r="M80" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N80, $O80, "/", $P80, "/", $F80,  $Q80, $R80)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine_force/outs/molecule_info.h5</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -5410,18 +5664,18 @@
         <v>32</v>
       </c>
       <c r="T80" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N80, $O80, "/", $P80, "/", $F80,  $Q80, $S80,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:20">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="1">
         <v>50</v>
       </c>
-      <c r="C81" s="1" t="n">
+      <c r="C81" s="1">
         <v>20210716</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5449,7 +5703,7 @@
         <v>60</v>
       </c>
       <c r="M81" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N81, $O81, "/", $P81, "/", $F81,  $Q81, $R81)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_049/outs/molecule_info.h5</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5471,18 +5725,18 @@
         <v>32</v>
       </c>
       <c r="T81" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N81, $O81, "/", $P81, "/", $F81,  $Q81, $S81,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:20" hidden="1">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="1">
         <v>51</v>
       </c>
-      <c r="C82" s="1" t="n">
+      <c r="C82" s="1">
         <v>20210830</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5510,7 +5764,7 @@
         <v>60</v>
       </c>
       <c r="M82" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N82, $O82, "/", $P82, "/", $F82,  $Q82, $R82)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5532,18 +5786,18 @@
         <v>32</v>
       </c>
       <c r="T82" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N82, $O82, "/", $P82, "/", $F82,  $Q82, $S82,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:20" hidden="1">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="1">
         <v>55</v>
       </c>
-      <c r="C83" s="1" t="n">
+      <c r="C83" s="1">
         <v>20210830</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5571,7 +5825,7 @@
         <v>60</v>
       </c>
       <c r="M83" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N83, $O83, "/", $P83, "/", $F83,  $Q83, $R83)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5593,18 +5847,18 @@
         <v>32</v>
       </c>
       <c r="T83" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N83, $O83, "/", $P83, "/", $F83,  $Q83, $S83,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:20" hidden="1">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="1">
         <v>56</v>
       </c>
-      <c r="C84" s="1" t="n">
+      <c r="C84" s="1">
         <v>20210830</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5632,7 +5886,7 @@
         <v>60</v>
       </c>
       <c r="M84" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N84, $O84, "/", $P84, "/", $F84,  $Q84, $R84)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/molecule_info.h5</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -5654,18 +5908,18 @@
         <v>32</v>
       </c>
       <c r="T84" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N84, $O84, "/", $P84, "/", $F84,  $Q84, $S84,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:20" hidden="1">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="1">
         <v>56</v>
       </c>
-      <c r="C85" s="1" t="n">
+      <c r="C85" s="1">
         <v>20210830</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5690,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="M85" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N85, $O85, "/", $P85, "/", $F85,  $Q85, $R85)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/molecule_info.h5</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -5712,18 +5966,18 @@
         <v>32</v>
       </c>
       <c r="T85" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N85, $O85, "/", $P85, "/", $F85,  $Q85, $S85,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:20" hidden="1">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="1">
         <v>52</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="C86" s="1">
         <v>20210830</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5751,7 +6005,7 @@
         <v>60</v>
       </c>
       <c r="M86" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N86, $O86, "/", $P86, "/", $F86,  $Q86, $R86)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -5773,18 +6027,18 @@
         <v>32</v>
       </c>
       <c r="T86" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N86, $O86, "/", $P86, "/", $F86,  $Q86, $S86,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:20" hidden="1">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="1">
         <v>53</v>
       </c>
-      <c r="C87" s="1" t="n">
+      <c r="C87" s="1">
         <v>20210830</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5812,7 +6066,7 @@
         <v>60</v>
       </c>
       <c r="M87" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N87, $O87, "/", $P87, "/", $F87,  $Q87, $R87)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -5834,18 +6088,18 @@
         <v>32</v>
       </c>
       <c r="T87" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N87, $O87, "/", $P87, "/", $F87,  $Q87, $S87,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:20" hidden="1">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="1">
         <v>57</v>
       </c>
-      <c r="C88" s="1" t="n">
+      <c r="C88" s="1">
         <v>20210830</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5873,7 +6127,7 @@
         <v>60</v>
       </c>
       <c r="M88" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N88, $O88, "/", $P88, "/", $F88,  $Q88, $R88)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -5895,18 +6149,18 @@
         <v>32</v>
       </c>
       <c r="T88" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N88, $O88, "/", $P88, "/", $F88,  $Q88, $S88,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:20">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="1">
         <v>54</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="C89" s="1">
         <v>20210830</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5934,7 +6188,7 @@
         <v>60</v>
       </c>
       <c r="M89" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N89, $O89, "/", $P89, "/", $F89,  $Q89, $R89)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/STARR_051/outs/molecule_info.h5</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -5956,21 +6210,21 @@
         <v>32</v>
       </c>
       <c r="T89" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N89, $O89, "/", $P89, "/", $F89,  $Q89, $S89,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:20">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="1">
         <v>28</v>
       </c>
-      <c r="C90" s="1" t="n">
+      <c r="C90" s="1">
         <v>20191121</v>
       </c>
-      <c r="D90" s="1" t="n">
+      <c r="D90" s="1">
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -5988,7 +6242,7 @@
       <c r="I90" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J90" s="1" t="n">
+      <c r="J90" s="1">
         <v>20211103</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -5998,7 +6252,7 @@
         <v>60</v>
       </c>
       <c r="M90" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N90, $O90, "/", $P90, "/", $F90,  $Q90, $R90)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force2000/outs/molecule_info.h5</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6020,21 +6274,21 @@
         <v>32</v>
       </c>
       <c r="T90" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N90, $O90, "/", $P90, "/", $F90,  $Q90, $S90,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:20">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="C91" s="1" t="n">
+      <c r="B91" s="3">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1">
         <v>20191121</v>
       </c>
-      <c r="D91" s="3" t="n">
+      <c r="D91" s="3">
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -6052,7 +6306,7 @@
       <c r="I91" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J91" s="1" t="n">
+      <c r="J91" s="1">
         <v>20211103</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -6062,7 +6316,7 @@
         <v>60</v>
       </c>
       <c r="M91" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N91, $O91, "/", $P91, "/", $F91,  $Q91, $R91)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force/outs/molecule_info.h5</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6084,21 +6338,21 @@
         <v>32</v>
       </c>
       <c r="T91" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N91, $O91, "/", $P91, "/", $F91,  $Q91, $S91,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:20">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C92" s="1" t="n">
+      <c r="B92" s="3">
+        <v>30</v>
+      </c>
+      <c r="C92" s="1">
         <v>20191121</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c r="D92" s="3">
         <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -6116,7 +6370,7 @@
       <c r="I92" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J92" s="1" t="n">
+      <c r="J92" s="1">
         <v>20211103</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -6126,7 +6380,7 @@
         <v>60</v>
       </c>
       <c r="M92" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N92, $O92, "/", $P92, "/", $F92,  $Q92, $R92)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3000/outs/molecule_info.h5</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6148,18 +6402,18 @@
         <v>32</v>
       </c>
       <c r="T92" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N92, $O92, "/", $P92, "/", $F92,  $Q92, $S92,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:20">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="3">
         <v>34</v>
       </c>
-      <c r="C93" s="1" t="n">
+      <c r="C93" s="1">
         <v>20210126</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -6177,7 +6431,7 @@
       <c r="I93" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J93" s="1" t="n">
+      <c r="J93" s="1">
         <v>20211103</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -6187,7 +6441,7 @@
         <v>60</v>
       </c>
       <c r="M93" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N93, $O93, "/", $P93, "/", $F93,  $Q93, $R93)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/molecule_info.h5</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6209,21 +6463,21 @@
         <v>32</v>
       </c>
       <c r="T93" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N93, $O93, "/", $P93, "/", $F93,  $Q93, $S93,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:20">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="1">
         <v>18</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="C94" s="1">
         <v>20190912</v>
       </c>
-      <c r="D94" s="1" t="n">
+      <c r="D94" s="1">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -6241,7 +6495,7 @@
       <c r="I94" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J94" s="1" t="n">
+      <c r="J94" s="1">
         <v>20211105</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -6251,7 +6505,7 @@
         <v>60</v>
       </c>
       <c r="M94" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N94, $O94, "/", $P94, "/", $F94,  $Q94, $R94)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/molecule_info.h5</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6273,21 +6527,21 @@
         <v>32</v>
       </c>
       <c r="T94" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N94, $O94, "/", $P94, "/", $F94,  $Q94, $S94,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:20">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="C95" s="1" t="n">
+      <c r="B95" s="3">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1">
         <v>20191121</v>
       </c>
-      <c r="D95" s="3" t="n">
+      <c r="D95" s="3">
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -6305,7 +6559,7 @@
       <c r="I95" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J95" s="1" t="n">
+      <c r="J95" s="1">
         <v>20211103</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -6315,7 +6569,7 @@
         <v>60</v>
       </c>
       <c r="M95" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N95, $O95, "/", $P95, "/", $F95,  $Q95, $R95)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force3000/outs/molecule_info.h5</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6337,21 +6591,21 @@
         <v>32</v>
       </c>
       <c r="T95" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N95, $O95, "/", $P95, "/", $F95,  $Q95, $S95,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:20">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C96" s="1" t="n">
+      <c r="B96" s="3">
+        <v>30</v>
+      </c>
+      <c r="C96" s="1">
         <v>20191121</v>
       </c>
-      <c r="D96" s="3" t="n">
+      <c r="D96" s="3">
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -6366,7 +6620,7 @@
       <c r="I96" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J96" s="1" t="n">
+      <c r="J96" s="1">
         <v>20211106</v>
       </c>
       <c r="K96" s="1" t="s">
@@ -6376,7 +6630,7 @@
         <v>60</v>
       </c>
       <c r="M96" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N96, $O96, "/", $P96, "/", $F96,  $Q96, $R96)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/molecule_info.h5</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6398,21 +6652,21 @@
         <v>32</v>
       </c>
       <c r="T96" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N96, $O96, "/", $P96, "/", $F96,  $Q96, $S96,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:23">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="C97" s="1" t="n">
+      <c r="B97" s="3">
+        <v>27</v>
+      </c>
+      <c r="C97" s="1">
         <v>20191121</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c r="D97" s="3">
         <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -6430,7 +6684,7 @@
       <c r="I97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J97" s="1" t="n">
+      <c r="J97" s="1">
         <v>20211103</v>
       </c>
       <c r="K97" s="1" t="s">
@@ -6440,7 +6694,7 @@
         <v>60</v>
       </c>
       <c r="M97" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N97, $O97, "/", $P97, "/", $F97,  $Q97, $R97)</f>
+        <f t="shared" si="4"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2600/outs/molecule_info.h5</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6462,22 +6716,22 @@
         <v>32</v>
       </c>
       <c r="T97" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N97, $O97, "/", $P97, "/", $F97,  $Q97, $S97,)</f>
+        <f t="shared" si="5"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2600/outs/metrics_summary.csv</v>
       </c>
-      <c r="W97" s="0"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="W97"/>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C98" s="1" t="n">
+      <c r="B98" s="3">
+        <v>30</v>
+      </c>
+      <c r="C98" s="1">
         <v>20191121</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c r="D98" s="3">
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -6495,7 +6749,7 @@
       <c r="I98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J98" s="1" t="n">
+      <c r="J98" s="1">
         <v>20211108</v>
       </c>
       <c r="K98" s="1" t="s">
@@ -6505,7 +6759,7 @@
         <v>60</v>
       </c>
       <c r="M98" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N98, $O98, "/", $P98, "/", $F98,  $Q98, $R98)</f>
+        <f t="shared" ref="M98:M129" si="6">_xlfn.CONCAT($N98, $O98, "/", $P98, "/", $F98,  $Q98, $R98)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/molecule_info.h5</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6527,21 +6781,21 @@
         <v>32</v>
       </c>
       <c r="T98" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N98, $O98, "/", $P98, "/", $F98,  $Q98, $S98,)</f>
+        <f t="shared" ref="T98:T121" si="7">_xlfn.CONCAT($N98, $O98, "/", $P98, "/", $F98,  $Q98, $S98,)</f>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:23">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="C99" s="1" t="n">
+      <c r="B99" s="3">
+        <v>27</v>
+      </c>
+      <c r="C99" s="1">
         <v>20191121</v>
       </c>
-      <c r="D99" s="3" t="n">
+      <c r="D99" s="3">
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -6556,7 +6810,7 @@
       <c r="I99" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J99" s="1" t="n">
+      <c r="J99" s="1">
         <v>20211108</v>
       </c>
       <c r="K99" s="1" t="s">
@@ -6566,7 +6820,7 @@
         <v>60</v>
       </c>
       <c r="M99" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N99, $O99, "/", $P99, "/", $F99,  $Q99, $R99)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/molecule_info.h5</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6588,18 +6842,18 @@
         <v>32</v>
       </c>
       <c r="T99" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N99, $O99, "/", $P99, "/", $F99,  $Q99, $S99,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:23">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="3">
         <v>34</v>
       </c>
-      <c r="C100" s="1" t="n">
+      <c r="C100" s="1">
         <v>20210126</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -6620,7 +6874,7 @@
       <c r="I100" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J100" s="1" t="n">
+      <c r="J100" s="1">
         <v>20211103</v>
       </c>
       <c r="K100" s="1" t="s">
@@ -6630,7 +6884,7 @@
         <v>60</v>
       </c>
       <c r="M100" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N100, $O100, "/", $P100, "/", $F100,  $Q100, $R100)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/molecule_info.h5</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -6652,18 +6906,18 @@
         <v>32</v>
       </c>
       <c r="T100" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N100, $O100, "/", $P100, "/", $F100,  $Q100, $S100,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:23" hidden="1">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="1">
         <v>58</v>
       </c>
-      <c r="C101" s="1" t="n">
+      <c r="C101" s="1">
         <v>20211105</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -6684,7 +6938,7 @@
       <c r="I101" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J101" s="1" t="n">
+      <c r="J101" s="1">
         <v>20211117</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -6694,7 +6948,7 @@
         <v>60</v>
       </c>
       <c r="M101" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N101, $O101, "/", $P101, "/", $F101,  $Q101, $R101)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -6716,18 +6970,18 @@
         <v>32</v>
       </c>
       <c r="T101" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N101, $O101, "/", $P101, "/", $F101,  $Q101, $S101,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:23">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="1">
         <v>59</v>
       </c>
-      <c r="C102" s="1" t="n">
+      <c r="C102" s="1">
         <v>20211105</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -6748,7 +7002,7 @@
       <c r="I102" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J102" s="1" t="n">
+      <c r="J102" s="1">
         <v>20211117</v>
       </c>
       <c r="K102" s="1" t="s">
@@ -6758,7 +7012,7 @@
         <v>60</v>
       </c>
       <c r="M102" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N102, $O102, "/", $P102, "/", $F102,  $Q102, $R102)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049/outs/molecule_info.h5</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6780,18 +7034,18 @@
         <v>32</v>
       </c>
       <c r="T102" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N102, $O102, "/", $P102, "/", $F102,  $Q102, $S102,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:23" hidden="1">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C103" s="1" t="n">
+      <c r="B103" s="1">
+        <v>60</v>
+      </c>
+      <c r="C103" s="1">
         <v>20211105</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -6812,7 +7066,7 @@
       <c r="I103" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J103" s="1" t="n">
+      <c r="J103" s="1">
         <v>20211117</v>
       </c>
       <c r="K103" s="1" t="s">
@@ -6822,7 +7076,7 @@
         <v>60</v>
       </c>
       <c r="M103" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N103, $O103, "/", $P103, "/", $F103,  $Q103, $R103)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -6844,18 +7098,18 @@
         <v>32</v>
       </c>
       <c r="T103" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N103, $O103, "/", $P103, "/", $F103,  $Q103, $S103,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:23" hidden="1">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="1">
         <v>61</v>
       </c>
-      <c r="C104" s="1" t="n">
+      <c r="C104" s="1">
         <v>20211105</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -6876,7 +7130,7 @@
       <c r="I104" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J104" s="1" t="n">
+      <c r="J104" s="1">
         <v>20211117</v>
       </c>
       <c r="K104" s="1" t="s">
@@ -6886,7 +7140,7 @@
         <v>60</v>
       </c>
       <c r="M104" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N104, $O104, "/", $P104, "/", $F104,  $Q104, $R104)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -6908,19 +7162,19 @@
         <v>32</v>
       </c>
       <c r="T104" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N104, $O104, "/", $P104, "/", $F104,  $Q104, $S104,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
       </c>
-      <c r="W104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="W104"/>
+    </row>
+    <row r="105" spans="1:23" hidden="1">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="1">
         <v>62</v>
       </c>
-      <c r="C105" s="1" t="n">
+      <c r="C105" s="1">
         <v>20211105</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -6941,7 +7195,7 @@
       <c r="I105" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J105" s="1" t="n">
+      <c r="J105" s="1">
         <v>20211117</v>
       </c>
       <c r="K105" s="1" t="s">
@@ -6951,7 +7205,7 @@
         <v>60</v>
       </c>
       <c r="M105" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N105, $O105, "/", $P105, "/", $F105,  $Q105, $R105)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -6973,18 +7227,18 @@
         <v>32</v>
       </c>
       <c r="T105" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N105, $O105, "/", $P105, "/", $F105,  $Q105, $S105,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:23">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="1">
         <v>63</v>
       </c>
-      <c r="C106" s="1" t="n">
+      <c r="C106" s="1">
         <v>20211105</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -7005,7 +7259,7 @@
       <c r="I106" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J106" s="1" t="n">
+      <c r="J106" s="1">
         <v>20211117</v>
       </c>
       <c r="K106" s="1" t="s">
@@ -7015,7 +7269,7 @@
         <v>60</v>
       </c>
       <c r="M106" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N106, $O106, "/", $P106, "/", $F106,  $Q106, $R106)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051/outs/molecule_info.h5</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7037,18 +7291,18 @@
         <v>32</v>
       </c>
       <c r="T106" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N106, $O106, "/", $P106, "/", $F106,  $Q106, $S106,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:23" hidden="1">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="1">
         <v>64</v>
       </c>
-      <c r="C107" s="1" t="n">
+      <c r="C107" s="1">
         <v>20211105</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -7069,7 +7323,7 @@
       <c r="I107" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J107" s="1" t="n">
+      <c r="J107" s="1">
         <v>20211117</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -7079,7 +7333,7 @@
         <v>60</v>
       </c>
       <c r="M107" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N107, $O107, "/", $P107, "/", $F107,  $Q107, $R107)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7101,18 +7355,18 @@
         <v>32</v>
       </c>
       <c r="T107" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N107, $O107, "/", $P107, "/", $F107,  $Q107, $S107,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:23" hidden="1">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="1">
         <v>65</v>
       </c>
-      <c r="C108" s="1" t="n">
+      <c r="C108" s="1">
         <v>20211105</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -7133,7 +7387,7 @@
       <c r="I108" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J108" s="1" t="n">
+      <c r="J108" s="1">
         <v>20211117</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -7143,7 +7397,7 @@
         <v>60</v>
       </c>
       <c r="M108" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N108, $O108, "/", $P108, "/", $F108,  $Q108, $R108)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/molecule_info.h5</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7165,18 +7419,18 @@
         <v>32</v>
       </c>
       <c r="T108" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N108, $O108, "/", $P108, "/", $F108,  $Q108, $S108,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:23" hidden="1">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="1">
         <v>66</v>
       </c>
-      <c r="C109" s="1" t="n">
+      <c r="C109" s="1">
         <v>20211105</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -7197,7 +7451,7 @@
       <c r="I109" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J109" s="1" t="n">
+      <c r="J109" s="1">
         <v>20211117</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -7207,7 +7461,7 @@
         <v>60</v>
       </c>
       <c r="M109" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N109, $O109, "/", $P109, "/", $F109,  $Q109, $R109)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7229,18 +7483,18 @@
         <v>32</v>
       </c>
       <c r="T109" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N109, $O109, "/", $P109, "/", $F109,  $Q109, $S109,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:23" hidden="1">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="1">
         <v>67</v>
       </c>
-      <c r="C110" s="1" t="n">
+      <c r="C110" s="1">
         <v>20211105</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -7261,7 +7515,7 @@
       <c r="I110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="1" t="n">
+      <c r="J110" s="1">
         <v>20211117</v>
       </c>
       <c r="K110" s="1" t="s">
@@ -7271,7 +7525,7 @@
         <v>60</v>
       </c>
       <c r="M110" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N110, $O110, "/", $P110, "/", $F110,  $Q110, $R110)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7293,18 +7547,18 @@
         <v>32</v>
       </c>
       <c r="T110" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N110, $O110, "/", $P110, "/", $F110,  $Q110, $S110,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:23" hidden="1">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="1">
         <v>68</v>
       </c>
-      <c r="C111" s="1" t="n">
+      <c r="C111" s="1">
         <v>20211105</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -7325,7 +7579,7 @@
       <c r="I111" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J111" s="1" t="n">
+      <c r="J111" s="1">
         <v>20211117</v>
       </c>
       <c r="K111" s="1" t="s">
@@ -7335,7 +7589,7 @@
         <v>60</v>
       </c>
       <c r="M111" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N111, $O111, "/", $P111, "/", $F111,  $Q111, $R111)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7357,18 +7611,18 @@
         <v>32</v>
       </c>
       <c r="T111" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N111, $O111, "/", $P111, "/", $F111,  $Q111, $S111,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:23" hidden="1">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="1">
         <v>69</v>
       </c>
-      <c r="C112" s="1" t="n">
+      <c r="C112" s="1">
         <v>20211105</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -7389,7 +7643,7 @@
       <c r="I112" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J112" s="1" t="n">
+      <c r="J112" s="1">
         <v>20211117</v>
       </c>
       <c r="K112" s="1" t="s">
@@ -7399,7 +7653,7 @@
         <v>60</v>
       </c>
       <c r="M112" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N112, $O112, "/", $P112, "/", $F112,  $Q112, $R112)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7421,18 +7675,18 @@
         <v>32</v>
       </c>
       <c r="T112" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N112, $O112, "/", $P112, "/", $F112,  $Q112, $S112,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:20">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="1">
         <v>63</v>
       </c>
-      <c r="C113" s="1" t="n">
+      <c r="C113" s="1">
         <v>20211105</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -7450,7 +7704,7 @@
       <c r="I113" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J113" s="1" t="n">
+      <c r="J113" s="1">
         <v>20211117</v>
       </c>
       <c r="K113" s="1" t="s">
@@ -7460,7 +7714,7 @@
         <v>60</v>
       </c>
       <c r="M113" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N113, $O113, "/", $P113, "/", $F113,  $Q113, $R113)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7482,18 +7736,18 @@
         <v>32</v>
       </c>
       <c r="T113" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N113, $O113, "/", $P113, "/", $F113,  $Q113, $S113,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:20">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="1">
         <v>59</v>
       </c>
-      <c r="C114" s="1" t="n">
+      <c r="C114" s="1">
         <v>20211105</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -7511,7 +7765,7 @@
       <c r="I114" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J114" s="1" t="n">
+      <c r="J114" s="1">
         <v>20211117</v>
       </c>
       <c r="K114" s="1" t="s">
@@ -7521,7 +7775,7 @@
         <v>60</v>
       </c>
       <c r="M114" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N114, $O114, "/", $P114, "/", $F114,  $Q114, $R114)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7543,18 +7797,18 @@
         <v>32</v>
       </c>
       <c r="T114" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N114, $O114, "/", $P114, "/", $F114,  $Q114, $S114,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:20" hidden="1">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C115" s="1" t="n">
+      <c r="B115" s="1">
+        <v>60</v>
+      </c>
+      <c r="C115" s="1">
         <v>20211105</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -7572,7 +7826,7 @@
       <c r="I115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J115" s="1" t="n">
+      <c r="J115" s="1">
         <v>20211117</v>
       </c>
       <c r="K115" s="1" t="s">
@@ -7582,7 +7836,7 @@
         <v>60</v>
       </c>
       <c r="M115" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N115, $O115, "/", $P115, "/", $F115,  $Q115, $R115)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7604,18 +7858,18 @@
         <v>32</v>
       </c>
       <c r="T115" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N115, $O115, "/", $P115, "/", $F115,  $Q115, $S115,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:20" hidden="1">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="1">
         <v>58</v>
       </c>
-      <c r="C116" s="1" t="n">
+      <c r="C116" s="1">
         <v>20211105</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -7633,7 +7887,7 @@
       <c r="I116" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J116" s="1" t="n">
+      <c r="J116" s="1">
         <v>20211117</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -7643,7 +7897,7 @@
         <v>60</v>
       </c>
       <c r="M116" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N116, $O116, "/", $P116, "/", $F116,  $Q116, $R116)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7665,18 +7919,18 @@
         <v>32</v>
       </c>
       <c r="T116" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N116, $O116, "/", $P116, "/", $F116,  $Q116, $S116,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:20" hidden="1">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="1">
         <v>66</v>
       </c>
-      <c r="C117" s="1" t="n">
+      <c r="C117" s="1">
         <v>20211105</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -7694,7 +7948,7 @@
       <c r="I117" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J117" s="1" t="n">
+      <c r="J117" s="1">
         <v>20211117</v>
       </c>
       <c r="K117" s="1" t="s">
@@ -7704,7 +7958,7 @@
         <v>60</v>
       </c>
       <c r="M117" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N117, $O117, "/", $P117, "/", $F117,  $Q117, $R117)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7726,18 +7980,18 @@
         <v>32</v>
       </c>
       <c r="T117" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N117, $O117, "/", $P117, "/", $F117,  $Q117, $S117,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:20" hidden="1">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="1">
         <v>65</v>
       </c>
-      <c r="C118" s="1" t="n">
+      <c r="C118" s="1">
         <v>20211105</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -7755,7 +8009,7 @@
       <c r="I118" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J118" s="1" t="n">
+      <c r="J118" s="1">
         <v>20211117</v>
       </c>
       <c r="K118" s="1" t="s">
@@ -7765,7 +8019,7 @@
         <v>60</v>
       </c>
       <c r="M118" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N118, $O118, "/", $P118, "/", $F118,  $Q118, $R118)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7787,18 +8041,18 @@
         <v>32</v>
       </c>
       <c r="T118" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N118, $O118, "/", $P118, "/", $F118,  $Q118, $S118,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:20" hidden="1">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="1">
         <v>61</v>
       </c>
-      <c r="C119" s="1" t="n">
+      <c r="C119" s="1">
         <v>20211105</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -7816,7 +8070,7 @@
       <c r="I119" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J119" s="1" t="n">
+      <c r="J119" s="1">
         <v>20211117</v>
       </c>
       <c r="K119" s="1" t="s">
@@ -7826,7 +8080,7 @@
         <v>60</v>
       </c>
       <c r="M119" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N119, $O119, "/", $P119, "/", $F119,  $Q119, $R119)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7848,18 +8102,18 @@
         <v>32</v>
       </c>
       <c r="T119" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N119, $O119, "/", $P119, "/", $F119,  $Q119, $S119,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:20" hidden="1">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="1">
         <v>62</v>
       </c>
-      <c r="C120" s="1" t="n">
+      <c r="C120" s="1">
         <v>20211105</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -7877,7 +8131,7 @@
       <c r="I120" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J120" s="1" t="n">
+      <c r="J120" s="1">
         <v>20211117</v>
       </c>
       <c r="K120" s="1" t="s">
@@ -7887,7 +8141,7 @@
         <v>60</v>
       </c>
       <c r="M120" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N120, $O120, "/", $P120, "/", $F120,  $Q120, $R120)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7909,18 +8163,18 @@
         <v>32</v>
       </c>
       <c r="T120" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N120, $O120, "/", $P120, "/", $F120,  $Q120, $S120,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:20" hidden="1">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="1">
         <v>64</v>
       </c>
-      <c r="C121" s="1" t="n">
+      <c r="C121" s="1">
         <v>20211105</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -7938,7 +8192,7 @@
       <c r="I121" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J121" s="1" t="n">
+      <c r="J121" s="1">
         <v>20211117</v>
       </c>
       <c r="K121" s="1" t="s">
@@ -7948,7 +8202,7 @@
         <v>60</v>
       </c>
       <c r="M121" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N121, $O121, "/", $P121, "/", $F121,  $Q121, $R121)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7970,18 +8224,18 @@
         <v>32</v>
       </c>
       <c r="T121" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N121, $O121, "/", $P121, "/", $F121,  $Q121, $S121,)</f>
+        <f t="shared" si="7"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:20" hidden="1">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="3">
         <v>44</v>
       </c>
-      <c r="C122" s="1" t="n">
+      <c r="C122" s="1">
         <v>20210716</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -8003,7 +8257,7 @@
         <v>60</v>
       </c>
       <c r="M122" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N122, $O122, "/", $P122, "/", $F122,  $Q122, $R122)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/Seagate_SequencingFiles_2//Amei-R1</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8013,14 +8267,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:20" hidden="1">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="3">
         <v>45</v>
       </c>
-      <c r="C123" s="1" t="n">
+      <c r="C123" s="1">
         <v>20210716</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -8042,7 +8296,7 @@
         <v>60</v>
       </c>
       <c r="M123" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N123, $O123, "/", $P123, "/", $F123,  $Q123, $R123)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/Seagate_SequencingFiles_2//Amei-R2</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8052,14 +8306,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:20" hidden="1">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="3">
         <v>42</v>
       </c>
-      <c r="C124" s="1" t="n">
+      <c r="C124" s="1">
         <v>20210716</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -8081,7 +8335,7 @@
         <v>60</v>
       </c>
       <c r="M124" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N124, $O124, "/", $P124, "/", $F124,  $Q124, $R124)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/Seagate_SequencingFiles_2//Con-R1</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8091,14 +8345,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:20" hidden="1">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="3">
         <v>43</v>
       </c>
-      <c r="C125" s="1" t="n">
+      <c r="C125" s="1">
         <v>20210716</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -8120,7 +8374,7 @@
         <v>60</v>
       </c>
       <c r="M125" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N125, $O125, "/", $P125, "/", $F125,  $Q125, $R125)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/Seagate_SequencingFiles_2//Con-R2</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8130,14 +8384,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:20" hidden="1">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="1">
         <v>69</v>
       </c>
-      <c r="C126" s="1" t="n">
+      <c r="C126" s="1">
         <v>20211105</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -8155,7 +8409,7 @@
       <c r="I126" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J126" s="1" t="n">
+      <c r="J126" s="1">
         <v>20211207</v>
       </c>
       <c r="K126" s="1" t="s">
@@ -8165,7 +8419,7 @@
         <v>60</v>
       </c>
       <c r="M126" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N126, $O126, "/", $P126, "/", $F126,  $Q126, $R126)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11_force10000/outs/molecule_info.h5</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8187,18 +8441,18 @@
         <v>32</v>
       </c>
       <c r="T126" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N126, $O126, "/", $P126, "/", $F126,  $Q126, $S126,)</f>
+        <f>_xlfn.CONCAT($N126, $O126, "/", $P126, "/", $F126,  $Q126, $S126,)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:20" hidden="1">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="1">
         <v>64</v>
       </c>
-      <c r="C127" s="1" t="n">
+      <c r="C127" s="1">
         <v>20211105</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -8216,7 +8470,7 @@
       <c r="I127" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J127" s="1" t="n">
+      <c r="J127" s="1">
         <v>20211117</v>
       </c>
       <c r="K127" s="1" t="s">
@@ -8226,7 +8480,7 @@
         <v>60</v>
       </c>
       <c r="M127" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N127, $O127, "/", $P127, "/", $F127,  $Q127, $R127)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force15000/outs/molecule_info.h5</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8248,18 +8502,18 @@
         <v>32</v>
       </c>
       <c r="T127" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N127, $O127, "/", $P127, "/", $F127,  $Q127, $S127,)</f>
+        <f>_xlfn.CONCAT($N127, $O127, "/", $P127, "/", $F127,  $Q127, $S127,)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force15000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:20" hidden="1">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="1">
         <v>68</v>
       </c>
-      <c r="C128" s="1" t="n">
+      <c r="C128" s="1">
         <v>20211105</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -8277,7 +8531,7 @@
       <c r="I128" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J128" s="1" t="n">
+      <c r="J128" s="1">
         <v>20211117</v>
       </c>
       <c r="K128" s="1" t="s">
@@ -8287,7 +8541,7 @@
         <v>60</v>
       </c>
       <c r="M128" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N128, $O128, "/", $P128, "/", $F128,  $Q128, $R128)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5_force10000/outs/molecule_info.h5</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8309,18 +8563,18 @@
         <v>32</v>
       </c>
       <c r="T128" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N128, $O128, "/", $P128, "/", $F128,  $Q128, $S128,)</f>
+        <f>_xlfn.CONCAT($N128, $O128, "/", $P128, "/", $F128,  $Q128, $S128,)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:20" hidden="1">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="1">
         <v>65</v>
       </c>
-      <c r="C129" s="1" t="n">
+      <c r="C129" s="1">
         <v>20211105</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -8341,7 +8595,7 @@
       <c r="I129" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J129" s="1" t="n">
+      <c r="J129" s="1">
         <v>20211208</v>
       </c>
       <c r="K129" s="1" t="s">
@@ -8351,7 +8605,7 @@
         <v>60</v>
       </c>
       <c r="M129" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N129, $O129, "/", $P129, "/", $F129,  $Q129, $R129)</f>
+        <f t="shared" si="6"/>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine_force10000/outs/molecule_info.h5</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8373,52 +8627,47 @@
         <v>32</v>
       </c>
       <c r="T129" s="2" t="str">
-        <f aca="false">_xlfn.CONCAT($N129, $O129, "/", $P129, "/", $F129,  $Q129, $S129,)</f>
+        <f>_xlfn.CONCAT($N129, $O129, "/", $P129, "/", $F129,  $Q129, $S129,)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T129">
+  <autoFilter ref="A1:T129" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="STARR"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="6" width="11.57"/>
+    <col min="1" max="1" width="12.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="6" customWidth="1"/>
+    <col min="7" max="1024" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -8438,7 +8687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>184</v>
       </c>
@@ -8455,7 +8704,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>184</v>
       </c>
@@ -8463,7 +8712,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>184</v>
       </c>
@@ -8471,7 +8720,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>184</v>
       </c>
@@ -8479,7 +8728,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>184</v>
       </c>
@@ -8487,7 +8736,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>184</v>
       </c>
@@ -8495,7 +8744,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>184</v>
       </c>
@@ -8503,7 +8752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>184</v>
       </c>
@@ -8511,7 +8760,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>184</v>
       </c>
@@ -8519,7 +8768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>184</v>
       </c>
@@ -8527,7 +8776,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>184</v>
       </c>
@@ -8535,7 +8784,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>184</v>
       </c>
@@ -8543,7 +8792,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>184</v>
       </c>
@@ -8551,7 +8800,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>184</v>
       </c>
@@ -8559,7 +8808,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>184</v>
       </c>
@@ -8567,7 +8816,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>184</v>
       </c>
@@ -8575,7 +8824,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>184</v>
       </c>
@@ -8583,7 +8832,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>184</v>
       </c>
@@ -8591,7 +8840,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>184</v>
       </c>
@@ -8599,7 +8848,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>184</v>
       </c>
@@ -8607,7 +8856,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>184</v>
       </c>
@@ -8615,7 +8864,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>184</v>
       </c>
@@ -8623,7 +8872,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
         <v>184</v>
       </c>
@@ -8631,7 +8880,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>184</v>
       </c>
@@ -8639,7 +8888,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>184</v>
       </c>
@@ -8647,7 +8896,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>184</v>
       </c>
@@ -8655,7 +8904,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>184</v>
       </c>
@@ -8663,7 +8912,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>184</v>
       </c>
@@ -8671,7 +8920,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>184</v>
       </c>
@@ -8679,7 +8928,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>184</v>
       </c>
@@ -8687,7 +8936,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
@@ -8695,7 +8944,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
@@ -8703,7 +8952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>184</v>
       </c>
@@ -8711,7 +8960,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>184</v>
       </c>
@@ -8720,10 +8969,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$130</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$154</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="232">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t xml:space="preserve">Con-R1_Multiplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle</t>
   </si>
   <si>
     <t xml:space="preserve">Con-R2_Multiplex</t>
@@ -853,37 +856,37 @@
   <dimension ref="A1:T154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H116" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
-      <selection pane="bottomRight" activeCell="G141" activeCellId="0" sqref="G141"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
+      <selection pane="bottomRight" activeCell="F156" activeCellId="0" sqref="F156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="107.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="107.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="111.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="23" style="1" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1019" style="3" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="23" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1019" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,11 +5554,17 @@
       <c r="F80" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="G80" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>20210920</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>51</v>
@@ -5609,11 +5618,17 @@
       <c r="F81" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="G81" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>20210920</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>51</v>
@@ -5667,11 +5682,17 @@
       <c r="F82" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="G82" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>20210920</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>51</v>
@@ -5725,11 +5746,17 @@
       <c r="F83" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="G83" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>20210920</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>51</v>
@@ -5781,17 +5808,14 @@
         <v>141</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>72</v>
+        <v>141</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J84" s="1" t="n">
-        <v>20210920</v>
-      </c>
       <c r="K84" s="1" t="s">
         <v>51</v>
       </c>
@@ -5800,7 +5824,7 @@
       </c>
       <c r="M84" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N84, $O84, "/", $P84, "/", $F84,  $Q84, $R84)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1_Multiplex/outs/molecule_info.h5</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>27</v>
@@ -5822,7 +5846,7 @@
       </c>
       <c r="T84" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N84, $O84, "/", $P84, "/", $F84,  $Q84, $S84,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,20 +5863,17 @@
         <v>134</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J85" s="1" t="n">
-        <v>20210920</v>
-      </c>
       <c r="K85" s="1" t="s">
         <v>51</v>
       </c>
@@ -5861,7 +5882,7 @@
       </c>
       <c r="M85" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N85, $O85, "/", $P85, "/", $F85,  $Q85, $R85)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2_Multiplex/outs/molecule_info.h5</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>27</v>
@@ -5883,7 +5904,7 @@
       </c>
       <c r="T85" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N85, $O85, "/", $P85, "/", $F85,  $Q85, $S85,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,20 +5921,17 @@
         <v>134</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>72</v>
+        <v>144</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J86" s="1" t="n">
-        <v>20210920</v>
-      </c>
       <c r="K86" s="1" t="s">
         <v>51</v>
       </c>
@@ -5922,7 +5940,7 @@
       </c>
       <c r="M86" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N86, $O86, "/", $P86, "/", $F86,  $Q86, $R86)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1_Multiplex/outs/molecule_info.h5</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>27</v>
@@ -5944,7 +5962,7 @@
       </c>
       <c r="T86" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N86, $O86, "/", $P86, "/", $F86,  $Q86, $S86,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5961,20 +5979,17 @@
         <v>134</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>72</v>
+        <v>145</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J87" s="1" t="n">
-        <v>20210920</v>
-      </c>
       <c r="K87" s="1" t="s">
         <v>51</v>
       </c>
@@ -5983,7 +5998,7 @@
       </c>
       <c r="M87" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N87, $O87, "/", $P87, "/", $F87,  $Q87, $R87)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2_Multiplex/outs/molecule_info.h5</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>27</v>
@@ -6005,7 +6020,7 @@
       </c>
       <c r="T87" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N87, $O87, "/", $P87, "/", $F87,  $Q87, $S87,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,7 +6034,7 @@
         <v>20210716</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>119</v>
@@ -6050,7 +6065,7 @@
         <v>125</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>30</v>
@@ -6077,13 +6092,13 @@
         <v>20210716</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>41</v>
@@ -6105,7 +6120,7 @@
         <v>125</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>30</v>
@@ -6132,13 +6147,13 @@
         <v>20210716</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>41</v>
@@ -6160,7 +6175,7 @@
         <v>125</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>30</v>
@@ -6187,7 +6202,7 @@
         <v>20210716</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>131</v>
@@ -6221,7 +6236,7 @@
         <v>125</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>30</v>
@@ -6248,13 +6263,13 @@
         <v>20210716</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>44</v>
@@ -6279,7 +6294,7 @@
         <v>125</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>30</v>
@@ -6306,13 +6321,13 @@
         <v>20210716</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>72</v>
@@ -6337,7 +6352,7 @@
         <v>125</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q93" s="2" t="s">
         <v>30</v>
@@ -6364,7 +6379,7 @@
         <v>20210716</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>100</v>
@@ -6398,7 +6413,7 @@
         <v>125</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>30</v>
@@ -6425,13 +6440,13 @@
         <v>20210716</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>72</v>
@@ -6456,7 +6471,7 @@
         <v>125</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>30</v>
@@ -6483,13 +6498,13 @@
         <v>20210716</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>44</v>
@@ -6517,7 +6532,7 @@
         <v>125</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>30</v>
@@ -6544,13 +6559,13 @@
         <v>20210716</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>44</v>
@@ -6578,7 +6593,7 @@
         <v>125</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>30</v>
@@ -6608,10 +6623,10 @@
         <v>118</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>44</v>
@@ -6639,7 +6654,7 @@
         <v>125</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>30</v>
@@ -6669,10 +6684,10 @@
         <v>118</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>44</v>
@@ -6700,7 +6715,7 @@
         <v>125</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>30</v>
@@ -6730,10 +6745,10 @@
         <v>118</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>44</v>
@@ -6761,7 +6776,7 @@
         <v>125</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>30</v>
@@ -6791,10 +6806,10 @@
         <v>118</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>44</v>
@@ -6822,7 +6837,7 @@
         <v>125</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>30</v>
@@ -6852,10 +6867,10 @@
         <v>118</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>44</v>
@@ -6883,7 +6898,7 @@
         <v>125</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>30</v>
@@ -6913,10 +6928,10 @@
         <v>118</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>44</v>
@@ -6944,7 +6959,7 @@
         <v>125</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>30</v>
@@ -6974,10 +6989,10 @@
         <v>118</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>44</v>
@@ -7002,7 +7017,7 @@
         <v>125</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>30</v>
@@ -7032,10 +7047,10 @@
         <v>118</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>44</v>
@@ -7063,7 +7078,7 @@
         <v>125</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>30</v>
@@ -7093,10 +7108,10 @@
         <v>118</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>44</v>
@@ -7124,10 +7139,10 @@
         <v>27</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>30</v>
@@ -7157,10 +7172,10 @@
         <v>118</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>72</v>
@@ -7185,10 +7200,10 @@
         <v>27</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>30</v>
@@ -7218,10 +7233,10 @@
         <v>118</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>44</v>
@@ -7249,10 +7264,10 @@
         <v>27</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>30</v>
@@ -7282,10 +7297,10 @@
         <v>118</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>72</v>
@@ -7310,10 +7325,10 @@
         <v>27</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>30</v>
@@ -7343,10 +7358,10 @@
         <v>118</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>44</v>
@@ -7374,10 +7389,10 @@
         <v>27</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>30</v>
@@ -7407,10 +7422,10 @@
         <v>118</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>72</v>
@@ -7435,10 +7450,10 @@
         <v>27</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>30</v>
@@ -7468,10 +7483,10 @@
         <v>118</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>44</v>
@@ -7499,10 +7514,10 @@
         <v>27</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q112" s="2" t="s">
         <v>30</v>
@@ -7532,10 +7547,10 @@
         <v>118</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>72</v>
@@ -7560,10 +7575,10 @@
         <v>27</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>30</v>
@@ -7593,10 +7608,10 @@
         <v>118</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>44</v>
@@ -7624,10 +7639,10 @@
         <v>27</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>30</v>
@@ -7657,10 +7672,10 @@
         <v>118</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>72</v>
@@ -7685,10 +7700,10 @@
         <v>27</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>30</v>
@@ -7718,10 +7733,10 @@
         <v>118</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>44</v>
@@ -7749,10 +7764,10 @@
         <v>27</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>30</v>
@@ -7782,10 +7797,10 @@
         <v>118</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>72</v>
@@ -7810,10 +7825,10 @@
         <v>27</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>30</v>
@@ -7843,10 +7858,10 @@
         <v>118</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>44</v>
@@ -7874,10 +7889,10 @@
         <v>27</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q118" s="2" t="s">
         <v>30</v>
@@ -7907,10 +7922,10 @@
         <v>118</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>72</v>
@@ -7935,10 +7950,10 @@
         <v>27</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>30</v>
@@ -7968,10 +7983,10 @@
         <v>118</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>44</v>
@@ -7996,10 +8011,10 @@
         <v>27</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q120" s="2" t="s">
         <v>30</v>
@@ -8026,13 +8041,13 @@
         <v>20211105</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>44</v>
@@ -8060,10 +8075,10 @@
         <v>27</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q121" s="2" t="s">
         <v>30</v>
@@ -8090,13 +8105,13 @@
         <v>20211105</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>44</v>
@@ -8121,10 +8136,10 @@
         <v>27</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>30</v>
@@ -8151,16 +8166,19 @@
         <v>20211105</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>130</v>
@@ -8182,10 +8200,10 @@
         <v>27</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q123" s="2" t="s">
         <v>30</v>
@@ -8212,13 +8230,13 @@
         <v>20211105</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>44</v>
@@ -8246,10 +8264,10 @@
         <v>27</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q124" s="2" t="s">
         <v>30</v>
@@ -8276,13 +8294,13 @@
         <v>20211105</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>72</v>
@@ -8307,10 +8325,10 @@
         <v>27</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q125" s="2" t="s">
         <v>30</v>
@@ -8337,13 +8355,13 @@
         <v>20211105</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>72</v>
@@ -8371,10 +8389,10 @@
         <v>27</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>30</v>
@@ -8401,13 +8419,13 @@
         <v>20211105</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>44</v>
@@ -8435,10 +8453,10 @@
         <v>27</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>30</v>
@@ -8465,13 +8483,13 @@
         <v>20211105</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>44</v>
@@ -8496,10 +8514,10 @@
         <v>27</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>30</v>
@@ -8526,13 +8544,13 @@
         <v>20211105</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>44</v>
@@ -8560,10 +8578,10 @@
         <v>27</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q129" s="2" t="s">
         <v>30</v>
@@ -8590,13 +8608,13 @@
         <v>20211105</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>44</v>
@@ -8621,10 +8639,10 @@
         <v>27</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q130" s="2" t="s">
         <v>30</v>
@@ -8682,16 +8700,16 @@
         <v>27</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>32</v>
@@ -8743,16 +8761,16 @@
         <v>27</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>32</v>
@@ -8804,16 +8822,16 @@
         <v>27</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>32</v>
@@ -8837,10 +8855,10 @@
         <v>134</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>23</v>
@@ -8865,16 +8883,16 @@
         <v>27</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>32</v>
@@ -8898,10 +8916,10 @@
         <v>134</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>23</v>
@@ -8926,16 +8944,16 @@
         <v>27</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q135" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>32</v>
@@ -8959,10 +8977,10 @@
         <v>134</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>23</v>
@@ -8987,16 +9005,16 @@
         <v>27</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q136" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R136" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>32</v>
@@ -9020,10 +9038,10 @@
         <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>23</v>
@@ -9048,16 +9066,16 @@
         <v>27</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>32</v>
@@ -9081,10 +9099,10 @@
         <v>134</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>23</v>
@@ -9109,16 +9127,16 @@
         <v>27</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q138" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>32</v>
@@ -9142,10 +9160,10 @@
         <v>134</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>23</v>
@@ -9170,16 +9188,16 @@
         <v>27</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>32</v>
@@ -9203,13 +9221,13 @@
         <v>134</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>130</v>
@@ -9231,16 +9249,16 @@
         <v>27</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>32</v>
@@ -9261,13 +9279,13 @@
         <v>20220620</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>23</v>
@@ -9292,16 +9310,16 @@
         <v>27</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>32</v>
@@ -9322,13 +9340,13 @@
         <v>20220620</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>23</v>
@@ -9353,16 +9371,16 @@
         <v>27</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>32</v>
@@ -9383,13 +9401,13 @@
         <v>20220620</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>23</v>
@@ -9414,16 +9432,16 @@
         <v>27</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q143" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>32</v>
@@ -9444,13 +9462,13 @@
         <v>20220620</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>23</v>
@@ -9475,16 +9493,16 @@
         <v>27</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>32</v>
@@ -9505,13 +9523,13 @@
         <v>20220620</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>23</v>
@@ -9536,16 +9554,16 @@
         <v>27</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>32</v>
@@ -9563,16 +9581,16 @@
         <v>85</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>23</v>
@@ -9597,16 +9615,16 @@
         <v>27</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>32</v>
@@ -9624,16 +9642,16 @@
         <v>86</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>23</v>
@@ -9658,16 +9676,16 @@
         <v>27</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>32</v>
@@ -9685,16 +9703,16 @@
         <v>87</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>23</v>
@@ -9719,16 +9737,16 @@
         <v>27</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>32</v>
@@ -9746,16 +9764,16 @@
         <v>88</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>23</v>
@@ -9780,16 +9798,16 @@
         <v>27</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R149" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>32</v>
@@ -9807,16 +9825,16 @@
         <v>89</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>23</v>
@@ -9841,16 +9859,16 @@
         <v>27</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>32</v>
@@ -9868,16 +9886,16 @@
         <v>90</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>23</v>
@@ -9902,16 +9920,16 @@
         <v>27</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>32</v>
@@ -9929,16 +9947,16 @@
         <v>91</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>23</v>
@@ -9963,16 +9981,16 @@
         <v>27</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>32</v>
@@ -9990,16 +10008,16 @@
         <v>92</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>23</v>
@@ -10024,16 +10042,16 @@
         <v>27</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>32</v>
@@ -10051,16 +10069,16 @@
         <v>93</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>23</v>
@@ -10085,16 +10103,16 @@
         <v>27</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>32</v>
@@ -10105,7 +10123,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T130"/>
+  <autoFilter ref="A1:T154"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10128,15 +10146,15 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="30.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="5" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="5" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10147,13 +10165,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -10161,7 +10179,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -10173,271 +10191,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$154</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="237">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -715,6 +715,21 @@
   </si>
   <si>
     <t xml:space="preserve">molecule_info.h29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_041_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_043_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_combine</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -853,14 +868,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T154"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H128" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
-      <selection pane="bottomRight" activeCell="F156" activeCellId="0" sqref="F156"/>
+      <selection pane="bottomLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="H155" activeCellId="0" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4588,7 +4603,7 @@
         <v>111</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>23</v>
@@ -5494,7 +5509,7 @@
         <v>133</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>46</v>
@@ -8177,9 +8192,6 @@
       <c r="G123" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I123" s="3" t="s">
         <v>130</v>
       </c>
@@ -8677,6 +8689,9 @@
       <c r="F131" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="G131" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H131" s="1" t="s">
         <v>23</v>
       </c>
@@ -8799,6 +8814,9 @@
       <c r="F133" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="G133" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H133" s="1" t="s">
         <v>23</v>
       </c>
@@ -9227,7 +9245,7 @@
         <v>200</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>130</v>
@@ -10122,8 +10140,373 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_079/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>20220620</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>20220624</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M155" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N155, $O155, "/", $P155, "/", $F155,  $Q155, $R155)</f>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine/outs/molecule_info.h17</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T155" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N155, $O155, "/", $P155, "/", $F155,  $Q155, $S155,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>20220624</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M156" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N156, $O156, "/", $P156, "/", $F156,  $Q156, $R156)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine/outs/molecule_info.h6</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T156" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N156, $O156, "/", $P156, "/", $F156,  $Q156, $S156,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>20220624</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M157" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N157, $O157, "/", $P157, "/", $F157,  $Q157, $R157)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine/outs/molecule_info.h7</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R157" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T157" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N157, $O157, "/", $P157, "/", $F157,  $Q157, $S157,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>20220624</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M158" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N158, $O158, "/", $P158, "/", $F158,  $Q158, $R158)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine_force12000/outs/molecule_info.h7</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T158" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N158, $O158, "/", $P158, "/", $F158,  $Q158, $S158,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <v>20220624</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M159" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N159, $O159, "/", $P159, "/", $F159,  $Q159, $R159)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine/outs/molecule_info.h8</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T159" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N159, $O159, "/", $P159, "/", $F159,  $Q159, $S159,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>20220620</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J160" s="1" t="n">
+        <v>20220624</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M160" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N160, $O160, "/", $P160, "/", $F160,  $Q160, $R160)</f>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine/outs/molecule_info.h18</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R160" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T160" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N160, $O160, "/", $P160, "/", $F160,  $Q160, $S160,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T154"/>
+  <autoFilter ref="A1:T160"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10165,13 +10548,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -10179,7 +10562,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -10191,271 +10574,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$160</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -874,11 +874,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
-      <selection pane="bottomRight" activeCell="B164" activeCellId="0" sqref="B164:C164"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H166" activeCellId="0" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5482,7 +5482,7 @@
         <v>135</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>46</v>
@@ -10576,7 +10576,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T160"/>
+  <autoFilter ref="A1:T161"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10596,7 +10596,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="B164:C164 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,14 +12,13 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$161</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$129</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">aggregation!$E$1:$M$102</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_1" vbProcedure="false">aggregation!$E$1:$G$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_1_1" vbProcedure="false">aggregation!$E$1:$M$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$129</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="214">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -585,136 +584,64 @@
     <t xml:space="preserve">20220616_L1_Counts</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule_info.h7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule_info.h8</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_059</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h9</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_060</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h10</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_063</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h11</t>
-  </si>
-  <si>
     <t xml:space="preserve">76643_V11</t>
   </si>
   <si>
     <t xml:space="preserve">20220620_Counts</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h12</t>
-  </si>
-  <si>
     <t xml:space="preserve">76649_V11</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h13</t>
-  </si>
-  <si>
     <t xml:space="preserve">76647_V11</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h14</t>
-  </si>
-  <si>
     <t xml:space="preserve">76656_V11</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h15</t>
-  </si>
-  <si>
     <t xml:space="preserve">76658_V11</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule_info.h17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule_info.h18</t>
-  </si>
-  <si>
     <t xml:space="preserve">76660_V5</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h19</t>
-  </si>
-  <si>
     <t xml:space="preserve">76661_V5</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h20</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_071</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h21</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_069</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h22</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_073</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h23</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_072</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h24</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_075</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h25</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_077</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h26</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_077_FZ</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h27</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_077_LS</t>
   </si>
   <si>
-    <t xml:space="preserve">molecule_info.h28</t>
-  </si>
-  <si>
     <t xml:space="preserve">STARR_079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecule_info.h29</t>
   </si>
   <si>
     <t xml:space="preserve">76638_V11_combine</t>
@@ -874,11 +801,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K116" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H166" activeCellId="0" sqref="H166"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
+      <selection pane="bottomRight" activeCell="S151" activeCellId="0" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,7 +827,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="111.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="23" style="1" width="11.57"/>
@@ -8712,7 +8639,7 @@
       </c>
       <c r="M131" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N131, $O131, "/", $P131, "/", $F131,  $Q131, $R131)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026/outs/molecule_info.h6</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026/outs/molecule_info.h5</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>27</v>
@@ -8727,7 +8654,7 @@
         <v>30</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>32</v>
@@ -8773,7 +8700,7 @@
       </c>
       <c r="M132" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N132, $O132, "/", $P132, "/", $F132,  $Q132, $R132)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041/outs/molecule_info.h7</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041/outs/molecule_info.h5</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>27</v>
@@ -8788,7 +8715,7 @@
         <v>30</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>32</v>
@@ -8837,7 +8764,7 @@
       </c>
       <c r="M133" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N133, $O133, "/", $P133, "/", $F133,  $Q133, $R133)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043/outs/molecule_info.h8</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043/outs/molecule_info.h5</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>27</v>
@@ -8852,7 +8779,7 @@
         <v>30</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>32</v>
@@ -8876,10 +8803,10 @@
         <v>122</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>77</v>
@@ -8901,7 +8828,7 @@
       </c>
       <c r="M134" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N134, $O134, "/", $P134, "/", $F134,  $Q134, $R134)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059/outs/molecule_info.h9</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059/outs/molecule_info.h5</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>27</v>
@@ -8916,7 +8843,7 @@
         <v>30</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>32</v>
@@ -8940,10 +8867,10 @@
         <v>122</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>23</v>
@@ -8962,7 +8889,7 @@
       </c>
       <c r="M135" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N135, $O135, "/", $P135, "/", $F135,  $Q135, $R135)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_060/outs/molecule_info.h10</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_060/outs/molecule_info.h5</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>27</v>
@@ -8977,7 +8904,7 @@
         <v>30</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="S135" s="2" t="s">
         <v>32</v>
@@ -9001,10 +8928,10 @@
         <v>122</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>23</v>
@@ -9023,7 +8950,7 @@
       </c>
       <c r="M136" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N136, $O136, "/", $P136, "/", $F136,  $Q136, $R136)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_063/outs/molecule_info.h11</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_063/outs/molecule_info.h5</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>27</v>
@@ -9038,7 +8965,7 @@
         <v>30</v>
       </c>
       <c r="R136" s="2" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>32</v>
@@ -9062,10 +8989,10 @@
         <v>122</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>23</v>
@@ -9084,7 +9011,7 @@
       </c>
       <c r="M137" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N137, $O137, "/", $P137, "/", $F137,  $Q137, $R137)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76643_V11/outs/molecule_info.h12</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76643_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>27</v>
@@ -9093,13 +9020,13 @@
         <v>158</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="S137" s="2" t="s">
         <v>32</v>
@@ -9123,10 +9050,10 @@
         <v>122</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>23</v>
@@ -9145,7 +9072,7 @@
       </c>
       <c r="M138" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N138, $O138, "/", $P138, "/", $F138,  $Q138, $R138)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76649_V11/outs/molecule_info.h13</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76649_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>27</v>
@@ -9154,13 +9081,13 @@
         <v>158</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q138" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="S138" s="2" t="s">
         <v>32</v>
@@ -9184,10 +9111,10 @@
         <v>122</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>23</v>
@@ -9206,7 +9133,7 @@
       </c>
       <c r="M139" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N139, $O139, "/", $P139, "/", $F139,  $Q139, $R139)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76647_V11/outs/molecule_info.h14</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76647_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>27</v>
@@ -9215,13 +9142,13 @@
         <v>158</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="S139" s="2" t="s">
         <v>32</v>
@@ -9245,10 +9172,10 @@
         <v>122</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>23</v>
@@ -9267,7 +9194,7 @@
       </c>
       <c r="M140" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N140, $O140, "/", $P140, "/", $F140,  $Q140, $R140)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76656_V11/outs/molecule_info.h15</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76656_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>27</v>
@@ -9276,13 +9203,13 @@
         <v>158</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="S140" s="2" t="s">
         <v>32</v>
@@ -9306,10 +9233,10 @@
         <v>129</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>23</v>
@@ -9328,7 +9255,7 @@
       </c>
       <c r="M141" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N141, $O141, "/", $P141, "/", $F141,  $Q141, $R141)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V11/outs/molecule_info.h16</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>27</v>
@@ -9337,13 +9264,13 @@
         <v>158</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>32</v>
@@ -9389,7 +9316,7 @@
       </c>
       <c r="M142" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N142, $O142, "/", $P142, "/", $F142,  $Q142, $R142)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11/outs/molecule_info.h17</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11/outs/molecule_info.h5</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>27</v>
@@ -9398,13 +9325,13 @@
         <v>158</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="S142" s="2" t="s">
         <v>32</v>
@@ -9450,7 +9377,7 @@
       </c>
       <c r="M143" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N143, $O143, "/", $P143, "/", $F143,  $Q143, $R143)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5/outs/molecule_info.h18</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>27</v>
@@ -9459,13 +9386,13 @@
         <v>158</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q143" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="S143" s="2" t="s">
         <v>32</v>
@@ -9489,10 +9416,10 @@
         <v>129</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>23</v>
@@ -9511,7 +9438,7 @@
       </c>
       <c r="M144" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N144, $O144, "/", $P144, "/", $F144,  $Q144, $R144)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76660_V5/outs/molecule_info.h19</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76660_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>27</v>
@@ -9520,13 +9447,13 @@
         <v>158</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="S144" s="2" t="s">
         <v>32</v>
@@ -9550,10 +9477,10 @@
         <v>129</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>23</v>
@@ -9572,7 +9499,7 @@
       </c>
       <c r="M145" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N145, $O145, "/", $P145, "/", $F145,  $Q145, $R145)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76661_V5/outs/molecule_info.h20</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76661_V5/outs/molecule_info.h5</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>27</v>
@@ -9581,13 +9508,13 @@
         <v>158</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="S145" s="2" t="s">
         <v>32</v>
@@ -9611,10 +9538,10 @@
         <v>129</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>23</v>
@@ -9633,7 +9560,7 @@
       </c>
       <c r="M146" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N146, $O146, "/", $P146, "/", $F146,  $Q146, $R146)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_071/outs/molecule_info.h21</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_071/outs/molecule_info.h5</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>27</v>
@@ -9642,13 +9569,13 @@
         <v>158</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="S146" s="2" t="s">
         <v>32</v>
@@ -9672,10 +9599,10 @@
         <v>129</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>23</v>
@@ -9694,7 +9621,7 @@
       </c>
       <c r="M147" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N147, $O147, "/", $P147, "/", $F147,  $Q147, $R147)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_069/outs/molecule_info.h22</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_069/outs/molecule_info.h5</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>27</v>
@@ -9703,13 +9630,13 @@
         <v>158</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>32</v>
@@ -9733,10 +9660,10 @@
         <v>129</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>23</v>
@@ -9755,7 +9682,7 @@
       </c>
       <c r="M148" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N148, $O148, "/", $P148, "/", $F148,  $Q148, $R148)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_073/outs/molecule_info.h23</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_073/outs/molecule_info.h5</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>27</v>
@@ -9764,13 +9691,13 @@
         <v>158</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="S148" s="2" t="s">
         <v>32</v>
@@ -9794,10 +9721,10 @@
         <v>129</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>23</v>
@@ -9816,7 +9743,7 @@
       </c>
       <c r="M149" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N149, $O149, "/", $P149, "/", $F149,  $Q149, $R149)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_072/outs/molecule_info.h24</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_072/outs/molecule_info.h5</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>27</v>
@@ -9825,13 +9752,13 @@
         <v>158</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R149" s="2" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="S149" s="2" t="s">
         <v>32</v>
@@ -9855,10 +9782,10 @@
         <v>109</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>23</v>
@@ -9877,7 +9804,7 @@
       </c>
       <c r="M150" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N150, $O150, "/", $P150, "/", $F150,  $Q150, $R150)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_075/outs/molecule_info.h25</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_075/outs/molecule_info.h5</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>27</v>
@@ -9886,13 +9813,13 @@
         <v>158</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="S150" s="2" t="s">
         <v>32</v>
@@ -9916,10 +9843,10 @@
         <v>109</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>23</v>
@@ -9938,7 +9865,7 @@
       </c>
       <c r="M151" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N151, $O151, "/", $P151, "/", $F151,  $Q151, $R151)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077/outs/molecule_info.h26</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077/outs/molecule_info.h5</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>27</v>
@@ -9947,13 +9874,13 @@
         <v>158</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>32</v>
@@ -9977,10 +9904,10 @@
         <v>109</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>23</v>
@@ -9999,7 +9926,7 @@
       </c>
       <c r="M152" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N152, $O152, "/", $P152, "/", $F152,  $Q152, $R152)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_FZ/outs/molecule_info.h27</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_FZ/outs/molecule_info.h5</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>27</v>
@@ -10008,13 +9935,13 @@
         <v>158</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="S152" s="2" t="s">
         <v>32</v>
@@ -10038,10 +9965,10 @@
         <v>109</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>23</v>
@@ -10060,7 +9987,7 @@
       </c>
       <c r="M153" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N153, $O153, "/", $P153, "/", $F153,  $Q153, $R153)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_LS/outs/molecule_info.h28</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_LS/outs/molecule_info.h5</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>27</v>
@@ -10069,13 +9996,13 @@
         <v>158</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="S153" s="2" t="s">
         <v>32</v>
@@ -10099,10 +10026,10 @@
         <v>109</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>23</v>
@@ -10121,7 +10048,7 @@
       </c>
       <c r="M154" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N154, $O154, "/", $P154, "/", $F154,  $Q154, $R154)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_079/outs/molecule_info.h29</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_079/outs/molecule_info.h5</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>27</v>
@@ -10130,13 +10057,13 @@
         <v>158</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="S154" s="2" t="s">
         <v>32</v>
@@ -10163,7 +10090,7 @@
         <v>163</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>77</v>
@@ -10182,7 +10109,7 @@
       </c>
       <c r="M155" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N155, $O155, "/", $P155, "/", $F155,  $Q155, $R155)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine/outs/molecule_info.h17</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>27</v>
@@ -10191,13 +10118,13 @@
         <v>158</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R155" s="2" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="S155" s="2" t="s">
         <v>32</v>
@@ -10224,7 +10151,7 @@
         <v>92</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>77</v>
@@ -10243,7 +10170,7 @@
       </c>
       <c r="M156" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N156, $O156, "/", $P156, "/", $F156,  $Q156, $R156)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine/outs/molecule_info.h6</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>27</v>
@@ -10258,7 +10185,7 @@
         <v>30</v>
       </c>
       <c r="R156" s="2" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="S156" s="2" t="s">
         <v>32</v>
@@ -10301,7 +10228,7 @@
       </c>
       <c r="M157" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N157, $O157, "/", $P157, "/", $F157,  $Q157, $R157)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine/outs/molecule_info.h7</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>27</v>
@@ -10316,7 +10243,7 @@
         <v>30</v>
       </c>
       <c r="R157" s="2" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>32</v>
@@ -10343,7 +10270,7 @@
         <v>120</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>77</v>
@@ -10362,7 +10289,7 @@
       </c>
       <c r="M158" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N158, $O158, "/", $P158, "/", $F158,  $Q158, $R158)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine_force12000/outs/molecule_info.h7</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine_force12000/outs/molecule_info.h5</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>27</v>
@@ -10377,7 +10304,7 @@
         <v>30</v>
       </c>
       <c r="R158" s="2" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>32</v>
@@ -10404,7 +10331,7 @@
         <v>121</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>77</v>
@@ -10423,7 +10350,7 @@
       </c>
       <c r="M159" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N159, $O159, "/", $P159, "/", $F159,  $Q159, $R159)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine/outs/molecule_info.h8</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>27</v>
@@ -10438,7 +10365,7 @@
         <v>30</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="S159" s="2" t="s">
         <v>32</v>
@@ -10465,7 +10392,7 @@
         <v>162</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>77</v>
@@ -10484,7 +10411,7 @@
       </c>
       <c r="M160" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N160, $O160, "/", $P160, "/", $F160,  $Q160, $R160)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine/outs/molecule_info.h18</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine/outs/molecule_info.h5</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>27</v>
@@ -10493,13 +10420,13 @@
         <v>158</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R160" s="2" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="S160" s="2" t="s">
         <v>32</v>
@@ -10526,7 +10453,7 @@
         <v>162</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>174</v>
@@ -10545,7 +10472,7 @@
       </c>
       <c r="M161" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N161, $O161, "/", $P161, "/", $F161,  $Q161, $R161)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine_force12000/outs/molecule_info.h18</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine_force12000/outs/molecule_info.h5</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>27</v>
@@ -10554,13 +10481,13 @@
         <v>158</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R161" s="2" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="S161" s="2" t="s">
         <v>32</v>
@@ -10576,7 +10503,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T161"/>
+  <autoFilter ref="A1:T129"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10618,13 +10545,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -10632,7 +10559,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -10644,271 +10571,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="225">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -179,99 +179,99 @@
     <t xml:space="preserve">76638_V11_combine_force12000</t>
   </si>
   <si>
+    <t xml:space="preserve">76638_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_Muscle_combine_force10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_combine_force15000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_force10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amei-R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masternak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210716_L1_count_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amei-R1_Multiplex</t>
+  </si>
+  <si>
     <t xml:space="preserve">middle</t>
   </si>
   <si>
-    <t xml:space="preserve">76638_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle_combine_force10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5_combine_force15000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5_force10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5_combine_force12000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76660_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76661_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masternak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L1_count_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R1_Multiplex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amei-R2</t>
   </si>
   <si>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">STARR_049_combine</t>
   </si>
   <si>
-    <t xml:space="preserve">STARR_049_combine_force15000</t>
+    <t xml:space="preserve">STARR_049_combine_force8000</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_051</t>
@@ -684,6 +684,15 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5_force6500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V11_combine_force6000</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -819,17 +828,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
-      <selection pane="bottomRight" activeCell="G166" activeCellId="0" sqref="G166"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F174" activeCellId="0" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -920,7 +929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>63</v>
       </c>
@@ -981,7 +990,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>81</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>102</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>114</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>71</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>100</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>115</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>111</v>
       </c>
@@ -1417,7 +1426,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>125</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>141</v>
       </c>
@@ -1539,7 +1548,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>154</v>
       </c>
@@ -1558,9 +1567,7 @@
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G12" s="0"/>
       <c r="I12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>161</v>
       </c>
@@ -1619,8 +1626,8 @@
       <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>24</v>
@@ -1661,7 +1668,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine_force12000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>82</v>
       </c>
@@ -1675,10 +1682,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>34</v>
@@ -1722,7 +1729,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>108</v>
       </c>
@@ -1736,10 +1743,10 @@
         <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>34</v>
@@ -1786,7 +1793,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>116</v>
       </c>
@@ -1800,10 +1807,10 @@
         <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>22</v>
@@ -1847,7 +1854,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>83</v>
       </c>
@@ -1861,10 +1868,10 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>34</v>
@@ -1908,7 +1915,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>84</v>
       </c>
@@ -1922,10 +1929,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>34</v>
@@ -1966,7 +1973,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>107</v>
       </c>
@@ -1980,10 +1987,10 @@
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>34</v>
@@ -2030,7 +2037,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>117</v>
       </c>
@@ -2044,10 +2051,10 @@
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>34</v>
@@ -2091,7 +2098,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>128</v>
       </c>
@@ -2105,10 +2112,10 @@
         <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>34</v>
@@ -2152,7 +2159,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>136</v>
       </c>
@@ -2163,13 +2170,13 @@
         <v>20220620</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
@@ -2213,7 +2220,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76643_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>85</v>
       </c>
@@ -2227,10 +2234,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>34</v>
@@ -2274,7 +2281,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>103</v>
       </c>
@@ -2288,10 +2295,10 @@
         <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>34</v>
@@ -2338,7 +2345,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>118</v>
       </c>
@@ -2352,10 +2359,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>22</v>
@@ -2399,7 +2406,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>138</v>
       </c>
@@ -2410,13 +2417,13 @@
         <v>20220620</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>23</v>
@@ -2460,7 +2467,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76647_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>86</v>
       </c>
@@ -2474,10 +2481,10 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>34</v>
@@ -2521,7 +2528,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>104</v>
       </c>
@@ -2535,10 +2542,10 @@
         <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>34</v>
@@ -2585,7 +2592,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>119</v>
       </c>
@@ -2599,10 +2606,10 @@
         <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>22</v>
@@ -2646,7 +2653,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>137</v>
       </c>
@@ -2657,13 +2664,13 @@
         <v>20220620</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>23</v>
@@ -2707,7 +2714,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76649_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>87</v>
       </c>
@@ -2721,10 +2728,10 @@
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>34</v>
@@ -2768,7 +2775,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>106</v>
       </c>
@@ -2782,10 +2789,10 @@
         <v>20</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>34</v>
@@ -2832,7 +2839,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>120</v>
       </c>
@@ -2846,13 +2853,13 @@
         <v>20</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>24</v>
@@ -2893,7 +2900,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>126</v>
       </c>
@@ -2907,13 +2914,13 @@
         <v>20</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>24</v>
@@ -2954,7 +2961,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force15000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>139</v>
       </c>
@@ -2965,13 +2972,13 @@
         <v>20220620</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>23</v>
@@ -3015,7 +3022,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76656_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>109</v>
       </c>
@@ -3029,10 +3036,10 @@
         <v>43</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>22</v>
@@ -3079,7 +3086,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>140</v>
       </c>
@@ -3093,10 +3100,10 @@
         <v>39</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>23</v>
@@ -3140,7 +3147,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>110</v>
       </c>
@@ -3154,10 +3161,10 @@
         <v>43</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>34</v>
@@ -3204,7 +3211,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>127</v>
       </c>
@@ -3218,10 +3225,10 @@
         <v>43</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>34</v>
@@ -3265,7 +3272,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>142</v>
       </c>
@@ -3279,10 +3286,10 @@
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>23</v>
@@ -3326,7 +3333,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>159</v>
       </c>
@@ -3340,10 +3347,10 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>34</v>
@@ -3387,7 +3394,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>160</v>
       </c>
@@ -3401,10 +3408,10 @@
         <v>39</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>22</v>
@@ -3449,7 +3456,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine_force12000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>143</v>
       </c>
@@ -3463,10 +3470,10 @@
         <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>23</v>
@@ -3510,7 +3517,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76660_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>144</v>
       </c>
@@ -3524,10 +3531,10 @@
         <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>23</v>
@@ -3571,7 +3578,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76661_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>67</v>
       </c>
@@ -3582,13 +3589,13 @@
         <v>20210716</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>22</v>
@@ -3597,7 +3604,7 @@
         <v>23</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>20210920</v>
@@ -3619,7 +3626,7 @@
         <v>28</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>30</v>
@@ -3635,7 +3642,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>121</v>
       </c>
@@ -3646,19 +3653,19 @@
         <v>20210716</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>25</v>
@@ -3677,7 +3684,7 @@
         <v>28</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>30</v>
@@ -3693,7 +3700,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>68</v>
       </c>
@@ -3704,7 +3711,7 @@
         <v>20210716</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>80</v>
@@ -3719,7 +3726,7 @@
         <v>23</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>20210920</v>
@@ -3741,7 +3748,7 @@
         <v>28</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>30</v>
@@ -3757,7 +3764,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>122</v>
       </c>
@@ -3768,7 +3775,7 @@
         <v>20210716</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>81</v>
@@ -3777,10 +3784,10 @@
         <v>81</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>25</v>
@@ -3799,7 +3806,7 @@
         <v>28</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>30</v>
@@ -3815,7 +3822,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>10</v>
       </c>
@@ -3873,7 +3880,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>23</v>
       </c>
@@ -3928,7 +3935,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>26</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>32</v>
       </c>
@@ -4041,7 +4048,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>33</v>
       </c>
@@ -4096,7 +4103,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>34</v>
       </c>
@@ -4151,7 +4158,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>69</v>
       </c>
@@ -4162,7 +4169,7 @@
         <v>20210716</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>96</v>
@@ -4177,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>20210920</v>
@@ -4199,7 +4206,7 @@
         <v>28</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>30</v>
@@ -4215,7 +4222,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>123</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>20210716</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>97</v>
@@ -4235,10 +4242,10 @@
         <v>97</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>25</v>
@@ -4257,7 +4264,7 @@
         <v>28</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>30</v>
@@ -4273,7 +4280,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>70</v>
       </c>
@@ -4284,7 +4291,7 @@
         <v>20210716</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>98</v>
@@ -4299,7 +4306,7 @@
         <v>23</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>20210920</v>
@@ -4321,7 +4328,7 @@
         <v>28</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>30</v>
@@ -4337,7 +4344,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>124</v>
       </c>
@@ -4348,7 +4355,7 @@
         <v>20210716</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>99</v>
@@ -4357,10 +4364,10 @@
         <v>99</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>25</v>
@@ -4379,7 +4386,7 @@
         <v>28</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>30</v>
@@ -4395,7 +4402,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>60</v>
       </c>
@@ -4453,7 +4460,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>14</v>
       </c>
@@ -4511,7 +4518,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>51</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>59</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>13</v>
       </c>
@@ -4682,7 +4689,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>50</v>
       </c>
@@ -4740,7 +4747,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>57</v>
       </c>
@@ -4795,7 +4802,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>58</v>
       </c>
@@ -4850,7 +4857,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>4</v>
       </c>
@@ -4908,7 +4915,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>18</v>
       </c>
@@ -4966,7 +4973,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>3</v>
       </c>
@@ -5024,7 +5031,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>17</v>
       </c>
@@ -5082,7 +5089,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>12</v>
       </c>
@@ -5140,7 +5147,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>49</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>54</v>
       </c>
@@ -5253,7 +5260,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>55</v>
       </c>
@@ -5308,7 +5315,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>56</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>11</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>48</v>
       </c>
@@ -5479,7 +5486,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>52</v>
       </c>
@@ -5534,7 +5541,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>53</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>62</v>
       </c>
@@ -5647,7 +5654,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>72</v>
       </c>
@@ -5705,7 +5712,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>73</v>
       </c>
@@ -5760,7 +5767,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>74</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>61</v>
       </c>
@@ -5873,7 +5880,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Marmoset_Olaf/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>2</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>16</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>1</v>
       </c>
@@ -6047,7 +6054,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>15</v>
       </c>
@@ -6105,7 +6112,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>5</v>
       </c>
@@ -6163,7 +6170,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>19</v>
       </c>
@@ -6221,7 +6228,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>46</v>
       </c>
@@ -6276,7 +6283,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>47</v>
       </c>
@@ -7489,7 +7496,7 @@
         <v>165</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>147</v>
@@ -7660,7 +7667,7 @@
         <v>20220616</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>166</v>
@@ -7724,7 +7731,7 @@
         <v>20220616</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>166</v>
@@ -7785,16 +7792,13 @@
         <v>20220616</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>147</v>
@@ -9182,7 +9186,7 @@
         <v>20220616</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>190</v>
@@ -9246,7 +9250,7 @@
         <v>20220616</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>190</v>
@@ -9307,7 +9311,7 @@
         <v>20220616</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>190</v>
@@ -9490,7 +9494,7 @@
         <v>20220616</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>194</v>
@@ -9554,7 +9558,7 @@
         <v>20220616</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>194</v>
@@ -9615,16 +9619,13 @@
         <v>20220616</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>147</v>
@@ -9871,7 +9872,7 @@
         <v>200</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>147</v>
@@ -9887,7 +9888,7 @@
       </c>
       <c r="M151" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N151, $O151, "/", $P151, "/", $F151,  $Q151, $R151)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force15000/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8000/outs/molecule_info.h5</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>27</v>
@@ -9909,7 +9910,7 @@
       </c>
       <c r="T151" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N151, $O151, "/", $P151, "/", $F151,  $Q151, $S151,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force15000/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8000/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10109,7 +10110,7 @@
         <v>20220616</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>203</v>
@@ -10173,7 +10174,7 @@
         <v>20220616</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>205</v>
@@ -10237,7 +10238,7 @@
         <v>20220616</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>206</v>
@@ -10971,6 +10972,189 @@
       <c r="T168" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N168, $O168, "/", $P168, "/", $F168,  $Q168, $S168,)</f>
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_079/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J169" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M169" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N169, $O169, "/", $P169, "/", $F169,  $Q169, $R169)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5_force6500/outs/molecule_info.h5</v>
+      </c>
+      <c r="N169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P169" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q169" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T169" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N169, $O169, "/", $P169, "/", $F169,  $Q169, $S169,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5_force6500/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J170" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M170" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N170, $O170, "/", $P170, "/", $F170,  $Q170, $R170)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force12000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q170" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R170" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T170" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N170, $O170, "/", $P170, "/", $F170,  $Q170, $S170,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J171" s="1" t="n">
+        <v>20211117</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M171" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N171, $O171, "/", $P171, "/", $F171,  $Q171, $R171)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine_force6000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q171" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R171" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S171" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T171" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N171, $O171, "/", $P171, "/", $F171,  $Q171, $S171,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine_force6000/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10979,13 +11163,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T168">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="STARR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T168"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11027,13 +11205,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -11041,7 +11219,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>88</v>
@@ -11053,271 +11231,271 @@
         <v>84</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$175</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$176</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="229">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_026_combine_force9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026_combine_force8000</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -843,11 +846,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H152" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A155" activeCellId="0" sqref="A155"/>
-      <selection pane="bottomRight" activeCell="G178" activeCellId="0" sqref="G178"/>
+      <selection pane="bottomLeft" activeCell="A152" activeCellId="0" sqref="A152"/>
+      <selection pane="bottomRight" activeCell="H177" activeCellId="0" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10194,7 +10197,7 @@
         <v>205</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>46</v>
@@ -11332,6 +11335,9 @@
       <c r="F175" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="G175" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I175" s="3" t="s">
         <v>46</v>
       </c>
@@ -11369,6 +11375,67 @@
       <c r="T175" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N175, $O175, "/", $P175, "/", $F175,  $Q175, $S175,)</f>
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force9000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J176" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M176" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N176, $O176, "/", $P176, "/", $F176,  $Q176, $R176)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q176" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R176" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T176" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N176, $O176, "/", $P176, "/", $F176,  $Q176, $S176,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8000/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11377,7 +11444,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T175"/>
+  <autoFilter ref="A1:T176"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11419,13 +11486,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -11433,7 +11500,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -11445,271 +11512,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="248">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -320,6 +320,9 @@
     <t xml:space="preserve">Nova_STARR032</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_024_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rapa_Mar_combine</t>
   </si>
   <si>
@@ -350,6 +353,9 @@
     <t xml:space="preserve">ND_Old_combine_force</t>
   </si>
   <si>
+    <t xml:space="preserve">ND_Old_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">HFD_Young_combine_force</t>
   </si>
   <si>
@@ -428,6 +434,9 @@
     <t xml:space="preserve">20210716_L2_counts_single</t>
   </si>
   <si>
+    <t xml:space="preserve">Norton_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norton_combine</t>
   </si>
   <si>
@@ -437,6 +446,9 @@
     <t xml:space="preserve">STARR_024_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_041_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_041_combine</t>
   </si>
   <si>
@@ -506,15 +518,60 @@
     <t xml:space="preserve">STARR_039_force1500</t>
   </si>
   <si>
+    <t xml:space="preserve">76632_V5_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">SequencingFiles_3</t>
   </si>
   <si>
     <t xml:space="preserve">20211105_L3_L4_Counts</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_049_2nd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76632_V11_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2nd</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">L4</t>
   </si>
   <si>
+    <t xml:space="preserve">76638_V5_Muscle_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">76656_V5</t>
   </si>
   <si>
@@ -581,9 +638,18 @@
     <t xml:space="preserve">STARR_043_force9000</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_026_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220616_L1_Counts</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_041_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_043_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_059</t>
   </si>
   <si>
@@ -611,6 +677,12 @@
     <t xml:space="preserve">76658_V11</t>
   </si>
   <si>
+    <t xml:space="preserve">76638_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">76660_V5</t>
   </si>
   <si>
@@ -650,7 +722,10 @@
     <t xml:space="preserve">STARR_026_combine</t>
   </si>
   <si>
-    <t xml:space="preserve">STARR_041_combine_force12000</t>
+    <t xml:space="preserve">STARR_041_combine3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_041_combine3_force12000</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_043_combine</t>
@@ -726,7 +801,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -752,6 +827,13 @@
       <sz val="10"/>
       <name val="C059"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -846,11 +928,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A152" activeCellId="0" sqref="A152"/>
-      <selection pane="bottomRight" activeCell="H177" activeCellId="0" sqref="H177"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F178" activeCellId="0" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -941,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -999,7 +1081,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1057,7 +1139,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1115,7 +1197,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1173,7 +1255,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -1231,7 +1313,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -1292,7 +1374,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -1353,7 +1435,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_forced/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -1411,7 +1493,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_premrna/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -1472,7 +1554,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_015_Next/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -1530,7 +1612,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -1588,7 +1670,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -1646,7 +1728,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -1704,7 +1786,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -1762,7 +1844,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1820,7 +1902,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -1878,7 +1960,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1936,7 +2018,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -1994,7 +2076,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -2052,7 +2134,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -2110,7 +2192,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -2168,7 +2250,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Forced_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -2226,7 +2308,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -2281,7 +2363,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -2339,7 +2421,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -2400,7 +2482,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/All_STARR_015fix/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -2455,7 +2537,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/ALL_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -2513,7 +2595,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -2574,7 +2656,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -2632,7 +2714,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_Nova/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -2693,7 +2775,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -2754,7 +2836,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -2812,7 +2894,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -2867,7 +2949,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -2922,7 +3004,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Button_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -2983,7 +3065,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026h/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -3041,7 +3123,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -3099,7 +3181,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -3157,7 +3239,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -3215,7 +3297,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -3273,7 +3355,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_STARR032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -3334,7 +3416,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_026/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -3351,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>44</v>
@@ -3370,7 +3452,7 @@
       </c>
       <c r="M43" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N43, $O43, "/", $P43, "/", $F43,  $Q43, $R43)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>27</v>
@@ -3392,10 +3474,10 @@
       </c>
       <c r="T43" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N43, $O43, "/", $P43, "/", $F43,  $Q43, $S43,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_024_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -3456,7 +3538,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -3514,7 +3596,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -3572,7 +3654,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -3589,7 +3671,7 @@
         <v>39</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>41</v>
@@ -3627,7 +3709,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -3644,7 +3726,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>23</v>
@@ -3685,7 +3767,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -3702,7 +3784,7 @@
         <v>54</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>23</v>
@@ -3743,7 +3825,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -3760,7 +3842,7 @@
         <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>23</v>
@@ -3801,7 +3883,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_NDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -3818,7 +3900,7 @@
         <v>57</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>23</v>
@@ -3859,7 +3941,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDYoung/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -3876,7 +3958,7 @@
         <v>58</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>23</v>
@@ -3917,7 +3999,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/Nova_HFDOld/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -3934,7 +4016,7 @@
         <v>54</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>55</v>
@@ -3972,7 +4054,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force_5000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -3989,7 +4071,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>55</v>
@@ -4027,7 +4109,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -4044,7 +4126,7 @@
         <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>55</v>
@@ -4082,7 +4164,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -4099,7 +4181,7 @@
         <v>56</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>55</v>
@@ -4137,7 +4219,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -4154,7 +4236,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>55</v>
@@ -4167,7 +4249,7 @@
       </c>
       <c r="M57" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N57, $O57, "/", $P57, "/", $F57,  $Q57, $R57)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>27</v>
@@ -4189,10 +4271,10 @@
       </c>
       <c r="T57" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N57, $O57, "/", $P57, "/", $F57,  $Q57, $S57,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/ND_Old_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -4209,7 +4291,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>55</v>
@@ -4247,7 +4329,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -4264,7 +4346,7 @@
         <v>57</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>55</v>
@@ -4302,7 +4384,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Young_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -4319,7 +4401,7 @@
         <v>58</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>55</v>
@@ -4357,7 +4439,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/HFD_Old_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -4368,13 +4450,13 @@
         <v>20210114</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>23</v>
@@ -4399,7 +4481,7 @@
         <v>28</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>30</v>
@@ -4415,7 +4497,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -4426,13 +4508,13 @@
         <v>20210114</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>23</v>
@@ -4457,7 +4539,7 @@
         <v>28</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>30</v>
@@ -4473,7 +4555,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Marmoset_Olaf/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -4484,13 +4566,13 @@
         <v>20210114</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>23</v>
@@ -4515,7 +4597,7 @@
         <v>28</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>30</v>
@@ -4531,7 +4613,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Norton/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -4542,13 +4624,13 @@
         <v>20210126</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>77</v>
@@ -4557,7 +4639,7 @@
         <v>23</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>51</v>
@@ -4573,10 +4655,10 @@
         <v>27</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>30</v>
@@ -4592,7 +4674,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -4603,13 +4685,13 @@
         <v>20210126</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>44</v>
@@ -4631,10 +4713,10 @@
         <v>27</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>30</v>
@@ -4650,7 +4732,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -4661,13 +4743,13 @@
         <v>20210126</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>44</v>
@@ -4692,10 +4774,10 @@
         <v>27</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>30</v>
@@ -4711,7 +4793,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_041/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -4722,13 +4804,13 @@
         <v>20210126</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>44</v>
@@ -4753,10 +4835,10 @@
         <v>27</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>30</v>
@@ -4772,7 +4854,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_043/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -4783,13 +4865,13 @@
         <v>20210716</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>77</v>
@@ -4798,7 +4880,7 @@
         <v>23</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J68" s="1" t="n">
         <v>20210920</v>
@@ -4817,10 +4899,10 @@
         <v>27</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>30</v>
@@ -4836,7 +4918,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -4847,13 +4929,13 @@
         <v>20210716</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>77</v>
@@ -4862,7 +4944,7 @@
         <v>23</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J69" s="1" t="n">
         <v>20210920</v>
@@ -4881,10 +4963,10 @@
         <v>27</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>30</v>
@@ -4900,7 +4982,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -4911,13 +4993,13 @@
         <v>20210716</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>77</v>
@@ -4926,7 +5008,7 @@
         <v>23</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J70" s="1" t="n">
         <v>20210920</v>
@@ -4945,10 +5027,10 @@
         <v>27</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>30</v>
@@ -4964,7 +5046,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -4975,13 +5057,13 @@
         <v>20210716</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>77</v>
@@ -4990,7 +5072,7 @@
         <v>23</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J71" s="1" t="n">
         <v>20210920</v>
@@ -5009,10 +5091,10 @@
         <v>27</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>30</v>
@@ -5028,7 +5110,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -5039,13 +5121,13 @@
         <v>20210716</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>44</v>
@@ -5054,7 +5136,7 @@
         <v>23</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>51</v>
@@ -5070,10 +5152,10 @@
         <v>27</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>30</v>
@@ -5089,7 +5171,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/76632_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -5100,13 +5182,13 @@
         <v>20210716</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>23</v>
@@ -5122,16 +5204,16 @@
       </c>
       <c r="M73" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N73, $O73, "/", $P73, "/", $F73,  $Q73, $R73)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>30</v>
@@ -5144,10 +5226,10 @@
       </c>
       <c r="T73" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N73, $O73, "/", $P73, "/", $F73,  $Q73, $S73,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -5158,13 +5240,13 @@
         <v>20210716</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>41</v>
@@ -5183,10 +5265,10 @@
         <v>27</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>30</v>
@@ -5202,7 +5284,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -5213,13 +5295,13 @@
         <v>20210716</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>41</v>
@@ -5238,10 +5320,10 @@
         <v>27</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>30</v>
@@ -5257,7 +5339,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/Norton_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -5268,7 +5350,7 @@
         <v>20210716</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>86</v>
@@ -5299,10 +5381,10 @@
         <v>27</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>30</v>
@@ -5318,7 +5400,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -5329,13 +5411,13 @@
         <v>20210716</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>44</v>
@@ -5357,10 +5439,10 @@
         <v>27</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>30</v>
@@ -5376,7 +5458,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -5387,13 +5469,13 @@
         <v>20210716</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>44</v>
@@ -5412,16 +5494,16 @@
       </c>
       <c r="M78" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N78, $O78, "/", $P78, "/", $F78,  $Q78, $R78)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>30</v>
@@ -5434,10 +5516,10 @@
       </c>
       <c r="T78" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N78, $O78, "/", $P78, "/", $F78,  $Q78, $S78,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -5448,13 +5530,13 @@
         <v>20210716</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>44</v>
@@ -5476,10 +5558,10 @@
         <v>27</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>30</v>
@@ -5495,7 +5577,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -5506,13 +5588,13 @@
         <v>20210716</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>44</v>
@@ -5534,10 +5616,10 @@
         <v>27</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>30</v>
@@ -5553,7 +5635,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_041_combine_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -5564,13 +5646,13 @@
         <v>20210716</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>44</v>
@@ -5595,10 +5677,10 @@
         <v>27</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>30</v>
@@ -5614,7 +5696,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_049/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -5625,13 +5707,13 @@
         <v>20210830</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>44</v>
@@ -5640,7 +5722,7 @@
         <v>23</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>51</v>
@@ -5656,10 +5738,10 @@
         <v>27</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>30</v>
@@ -5675,7 +5757,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76632_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -5686,13 +5768,13 @@
         <v>20210830</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>44</v>
@@ -5701,7 +5783,7 @@
         <v>23</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>51</v>
@@ -5717,10 +5799,10 @@
         <v>27</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>30</v>
@@ -5736,7 +5818,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -5747,13 +5829,13 @@
         <v>20210830</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>44</v>
@@ -5762,7 +5844,7 @@
         <v>23</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>51</v>
@@ -5778,10 +5860,10 @@
         <v>27</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>30</v>
@@ -5797,7 +5879,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -5808,19 +5890,19 @@
         <v>20210830</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>51</v>
@@ -5836,10 +5918,10 @@
         <v>27</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>30</v>
@@ -5855,7 +5937,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76638_V5_Muscle_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -5866,13 +5948,13 @@
         <v>20210830</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>44</v>
@@ -5881,7 +5963,7 @@
         <v>23</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>51</v>
@@ -5897,10 +5979,10 @@
         <v>27</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>30</v>
@@ -5916,7 +5998,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76643_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -5927,13 +6009,13 @@
         <v>20210830</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>44</v>
@@ -5942,7 +6024,7 @@
         <v>23</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>51</v>
@@ -5958,10 +6040,10 @@
         <v>27</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>30</v>
@@ -5977,7 +6059,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76647_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -5988,13 +6070,13 @@
         <v>20210830</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>44</v>
@@ -6003,7 +6085,7 @@
         <v>23</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>51</v>
@@ -6019,10 +6101,10 @@
         <v>27</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>30</v>
@@ -6038,7 +6120,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/76649_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
@@ -6049,13 +6131,13 @@
         <v>20210830</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>44</v>
@@ -6080,10 +6162,10 @@
         <v>27</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>30</v>
@@ -6099,7 +6181,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210830_L3_counts_dual/STARR_051/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -6116,7 +6198,7 @@
         <v>90</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>77</v>
@@ -6163,7 +6245,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -6180,7 +6262,7 @@
         <v>88</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>44</v>
@@ -6227,7 +6309,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -6244,7 +6326,7 @@
         <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>44</v>
@@ -6291,7 +6373,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -6302,13 +6384,13 @@
         <v>20210126</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>44</v>
@@ -6333,10 +6415,10 @@
         <v>27</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q93" s="2" t="s">
         <v>30</v>
@@ -6352,7 +6434,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
@@ -6369,7 +6451,7 @@
         <v>68</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>44</v>
@@ -6416,7 +6498,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
@@ -6433,7 +6515,7 @@
         <v>88</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>44</v>
@@ -6480,7 +6562,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
@@ -6497,7 +6579,7 @@
         <v>94</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>44</v>
@@ -6541,7 +6623,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
@@ -6558,7 +6640,7 @@
         <v>88</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>44</v>
@@ -6602,7 +6684,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2600/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
@@ -6619,7 +6701,7 @@
         <v>94</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>77</v>
@@ -6666,7 +6748,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
@@ -6683,7 +6765,7 @@
         <v>88</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>77</v>
@@ -6727,7 +6809,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
@@ -6738,13 +6820,13 @@
         <v>20210126</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>77</v>
@@ -6772,10 +6854,10 @@
         <v>27</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>30</v>
@@ -6791,7 +6873,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
@@ -6802,13 +6884,13 @@
         <v>20211105</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>44</v>
@@ -6817,7 +6899,7 @@
         <v>23</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J101" s="1" t="n">
         <v>20211117</v>
@@ -6830,16 +6912,16 @@
       </c>
       <c r="M101" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N101, $O101, "/", $P101, "/", $F101,  $Q101, $R101)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>30</v>
@@ -6852,10 +6934,10 @@
       </c>
       <c r="T101" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N101, $O101, "/", $P101, "/", $F101,  $Q101, $S101,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
@@ -6866,13 +6948,13 @@
         <v>20211105</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>44</v>
@@ -6894,16 +6976,16 @@
       </c>
       <c r="M102" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N102, $O102, "/", $P102, "/", $F102,  $Q102, $R102)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>30</v>
@@ -6916,10 +6998,10 @@
       </c>
       <c r="T102" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N102, $O102, "/", $P102, "/", $F102,  $Q102, $S102,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
@@ -6930,13 +7012,13 @@
         <v>20211105</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>44</v>
@@ -6945,7 +7027,7 @@
         <v>23</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J103" s="1" t="n">
         <v>20211117</v>
@@ -6958,16 +7040,16 @@
       </c>
       <c r="M103" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N103, $O103, "/", $P103, "/", $F103,  $Q103, $R103)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>30</v>
@@ -6980,10 +7062,10 @@
       </c>
       <c r="T103" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N103, $O103, "/", $P103, "/", $F103,  $Q103, $S103,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
@@ -6994,13 +7076,13 @@
         <v>20211105</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>44</v>
@@ -7009,7 +7091,7 @@
         <v>23</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J104" s="1" t="n">
         <v>20211117</v>
@@ -7022,16 +7104,16 @@
       </c>
       <c r="M104" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N104, $O104, "/", $P104, "/", $F104,  $Q104, $R104)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>30</v>
@@ -7044,10 +7126,10 @@
       </c>
       <c r="T104" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N104, $O104, "/", $P104, "/", $F104,  $Q104, $S104,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
@@ -7058,13 +7140,13 @@
         <v>20211105</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>44</v>
@@ -7073,7 +7155,7 @@
         <v>23</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J105" s="1" t="n">
         <v>20211117</v>
@@ -7086,16 +7168,16 @@
       </c>
       <c r="M105" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N105, $O105, "/", $P105, "/", $F105,  $Q105, $R105)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>30</v>
@@ -7108,10 +7190,10 @@
       </c>
       <c r="T105" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N105, $O105, "/", $P105, "/", $F105,  $Q105, $S105,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
@@ -7122,13 +7204,13 @@
         <v>20211105</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>44</v>
@@ -7150,16 +7232,16 @@
       </c>
       <c r="M106" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N106, $O106, "/", $P106, "/", $F106,  $Q106, $R106)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>30</v>
@@ -7172,10 +7254,10 @@
       </c>
       <c r="T106" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N106, $O106, "/", $P106, "/", $F106,  $Q106, $S106,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
@@ -7186,13 +7268,13 @@
         <v>20211105</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>44</v>
@@ -7201,7 +7283,7 @@
         <v>23</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J107" s="1" t="n">
         <v>20211117</v>
@@ -7214,16 +7296,16 @@
       </c>
       <c r="M107" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N107, $O107, "/", $P107, "/", $F107,  $Q107, $R107)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>30</v>
@@ -7236,10 +7318,10 @@
       </c>
       <c r="T107" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N107, $O107, "/", $P107, "/", $F107,  $Q107, $S107,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
@@ -7250,13 +7332,13 @@
         <v>20211105</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>44</v>
@@ -7265,7 +7347,7 @@
         <v>23</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J108" s="1" t="n">
         <v>20211117</v>
@@ -7278,16 +7360,16 @@
       </c>
       <c r="M108" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N108, $O108, "/", $P108, "/", $F108,  $Q108, $R108)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>30</v>
@@ -7300,10 +7382,10 @@
       </c>
       <c r="T108" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N108, $O108, "/", $P108, "/", $F108,  $Q108, $S108,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
@@ -7314,13 +7396,13 @@
         <v>20211105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>44</v>
@@ -7329,7 +7411,7 @@
         <v>23</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J109" s="1" t="n">
         <v>20211117</v>
@@ -7342,16 +7424,16 @@
       </c>
       <c r="M109" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N109, $O109, "/", $P109, "/", $F109,  $Q109, $R109)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>30</v>
@@ -7364,10 +7446,10 @@
       </c>
       <c r="T109" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N109, $O109, "/", $P109, "/", $F109,  $Q109, $S109,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
@@ -7378,13 +7460,13 @@
         <v>20211105</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>77</v>
@@ -7393,7 +7475,7 @@
         <v>23</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J110" s="1" t="n">
         <v>20211117</v>
@@ -7412,10 +7494,10 @@
         <v>27</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>30</v>
@@ -7431,7 +7513,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
@@ -7442,13 +7524,13 @@
         <v>20211105</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>44</v>
@@ -7457,7 +7539,7 @@
         <v>23</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J111" s="1" t="n">
         <v>20211117</v>
@@ -7476,10 +7558,10 @@
         <v>27</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>30</v>
@@ -7495,7 +7577,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
@@ -7506,13 +7588,13 @@
         <v>20211105</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>44</v>
@@ -7521,7 +7603,7 @@
         <v>23</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J112" s="1" t="n">
         <v>20211117</v>
@@ -7540,10 +7622,10 @@
         <v>27</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q112" s="2" t="s">
         <v>30</v>
@@ -7559,7 +7641,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
@@ -7570,13 +7652,13 @@
         <v>20211105</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>77</v>
@@ -7601,10 +7683,10 @@
         <v>27</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>30</v>
@@ -7620,7 +7702,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_051_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
@@ -7631,13 +7713,13 @@
         <v>20211105</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>44</v>
@@ -7662,10 +7744,10 @@
         <v>27</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>30</v>
@@ -7681,7 +7763,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
@@ -7692,19 +7774,19 @@
         <v>20211105</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J115" s="1" t="n">
         <v>20211117</v>
@@ -7723,10 +7805,10 @@
         <v>27</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>30</v>
@@ -7742,7 +7824,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
@@ -7753,19 +7835,19 @@
         <v>20211105</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J116" s="1" t="n">
         <v>20211117</v>
@@ -7784,10 +7866,10 @@
         <v>27</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>30</v>
@@ -7803,7 +7885,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
@@ -7814,19 +7896,19 @@
         <v>20211105</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J117" s="1" t="n">
         <v>20211117</v>
@@ -7845,10 +7927,10 @@
         <v>27</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>30</v>
@@ -7864,7 +7946,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
@@ -7875,19 +7957,19 @@
         <v>20211105</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J118" s="1" t="n">
         <v>20211117</v>
@@ -7906,10 +7988,10 @@
         <v>27</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q118" s="2" t="s">
         <v>30</v>
@@ -7925,7 +8007,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
@@ -7936,19 +8018,19 @@
         <v>20211105</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J119" s="1" t="n">
         <v>20211117</v>
@@ -7967,10 +8049,10 @@
         <v>27</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>30</v>
@@ -7986,7 +8068,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
@@ -7997,19 +8079,19 @@
         <v>20211105</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J120" s="1" t="n">
         <v>20211117</v>
@@ -8028,10 +8110,10 @@
         <v>27</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q120" s="2" t="s">
         <v>30</v>
@@ -8047,7 +8129,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
@@ -8058,19 +8140,19 @@
         <v>20211105</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J121" s="1" t="n">
         <v>20211117</v>
@@ -8089,10 +8171,10 @@
         <v>27</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q121" s="2" t="s">
         <v>30</v>
@@ -8108,7 +8190,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
@@ -8119,19 +8201,19 @@
         <v>20210716</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>51</v>
@@ -8147,10 +8229,10 @@
         <v>27</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>30</v>
@@ -8166,7 +8248,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R1_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
@@ -8177,19 +8259,19 @@
         <v>20210716</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>51</v>
@@ -8205,10 +8287,10 @@
         <v>27</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q123" s="2" t="s">
         <v>30</v>
@@ -8224,7 +8306,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Amei-R2_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
@@ -8235,19 +8317,19 @@
         <v>20210716</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>51</v>
@@ -8263,10 +8345,10 @@
         <v>27</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q124" s="2" t="s">
         <v>30</v>
@@ -8282,7 +8364,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R1_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
@@ -8293,19 +8375,19 @@
         <v>20210716</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>51</v>
@@ -8321,10 +8403,10 @@
         <v>27</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q125" s="2" t="s">
         <v>30</v>
@@ -8340,7 +8422,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L1_count_dual/Con-R2_Multiplex/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
@@ -8351,19 +8433,19 @@
         <v>20211105</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J126" s="1" t="n">
         <v>20211207</v>
@@ -8382,10 +8464,10 @@
         <v>27</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>30</v>
@@ -8401,7 +8483,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V11_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
@@ -8412,19 +8494,19 @@
         <v>20211105</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J127" s="1" t="n">
         <v>20211117</v>
@@ -8443,10 +8525,10 @@
         <v>27</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>30</v>
@@ -8462,7 +8544,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force15000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
@@ -8473,19 +8555,19 @@
         <v>20211105</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J128" s="1" t="n">
         <v>20211117</v>
@@ -8504,10 +8586,10 @@
         <v>27</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>30</v>
@@ -8523,7 +8605,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76658_V5_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
@@ -8534,19 +8616,19 @@
         <v>20211105</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J129" s="1" t="n">
         <v>20220624</v>
@@ -8565,10 +8647,10 @@
         <v>27</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q129" s="2" t="s">
         <v>30</v>
@@ -8584,7 +8666,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_Muscle_combine_force10000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
@@ -8595,13 +8677,13 @@
         <v>20210126</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>44</v>
@@ -8626,10 +8708,10 @@
         <v>27</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q130" s="2" t="s">
         <v>30</v>
@@ -8645,7 +8727,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_043_force9000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
@@ -8656,13 +8738,13 @@
         <v>20220616</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>44</v>
@@ -8684,16 +8766,16 @@
       </c>
       <c r="M131" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N131, $O131, "/", $P131, "/", $F131,  $Q131, $R131)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>30</v>
@@ -8706,10 +8788,10 @@
       </c>
       <c r="T131" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N131, $O131, "/", $P131, "/", $F131,  $Q131, $S131,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
@@ -8720,13 +8802,13 @@
         <v>20220616</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>44</v>
@@ -8748,16 +8830,16 @@
       </c>
       <c r="M132" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N132, $O132, "/", $P132, "/", $F132,  $Q132, $R132)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>30</v>
@@ -8770,10 +8852,10 @@
       </c>
       <c r="T132" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N132, $O132, "/", $P132, "/", $F132,  $Q132, $S132,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_3rd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
@@ -8784,13 +8866,13 @@
         <v>20220616</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>44</v>
@@ -8812,16 +8894,16 @@
       </c>
       <c r="M133" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N133, $O133, "/", $P133, "/", $F133,  $Q133, $R133)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>30</v>
@@ -8834,10 +8916,10 @@
       </c>
       <c r="T133" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N133, $O133, "/", $P133, "/", $F133,  $Q133, $S133,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
@@ -8848,13 +8930,13 @@
         <v>20220616</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>23</v>
@@ -8879,10 +8961,10 @@
         <v>27</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>30</v>
@@ -8898,7 +8980,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
@@ -8909,13 +8991,13 @@
         <v>20220616</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>23</v>
@@ -8940,10 +9022,10 @@
         <v>27</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q135" s="2" t="s">
         <v>30</v>
@@ -8959,7 +9041,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_060/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
@@ -8970,13 +9052,13 @@
         <v>20220616</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>23</v>
@@ -9001,10 +9083,10 @@
         <v>27</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q136" s="2" t="s">
         <v>30</v>
@@ -9020,7 +9102,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_063/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
@@ -9031,19 +9113,19 @@
         <v>20220620</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J137" s="1" t="n">
         <v>20220624</v>
@@ -9062,10 +9144,10 @@
         <v>27</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>30</v>
@@ -9081,7 +9163,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76643_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
@@ -9092,19 +9174,19 @@
         <v>20220620</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J138" s="1" t="n">
         <v>20220624</v>
@@ -9123,10 +9205,10 @@
         <v>27</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q138" s="2" t="s">
         <v>30</v>
@@ -9142,7 +9224,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76649_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
@@ -9153,19 +9235,19 @@
         <v>20220620</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J139" s="1" t="n">
         <v>20220624</v>
@@ -9184,10 +9266,10 @@
         <v>27</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>30</v>
@@ -9203,7 +9285,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76647_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
@@ -9214,19 +9296,19 @@
         <v>20220620</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J140" s="1" t="n">
         <v>20220624</v>
@@ -9245,10 +9327,10 @@
         <v>27</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>30</v>
@@ -9264,7 +9346,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76656_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
@@ -9275,19 +9357,19 @@
         <v>20220620</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J141" s="1" t="n">
         <v>20220624</v>
@@ -9306,10 +9388,10 @@
         <v>27</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>30</v>
@@ -9325,7 +9407,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
@@ -9336,19 +9418,19 @@
         <v>20220620</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J142" s="1" t="n">
         <v>20220624</v>
@@ -9361,16 +9443,16 @@
       </c>
       <c r="M142" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N142, $O142, "/", $P142, "/", $F142,  $Q142, $R142)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>30</v>
@@ -9383,10 +9465,10 @@
       </c>
       <c r="T142" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N142, $O142, "/", $P142, "/", $F142,  $Q142, $S142,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
@@ -9397,19 +9479,19 @@
         <v>20220620</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J143" s="1" t="n">
         <v>20220624</v>
@@ -9422,16 +9504,16 @@
       </c>
       <c r="M143" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N143, $O143, "/", $P143, "/", $F143,  $Q143, $R143)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q143" s="2" t="s">
         <v>30</v>
@@ -9444,10 +9526,10 @@
       </c>
       <c r="T143" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N143, $O143, "/", $P143, "/", $F143,  $Q143, $S143,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
@@ -9458,19 +9540,19 @@
         <v>20220620</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J144" s="1" t="n">
         <v>20220624</v>
@@ -9489,10 +9571,10 @@
         <v>27</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>30</v>
@@ -9508,7 +9590,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76660_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
@@ -9519,19 +9601,19 @@
         <v>20220620</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J145" s="1" t="n">
         <v>20220624</v>
@@ -9550,10 +9632,10 @@
         <v>27</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>30</v>
@@ -9569,7 +9651,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76661_V5/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
@@ -9580,13 +9662,13 @@
         <v>20220616</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>23</v>
@@ -9611,10 +9693,10 @@
         <v>27</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>30</v>
@@ -9630,7 +9712,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_071/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>146</v>
       </c>
@@ -9641,13 +9723,13 @@
         <v>20220616</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>23</v>
@@ -9672,10 +9754,10 @@
         <v>27</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>30</v>
@@ -9691,7 +9773,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_069/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>147</v>
       </c>
@@ -9702,13 +9784,13 @@
         <v>20220616</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>23</v>
@@ -9733,10 +9815,10 @@
         <v>27</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>30</v>
@@ -9752,7 +9834,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_073/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>148</v>
       </c>
@@ -9763,13 +9845,13 @@
         <v>20220616</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>23</v>
@@ -9794,10 +9876,10 @@
         <v>27</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>30</v>
@@ -9813,7 +9895,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_072/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
@@ -9824,13 +9906,13 @@
         <v>20220616</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>23</v>
@@ -9855,10 +9937,10 @@
         <v>27</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>30</v>
@@ -9874,7 +9956,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_075/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
@@ -9885,13 +9967,13 @@
         <v>20220616</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>23</v>
@@ -9916,10 +9998,10 @@
         <v>27</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>30</v>
@@ -9935,7 +10017,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>151</v>
       </c>
@@ -9946,13 +10028,13 @@
         <v>20220616</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>23</v>
@@ -9977,10 +10059,10 @@
         <v>27</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>30</v>
@@ -9996,7 +10078,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_FZ/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
@@ -10007,13 +10089,13 @@
         <v>20220616</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>23</v>
@@ -10038,10 +10120,10 @@
         <v>27</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>30</v>
@@ -10057,7 +10139,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_LS/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>153</v>
       </c>
@@ -10068,13 +10150,13 @@
         <v>20220616</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>23</v>
@@ -10099,10 +10181,10 @@
         <v>27</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>30</v>
@@ -10118,7 +10200,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_079/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
@@ -10129,17 +10211,17 @@
         <v>20220620</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G155" s="0"/>
       <c r="I155" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J155" s="1" t="n">
         <v>20220624</v>
@@ -10158,10 +10240,10 @@
         <v>27</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>30</v>
@@ -10177,7 +10259,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
@@ -10188,13 +10270,13 @@
         <v>20220616</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>44</v>
@@ -10219,10 +10301,10 @@
         <v>27</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q156" s="2" t="s">
         <v>30</v>
@@ -10238,7 +10320,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
@@ -10249,13 +10331,13 @@
         <v>20220616</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F157" s="1" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>44</v>
@@ -10274,16 +10356,16 @@
       </c>
       <c r="M157" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N157, $O157, "/", $P157, "/", $F157,  $Q157, $R157)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/molecule_info.h5</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P157" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q157" s="2" t="s">
         <v>30</v>
@@ -10296,10 +10378,10 @@
       </c>
       <c r="T157" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N157, $O157, "/", $P157, "/", $F157,  $Q157, $S157,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
@@ -10310,13 +10392,13 @@
         <v>20220616</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F158" s="1" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>77</v>
@@ -10335,16 +10417,16 @@
       </c>
       <c r="M158" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N158, $O158, "/", $P158, "/", $F158,  $Q158, $R158)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine_force12000/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3_force12000/outs/molecule_info.h5</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>30</v>
@@ -10357,10 +10439,10 @@
       </c>
       <c r="T158" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N158, $O158, "/", $P158, "/", $F158,  $Q158, $S158,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine_force12000/outs/metrics_summary.csv</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
@@ -10371,13 +10453,13 @@
         <v>20220616</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>44</v>
@@ -10402,10 +10484,10 @@
         <v>27</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q159" s="2" t="s">
         <v>30</v>
@@ -10421,7 +10503,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
@@ -10432,19 +10514,19 @@
         <v>20220620</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J160" s="1" t="n">
         <v>20220624</v>
@@ -10463,10 +10545,10 @@
         <v>27</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>30</v>
@@ -10482,7 +10564,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>160</v>
       </c>
@@ -10493,20 +10575,20 @@
         <v>20220620</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H161" s="0"/>
       <c r="I161" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J161" s="1" t="n">
         <v>20220624</v>
@@ -10525,10 +10607,10 @@
         <v>27</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>30</v>
@@ -10544,7 +10626,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76658_V5_combine_force12000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>161</v>
       </c>
@@ -10555,19 +10637,19 @@
         <v>20220620</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J162" s="1" t="n">
         <v>20220624</v>
@@ -10586,10 +10668,10 @@
         <v>27</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q162" s="2" t="s">
         <v>30</v>
@@ -10605,7 +10687,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine_force12000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>162</v>
       </c>
@@ -10616,13 +10698,13 @@
         <v>20210716</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>77</v>
@@ -10647,10 +10729,10 @@
         <v>27</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P163" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q163" s="2" t="s">
         <v>30</v>
@@ -10666,7 +10748,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine_force8000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>163</v>
       </c>
@@ -10677,13 +10759,13 @@
         <v>20211105</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>77</v>
@@ -10708,10 +10790,10 @@
         <v>27</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q164" s="2" t="s">
         <v>30</v>
@@ -10727,7 +10809,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8001/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>164</v>
       </c>
@@ -10738,13 +10820,13 @@
         <v>20220616</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>46</v>
@@ -10766,10 +10848,10 @@
         <v>27</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>30</v>
@@ -10785,7 +10867,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force7000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>165</v>
       </c>
@@ -10796,13 +10878,13 @@
         <v>20220616</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>77</v>
@@ -10827,10 +10909,10 @@
         <v>27</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q166" s="2" t="s">
         <v>30</v>
@@ -10846,7 +10928,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine_force9000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>166</v>
       </c>
@@ -10857,13 +10939,13 @@
         <v>20220616</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>46</v>
@@ -10885,10 +10967,10 @@
         <v>27</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q167" s="2" t="s">
         <v>30</v>
@@ -10904,7 +10986,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_FZ_force12248/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>167</v>
       </c>
@@ -10915,13 +10997,13 @@
         <v>20220616</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>46</v>
@@ -10943,10 +11025,10 @@
         <v>27</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q168" s="2" t="s">
         <v>30</v>
@@ -10962,7 +11044,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_LS_force12248/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>168</v>
       </c>
@@ -10973,16 +11055,16 @@
         <v>20211105</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J169" s="1" t="n">
         <v>20211117</v>
@@ -11001,10 +11083,10 @@
         <v>27</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P169" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q169" s="2" t="s">
         <v>30</v>
@@ -11020,7 +11102,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76656_V5_force6500/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>169</v>
       </c>
@@ -11031,19 +11113,19 @@
         <v>20211105</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J170" s="1" t="n">
         <v>20211117</v>
@@ -11062,10 +11144,10 @@
         <v>27</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q170" s="2" t="s">
         <v>30</v>
@@ -11081,7 +11163,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force12000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>170</v>
       </c>
@@ -11092,19 +11174,19 @@
         <v>20211105</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J171" s="1" t="n">
         <v>20211117</v>
@@ -11123,10 +11205,10 @@
         <v>27</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q171" s="2" t="s">
         <v>30</v>
@@ -11142,7 +11224,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine_force6000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>171</v>
       </c>
@@ -11153,13 +11235,13 @@
         <v>20220616</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>46</v>
@@ -11181,10 +11263,10 @@
         <v>27</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q172" s="2" t="s">
         <v>30</v>
@@ -11200,7 +11282,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/STARR_077_FZ_force18417/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>172</v>
       </c>
@@ -11211,16 +11293,16 @@
         <v>20220620</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J173" s="1" t="n">
         <v>20220624</v>
@@ -11239,10 +11321,10 @@
         <v>27</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q173" s="2" t="s">
         <v>30</v>
@@ -11258,7 +11340,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine_force15000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>173</v>
       </c>
@@ -11269,16 +11351,16 @@
         <v>20220620</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J174" s="1" t="n">
         <v>20220624</v>
@@ -11297,10 +11379,10 @@
         <v>27</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q174" s="2" t="s">
         <v>30</v>
@@ -11316,7 +11398,7 @@
         <v>/media/jianie/SequencingFiles_3/20220620_Counts/76638_V11_combine_force18000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>174</v>
       </c>
@@ -11327,13 +11409,13 @@
         <v>20220616</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>77</v>
@@ -11358,10 +11440,10 @@
         <v>27</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q175" s="2" t="s">
         <v>30</v>
@@ -11377,7 +11459,7 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force9000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>175</v>
       </c>
@@ -11388,16 +11470,13 @@
         <v>20220616</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>46</v>
@@ -11419,10 +11498,10 @@
         <v>27</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q176" s="2" t="s">
         <v>30</v>
@@ -11486,13 +11565,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -11500,7 +11579,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -11512,271 +11591,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$176</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$204</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="278">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -782,6 +782,352 @@
     <t xml:space="preserve">STARR_026_combine_force8000</t>
   </si>
   <si>
+    <t xml:space="preserve">76662_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_085</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76658_V11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76649_V11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76647_V11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_085_Bar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76643_V11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76660_V5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76661_V5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76656_V11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_077_10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_063</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_069</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_072</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_077</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_079</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_073</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Folder</t>
   </si>
   <si>
@@ -801,7 +1147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -835,6 +1181,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -928,11 +1279,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H159" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F178" activeCellId="0" sqref="F178"/>
+      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
+      <selection pane="bottomRight" activeCell="F187" activeCellId="0" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11517,13 +11868,1720 @@
         <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8000/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J177" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M177" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N177, $O177, "/", $P177, "/", $F177,  $Q177, $R177)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76662_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="N177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q177" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T177" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N177, $O177, "/", $P177, "/", $F177,  $Q177, $S177,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76662_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J178" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M178" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N178, $O178, "/", $P178, "/", $F178,  $Q178, $R178)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76664_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q178" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R178" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T178" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N178, $O178, "/", $P178, "/", $F178,  $Q178, $S178,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76664_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J179" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M179" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N179, $O179, "/", $P179, "/", $F179,  $Q179, $R179)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76660_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q179" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S179" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T179" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N179, $O179, "/", $P179, "/", $F179,  $Q179, $S179,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76660_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J180" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M180" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N180, $O180, "/", $P180, "/", $F180,  $Q180, $R180)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76661_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S180" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T180" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N180, $O180, "/", $P180, "/", $F180,  $Q180, $S180,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76661_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J181" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M181" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N181, $O181, "/", $P181, "/", $F181,  $Q181, $R181)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76662_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S181" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T181" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N181, $O181, "/", $P181, "/", $F181,  $Q181, $S181,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76662_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J182" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M182" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N182, $O182, "/", $P182, "/", $F182,  $Q182, $R182)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080/outs/molecule_info.h5</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T182" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N182, $O182, "/", $P182, "/", $F182,  $Q182, $S182,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J183" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M183" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N183, $O183, "/", $P183, "/", $F183,  $Q183, $R183)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_081/outs/molecule_info.h5</v>
+      </c>
+      <c r="N183" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S183" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T183" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N183, $O183, "/", $P183, "/", $F183,  $Q183, $S183,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_081/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J184" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M184" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N184, $O184, "/", $P184, "/", $F184,  $Q184, $R184)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_082/outs/molecule_info.h5</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R184" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T184" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N184, $O184, "/", $P184, "/", $F184,  $Q184, $S184,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_082/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J185" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M185" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N185, $O185, "/", $P185, "/", $F185,  $Q185, $R185)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_083/outs/molecule_info.h5</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q185" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R185" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T185" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N185, $O185, "/", $P185, "/", $F185,  $Q185, $S185,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_083/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J186" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M186" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N186, $O186, "/", $P186, "/", $F186,  $Q186, $R186)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085/outs/molecule_info.h5</v>
+      </c>
+      <c r="N186" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q186" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R186" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S186" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T186" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N186, $O186, "/", $P186, "/", $F186,  $Q186, $S186,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="C187" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J187" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M187" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N187, $O187, "/", $P187, "/", $F187,  $Q187, $R187)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76658_V11_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P187" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R187" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T187" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N187, $O187, "/", $P187, "/", $F187,  $Q187, $S187,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76658_V11_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J188" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M188" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N188, $O188, "/", $P188, "/", $F188,  $Q188, $R188)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76649_V11_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q188" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R188" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S188" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T188" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N188, $O188, "/", $P188, "/", $F188,  $Q188, $S188,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76649_V11_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J189" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M189" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N189, $O189, "/", $P189, "/", $F189,  $Q189, $R189)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76647_V11_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P189" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q189" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R189" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S189" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T189" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N189, $O189, "/", $P189, "/", $F189,  $Q189, $S189,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76647_V11_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J190" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M190" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N190, $O190, "/", $P190, "/", $F190,  $Q190, $R190)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085_Bar/outs/molecule_info.h5</v>
+      </c>
+      <c r="N190" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P190" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q190" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S190" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T190" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N190, $O190, "/", $P190, "/", $F190,  $Q190, $S190,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085_Bar/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="C191" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J191" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M191" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N191, $O191, "/", $P191, "/", $F191,  $Q191, $R191)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76643_V11_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N191" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P191" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R191" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S191" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T191" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N191, $O191, "/", $P191, "/", $F191,  $Q191, $S191,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76643_V11_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J192" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M192" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N192, $O192, "/", $P192, "/", $F192,  $Q192, $R192)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76660_V5_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N192" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O192" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P192" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q192" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T192" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N192, $O192, "/", $P192, "/", $F192,  $Q192, $S192,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76660_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J193" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M193" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N193, $O193, "/", $P193, "/", $F193,  $Q193, $R193)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76661_V5_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P193" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T193" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N193, $O193, "/", $P193, "/", $F193,  $Q193, $S193,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76661_V5_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J194" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M194" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N194, $O194, "/", $P194, "/", $F194,  $Q194, $R194)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76656_V11_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N194" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P194" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S194" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T194" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N194, $O194, "/", $P194, "/", $F194,  $Q194, $S194,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/76656_V11_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J195" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M195" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N195, $O195, "/", $P195, "/", $F195,  $Q195, $R195)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_10/outs/molecule_info.h5</v>
+      </c>
+      <c r="N195" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P195" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q195" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R195" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T195" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N195, $O195, "/", $P195, "/", $F195,  $Q195, $S195,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_10/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J196" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M196" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N196, $O196, "/", $P196, "/", $F196,  $Q196, $R196)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N196" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P196" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S196" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T196" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N196, $O196, "/", $P196, "/", $F196,  $Q196, $S196,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J197" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M197" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N197, $O197, "/", $P197, "/", $F197,  $Q197, $R197)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N197" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P197" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q197" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R197" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T197" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N197, $O197, "/", $P197, "/", $F197,  $Q197, $S197,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J198" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M198" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N198, $O198, "/", $P198, "/", $F198,  $Q198, $R198)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P198" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q198" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R198" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S198" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T198" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N198, $O198, "/", $P198, "/", $F198,  $Q198, $S198,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J199" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M199" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N199, $O199, "/", $P199, "/", $F199,  $Q199, $R199)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N199" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P199" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S199" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T199" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N199, $O199, "/", $P199, "/", $F199,  $Q199, $S199,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J200" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M200" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N200, $O200, "/", $P200, "/", $F200,  $Q200, $R200)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T200" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N200, $O200, "/", $P200, "/", $F200,  $Q200, $S200,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J201" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M201" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N201, $O201, "/", $P201, "/", $F201,  $Q201, $R201)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T201" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N201, $O201, "/", $P201, "/", $F201,  $Q201, $S201,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="C202" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J202" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M202" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N202, $O202, "/", $P202, "/", $F202,  $Q202, $R202)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T202" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N202, $O202, "/", $P202, "/", $F202,  $Q202, $S202,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="C203" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J203" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M203" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N203, $O203, "/", $P203, "/", $F203,  $Q203, $R203)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_073_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N203" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T203" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N203, $O203, "/", $P203, "/", $F203,  $Q203, $S203,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_073_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C204" s="1" t="n">
+        <v>20220716</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J204" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M204" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N204, $O204, "/", $P204, "/", $F204,  $Q204, $R204)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_2nd/outs/molecule_info.h5</v>
+      </c>
+      <c r="N204" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T204" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N204, $O204, "/", $P204, "/", $F204,  $Q204, $S204,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T176"/>
+  <autoFilter ref="A1:T204"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11565,13 +13623,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -11579,7 +13637,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -11591,271 +13649,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$204</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$213</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="287">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -872,6 +872,161 @@
     <t xml:space="preserve">STARR_075_2nd</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_063</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_069</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060_combine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_072</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_077</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_079</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_073</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Folder</t>
   </si>
   <si>
@@ -891,7 +1046,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -925,6 +1080,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1018,11 +1178,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H173" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="J49" activeCellId="0" sqref="J49"/>
+      <selection pane="bottomLeft" activeCell="A173" activeCellId="0" sqref="A173"/>
+      <selection pane="bottomRight" activeCell="F215" activeCellId="0" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11626,9 +11786,6 @@
       <c r="F177" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I177" s="3" t="s">
         <v>118</v>
       </c>
@@ -11687,9 +11844,6 @@
       <c r="F178" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I178" s="1" t="s">
         <v>118</v>
       </c>
@@ -11748,9 +11902,6 @@
       <c r="F179" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I179" s="1" t="s">
         <v>118</v>
       </c>
@@ -11809,9 +11960,6 @@
       <c r="F180" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I180" s="1" t="s">
         <v>118</v>
       </c>
@@ -11870,9 +12018,6 @@
       <c r="F181" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I181" s="1" t="s">
         <v>118</v>
       </c>
@@ -11931,9 +12076,6 @@
       <c r="F182" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I182" s="1" t="s">
         <v>46</v>
       </c>
@@ -11992,9 +12134,6 @@
       <c r="F183" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I183" s="1" t="s">
         <v>46</v>
       </c>
@@ -12053,9 +12192,6 @@
       <c r="F184" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I184" s="1" t="s">
         <v>46</v>
       </c>
@@ -12114,9 +12250,6 @@
       <c r="F185" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I185" s="1" t="s">
         <v>46</v>
       </c>
@@ -12175,9 +12308,6 @@
       <c r="F186" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I186" s="1" t="s">
         <v>46</v>
       </c>
@@ -12236,9 +12366,6 @@
       <c r="F187" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I187" s="1" t="s">
         <v>118</v>
       </c>
@@ -12297,9 +12424,6 @@
       <c r="F188" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I188" s="1" t="s">
         <v>118</v>
       </c>
@@ -12358,9 +12482,6 @@
       <c r="F189" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I189" s="1" t="s">
         <v>118</v>
       </c>
@@ -12419,9 +12540,6 @@
       <c r="F190" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I190" s="1" t="s">
         <v>46</v>
       </c>
@@ -12480,9 +12598,6 @@
       <c r="F191" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I191" s="1" t="s">
         <v>118</v>
       </c>
@@ -12541,9 +12656,6 @@
       <c r="F192" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I192" s="1" t="s">
         <v>118</v>
       </c>
@@ -12602,9 +12714,6 @@
       <c r="F193" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I193" s="1" t="s">
         <v>118</v>
       </c>
@@ -12663,9 +12772,6 @@
       <c r="F194" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I194" s="1" t="s">
         <v>118</v>
       </c>
@@ -12724,9 +12830,6 @@
       <c r="F195" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I195" s="1" t="s">
         <v>46</v>
       </c>
@@ -12785,9 +12888,6 @@
       <c r="F196" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I196" s="1" t="s">
         <v>46</v>
       </c>
@@ -12846,9 +12946,6 @@
       <c r="F197" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I197" s="1" t="s">
         <v>46</v>
       </c>
@@ -12907,9 +13004,6 @@
       <c r="F198" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I198" s="1" t="s">
         <v>46</v>
       </c>
@@ -12968,9 +13062,6 @@
       <c r="F199" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I199" s="1" t="s">
         <v>46</v>
       </c>
@@ -13029,9 +13120,6 @@
       <c r="F200" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I200" s="1" t="s">
         <v>46</v>
       </c>
@@ -13090,9 +13178,6 @@
       <c r="F201" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I201" s="1" t="s">
         <v>46</v>
       </c>
@@ -13151,9 +13236,6 @@
       <c r="F202" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I202" s="1" t="s">
         <v>46</v>
       </c>
@@ -13212,9 +13294,6 @@
       <c r="F203" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I203" s="1" t="s">
         <v>46</v>
       </c>
@@ -13273,9 +13352,6 @@
       <c r="F204" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I204" s="1" t="s">
         <v>46</v>
       </c>
@@ -13313,6 +13389,555 @@
       <c r="T204" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N204, $O204, "/", $P204, "/", $F204,  $Q204, $S204,)</f>
         <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_2nd/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J205" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M205" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N205, $O205, "/", $P205, "/", $F205,  $Q205, $R205)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T205" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N205, $O205, "/", $P205, "/", $F205,  $Q205, $S205,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J206" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M206" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N206, $O206, "/", $P206, "/", $F206,  $Q206, $R206)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N206" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P206" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S206" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T206" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N206, $O206, "/", $P206, "/", $F206,  $Q206, $S206,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J207" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M207" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N207, $O207, "/", $P207, "/", $F207,  $Q207, $R207)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N207" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P207" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T207" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N207, $O207, "/", $P207, "/", $F207,  $Q207, $S207,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J208" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M208" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N208, $O208, "/", $P208, "/", $F208,  $Q208, $R208)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N208" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P208" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R208" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T208" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N208, $O208, "/", $P208, "/", $F208,  $Q208, $S208,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J209" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M209" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N209, $O209, "/", $P209, "/", $F209,  $Q209, $R209)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N209" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P209" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S209" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T209" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N209, $O209, "/", $P209, "/", $F209,  $Q209, $S209,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J210" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M210" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N210, $O210, "/", $P210, "/", $F210,  $Q210, $R210)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R210" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T210" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N210, $O210, "/", $P210, "/", $F210,  $Q210, $S210,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J211" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M211" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N211, $O211, "/", $P211, "/", $F211,  $Q211, $R211)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P211" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R211" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T211" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N211, $O211, "/", $P211, "/", $F211,  $Q211, $S211,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="C212" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J212" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M212" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N212, $O212, "/", $P212, "/", $F212,  $Q212, $R212)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_073_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N212" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O212" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P212" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R212" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S212" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T212" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N212, $O212, "/", $P212, "/", $F212,  $Q212, $S212,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_073_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C213" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J213" s="1" t="n">
+        <v>20220720</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M213" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N213, $O213, "/", $P213, "/", $F213,  $Q213, $R213)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N213" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P213" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q213" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R213" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T213" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N213, $O213, "/", $P213, "/", $F213,  $Q213, $S213,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13320,7 +13945,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T204"/>
+  <autoFilter ref="A1:T213"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13362,13 +13987,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -13376,7 +14001,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -13388,271 +14013,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="287">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -872,159 +872,31 @@
     <t xml:space="preserve">STARR_075_2nd</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_063</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_069</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
+    <t xml:space="preserve">STARR_063_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_069_combine</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_060_combine</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_072</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_077</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_079</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_071</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_073</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_075</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_combine</t>
-    </r>
+    <t xml:space="preserve">STARR_072_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_077_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_079_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_071_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_075_combine</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1046,7 +918,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1080,11 +952,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1182,7 +1049,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A173" activeCellId="0" sqref="A173"/>
-      <selection pane="bottomRight" activeCell="F215" activeCellId="0" sqref="F215"/>
+      <selection pane="bottomRight" activeCell="F172" activeCellId="0" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13410,9 +13277,6 @@
       <c r="F205" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I205" s="1" t="s">
         <v>46</v>
       </c>
@@ -13471,9 +13335,6 @@
       <c r="F206" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I206" s="1" t="s">
         <v>46</v>
       </c>
@@ -13532,9 +13393,6 @@
       <c r="F207" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I207" s="1" t="s">
         <v>46</v>
       </c>
@@ -13593,9 +13451,6 @@
       <c r="F208" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I208" s="1" t="s">
         <v>46</v>
       </c>
@@ -13654,9 +13509,6 @@
       <c r="F209" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I209" s="1" t="s">
         <v>46</v>
       </c>
@@ -13715,9 +13567,6 @@
       <c r="F210" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I210" s="1" t="s">
         <v>46</v>
       </c>
@@ -13776,9 +13625,6 @@
       <c r="F211" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I211" s="1" t="s">
         <v>46</v>
       </c>
@@ -13836,9 +13682,6 @@
       </c>
       <c r="F212" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>46</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="287">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1045,11 +1045,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H170" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A173" activeCellId="0" sqref="A173"/>
-      <selection pane="bottomRight" activeCell="F172" activeCellId="0" sqref="F172"/>
+      <selection pane="bottomLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="H216" activeCellId="0" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11653,6 +11653,9 @@
       <c r="F177" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="H177" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I177" s="3" t="s">
         <v>118</v>
       </c>
@@ -11711,6 +11714,9 @@
       <c r="F178" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="H178" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I178" s="1" t="s">
         <v>118</v>
       </c>
@@ -11769,6 +11775,9 @@
       <c r="F179" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="H179" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I179" s="1" t="s">
         <v>118</v>
       </c>
@@ -11827,6 +11836,9 @@
       <c r="F180" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="H180" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I180" s="1" t="s">
         <v>118</v>
       </c>
@@ -11885,6 +11897,9 @@
       <c r="F181" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="H181" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I181" s="1" t="s">
         <v>118</v>
       </c>
@@ -11943,6 +11958,9 @@
       <c r="F182" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="H182" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I182" s="1" t="s">
         <v>46</v>
       </c>
@@ -12001,6 +12019,9 @@
       <c r="F183" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="H183" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I183" s="1" t="s">
         <v>46</v>
       </c>
@@ -12059,6 +12080,9 @@
       <c r="F184" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="H184" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I184" s="1" t="s">
         <v>46</v>
       </c>
@@ -12117,6 +12141,9 @@
       <c r="F185" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="H185" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I185" s="1" t="s">
         <v>46</v>
       </c>
@@ -12175,6 +12202,9 @@
       <c r="F186" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="H186" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I186" s="1" t="s">
         <v>46</v>
       </c>
@@ -12233,6 +12263,9 @@
       <c r="F187" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="H187" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I187" s="1" t="s">
         <v>118</v>
       </c>
@@ -12291,6 +12324,9 @@
       <c r="F188" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="H188" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I188" s="1" t="s">
         <v>118</v>
       </c>
@@ -12349,6 +12385,9 @@
       <c r="F189" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="H189" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I189" s="1" t="s">
         <v>118</v>
       </c>
@@ -12407,6 +12446,9 @@
       <c r="F190" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="H190" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I190" s="1" t="s">
         <v>46</v>
       </c>
@@ -12465,6 +12507,9 @@
       <c r="F191" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="H191" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I191" s="1" t="s">
         <v>118</v>
       </c>
@@ -12523,6 +12568,9 @@
       <c r="F192" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="H192" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I192" s="1" t="s">
         <v>118</v>
       </c>
@@ -12581,6 +12629,9 @@
       <c r="F193" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="H193" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I193" s="1" t="s">
         <v>118</v>
       </c>
@@ -12639,6 +12690,9 @@
       <c r="F194" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="H194" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I194" s="1" t="s">
         <v>118</v>
       </c>
@@ -12697,6 +12751,9 @@
       <c r="F195" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="H195" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I195" s="1" t="s">
         <v>46</v>
       </c>
@@ -12755,6 +12812,9 @@
       <c r="F196" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="H196" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I196" s="1" t="s">
         <v>46</v>
       </c>
@@ -12813,6 +12873,9 @@
       <c r="F197" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="H197" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I197" s="1" t="s">
         <v>46</v>
       </c>
@@ -12871,6 +12934,9 @@
       <c r="F198" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="H198" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I198" s="1" t="s">
         <v>46</v>
       </c>
@@ -12929,6 +12995,9 @@
       <c r="F199" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="H199" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I199" s="1" t="s">
         <v>46</v>
       </c>
@@ -12987,6 +13056,9 @@
       <c r="F200" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="H200" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I200" s="1" t="s">
         <v>46</v>
       </c>
@@ -13045,6 +13117,9 @@
       <c r="F201" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="H201" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I201" s="1" t="s">
         <v>46</v>
       </c>
@@ -13103,6 +13178,9 @@
       <c r="F202" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="H202" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I202" s="1" t="s">
         <v>46</v>
       </c>
@@ -13161,6 +13239,9 @@
       <c r="F203" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="H203" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I203" s="1" t="s">
         <v>46</v>
       </c>
@@ -13219,6 +13300,9 @@
       <c r="F204" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="H204" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I204" s="1" t="s">
         <v>46</v>
       </c>
@@ -13740,9 +13824,6 @@
       </c>
       <c r="F213" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>46</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$213</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$227</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="301">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -899,6 +899,96 @@
     <t xml:space="preserve">STARR_075_combine</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_026_combine_force7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_041_combine3_force13000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_043_combine_force8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_080_force8000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_082</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_force10000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_083</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_force10000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_085_Bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_force10000</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_079_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_combine_force15000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_072_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_071_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_069_combine_force8500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_063_combine_force9500</t>
+  </si>
+  <si>
     <t xml:space="preserve">Folder</t>
   </si>
   <si>
@@ -918,7 +1008,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -952,6 +1042,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1045,11 +1140,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H184" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
-      <selection pane="bottomRight" activeCell="H216" activeCellId="0" sqref="H216"/>
+      <selection pane="bottomLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
+      <selection pane="bottomRight" activeCell="F217" activeCellId="0" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6699,7 +6794,7 @@
         <v>157</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>46</v>
@@ -6821,7 +6916,7 @@
         <v>159</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>23</v>
@@ -6885,7 +6980,7 @@
         <v>160</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>46</v>
@@ -6946,7 +7041,7 @@
         <v>161</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>23</v>
@@ -7778,7 +7873,7 @@
         <v>177</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>46</v>
@@ -9055,6 +9150,9 @@
       <c r="F134" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="G134" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H134" s="1" t="s">
         <v>23</v>
       </c>
@@ -10945,6 +11043,9 @@
       <c r="F165" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="G165" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I165" s="3" t="s">
         <v>46</v>
       </c>
@@ -11535,7 +11636,7 @@
         <v>242</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>46</v>
@@ -12446,6 +12547,9 @@
       <c r="F190" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="G190" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H190" s="1" t="s">
         <v>23</v>
       </c>
@@ -13419,6 +13523,9 @@
       <c r="F206" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="G206" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I206" s="1" t="s">
         <v>46</v>
       </c>
@@ -13535,6 +13642,9 @@
       <c r="F208" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="G208" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I208" s="1" t="s">
         <v>46</v>
       </c>
@@ -13593,6 +13703,9 @@
       <c r="F209" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="G209" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I209" s="1" t="s">
         <v>46</v>
       </c>
@@ -13651,6 +13764,9 @@
       <c r="F210" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="G210" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I210" s="1" t="s">
         <v>46</v>
       </c>
@@ -13825,6 +13941,9 @@
       <c r="F213" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="G213" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="I213" s="1" t="s">
         <v>46</v>
       </c>
@@ -13862,6 +13981,860 @@
       <c r="T213" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N213, $O213, "/", $P213, "/", $F213,  $Q213, $S213,)</f>
         <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J214" s="1" t="n">
+        <v>20220624</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M214" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N214, $O214, "/", $P214, "/", $F214,  $Q214, $R214)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force7500/outs/molecule_info.h5</v>
+      </c>
+      <c r="N214" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O214" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P214" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q214" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R214" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S214" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T214" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N214, $O214, "/", $P214, "/", $F214,  $Q214, $S214,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force7500/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C215" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J215" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M215" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N215, $O215, "/", $P215, "/", $F215,  $Q215, $R215)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3_force13000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P215" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R215" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T215" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N215, $O215, "/", $P215, "/", $F215,  $Q215, $S215,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3_force13000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J216" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M216" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N216, $O216, "/", $P216, "/", $F216,  $Q216, $R216)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine_force8000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P216" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q216" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T216" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N216, $O216, "/", $P216, "/", $F216,  $Q216, $S216,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_043_combine_force8000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J217" s="1" t="n">
+        <v>20220820</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M217" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N217, $O217, "/", $P217, "/", $F217,  $Q217, $R217)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_combine_force12000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N217" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O217" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P217" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q217" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R217" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S217" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T217" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N217, $O217, "/", $P217, "/", $F217,  $Q217, $S217,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_combine_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J218" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M218" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N218, $O218, "/", $P218, "/", $F218,  $Q218, $R218)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force8000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N218" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P218" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q218" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T218" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N218, $O218, "/", $P218, "/", $F218,  $Q218, $S218,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force8000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J219" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M219" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N219, $O219, "/", $P219, "/", $F219,  $Q219, $R219)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_082_force10000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N219" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O219" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P219" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q219" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R219" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T219" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N219, $O219, "/", $P219, "/", $F219,  $Q219, $S219,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_082_force10000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="C220" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J220" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M220" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N220, $O220, "/", $P220, "/", $F220,  $Q220, $R220)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_083_force10000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N220" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O220" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P220" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q220" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R220" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S220" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T220" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N220, $O220, "/", $P220, "/", $F220,  $Q220, $S220,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_083_force10000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="C221" s="1" t="n">
+        <v>20220718</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J221" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M221" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N221, $O221, "/", $P221, "/", $F221,  $Q221, $R221)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085_Bar_force10000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N221" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O221" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P221" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q221" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R221" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S221" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T221" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N221, $O221, "/", $P221, "/", $F221,  $Q221, $S221,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085_Bar_force10000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J222" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M222" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N222, $O222, "/", $P222, "/", $F222,  $Q222, $R222)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force12000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N222" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O222" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P222" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q222" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R222" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T222" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N222, $O222, "/", $P222, "/", $F222,  $Q222, $S222,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J223" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M223" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N223, $O223, "/", $P223, "/", $F223,  $Q223, $R223)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_073_combine_force15000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N223" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P223" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S223" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T223" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N223, $O223, "/", $P223, "/", $F223,  $Q223, $S223,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_073_combine_force15000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J224" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M224" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N224, $O224, "/", $P224, "/", $F224,  $Q224, $R224)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine_force12000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N224" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P224" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R224" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S224" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T224" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N224, $O224, "/", $P224, "/", $F224,  $Q224, $S224,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="C225" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J225" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M225" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N225, $O225, "/", $P225, "/", $F225,  $Q225, $R225)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_combine_force12000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N225" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O225" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P225" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R225" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S225" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T225" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N225, $O225, "/", $P225, "/", $F225,  $Q225, $S225,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_combine_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J226" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M226" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N226, $O226, "/", $P226, "/", $F226,  $Q226, $R226)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_combine_force8500/outs/molecule_info.h5</v>
+      </c>
+      <c r="N226" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P226" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R226" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S226" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T226" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N226, $O226, "/", $P226, "/", $F226,  $Q226, $S226,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_combine_force8500/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J227" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M227" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N227, $O227, "/", $P227, "/", $F227,  $Q227, $R227)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine_force9500/outs/molecule_info.h5</v>
+      </c>
+      <c r="N227" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O227" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P227" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R227" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T227" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N227, $O227, "/", $P227, "/", $F227,  $Q227, $S227,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine_force9500/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13869,7 +14842,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T213"/>
+  <autoFilter ref="A1:T227"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13911,13 +14884,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -13925,7 +14898,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -13937,271 +14910,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="302">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -914,61 +914,13 @@
     <t xml:space="preserve">STARR_080_force8000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_082</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_force10000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_083</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_force10000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_085_Bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_force10000</t>
-    </r>
+    <t xml:space="preserve">STARR_082_force10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083_force10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_085_Bar_force10000</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_079_combine_force12000</t>
@@ -987,6 +939,9 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_063_combine_force9500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_075_combine_force18000</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1008,7 +963,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1042,11 +997,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1144,7 +1094,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
-      <selection pane="bottomRight" activeCell="F217" activeCellId="0" sqref="F217"/>
+      <selection pane="bottomRight" activeCell="F225" activeCellId="0" sqref="F225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14835,6 +14785,67 @@
       <c r="T227" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N227, $O227, "/", $P227, "/", $F227,  $Q227, $S227,)</f>
         <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine_force9500/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J228" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M228" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N228, $O228, "/", $P228, "/", $F228,  $Q228, $R228)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N228" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P228" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R228" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T228" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N228, $O228, "/", $P228, "/", $F228,  $Q228, $S228,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18000/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14884,13 +14895,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -14898,7 +14909,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -14910,271 +14921,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$227</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="308">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">STARR_015_Nova</t>
   </si>
   <si>
-    <t xml:space="preserve">STARR_016_force</t>
+    <t xml:space="preserve">STARR_016_force7000</t>
   </si>
   <si>
     <t xml:space="preserve">Button</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">STARR_032_force3000</t>
   </si>
   <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_039_force2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_016_force7000</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_031_force3000</t>
@@ -611,9 +611,6 @@
     <t xml:space="preserve">Amei-R1_Multiplex</t>
   </si>
   <si>
-    <t xml:space="preserve">middle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amei-R2_Multiplex</t>
   </si>
   <si>
@@ -942,6 +939,27 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_075_combine_force18000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_085_Bar_force8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_080_force5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_015_combine_force12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024_combine_force9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_049_combine_force8300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_059_force5500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_077_10_force12248</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1090,11 +1108,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H206" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
-      <selection pane="bottomRight" activeCell="F225" activeCellId="0" sqref="F225"/>
+      <selection pane="bottomLeft" activeCell="A206" activeCellId="0" sqref="A206"/>
+      <selection pane="bottomRight" activeCell="F229" activeCellId="0" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2959,9 +2977,6 @@
       <c r="G32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2973,7 +2988,7 @@
       </c>
       <c r="M32" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N32, $O32, "/", $P32, "/", $F32,  $Q32, $R32)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/molecule_info.h5</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>27</v>
@@ -2995,7 +3010,7 @@
       </c>
       <c r="T32" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N32, $O32, "/", $P32, "/", $F32,  $Q32, $S32,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7000/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4871,7 @@
         <v>121</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>46</v>
@@ -5582,7 +5597,7 @@
         <v>137</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>46</v>
@@ -6494,13 +6509,13 @@
         <v>44</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>20211103</v>
+        <v>20220802</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>51</v>
@@ -6552,7 +6567,7 @@
         <v>121</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>44</v>
@@ -6613,7 +6628,7 @@
         <v>68</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>44</v>
@@ -6930,7 +6945,7 @@
         <v>160</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>46</v>
@@ -8372,7 +8387,7 @@
         <v>186</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>126</v>
@@ -8424,13 +8439,13 @@
         <v>124</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>126</v>
@@ -8482,13 +8497,13 @@
         <v>124</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>126</v>
@@ -8540,13 +8555,13 @@
         <v>124</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>126</v>
@@ -8601,7 +8616,7 @@
         <v>176</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>44</v>
@@ -8662,7 +8677,7 @@
         <v>149</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>77</v>
@@ -8723,7 +8738,7 @@
         <v>175</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>44</v>
@@ -8784,7 +8799,7 @@
         <v>145</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>44</v>
@@ -8845,7 +8860,7 @@
         <v>123</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>44</v>
@@ -8906,7 +8921,7 @@
         <v>92</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>44</v>
@@ -8937,7 +8952,7 @@
         <v>163</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>30</v>
@@ -8970,7 +8985,7 @@
         <v>122</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>44</v>
@@ -9001,7 +9016,7 @@
         <v>163</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>30</v>
@@ -9034,7 +9049,7 @@
         <v>123</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>44</v>
@@ -9065,7 +9080,7 @@
         <v>163</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>30</v>
@@ -9095,10 +9110,10 @@
         <v>124</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>77</v>
@@ -9129,7 +9144,7 @@
         <v>163</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>30</v>
@@ -9159,10 +9174,10 @@
         <v>124</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>23</v>
@@ -9190,7 +9205,7 @@
         <v>163</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q135" s="2" t="s">
         <v>30</v>
@@ -9220,10 +9235,10 @@
         <v>124</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>23</v>
@@ -9251,7 +9266,7 @@
         <v>163</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q136" s="2" t="s">
         <v>30</v>
@@ -9281,10 +9296,10 @@
         <v>124</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>23</v>
@@ -9312,7 +9327,7 @@
         <v>163</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>30</v>
@@ -9342,10 +9357,10 @@
         <v>124</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>23</v>
@@ -9373,7 +9388,7 @@
         <v>163</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q138" s="2" t="s">
         <v>30</v>
@@ -9403,10 +9418,10 @@
         <v>124</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>23</v>
@@ -9434,7 +9449,7 @@
         <v>163</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>30</v>
@@ -9464,10 +9479,10 @@
         <v>124</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>23</v>
@@ -9495,7 +9510,7 @@
         <v>163</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>30</v>
@@ -9525,10 +9540,10 @@
         <v>131</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>23</v>
@@ -9556,7 +9571,7 @@
         <v>163</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>30</v>
@@ -9589,7 +9604,7 @@
         <v>176</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>23</v>
@@ -9617,7 +9632,7 @@
         <v>163</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>30</v>
@@ -9650,7 +9665,7 @@
         <v>175</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>23</v>
@@ -9678,7 +9693,7 @@
         <v>163</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q143" s="2" t="s">
         <v>30</v>
@@ -9708,10 +9723,10 @@
         <v>131</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>23</v>
@@ -9739,7 +9754,7 @@
         <v>163</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>30</v>
@@ -9769,10 +9784,10 @@
         <v>131</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>23</v>
@@ -9800,7 +9815,7 @@
         <v>163</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>30</v>
@@ -9830,10 +9845,10 @@
         <v>131</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>23</v>
@@ -9861,7 +9876,7 @@
         <v>163</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>30</v>
@@ -9891,10 +9906,10 @@
         <v>131</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>23</v>
@@ -9922,7 +9937,7 @@
         <v>163</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>30</v>
@@ -9952,10 +9967,10 @@
         <v>131</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>23</v>
@@ -9983,7 +9998,7 @@
         <v>163</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>30</v>
@@ -10013,10 +10028,10 @@
         <v>131</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>23</v>
@@ -10044,7 +10059,7 @@
         <v>163</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>30</v>
@@ -10074,10 +10089,10 @@
         <v>111</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>23</v>
@@ -10105,7 +10120,7 @@
         <v>163</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>30</v>
@@ -10135,10 +10150,10 @@
         <v>111</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>23</v>
@@ -10166,7 +10181,7 @@
         <v>163</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>30</v>
@@ -10196,10 +10211,10 @@
         <v>111</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>23</v>
@@ -10227,7 +10242,7 @@
         <v>163</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>30</v>
@@ -10257,10 +10272,10 @@
         <v>111</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>23</v>
@@ -10288,7 +10303,7 @@
         <v>163</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>30</v>
@@ -10318,10 +10333,10 @@
         <v>111</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>23</v>
@@ -10349,7 +10364,7 @@
         <v>163</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>30</v>
@@ -10382,7 +10397,7 @@
         <v>176</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G155" s="0"/>
       <c r="I155" s="3" t="s">
@@ -10408,7 +10423,7 @@
         <v>163</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>30</v>
@@ -10441,7 +10456,7 @@
         <v>92</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>44</v>
@@ -10469,7 +10484,7 @@
         <v>163</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q156" s="2" t="s">
         <v>30</v>
@@ -10502,10 +10517,10 @@
         <v>122</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>46</v>
@@ -10530,7 +10545,7 @@
         <v>163</v>
       </c>
       <c r="P157" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q157" s="2" t="s">
         <v>30</v>
@@ -10563,10 +10578,7 @@
         <v>122</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>46</v>
@@ -10591,7 +10603,7 @@
         <v>163</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>30</v>
@@ -10624,7 +10636,7 @@
         <v>123</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>44</v>
@@ -10652,7 +10664,7 @@
         <v>163</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q159" s="2" t="s">
         <v>30</v>
@@ -10685,7 +10697,7 @@
         <v>175</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>44</v>
@@ -10713,7 +10725,7 @@
         <v>163</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>30</v>
@@ -10746,7 +10758,7 @@
         <v>175</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>77</v>
@@ -10775,7 +10787,7 @@
         <v>163</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>30</v>
@@ -10808,7 +10820,7 @@
         <v>176</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>77</v>
@@ -10836,7 +10848,7 @@
         <v>163</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q162" s="2" t="s">
         <v>30</v>
@@ -10869,10 +10881,7 @@
         <v>86</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>46</v>
@@ -10930,7 +10939,7 @@
         <v>141</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>77</v>
@@ -10991,10 +11000,10 @@
         <v>92</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>46</v>
@@ -11019,7 +11028,7 @@
         <v>163</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>30</v>
@@ -11052,7 +11061,7 @@
         <v>123</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>77</v>
@@ -11080,7 +11089,7 @@
         <v>163</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q166" s="2" t="s">
         <v>30</v>
@@ -11110,10 +11119,10 @@
         <v>111</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>46</v>
@@ -11138,7 +11147,7 @@
         <v>163</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q167" s="2" t="s">
         <v>30</v>
@@ -11168,10 +11177,10 @@
         <v>111</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>46</v>
@@ -11196,7 +11205,7 @@
         <v>163</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q168" s="2" t="s">
         <v>30</v>
@@ -11229,7 +11238,7 @@
         <v>174</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>118</v>
@@ -11287,7 +11296,7 @@
         <v>148</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>77</v>
@@ -11348,7 +11357,7 @@
         <v>142</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>77</v>
@@ -11406,10 +11415,10 @@
         <v>111</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>46</v>
@@ -11434,7 +11443,7 @@
         <v>163</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q172" s="2" t="s">
         <v>30</v>
@@ -11467,7 +11476,7 @@
         <v>176</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>118</v>
@@ -11492,7 +11501,7 @@
         <v>163</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q173" s="2" t="s">
         <v>30</v>
@@ -11525,7 +11534,7 @@
         <v>176</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>118</v>
@@ -11550,7 +11559,7 @@
         <v>163</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q174" s="2" t="s">
         <v>30</v>
@@ -11583,7 +11592,7 @@
         <v>92</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>44</v>
@@ -11611,7 +11620,7 @@
         <v>163</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q175" s="2" t="s">
         <v>30</v>
@@ -11644,7 +11653,10 @@
         <v>92</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>46</v>
@@ -11669,7 +11681,7 @@
         <v>163</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q176" s="2" t="s">
         <v>30</v>
@@ -11699,10 +11711,10 @@
         <v>111</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>23</v>
@@ -11727,10 +11739,10 @@
         <v>27</v>
       </c>
       <c r="O177" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P177" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P177" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q177" s="2" t="s">
         <v>30</v>
@@ -11760,10 +11772,10 @@
         <v>111</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>23</v>
@@ -11788,10 +11800,10 @@
         <v>27</v>
       </c>
       <c r="O178" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P178" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P178" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q178" s="2" t="s">
         <v>30</v>
@@ -11821,10 +11833,10 @@
         <v>111</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>23</v>
@@ -11849,10 +11861,10 @@
         <v>27</v>
       </c>
       <c r="O179" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P179" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P179" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q179" s="2" t="s">
         <v>30</v>
@@ -11882,10 +11894,10 @@
         <v>111</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>23</v>
@@ -11910,10 +11922,10 @@
         <v>27</v>
       </c>
       <c r="O180" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P180" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P180" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q180" s="2" t="s">
         <v>30</v>
@@ -11943,10 +11955,10 @@
         <v>111</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>23</v>
@@ -11971,10 +11983,10 @@
         <v>27</v>
       </c>
       <c r="O181" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P181" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P181" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q181" s="2" t="s">
         <v>30</v>
@@ -12004,10 +12016,10 @@
         <v>171</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>23</v>
@@ -12032,10 +12044,10 @@
         <v>27</v>
       </c>
       <c r="O182" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P182" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P182" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q182" s="2" t="s">
         <v>30</v>
@@ -12065,10 +12077,10 @@
         <v>171</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>23</v>
@@ -12093,10 +12105,10 @@
         <v>27</v>
       </c>
       <c r="O183" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P183" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P183" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q183" s="2" t="s">
         <v>30</v>
@@ -12126,10 +12138,10 @@
         <v>171</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>23</v>
@@ -12154,10 +12166,10 @@
         <v>27</v>
       </c>
       <c r="O184" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P184" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P184" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q184" s="2" t="s">
         <v>30</v>
@@ -12187,10 +12199,10 @@
         <v>171</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>23</v>
@@ -12215,10 +12227,10 @@
         <v>27</v>
       </c>
       <c r="O185" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P185" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P185" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q185" s="2" t="s">
         <v>30</v>
@@ -12248,10 +12260,10 @@
         <v>171</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>23</v>
@@ -12276,10 +12288,10 @@
         <v>27</v>
       </c>
       <c r="O186" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P186" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P186" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q186" s="2" t="s">
         <v>30</v>
@@ -12309,10 +12321,10 @@
         <v>111</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>23</v>
@@ -12337,10 +12349,10 @@
         <v>27</v>
       </c>
       <c r="O187" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P187" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P187" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q187" s="2" t="s">
         <v>30</v>
@@ -12370,10 +12382,10 @@
         <v>111</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>23</v>
@@ -12398,10 +12410,10 @@
         <v>27</v>
       </c>
       <c r="O188" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P188" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P188" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q188" s="2" t="s">
         <v>30</v>
@@ -12431,10 +12443,10 @@
         <v>111</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>23</v>
@@ -12459,10 +12471,10 @@
         <v>27</v>
       </c>
       <c r="O189" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P189" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P189" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q189" s="2" t="s">
         <v>30</v>
@@ -12492,13 +12504,10 @@
         <v>111</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>23</v>
@@ -12523,10 +12532,10 @@
         <v>27</v>
       </c>
       <c r="O190" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P190" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P190" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q190" s="2" t="s">
         <v>30</v>
@@ -12556,10 +12565,10 @@
         <v>171</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>23</v>
@@ -12584,10 +12593,10 @@
         <v>27</v>
       </c>
       <c r="O191" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P191" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P191" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q191" s="2" t="s">
         <v>30</v>
@@ -12617,10 +12626,10 @@
         <v>171</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>23</v>
@@ -12645,10 +12654,10 @@
         <v>27</v>
       </c>
       <c r="O192" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P192" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P192" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q192" s="2" t="s">
         <v>30</v>
@@ -12678,10 +12687,10 @@
         <v>171</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>23</v>
@@ -12706,10 +12715,10 @@
         <v>27</v>
       </c>
       <c r="O193" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P193" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P193" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q193" s="2" t="s">
         <v>30</v>
@@ -12739,10 +12748,10 @@
         <v>171</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>23</v>
@@ -12767,10 +12776,10 @@
         <v>27</v>
       </c>
       <c r="O194" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P194" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P194" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q194" s="2" t="s">
         <v>30</v>
@@ -12800,10 +12809,10 @@
         <v>171</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>23</v>
@@ -12828,10 +12837,10 @@
         <v>27</v>
       </c>
       <c r="O195" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P195" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P195" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q195" s="2" t="s">
         <v>30</v>
@@ -12861,10 +12870,10 @@
         <v>111</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>23</v>
@@ -12889,10 +12898,10 @@
         <v>27</v>
       </c>
       <c r="O196" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P196" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P196" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q196" s="2" t="s">
         <v>30</v>
@@ -12922,10 +12931,10 @@
         <v>111</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>23</v>
@@ -12950,10 +12959,10 @@
         <v>27</v>
       </c>
       <c r="O197" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P197" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P197" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q197" s="2" t="s">
         <v>30</v>
@@ -12983,10 +12992,10 @@
         <v>111</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>23</v>
@@ -13011,10 +13020,10 @@
         <v>27</v>
       </c>
       <c r="O198" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P198" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P198" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q198" s="2" t="s">
         <v>30</v>
@@ -13044,10 +13053,10 @@
         <v>111</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>23</v>
@@ -13072,10 +13081,10 @@
         <v>27</v>
       </c>
       <c r="O199" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P199" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P199" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q199" s="2" t="s">
         <v>30</v>
@@ -13105,10 +13114,10 @@
         <v>111</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>23</v>
@@ -13133,10 +13142,10 @@
         <v>27</v>
       </c>
       <c r="O200" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P200" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P200" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q200" s="2" t="s">
         <v>30</v>
@@ -13166,10 +13175,10 @@
         <v>111</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>23</v>
@@ -13194,10 +13203,10 @@
         <v>27</v>
       </c>
       <c r="O201" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P201" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P201" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q201" s="2" t="s">
         <v>30</v>
@@ -13227,10 +13236,10 @@
         <v>171</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>23</v>
@@ -13255,10 +13264,10 @@
         <v>27</v>
       </c>
       <c r="O202" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P202" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P202" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q202" s="2" t="s">
         <v>30</v>
@@ -13288,10 +13297,10 @@
         <v>171</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>23</v>
@@ -13316,10 +13325,10 @@
         <v>27</v>
       </c>
       <c r="O203" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P203" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P203" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q203" s="2" t="s">
         <v>30</v>
@@ -13349,10 +13358,10 @@
         <v>171</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>23</v>
@@ -13377,10 +13386,10 @@
         <v>27</v>
       </c>
       <c r="O204" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P204" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P204" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q204" s="2" t="s">
         <v>30</v>
@@ -13410,10 +13419,10 @@
         <v>111</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>46</v>
@@ -13435,10 +13444,10 @@
         <v>27</v>
       </c>
       <c r="O205" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P205" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P205" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q205" s="2" t="s">
         <v>30</v>
@@ -13468,13 +13477,10 @@
         <v>111</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>46</v>
@@ -13496,10 +13502,10 @@
         <v>27</v>
       </c>
       <c r="O206" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P206" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P206" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q206" s="2" t="s">
         <v>30</v>
@@ -13529,10 +13535,10 @@
         <v>111</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>46</v>
@@ -13554,10 +13560,10 @@
         <v>27</v>
       </c>
       <c r="O207" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P207" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P207" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q207" s="2" t="s">
         <v>30</v>
@@ -13587,13 +13593,10 @@
         <v>111</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>46</v>
@@ -13615,10 +13618,10 @@
         <v>27</v>
       </c>
       <c r="O208" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P208" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P208" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q208" s="2" t="s">
         <v>30</v>
@@ -13648,10 +13651,10 @@
         <v>111</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>77</v>
@@ -13676,10 +13679,10 @@
         <v>27</v>
       </c>
       <c r="O209" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P209" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P209" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q209" s="2" t="s">
         <v>30</v>
@@ -13709,10 +13712,10 @@
         <v>111</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>77</v>
@@ -13737,10 +13740,10 @@
         <v>27</v>
       </c>
       <c r="O210" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P210" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P210" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q210" s="2" t="s">
         <v>30</v>
@@ -13770,10 +13773,10 @@
         <v>171</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>46</v>
@@ -13795,10 +13798,10 @@
         <v>27</v>
       </c>
       <c r="O211" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P211" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P211" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q211" s="2" t="s">
         <v>30</v>
@@ -13828,10 +13831,10 @@
         <v>171</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>46</v>
@@ -13853,10 +13856,10 @@
         <v>27</v>
       </c>
       <c r="O212" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P212" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P212" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q212" s="2" t="s">
         <v>30</v>
@@ -13886,13 +13889,10 @@
         <v>171</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>46</v>
@@ -13914,10 +13914,10 @@
         <v>27</v>
       </c>
       <c r="O213" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P213" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P213" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q213" s="2" t="s">
         <v>30</v>
@@ -13950,10 +13950,7 @@
         <v>92</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="I214" s="3" t="s">
         <v>46</v>
@@ -13978,7 +13975,7 @@
         <v>163</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q214" s="2" t="s">
         <v>30</v>
@@ -14011,10 +14008,7 @@
         <v>122</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>46</v>
@@ -14039,7 +14033,7 @@
         <v>163</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q215" s="2" t="s">
         <v>30</v>
@@ -14072,10 +14066,7 @@
         <v>123</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>46</v>
@@ -14100,7 +14091,7 @@
         <v>163</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q216" s="2" t="s">
         <v>30</v>
@@ -14130,13 +14121,10 @@
         <v>111</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>46</v>
@@ -14158,10 +14146,10 @@
         <v>27</v>
       </c>
       <c r="O217" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P217" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P217" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q217" s="2" t="s">
         <v>30</v>
@@ -14191,13 +14179,10 @@
         <v>171</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>46</v>
@@ -14219,10 +14204,10 @@
         <v>27</v>
       </c>
       <c r="O218" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P218" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P218" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q218" s="2" t="s">
         <v>30</v>
@@ -14252,13 +14237,10 @@
         <v>171</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>46</v>
@@ -14280,10 +14262,10 @@
         <v>27</v>
       </c>
       <c r="O219" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P219" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P219" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q219" s="2" t="s">
         <v>30</v>
@@ -14313,13 +14295,10 @@
         <v>171</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>46</v>
@@ -14341,10 +14320,10 @@
         <v>27</v>
       </c>
       <c r="O220" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P220" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P220" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q220" s="2" t="s">
         <v>30</v>
@@ -14374,13 +14353,10 @@
         <v>111</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>46</v>
@@ -14402,10 +14378,10 @@
         <v>27</v>
       </c>
       <c r="O221" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P221" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P221" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q221" s="2" t="s">
         <v>30</v>
@@ -14435,13 +14411,13 @@
         <v>111</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>46</v>
@@ -14463,10 +14439,10 @@
         <v>27</v>
       </c>
       <c r="O222" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P222" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P222" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q222" s="2" t="s">
         <v>30</v>
@@ -14496,13 +14472,13 @@
         <v>171</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>46</v>
@@ -14524,10 +14500,10 @@
         <v>27</v>
       </c>
       <c r="O223" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P223" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P223" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q223" s="2" t="s">
         <v>30</v>
@@ -14557,13 +14533,13 @@
         <v>111</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>46</v>
@@ -14585,10 +14561,10 @@
         <v>27</v>
       </c>
       <c r="O224" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P224" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P224" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q224" s="2" t="s">
         <v>30</v>
@@ -14618,13 +14594,13 @@
         <v>171</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>46</v>
@@ -14646,10 +14622,10 @@
         <v>27</v>
       </c>
       <c r="O225" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P225" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P225" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q225" s="2" t="s">
         <v>30</v>
@@ -14679,13 +14655,13 @@
         <v>111</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>46</v>
@@ -14707,10 +14683,10 @@
         <v>27</v>
       </c>
       <c r="O226" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P226" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P226" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q226" s="2" t="s">
         <v>30</v>
@@ -14740,13 +14716,13 @@
         <v>111</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>46</v>
@@ -14768,10 +14744,10 @@
         <v>27</v>
       </c>
       <c r="O227" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P227" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P227" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q227" s="2" t="s">
         <v>30</v>
@@ -14801,13 +14777,13 @@
         <v>171</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>46</v>
@@ -14829,10 +14805,10 @@
         <v>27</v>
       </c>
       <c r="O228" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P228" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="P228" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="Q228" s="2" t="s">
         <v>30</v>
@@ -14846,6 +14822,433 @@
       <c r="T228" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N228, $O228, "/", $P228, "/", $F228,  $Q228, $S228,)</f>
         <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>20220718</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J229" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M229" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N229, $O229, "/", $P229, "/", $F229,  $Q229, $R229)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085_Bar_force8000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P229" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R229" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T229" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N229, $O229, "/", $P229, "/", $F229,  $Q229, $S229,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_085_Bar_force8000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J230" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M230" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N230, $O230, "/", $P230, "/", $F230,  $Q230, $R230)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force5000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N230" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O230" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P230" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R230" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S230" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T230" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N230, $O230, "/", $P230, "/", $F230,  $Q230, $S230,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force5000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>20190912</v>
+      </c>
+      <c r="D231" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J231" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M231" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N231, $O231, "/", $P231, "/", $F231,  $Q231, $R231)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force12000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P231" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R231" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S231" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T231" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N231, $O231, "/", $P231, "/", $F231,  $Q231, $S231,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force12000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J232" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M232" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N232, $O232, "/", $P232, "/", $F232,  $Q232, $R232)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine_force9000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N232" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O232" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P232" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R232" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S232" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T232" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N232, $O232, "/", $P232, "/", $F232,  $Q232, $S232,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine_force9000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J233" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M233" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N233, $O233, "/", $P233, "/", $F233,  $Q233, $R233)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8300/outs/molecule_info.h5</v>
+      </c>
+      <c r="N233" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P233" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R233" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S233" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T233" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N233, $O233, "/", $P233, "/", $F233,  $Q233, $S233,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8300/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J234" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M234" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N234, $O234, "/", $P234, "/", $F234,  $Q234, $R234)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5500/outs/molecule_info.h5</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P234" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R234" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S234" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T234" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N234, $O234, "/", $P234, "/", $F234,  $Q234, $S234,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5500/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>20220718</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J235" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M235" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N235, $O235, "/", $P235, "/", $F235,  $Q235, $R235)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_10_force12248/outs/molecule_info.h5</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P235" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R235" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S235" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T235" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N235, $O235, "/", $P235, "/", $F235,  $Q235, $S235,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_10_force12248/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14853,7 +15256,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T227"/>
+  <autoFilter ref="A1:T235"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14895,13 +15298,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -14909,7 +15312,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -14921,271 +15324,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$235</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$237</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="310">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -960,6 +960,12 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_077_10_force12248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_combine_force10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_combine_force14000</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1108,11 +1114,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H209" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A206" activeCellId="0" sqref="A206"/>
-      <selection pane="bottomRight" activeCell="F229" activeCellId="0" sqref="F229"/>
+      <selection pane="bottomLeft" activeCell="A209" activeCellId="0" sqref="A209"/>
+      <selection pane="bottomRight" activeCell="F236" activeCellId="0" sqref="F236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10822,9 +10828,6 @@
       <c r="F162" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="I162" s="3" t="s">
         <v>118</v>
       </c>
@@ -15249,6 +15252,128 @@
       <c r="T235" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N235, $O235, "/", $P235, "/", $F235,  $Q235, $S235,)</f>
         <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_10_force12248/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J236" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M236" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N236, $O236, "/", $P236, "/", $F236,  $Q236, $R236)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force10000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P236" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R236" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T236" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N236, $O236, "/", $P236, "/", $F236,  $Q236, $S236,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force10000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J237" s="1" t="n">
+        <v>20220802</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M237" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N237, $O237, "/", $P237, "/", $F237,  $Q237, $R237)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14000/outs/molecule_info.h5</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P237" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R237" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T237" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N237, $O237, "/", $P237, "/", $F237,  $Q237, $S237,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14000/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15256,7 +15381,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T235"/>
+  <autoFilter ref="A1:T237"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15298,13 +15423,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -15312,7 +15437,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -15324,271 +15449,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="311">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -966,6 +966,9 @@
   </si>
   <si>
     <t xml:space="preserve">76649_V5_combine_force14000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220801_Counts</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1065,7 +1068,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1084,6 +1087,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1114,11 +1121,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H206" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A209" activeCellId="0" sqref="A209"/>
-      <selection pane="bottomRight" activeCell="F236" activeCellId="0" sqref="F236"/>
+      <selection pane="bottomLeft" activeCell="A206" activeCellId="0" sqref="A206"/>
+      <selection pane="bottomRight" activeCell="G250" activeCellId="0" sqref="G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14419,9 +14426,6 @@
       <c r="F222" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I222" s="1" t="s">
         <v>46</v>
       </c>
@@ -14480,9 +14484,6 @@
       <c r="F223" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I223" s="1" t="s">
         <v>46</v>
       </c>
@@ -14541,9 +14542,6 @@
       <c r="F224" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I224" s="1" t="s">
         <v>46</v>
       </c>
@@ -14602,9 +14600,6 @@
       <c r="F225" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I225" s="1" t="s">
         <v>46</v>
       </c>
@@ -14663,9 +14658,6 @@
       <c r="F226" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I226" s="1" t="s">
         <v>46</v>
       </c>
@@ -14724,9 +14716,6 @@
       <c r="F227" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I227" s="1" t="s">
         <v>46</v>
       </c>
@@ -14785,9 +14774,6 @@
       <c r="F228" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I228" s="1" t="s">
         <v>46</v>
       </c>
@@ -14846,9 +14832,6 @@
       <c r="F229" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H229" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I229" s="1" t="s">
         <v>46</v>
       </c>
@@ -14907,9 +14890,6 @@
       <c r="F230" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I230" s="1" t="s">
         <v>46</v>
       </c>
@@ -15374,6 +15354,433 @@
       <c r="T237" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N237, $O237, "/", $P237, "/", $F237,  $Q237, $S237,)</f>
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J238" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M238" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N238, $O238, "/", $P238, "/", $F238,  $Q238, $R238)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N238" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O238" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P238" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R238" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S238" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T238" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N238, $O238, "/", $P238, "/", $F238,  $Q238, $S238,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J239" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M239" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N239, $O239, "/", $P239, "/", $F239,  $Q239, $R239)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P239" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R239" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T239" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N239, $O239, "/", $P239, "/", $F239,  $Q239, $S239,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J240" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M240" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N240, $O240, "/", $P240, "/", $F240,  $Q240, $R240)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N240" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O240" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P240" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R240" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T240" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N240, $O240, "/", $P240, "/", $F240,  $Q240, $S240,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J241" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M241" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N241, $O241, "/", $P241, "/", $F241,  $Q241, $R241)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N241" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O241" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P241" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R241" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S241" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T241" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N241, $O241, "/", $P241, "/", $F241,  $Q241, $S241,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J242" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M242" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N242, $O242, "/", $P242, "/", $F242,  $Q242, $R242)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="N242" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O242" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P242" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R242" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S242" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T242" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N242, $O242, "/", $P242, "/", $F242,  $Q242, $S242,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J243" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M243" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N243, $O243, "/", $P243, "/", $F243,  $Q243, $R243)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5/outs/molecule_info.h5</v>
+      </c>
+      <c r="N243" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O243" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P243" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R243" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S243" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T243" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N243, $O243, "/", $P243, "/", $F243,  $Q243, $S243,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J244" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M244" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N244, $O244, "/", $P244, "/", $F244,  $Q244, $R244)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11/outs/molecule_info.h5</v>
+      </c>
+      <c r="N244" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O244" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P244" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R244" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S244" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T244" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N244, $O244, "/", $P244, "/", $F244,  $Q244, $S244,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15406,314 +15813,314 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="5" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>309</v>
+      <c r="E35" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$237</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$259</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="324">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_032_force3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_039_force2000</t>
@@ -611,6 +608,9 @@
     <t xml:space="preserve">Amei-R1_Multiplex</t>
   </si>
   <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amei-R2_Multiplex</t>
   </si>
   <si>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">STARR_080_force5000</t>
   </si>
   <si>
-    <t xml:space="preserve">STARR_015_combine_force12000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024_combine_force9000</t>
+    <t xml:space="preserve">STARR_015_combine_force12660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024_combine_force9768</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_049_combine_force8300</t>
   </si>
   <si>
-    <t xml:space="preserve">STARR_059_force5500</t>
+    <t xml:space="preserve">STARR_059_force5782</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_077_10_force12248</t>
@@ -969,6 +969,45 @@
   </si>
   <si>
     <t xml:space="preserve">20220801_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_080_force4315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060_combine_force9963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_079_combine_force13464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026_combine_force8966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032_force3797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_016_force7364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_028_force5789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_039_force5023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_069_combine_force8231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_071_combine_force11350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_072_combine_force13147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_075_combine_force18736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_063_combine_force7705</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1121,11 +1160,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H224" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A206" activeCellId="0" sqref="A206"/>
-      <selection pane="bottomRight" activeCell="G250" activeCellId="0" sqref="G250"/>
+      <selection pane="bottomLeft" activeCell="A224" activeCellId="0" sqref="A224"/>
+      <selection pane="bottomRight" activeCell="H261" activeCellId="0" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6522,7 +6561,7 @@
         <v>44</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>46</v>
@@ -6580,7 +6619,7 @@
         <v>121</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>44</v>
@@ -6705,7 +6744,7 @@
         <v>88</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>44</v>
@@ -6769,10 +6808,10 @@
         <v>94</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>46</v>
@@ -6830,7 +6869,7 @@
         <v>88</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>44</v>
@@ -6891,7 +6930,7 @@
         <v>94</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>44</v>
@@ -6955,7 +6994,7 @@
         <v>88</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>77</v>
@@ -7016,7 +7055,7 @@
         <v>121</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>44</v>
@@ -7080,7 +7119,7 @@
         <v>132</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>44</v>
@@ -7108,10 +7147,10 @@
         <v>27</v>
       </c>
       <c r="O101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>30</v>
@@ -7144,7 +7183,7 @@
         <v>141</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>44</v>
@@ -7172,10 +7211,10 @@
         <v>27</v>
       </c>
       <c r="O102" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P102" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>30</v>
@@ -7208,7 +7247,7 @@
         <v>142</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>44</v>
@@ -7236,10 +7275,10 @@
         <v>27</v>
       </c>
       <c r="O103" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P103" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>30</v>
@@ -7272,7 +7311,7 @@
         <v>147</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>44</v>
@@ -7300,10 +7339,10 @@
         <v>27</v>
       </c>
       <c r="O104" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>30</v>
@@ -7336,7 +7375,7 @@
         <v>148</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>44</v>
@@ -7364,10 +7403,10 @@
         <v>27</v>
       </c>
       <c r="O105" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P105" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>30</v>
@@ -7400,7 +7439,7 @@
         <v>150</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>44</v>
@@ -7428,10 +7467,10 @@
         <v>27</v>
       </c>
       <c r="O106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P106" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>30</v>
@@ -7464,7 +7503,7 @@
         <v>149</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>44</v>
@@ -7492,10 +7531,10 @@
         <v>27</v>
       </c>
       <c r="O107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P107" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>30</v>
@@ -7522,13 +7561,13 @@
         <v>20211105</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>44</v>
@@ -7556,10 +7595,10 @@
         <v>27</v>
       </c>
       <c r="O108" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P108" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>30</v>
@@ -7586,13 +7625,13 @@
         <v>20211105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>44</v>
@@ -7620,10 +7659,10 @@
         <v>27</v>
       </c>
       <c r="O109" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P109" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>30</v>
@@ -7650,13 +7689,13 @@
         <v>20211105</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>77</v>
@@ -7684,10 +7723,10 @@
         <v>27</v>
       </c>
       <c r="O110" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P110" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>30</v>
@@ -7714,13 +7753,13 @@
         <v>20211105</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>44</v>
@@ -7748,10 +7787,10 @@
         <v>27</v>
       </c>
       <c r="O111" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P111" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>30</v>
@@ -7778,13 +7817,13 @@
         <v>20211105</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>44</v>
@@ -7812,10 +7851,10 @@
         <v>27</v>
       </c>
       <c r="O112" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P112" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q112" s="2" t="s">
         <v>30</v>
@@ -7848,7 +7887,7 @@
         <v>150</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>44</v>
@@ -7873,10 +7912,10 @@
         <v>27</v>
       </c>
       <c r="O113" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P113" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>30</v>
@@ -7909,7 +7948,7 @@
         <v>141</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>44</v>
@@ -7934,10 +7973,10 @@
         <v>27</v>
       </c>
       <c r="O114" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P114" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P114" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>30</v>
@@ -7970,7 +8009,7 @@
         <v>142</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>44</v>
@@ -7995,10 +8034,10 @@
         <v>27</v>
       </c>
       <c r="O115" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P115" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>30</v>
@@ -8031,7 +8070,7 @@
         <v>132</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>77</v>
@@ -8056,10 +8095,10 @@
         <v>27</v>
       </c>
       <c r="O116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P116" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>30</v>
@@ -8086,13 +8125,13 @@
         <v>20211105</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>77</v>
@@ -8117,10 +8156,10 @@
         <v>27</v>
       </c>
       <c r="O117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P117" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>30</v>
@@ -8147,13 +8186,13 @@
         <v>20211105</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>44</v>
@@ -8178,10 +8217,10 @@
         <v>27</v>
       </c>
       <c r="O118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P118" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q118" s="2" t="s">
         <v>30</v>
@@ -8214,7 +8253,7 @@
         <v>147</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>77</v>
@@ -8239,10 +8278,10 @@
         <v>27</v>
       </c>
       <c r="O119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P119" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>30</v>
@@ -8275,7 +8314,7 @@
         <v>148</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>44</v>
@@ -8300,10 +8339,10 @@
         <v>27</v>
       </c>
       <c r="O120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P120" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q120" s="2" t="s">
         <v>30</v>
@@ -8336,7 +8375,7 @@
         <v>149</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>44</v>
@@ -8361,10 +8400,10 @@
         <v>27</v>
       </c>
       <c r="O121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P121" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q121" s="2" t="s">
         <v>30</v>
@@ -8394,13 +8433,13 @@
         <v>124</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>126</v>
@@ -8458,7 +8497,7 @@
         <v>187</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>126</v>
@@ -8516,7 +8555,7 @@
         <v>188</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>126</v>
@@ -8574,7 +8613,7 @@
         <v>189</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>126</v>
@@ -8623,10 +8662,10 @@
         <v>20211105</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>190</v>
@@ -8654,10 +8693,10 @@
         <v>27</v>
       </c>
       <c r="O126" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P126" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>30</v>
@@ -8715,10 +8754,10 @@
         <v>27</v>
       </c>
       <c r="O127" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P127" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>30</v>
@@ -8745,10 +8784,10 @@
         <v>20211105</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>192</v>
@@ -8776,10 +8815,10 @@
         <v>27</v>
       </c>
       <c r="O128" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P128" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>30</v>
@@ -8806,7 +8845,7 @@
         <v>20211105</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>145</v>
@@ -8837,10 +8876,10 @@
         <v>27</v>
       </c>
       <c r="O129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P129" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q129" s="2" t="s">
         <v>30</v>
@@ -8962,7 +9001,7 @@
         <v>27</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>196</v>
@@ -9026,7 +9065,7 @@
         <v>27</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>196</v>
@@ -9090,7 +9129,7 @@
         <v>27</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>196</v>
@@ -9128,9 +9167,6 @@
       <c r="F134" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H134" s="1" t="s">
         <v>23</v>
       </c>
@@ -9154,7 +9190,7 @@
         <v>27</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>196</v>
@@ -9215,7 +9251,7 @@
         <v>27</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>196</v>
@@ -9276,7 +9312,7 @@
         <v>27</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>196</v>
@@ -9337,7 +9373,7 @@
         <v>27</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>203</v>
@@ -9398,7 +9434,7 @@
         <v>27</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>203</v>
@@ -9459,7 +9495,7 @@
         <v>27</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>203</v>
@@ -9520,7 +9556,7 @@
         <v>27</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>203</v>
@@ -9581,7 +9617,7 @@
         <v>27</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>203</v>
@@ -9614,7 +9650,7 @@
         <v>131</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>208</v>
@@ -9642,7 +9678,7 @@
         <v>27</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>203</v>
@@ -9675,7 +9711,7 @@
         <v>131</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>209</v>
@@ -9703,7 +9739,7 @@
         <v>27</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P143" s="2" t="s">
         <v>203</v>
@@ -9764,7 +9800,7 @@
         <v>27</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P144" s="2" t="s">
         <v>203</v>
@@ -9825,7 +9861,7 @@
         <v>27</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P145" s="2" t="s">
         <v>203</v>
@@ -9886,7 +9922,7 @@
         <v>27</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>203</v>
@@ -9947,7 +9983,7 @@
         <v>27</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>203</v>
@@ -10008,7 +10044,7 @@
         <v>27</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>203</v>
@@ -10069,7 +10105,7 @@
         <v>27</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>203</v>
@@ -10130,7 +10166,7 @@
         <v>27</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>203</v>
@@ -10191,7 +10227,7 @@
         <v>27</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>203</v>
@@ -10252,7 +10288,7 @@
         <v>27</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>203</v>
@@ -10313,7 +10349,7 @@
         <v>27</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>203</v>
@@ -10374,7 +10410,7 @@
         <v>27</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>203</v>
@@ -10407,7 +10443,7 @@
         <v>131</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>221</v>
@@ -10433,7 +10469,7 @@
         <v>27</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>203</v>
@@ -10494,7 +10530,7 @@
         <v>27</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>196</v>
@@ -10555,7 +10591,7 @@
         <v>27</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>196</v>
@@ -10613,7 +10649,7 @@
         <v>27</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>196</v>
@@ -10674,7 +10710,7 @@
         <v>27</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>196</v>
@@ -10707,7 +10743,7 @@
         <v>131</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>226</v>
@@ -10735,7 +10771,7 @@
         <v>27</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P160" s="2" t="s">
         <v>203</v>
@@ -10768,7 +10804,7 @@
         <v>131</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>227</v>
@@ -10797,7 +10833,7 @@
         <v>27</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>203</v>
@@ -10830,7 +10866,7 @@
         <v>131</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>228</v>
@@ -10855,7 +10891,7 @@
         <v>27</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P162" s="2" t="s">
         <v>203</v>
@@ -10974,10 +11010,10 @@
         <v>27</v>
       </c>
       <c r="O164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P164" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P164" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q164" s="2" t="s">
         <v>30</v>
@@ -11035,7 +11071,7 @@
         <v>27</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P165" s="2" t="s">
         <v>196</v>
@@ -11096,7 +11132,7 @@
         <v>27</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P166" s="2" t="s">
         <v>196</v>
@@ -11154,7 +11190,7 @@
         <v>27</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P167" s="2" t="s">
         <v>203</v>
@@ -11212,7 +11248,7 @@
         <v>27</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P168" s="2" t="s">
         <v>203</v>
@@ -11242,10 +11278,10 @@
         <v>20211105</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>235</v>
@@ -11270,10 +11306,10 @@
         <v>27</v>
       </c>
       <c r="O169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P169" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P169" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q169" s="2" t="s">
         <v>30</v>
@@ -11331,10 +11367,10 @@
         <v>27</v>
       </c>
       <c r="O170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P170" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P170" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q170" s="2" t="s">
         <v>30</v>
@@ -11392,10 +11428,10 @@
         <v>27</v>
       </c>
       <c r="O171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P171" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P171" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q171" s="2" t="s">
         <v>30</v>
@@ -11450,7 +11486,7 @@
         <v>27</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P172" s="2" t="s">
         <v>203</v>
@@ -11483,7 +11519,7 @@
         <v>131</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>239</v>
@@ -11508,7 +11544,7 @@
         <v>27</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P173" s="2" t="s">
         <v>203</v>
@@ -11541,7 +11577,7 @@
         <v>131</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>240</v>
@@ -11566,7 +11602,7 @@
         <v>27</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>203</v>
@@ -11627,7 +11663,7 @@
         <v>27</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P175" s="2" t="s">
         <v>196</v>
@@ -11688,7 +11724,7 @@
         <v>27</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P176" s="2" t="s">
         <v>196</v>
@@ -12023,7 +12059,7 @@
         <v>20220715</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>250</v>
@@ -12084,7 +12120,7 @@
         <v>20220715</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>251</v>
@@ -12145,7 +12181,7 @@
         <v>20220715</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>252</v>
@@ -12206,7 +12242,7 @@
         <v>20220715</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>253</v>
@@ -12267,7 +12303,7 @@
         <v>20220715</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>254</v>
@@ -12572,7 +12608,7 @@
         <v>20220718</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>202</v>
@@ -12633,7 +12669,7 @@
         <v>20220718</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>210</v>
@@ -12694,7 +12730,7 @@
         <v>20220718</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>211</v>
@@ -12755,7 +12791,7 @@
         <v>20220718</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>206</v>
@@ -12816,7 +12852,7 @@
         <v>20220718</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>263</v>
@@ -13243,7 +13279,7 @@
         <v>20220722</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>212</v>
@@ -13304,7 +13340,7 @@
         <v>20220722</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>214</v>
@@ -13365,7 +13401,7 @@
         <v>20220722</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>216</v>
@@ -13780,7 +13816,7 @@
         <v>20220722</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>212</v>
@@ -13838,7 +13874,7 @@
         <v>20220722</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>214</v>
@@ -13896,7 +13932,7 @@
         <v>20220722</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>216</v>
@@ -13982,7 +14018,7 @@
         <v>27</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P214" s="2" t="s">
         <v>196</v>
@@ -14040,7 +14076,7 @@
         <v>27</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P215" s="2" t="s">
         <v>196</v>
@@ -14098,7 +14134,7 @@
         <v>27</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P216" s="2" t="s">
         <v>196</v>
@@ -14186,7 +14222,7 @@
         <v>20220715</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>250</v>
@@ -14244,7 +14280,7 @@
         <v>20220715</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>252</v>
@@ -14302,7 +14338,7 @@
         <v>20220715</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>253</v>
@@ -14476,7 +14512,7 @@
         <v>20220722</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>214</v>
@@ -14592,7 +14628,7 @@
         <v>20220722</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>212</v>
@@ -14766,7 +14802,7 @@
         <v>20220722</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>216</v>
@@ -14882,7 +14918,7 @@
         <v>20220715</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>250</v>
@@ -14949,7 +14985,7 @@
         <v>299</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>46</v>
@@ -14965,7 +15001,7 @@
       </c>
       <c r="M231" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N231, $O231, "/", $P231, "/", $F231,  $Q231, $R231)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force12000/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force12660/outs/molecule_info.h5</v>
       </c>
       <c r="N231" s="2" t="s">
         <v>27</v>
@@ -14987,7 +15023,7 @@
       </c>
       <c r="T231" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N231, $O231, "/", $P231, "/", $F231,  $Q231, $S231,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force12000/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_015_combine_force12660/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15010,7 +15046,7 @@
         <v>300</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>46</v>
@@ -15026,7 +15062,7 @@
       </c>
       <c r="M232" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N232, $O232, "/", $P232, "/", $F232,  $Q232, $R232)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine_force9000/outs/molecule_info.h5</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine_force9768/outs/molecule_info.h5</v>
       </c>
       <c r="N232" s="2" t="s">
         <v>27</v>
@@ -15048,7 +15084,7 @@
       </c>
       <c r="T232" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N232, $O232, "/", $P232, "/", $F232,  $Q232, $S232,)</f>
-        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine_force9000/outs/metrics_summary.csv</v>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210716_L2_counts_single/STARR_024_combine_force9768/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15071,7 +15107,7 @@
         <v>301</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>46</v>
@@ -15093,10 +15129,10 @@
         <v>27</v>
       </c>
       <c r="O233" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P233" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P233" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q233" s="2" t="s">
         <v>30</v>
@@ -15132,7 +15168,7 @@
         <v>302</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I234" s="3" t="s">
         <v>46</v>
@@ -15148,13 +15184,13 @@
       </c>
       <c r="M234" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N234, $O234, "/", $P234, "/", $F234,  $Q234, $R234)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5500/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5782/outs/molecule_info.h5</v>
       </c>
       <c r="N234" s="2" t="s">
         <v>27</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>196</v>
@@ -15170,7 +15206,7 @@
       </c>
       <c r="T234" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N234, $O234, "/", $P234, "/", $F234,  $Q234, $S234,)</f>
-        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5500/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_059_force5782/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15184,7 +15220,7 @@
         <v>20220718</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>263</v>
@@ -15193,7 +15229,7 @@
         <v>303</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>46</v>
@@ -15254,7 +15290,7 @@
         <v>304</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>118</v>
@@ -15276,10 +15312,10 @@
         <v>27</v>
       </c>
       <c r="O236" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P236" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P236" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q236" s="2" t="s">
         <v>30</v>
@@ -15315,7 +15351,7 @@
         <v>305</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I237" s="3" t="s">
         <v>118</v>
@@ -15337,10 +15373,10 @@
         <v>27</v>
       </c>
       <c r="O237" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P237" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="P237" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Q237" s="2" t="s">
         <v>30</v>
@@ -15376,7 +15412,7 @@
         <v>207</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>118</v>
@@ -15437,7 +15473,7 @@
         <v>204</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>118</v>
@@ -15498,7 +15534,7 @@
         <v>205</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>118</v>
@@ -15559,7 +15595,7 @@
         <v>202</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>118</v>
@@ -15620,7 +15656,7 @@
         <v>210</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>118</v>
@@ -15681,7 +15717,7 @@
         <v>211</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>118</v>
@@ -15742,7 +15778,7 @@
         <v>206</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>118</v>
@@ -15783,12 +15819,808 @@
         <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>20220715</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J245" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M245" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N245, $O245, "/", $P245, "/", $F245,  $Q245, $R245)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force4315/outs/molecule_info.h5</v>
+      </c>
+      <c r="N245" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O245" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P245" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R245" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S245" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T245" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N245, $O245, "/", $P245, "/", $F245,  $Q245, $S245,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_080_force4315/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J246" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M246" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N246, $O246, "/", $P246, "/", $F246,  $Q246, $R246)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_combine_force9963/outs/molecule_info.h5</v>
+      </c>
+      <c r="N246" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O246" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P246" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q246" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R246" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S246" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T246" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N246, $O246, "/", $P246, "/", $F246,  $Q246, $S246,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_060_combine_force9963/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J247" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M247" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N247, $O247, "/", $P247, "/", $F247,  $Q247, $R247)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force13464/outs/molecule_info.h5</v>
+      </c>
+      <c r="N247" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O247" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P247" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q247" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R247" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S247" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T247" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N247, $O247, "/", $P247, "/", $F247,  $Q247, $S247,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_079_combine_force13464/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C248" s="1" t="n">
+        <v>20220616</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J248" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M248" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N248, $O248, "/", $P248, "/", $F248,  $Q248, $R248)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/molecule_info.h5</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O248" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P248" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q248" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R248" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S248" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T248" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N248, $O248, "/", $P248, "/", $F248,  $Q248, $S248,)</f>
+        <v>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D249" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J249" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M249" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N249, $O249, "/", $P249, "/", $F249,  $Q249, $R249)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3797/outs/molecule_info.h5</v>
+      </c>
+      <c r="N249" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O249" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P249" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q249" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R249" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T249" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N249, $O249, "/", $P249, "/", $F249,  $Q249, $S249,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3797/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>20190912</v>
+      </c>
+      <c r="D250" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J250" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M250" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N250, $O250, "/", $P250, "/", $F250,  $Q250, $R250)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7364/outs/molecule_info.h5</v>
+      </c>
+      <c r="N250" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O250" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P250" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q250" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R250" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S250" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T250" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N250, $O250, "/", $P250, "/", $F250,  $Q250, $S250,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/STARR_016_force7364/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D251" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J251" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M251" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N251, $O251, "/", $P251, "/", $F251,  $Q251, $R251)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force5789/outs/molecule_info.h5</v>
+      </c>
+      <c r="N251" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O251" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P251" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q251" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R251" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S251" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T251" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N251, $O251, "/", $P251, "/", $F251,  $Q251, $S251,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028_force5789/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>20210126</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J252" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M252" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N252, $O252, "/", $P252, "/", $F252,  $Q252, $R252)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force5023/outs/molecule_info.h5</v>
+      </c>
+      <c r="N252" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O252" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P252" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q252" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R252" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S252" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T252" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N252, $O252, "/", $P252, "/", $F252,  $Q252, $S252,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force5023/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J253" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M253" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N253, $O253, "/", $P253, "/", $F253,  $Q253, $R253)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_combine_force8231/outs/molecule_info.h5</v>
+      </c>
+      <c r="N253" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O253" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P253" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q253" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R253" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S253" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T253" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N253, $O253, "/", $P253, "/", $F253,  $Q253, $S253,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_069_combine_force8231/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="C254" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J254" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M254" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N254, $O254, "/", $P254, "/", $F254,  $Q254, $R254)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_combine_force11350/outs/molecule_info.h5</v>
+      </c>
+      <c r="N254" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O254" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P254" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q254" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R254" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S254" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T254" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N254, $O254, "/", $P254, "/", $F254,  $Q254, $S254,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_071_combine_force11350/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="C255" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J255" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M255" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N255, $O255, "/", $P255, "/", $F255,  $Q255, $R255)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine_force13147/outs/molecule_info.h5</v>
+      </c>
+      <c r="N255" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O255" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P255" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q255" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R255" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S255" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T255" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N255, $O255, "/", $P255, "/", $F255,  $Q255, $S255,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_072_combine_force13147/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C256" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J256" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M256" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N256, $O256, "/", $P256, "/", $F256,  $Q256, $R256)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18736/outs/molecule_info.h5</v>
+      </c>
+      <c r="N256" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O256" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P256" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q256" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R256" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S256" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T256" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N256, $O256, "/", $P256, "/", $F256,  $Q256, $S256,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_075_combine_force18736/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C257" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J257" s="1" t="n">
+        <v>20220810</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M257" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N257, $O257, "/", $P257, "/", $F257,  $Q257, $R257)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine_force7705/outs/molecule_info.h5</v>
+      </c>
+      <c r="N257" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O257" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P257" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q257" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R257" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S257" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T257" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N257, $O257, "/", $P257, "/", $F257,  $Q257, $S257,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine_force7705/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T237"/>
+  <autoFilter ref="A1:T259"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15830,13 +16662,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -15844,7 +16676,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>28</v>
@@ -15856,271 +16688,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="331">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -962,13 +962,34 @@
     <t xml:space="preserve">STARR_077_10_force12248</t>
   </si>
   <si>
-    <t xml:space="preserve">76647_V5_combine_force10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5_combine_force14000</t>
+    <t xml:space="preserve">76647_V5_combine_force9410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V5_combine_force14472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V11_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">20220801_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V11_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V11_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V11_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_080_force4315</t>
@@ -1029,7 +1050,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1061,6 +1082,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1107,7 +1135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1125,6 +1153,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1160,11 +1196,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H227" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A224" activeCellId="0" sqref="A224"/>
-      <selection pane="bottomRight" activeCell="H261" activeCellId="0" sqref="H261"/>
+      <selection pane="bottomLeft" activeCell="A227" activeCellId="0" sqref="A227"/>
+      <selection pane="bottomRight" activeCell="H255" activeCellId="0" sqref="H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14984,9 +15020,7 @@
       <c r="F231" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="H231" s="5"/>
       <c r="I231" s="1" t="s">
         <v>46</v>
       </c>
@@ -15045,9 +15079,6 @@
       <c r="F232" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I232" s="1" t="s">
         <v>46</v>
       </c>
@@ -15106,9 +15137,6 @@
       <c r="F233" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I233" s="3" t="s">
         <v>46</v>
       </c>
@@ -15167,9 +15195,6 @@
       <c r="F234" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I234" s="3" t="s">
         <v>46</v>
       </c>
@@ -15228,9 +15253,7 @@
       <c r="F235" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H235" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="H235" s="6"/>
       <c r="I235" s="1" t="s">
         <v>46</v>
       </c>
@@ -15306,7 +15329,7 @@
       </c>
       <c r="M236" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N236, $O236, "/", $P236, "/", $F236,  $Q236, $R236)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force10000/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force9410/outs/molecule_info.h5</v>
       </c>
       <c r="N236" s="2" t="s">
         <v>27</v>
@@ -15328,7 +15351,7 @@
       </c>
       <c r="T236" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N236, $O236, "/", $P236, "/", $F236,  $Q236, $S236,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force10000/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76647_V5_combine_force9410/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15367,7 +15390,7 @@
       </c>
       <c r="M237" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N237, $O237, "/", $P237, "/", $F237,  $Q237, $R237)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14000/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14472/outs/molecule_info.h5</v>
       </c>
       <c r="N237" s="2" t="s">
         <v>27</v>
@@ -15389,7 +15412,7 @@
       </c>
       <c r="T237" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N237, $O237, "/", $P237, "/", $F237,  $Q237, $S237,)</f>
-        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14000/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14472/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15409,10 +15432,7 @@
         <v>207</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>118</v>
@@ -15428,7 +15448,7 @@
       </c>
       <c r="M238" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N238, $O238, "/", $P238, "/", $F238,  $Q238, $R238)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>27</v>
@@ -15436,8 +15456,8 @@
       <c r="O238" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P238" s="5" t="s">
-        <v>306</v>
+      <c r="P238" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="Q238" s="2" t="s">
         <v>30</v>
@@ -15450,7 +15470,7 @@
       </c>
       <c r="T238" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N238, $O238, "/", $P238, "/", $F238,  $Q238, $S238,)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15470,11 +15490,9 @@
         <v>204</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H239" s="5"/>
       <c r="I239" s="1" t="s">
         <v>118</v>
       </c>
@@ -15489,7 +15507,7 @@
       </c>
       <c r="M239" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N239, $O239, "/", $P239, "/", $F239,  $Q239, $R239)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>27</v>
@@ -15497,8 +15515,8 @@
       <c r="O239" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P239" s="5" t="s">
-        <v>306</v>
+      <c r="P239" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="Q239" s="2" t="s">
         <v>30</v>
@@ -15511,7 +15529,7 @@
       </c>
       <c r="T239" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N239, $O239, "/", $P239, "/", $F239,  $Q239, $S239,)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15531,10 +15549,7 @@
         <v>205</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>186</v>
+        <v>309</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>118</v>
@@ -15550,7 +15565,7 @@
       </c>
       <c r="M240" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N240, $O240, "/", $P240, "/", $F240,  $Q240, $R240)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>27</v>
@@ -15558,8 +15573,8 @@
       <c r="O240" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P240" s="5" t="s">
-        <v>306</v>
+      <c r="P240" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="Q240" s="2" t="s">
         <v>30</v>
@@ -15572,7 +15587,7 @@
       </c>
       <c r="T240" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N240, $O240, "/", $P240, "/", $F240,  $Q240, $S240,)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15592,7 +15607,7 @@
         <v>202</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>186</v>
@@ -15611,7 +15626,7 @@
       </c>
       <c r="M241" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N241, $O241, "/", $P241, "/", $F241,  $Q241, $R241)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>27</v>
@@ -15619,8 +15634,8 @@
       <c r="O241" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P241" s="5" t="s">
-        <v>306</v>
+      <c r="P241" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="Q241" s="2" t="s">
         <v>30</v>
@@ -15633,7 +15648,7 @@
       </c>
       <c r="T241" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N241, $O241, "/", $P241, "/", $F241,  $Q241, $S241,)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15653,7 +15668,7 @@
         <v>210</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>186</v>
@@ -15672,7 +15687,7 @@
       </c>
       <c r="M242" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N242, $O242, "/", $P242, "/", $F242,  $Q242, $R242)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N242" s="2" t="s">
         <v>27</v>
@@ -15680,8 +15695,8 @@
       <c r="O242" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P242" s="5" t="s">
-        <v>306</v>
+      <c r="P242" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="Q242" s="2" t="s">
         <v>30</v>
@@ -15694,7 +15709,7 @@
       </c>
       <c r="T242" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N242, $O242, "/", $P242, "/", $F242,  $Q242, $S242,)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15714,7 +15729,7 @@
         <v>211</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>186</v>
@@ -15733,7 +15748,7 @@
       </c>
       <c r="M243" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N243, $O243, "/", $P243, "/", $F243,  $Q243, $R243)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N243" s="2" t="s">
         <v>27</v>
@@ -15741,8 +15756,8 @@
       <c r="O243" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P243" s="5" t="s">
-        <v>306</v>
+      <c r="P243" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="Q243" s="2" t="s">
         <v>30</v>
@@ -15755,7 +15770,7 @@
       </c>
       <c r="T243" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N243, $O243, "/", $P243, "/", $F243,  $Q243, $S243,)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15775,7 +15790,7 @@
         <v>206</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>186</v>
@@ -15794,7 +15809,7 @@
       </c>
       <c r="M244" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N244, $O244, "/", $P244, "/", $F244,  $Q244, $R244)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="N244" s="2" t="s">
         <v>27</v>
@@ -15802,8 +15817,8 @@
       <c r="O244" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P244" s="5" t="s">
-        <v>306</v>
+      <c r="P244" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="Q244" s="2" t="s">
         <v>30</v>
@@ -15816,7 +15831,7 @@
       </c>
       <c r="T244" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N244, $O244, "/", $P244, "/", $F244,  $Q244, $S244,)</f>
-        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15836,7 +15851,7 @@
         <v>250</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>186</v>
@@ -15897,7 +15912,7 @@
         <v>200</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>186</v>
@@ -15958,7 +15973,7 @@
         <v>220</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>186</v>
@@ -16019,7 +16034,7 @@
         <v>92</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>186</v>
@@ -16080,11 +16095,9 @@
         <v>94</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="H249" s="5"/>
       <c r="I249" s="1" t="s">
         <v>46</v>
       </c>
@@ -16141,10 +16154,7 @@
         <v>68</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>46</v>
@@ -16202,11 +16212,9 @@
         <v>90</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="H251" s="5"/>
       <c r="I251" s="1" t="s">
         <v>46</v>
       </c>
@@ -16263,11 +16271,9 @@
         <v>121</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="H252" s="5"/>
       <c r="I252" s="1" t="s">
         <v>46</v>
       </c>
@@ -16324,7 +16330,7 @@
         <v>213</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>186</v>
@@ -16385,7 +16391,7 @@
         <v>212</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>186</v>
@@ -16446,9 +16452,9 @@
         <v>215</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H255" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H255" s="6" t="s">
         <v>186</v>
       </c>
       <c r="I255" s="1" t="s">
@@ -16507,7 +16513,7 @@
         <v>216</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>186</v>
@@ -16568,7 +16574,7 @@
         <v>201</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>186</v>
@@ -16645,314 +16651,314 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>323</v>
+      <c r="E2" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>323</v>
+      <c r="A3" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>323</v>
+      <c r="A4" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>323</v>
+      <c r="A5" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>323</v>
+      <c r="A6" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>323</v>
+      <c r="A7" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>323</v>
+      <c r="A8" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>323</v>
+      <c r="A9" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>323</v>
+      <c r="A10" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>323</v>
+      <c r="A11" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>323</v>
+      <c r="A12" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>323</v>
+      <c r="A13" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>323</v>
+      <c r="A14" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>323</v>
+      <c r="A15" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>323</v>
+      <c r="A16" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>323</v>
+      <c r="A17" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>323</v>
+      <c r="A18" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>323</v>
+      <c r="A19" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>323</v>
+      <c r="A20" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>323</v>
+      <c r="A21" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>323</v>
+      <c r="A22" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>323</v>
+      <c r="A23" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>323</v>
+      <c r="A24" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>323</v>
+      <c r="A25" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>323</v>
+      <c r="A26" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>323</v>
+      <c r="A27" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>323</v>
+      <c r="A28" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>323</v>
+      <c r="A29" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>323</v>
+      <c r="A30" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>323</v>
+      <c r="A31" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>323</v>
+      <c r="A32" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>323</v>
+      <c r="A33" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>323</v>
+      <c r="A34" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>323</v>
+      <c r="A35" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$259</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$265</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="339">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -263,127 +263,127 @@
     <t xml:space="preserve">STARR_015_combine_force</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_015_Nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_016_force7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR026h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Mar_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_NDYoung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_NDOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_HFDYoung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_HFDOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Young_combine_force_5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Young_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Old_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Old_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Old_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Young_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Young_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD_Old_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmoset_Olaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76615_V5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015_Nova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_016_force7000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR026h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024_2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force_5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old_2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young_combine_force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Old_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset_Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76615_V5</t>
   </si>
   <si>
     <t xml:space="preserve">SGLT2</t>
@@ -1029,6 +1029,30 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_063_combine_force7705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V5_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V11_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76615_V5_force10447</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1093,12 +1117,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1156,16 +1186,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1181,6 +1211,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1193,14 +1232,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1048576"/>
+  <dimension ref="A1:AMI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H232" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A227" activeCellId="0" sqref="A227"/>
-      <selection pane="bottomRight" activeCell="H255" activeCellId="0" sqref="H255"/>
+      <selection pane="bottomLeft" activeCell="A232" activeCellId="0" sqref="A232"/>
+      <selection pane="bottomRight" activeCell="J271" activeCellId="0" sqref="J271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2882,9 +2921,6 @@
       <c r="F29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2941,7 +2977,7 @@
         <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>44</v>
@@ -3001,9 +3037,6 @@
       <c r="F31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>23</v>
       </c>
@@ -3060,7 +3093,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>44</v>
@@ -3118,7 +3151,7 @@
         <v>52</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>23</v>
@@ -3176,7 +3209,7 @@
         <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>41</v>
@@ -3231,7 +3264,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>41</v>
@@ -3283,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>44</v>
@@ -3314,7 +3347,7 @@
         <v>28</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>30</v>
@@ -3344,10 +3377,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>44</v>
@@ -3372,7 +3405,7 @@
         <v>28</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>30</v>
@@ -3402,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>44</v>
@@ -3430,7 +3463,7 @@
         <v>28</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>30</v>
@@ -3460,10 +3493,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>44</v>
@@ -3488,7 +3521,7 @@
         <v>28</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>30</v>
@@ -3518,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>44</v>
@@ -3546,7 +3579,7 @@
         <v>28</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>30</v>
@@ -3576,10 +3609,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>44</v>
@@ -3604,7 +3637,7 @@
         <v>28</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>30</v>
@@ -3634,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>44</v>
@@ -3665,7 +3698,7 @@
         <v>28</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>30</v>
@@ -3695,10 +3728,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>44</v>
@@ -3726,7 +3759,7 @@
         <v>28</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>30</v>
@@ -3756,10 +3789,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>44</v>
@@ -3787,7 +3820,7 @@
         <v>28</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>30</v>
@@ -3817,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>44</v>
@@ -3845,7 +3878,7 @@
         <v>28</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>30</v>
@@ -3875,10 +3908,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>44</v>
@@ -3903,7 +3936,7 @@
         <v>28</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>30</v>
@@ -3936,7 +3969,7 @@
         <v>39</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>41</v>
@@ -3958,7 +3991,7 @@
         <v>28</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>30</v>
@@ -3991,7 +4024,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>23</v>
@@ -4016,7 +4049,7 @@
         <v>28</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>30</v>
@@ -4049,7 +4082,7 @@
         <v>54</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>23</v>
@@ -4074,7 +4107,7 @@
         <v>28</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>30</v>
@@ -4107,7 +4140,7 @@
         <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>23</v>
@@ -4132,7 +4165,7 @@
         <v>28</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>30</v>
@@ -4165,7 +4198,7 @@
         <v>57</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>23</v>
@@ -4190,7 +4223,7 @@
         <v>28</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>30</v>
@@ -4223,7 +4256,7 @@
         <v>58</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>23</v>
@@ -4248,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>30</v>
@@ -4281,7 +4314,7 @@
         <v>54</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>55</v>
@@ -4303,7 +4336,7 @@
         <v>28</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>30</v>
@@ -4336,7 +4369,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>55</v>
@@ -4358,7 +4391,7 @@
         <v>28</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>30</v>
@@ -4391,7 +4424,7 @@
         <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>55</v>
@@ -4413,7 +4446,7 @@
         <v>28</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>30</v>
@@ -4446,7 +4479,7 @@
         <v>56</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>55</v>
@@ -4468,7 +4501,7 @@
         <v>28</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>30</v>
@@ -4501,7 +4534,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>55</v>
@@ -4523,7 +4556,7 @@
         <v>28</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>30</v>
@@ -4556,7 +4589,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>55</v>
@@ -4578,7 +4611,7 @@
         <v>28</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>30</v>
@@ -4611,7 +4644,7 @@
         <v>57</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>55</v>
@@ -4633,7 +4666,7 @@
         <v>28</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>30</v>
@@ -4666,7 +4699,7 @@
         <v>58</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>55</v>
@@ -4688,7 +4721,7 @@
         <v>28</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>30</v>
@@ -4715,13 +4748,13 @@
         <v>20210114</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>23</v>
@@ -4746,7 +4779,7 @@
         <v>28</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>30</v>
@@ -4773,13 +4806,13 @@
         <v>20210114</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>23</v>
@@ -4804,7 +4837,7 @@
         <v>28</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>30</v>
@@ -4831,13 +4864,13 @@
         <v>20210114</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>23</v>
@@ -4862,7 +4895,7 @@
         <v>28</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>30</v>
@@ -4889,16 +4922,16 @@
         <v>20210126</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>23</v>
@@ -4950,7 +4983,7 @@
         <v>20210126</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>121</v>
@@ -4959,7 +4992,7 @@
         <v>121</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>46</v>
@@ -5008,7 +5041,7 @@
         <v>20210126</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>122</v>
@@ -5069,7 +5102,7 @@
         <v>20210126</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>123</v>
@@ -5139,7 +5172,7 @@
         <v>125</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>23</v>
@@ -5203,7 +5236,7 @@
         <v>128</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>23</v>
@@ -5267,7 +5300,7 @@
         <v>129</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>23</v>
@@ -5331,7 +5364,7 @@
         <v>130</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>23</v>
@@ -5450,7 +5483,7 @@
         <v>131</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>134</v>
@@ -5508,7 +5541,7 @@
         <v>131</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>135</v>
@@ -5563,7 +5596,7 @@
         <v>131</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>136</v>
@@ -5618,10 +5651,10 @@
         <v>131</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>44</v>
@@ -5679,13 +5712,10 @@
         <v>131</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>46</v>
@@ -5972,7 +6002,7 @@
         <v>20210830</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>142</v>
@@ -6033,7 +6063,7 @@
         <v>20210830</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>144</v>
@@ -6094,7 +6124,7 @@
         <v>20210830</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>145</v>
@@ -6155,7 +6185,7 @@
         <v>20210830</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>145</v>
@@ -6213,7 +6243,7 @@
         <v>20210830</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>147</v>
@@ -6274,7 +6304,7 @@
         <v>20210830</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>148</v>
@@ -6335,7 +6365,7 @@
         <v>20210830</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>149</v>
@@ -6396,7 +6426,7 @@
         <v>20210830</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>150</v>
@@ -6460,13 +6490,10 @@
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>23</v>
@@ -6494,7 +6521,7 @@
         <v>28</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>30</v>
@@ -6524,7 +6551,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>152</v>
@@ -6558,7 +6585,7 @@
         <v>28</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>30</v>
@@ -6588,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>153</v>
@@ -6622,7 +6649,7 @@
         <v>28</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>30</v>
@@ -6649,7 +6676,7 @@
         <v>20210126</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>121</v>
@@ -6716,7 +6743,7 @@
         <v>68</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>44</v>
@@ -6777,7 +6804,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>155</v>
@@ -6811,7 +6838,7 @@
         <v>28</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>30</v>
@@ -6841,7 +6868,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>156</v>
@@ -6872,7 +6899,7 @@
         <v>28</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>30</v>
@@ -6902,7 +6929,7 @@
         <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>157</v>
@@ -6933,7 +6960,7 @@
         <v>28</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>30</v>
@@ -6963,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>158</v>
@@ -6997,7 +7024,7 @@
         <v>28</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>30</v>
@@ -7027,13 +7054,13 @@
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>46</v>
@@ -7058,7 +7085,7 @@
         <v>28</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>30</v>
@@ -7085,7 +7112,7 @@
         <v>20210126</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>121</v>
@@ -7149,7 +7176,7 @@
         <v>20211105</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>132</v>
@@ -7213,7 +7240,7 @@
         <v>20211105</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>141</v>
@@ -7277,7 +7304,7 @@
         <v>20211105</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>142</v>
@@ -7341,7 +7368,7 @@
         <v>20211105</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>147</v>
@@ -7405,7 +7432,7 @@
         <v>20211105</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>148</v>
@@ -7469,7 +7496,7 @@
         <v>20211105</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>150</v>
@@ -7533,7 +7560,7 @@
         <v>20211105</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>149</v>
@@ -7733,9 +7760,6 @@
       <c r="F110" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H110" s="1" t="s">
         <v>23</v>
       </c>
@@ -7917,7 +7941,7 @@
         <v>20211105</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>150</v>
@@ -7978,7 +8002,7 @@
         <v>20211105</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>141</v>
@@ -8039,7 +8063,7 @@
         <v>20211105</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>142</v>
@@ -8100,7 +8124,7 @@
         <v>20211105</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>132</v>
@@ -8109,7 +8133,7 @@
         <v>179</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>118</v>
@@ -8170,7 +8194,7 @@
         <v>180</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>118</v>
@@ -8283,7 +8307,7 @@
         <v>20211105</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>147</v>
@@ -8292,7 +8316,7 @@
         <v>182</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>118</v>
@@ -8344,7 +8368,7 @@
         <v>20211105</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>148</v>
@@ -8405,7 +8429,7 @@
         <v>20211105</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>149</v>
@@ -8759,16 +8783,13 @@
         <v>20211105</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>118</v>
@@ -8942,7 +8963,7 @@
         <v>20210126</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>123</v>
@@ -9006,7 +9027,7 @@
         <v>124</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>195</v>
@@ -10171,7 +10192,7 @@
         <v>20220616</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>216</v>
@@ -10232,7 +10253,7 @@
         <v>20220616</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>217</v>
@@ -10293,7 +10314,7 @@
         <v>20220616</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>218</v>
@@ -10354,7 +10375,7 @@
         <v>20220616</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>219</v>
@@ -10415,7 +10436,7 @@
         <v>20220616</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>220</v>
@@ -10538,7 +10559,7 @@
         <v>124</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>222</v>
@@ -10605,7 +10626,7 @@
         <v>223</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>46</v>
@@ -10845,9 +10866,6 @@
       <c r="F161" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H161" s="0"/>
       <c r="I161" s="3" t="s">
         <v>118</v>
@@ -10960,7 +10978,7 @@
         <v>131</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>229</v>
@@ -11015,7 +11033,7 @@
         <v>20211105</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>141</v>
@@ -11024,7 +11042,7 @@
         <v>230</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>46</v>
@@ -11079,7 +11097,7 @@
         <v>124</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>231</v>
@@ -11146,7 +11164,7 @@
         <v>232</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>46</v>
@@ -11198,7 +11216,7 @@
         <v>20220616</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>218</v>
@@ -11256,7 +11274,7 @@
         <v>20220616</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>219</v>
@@ -11372,16 +11390,13 @@
         <v>20211105</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>118</v>
@@ -11433,7 +11448,7 @@
         <v>20211105</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>142</v>
@@ -11442,7 +11457,7 @@
         <v>237</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>118</v>
@@ -11494,7 +11509,7 @@
         <v>20220616</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>218</v>
@@ -11671,7 +11686,7 @@
         <v>124</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>241</v>
@@ -11732,13 +11747,10 @@
         <v>124</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>46</v>
@@ -11790,7 +11802,7 @@
         <v>20220715</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>243</v>
@@ -11851,7 +11863,7 @@
         <v>20220715</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>246</v>
@@ -11912,7 +11924,7 @@
         <v>20220715</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>247</v>
@@ -11973,7 +11985,7 @@
         <v>20220715</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>248</v>
@@ -12034,7 +12046,7 @@
         <v>20220715</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>249</v>
@@ -12400,7 +12412,7 @@
         <v>20220718</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>207</v>
@@ -12461,7 +12473,7 @@
         <v>20220718</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>204</v>
@@ -12522,7 +12534,7 @@
         <v>20220718</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>205</v>
@@ -12583,7 +12595,7 @@
         <v>20220718</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>258</v>
@@ -12949,7 +12961,7 @@
         <v>20220722</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>201</v>
@@ -13010,7 +13022,7 @@
         <v>20220722</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>213</v>
@@ -13071,7 +13083,7 @@
         <v>20220722</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>200</v>
@@ -13132,7 +13144,7 @@
         <v>20220722</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>215</v>
@@ -13193,7 +13205,7 @@
         <v>20220722</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>217</v>
@@ -13254,7 +13266,7 @@
         <v>20220722</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>220</v>
@@ -13498,7 +13510,7 @@
         <v>20220722</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>201</v>
@@ -13556,7 +13568,7 @@
         <v>20220722</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>213</v>
@@ -13614,7 +13626,7 @@
         <v>20220722</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>200</v>
@@ -13672,7 +13684,7 @@
         <v>20220722</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>215</v>
@@ -13730,7 +13742,7 @@
         <v>20220722</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>217</v>
@@ -13739,7 +13751,7 @@
         <v>277</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>46</v>
@@ -13791,7 +13803,7 @@
         <v>20220722</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>220</v>
@@ -13800,7 +13812,7 @@
         <v>278</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>46</v>
@@ -14029,7 +14041,7 @@
         <v>124</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>282</v>
@@ -14200,7 +14212,7 @@
         <v>20220722</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>200</v>
@@ -14266,6 +14278,9 @@
       <c r="F218" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="G218" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="I218" s="1" t="s">
         <v>46</v>
       </c>
@@ -14432,7 +14447,7 @@
         <v>20220718</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>258</v>
@@ -14490,7 +14505,7 @@
         <v>20220722</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>220</v>
@@ -14606,7 +14621,7 @@
         <v>20220722</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>215</v>
@@ -14722,7 +14737,7 @@
         <v>20220722</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>213</v>
@@ -14780,7 +14795,7 @@
         <v>20220722</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>201</v>
@@ -14896,7 +14911,7 @@
         <v>20220718</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>258</v>
@@ -15020,7 +15035,6 @@
       <c r="F231" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H231" s="5"/>
       <c r="I231" s="1" t="s">
         <v>46</v>
       </c>
@@ -15074,7 +15088,7 @@
         <v>131</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>300</v>
@@ -15129,7 +15143,7 @@
         <v>20211105</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>141</v>
@@ -15253,7 +15267,7 @@
       <c r="F235" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H235" s="6"/>
+      <c r="H235" s="5"/>
       <c r="I235" s="1" t="s">
         <v>46</v>
       </c>
@@ -15304,16 +15318,13 @@
         <v>20211105</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>118</v>
@@ -15365,16 +15376,13 @@
         <v>20211105</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I237" s="3" t="s">
         <v>118</v>
@@ -15415,7 +15423,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14472/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>237</v>
       </c>
@@ -15433,6 +15441,9 @@
       </c>
       <c r="F238" s="1" t="s">
         <v>306</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>118</v>
@@ -15456,7 +15467,7 @@
       <c r="O238" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P238" s="7" t="s">
+      <c r="P238" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q238" s="2" t="s">
@@ -15473,7 +15484,7 @@
         <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>238</v>
       </c>
@@ -15492,7 +15503,9 @@
       <c r="F239" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H239" s="5"/>
+      <c r="H239" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I239" s="1" t="s">
         <v>118</v>
       </c>
@@ -15515,7 +15528,7 @@
       <c r="O239" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P239" s="7" t="s">
+      <c r="P239" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q239" s="2" t="s">
@@ -15532,7 +15545,7 @@
         <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>239</v>
       </c>
@@ -15550,6 +15563,9 @@
       </c>
       <c r="F240" s="1" t="s">
         <v>309</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>118</v>
@@ -15573,7 +15589,7 @@
       <c r="O240" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P240" s="7" t="s">
+      <c r="P240" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q240" s="2" t="s">
@@ -15590,7 +15606,7 @@
         <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>240</v>
       </c>
@@ -15610,7 +15626,7 @@
         <v>310</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>118</v>
@@ -15634,7 +15650,7 @@
       <c r="O241" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P241" s="7" t="s">
+      <c r="P241" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q241" s="2" t="s">
@@ -15651,7 +15667,7 @@
         <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>241</v>
       </c>
@@ -15671,7 +15687,7 @@
         <v>311</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>118</v>
@@ -15695,7 +15711,7 @@
       <c r="O242" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P242" s="7" t="s">
+      <c r="P242" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q242" s="2" t="s">
@@ -15712,7 +15728,7 @@
         <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>242</v>
       </c>
@@ -15732,7 +15748,7 @@
         <v>312</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>118</v>
@@ -15756,7 +15772,7 @@
       <c r="O243" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P243" s="7" t="s">
+      <c r="P243" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q243" s="2" t="s">
@@ -15773,7 +15789,7 @@
         <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>243</v>
       </c>
@@ -15793,7 +15809,7 @@
         <v>313</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>118</v>
@@ -15817,7 +15833,7 @@
       <c r="O244" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P244" s="7" t="s">
+      <c r="P244" s="6" t="s">
         <v>307</v>
       </c>
       <c r="Q244" s="2" t="s">
@@ -15853,9 +15869,6 @@
       <c r="F245" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I245" s="1" t="s">
         <v>46</v>
       </c>
@@ -15906,16 +15919,13 @@
         <v>20220722</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>46</v>
@@ -15967,16 +15977,13 @@
         <v>20220722</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>46</v>
@@ -16031,13 +16038,10 @@
         <v>124</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>46</v>
@@ -16092,12 +16096,11 @@
         <v>2</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H249" s="5"/>
       <c r="I249" s="1" t="s">
         <v>46</v>
       </c>
@@ -16121,7 +16124,7 @@
         <v>28</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q249" s="2" t="s">
         <v>30</v>
@@ -16209,12 +16212,11 @@
         <v>2</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H251" s="5"/>
       <c r="I251" s="1" t="s">
         <v>46</v>
       </c>
@@ -16238,7 +16240,7 @@
         <v>28</v>
       </c>
       <c r="P251" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q251" s="2" t="s">
         <v>30</v>
@@ -16265,7 +16267,7 @@
         <v>20210126</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>121</v>
@@ -16273,7 +16275,6 @@
       <c r="F252" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H252" s="5"/>
       <c r="I252" s="1" t="s">
         <v>46</v>
       </c>
@@ -16324,16 +16325,13 @@
         <v>20220722</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>46</v>
@@ -16393,9 +16391,6 @@
       <c r="F254" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I254" s="1" t="s">
         <v>46</v>
       </c>
@@ -16446,7 +16441,7 @@
         <v>20220722</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>215</v>
@@ -16454,9 +16449,7 @@
       <c r="F255" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H255" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="H255" s="5"/>
       <c r="I255" s="1" t="s">
         <v>46</v>
       </c>
@@ -16515,14 +16508,11 @@
       <c r="F256" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I256" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J256" s="1" t="n">
-        <v>20220810</v>
+        <v>20220815</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>51</v>
@@ -16568,7 +16558,7 @@
         <v>20220722</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>201</v>
@@ -16576,14 +16566,12 @@
       <c r="F257" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="H257" s="5"/>
       <c r="I257" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J257" s="1" t="n">
-        <v>20220810</v>
+        <v>20220815</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>51</v>
@@ -16618,15 +16606,1535 @@
         <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_063_combine_force7705/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C258" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J258" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M258" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N258, $O258, "/", $P258, "/", $F258,  $Q258, $R258)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N258" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O258" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P258" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q258" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R258" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S258" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T258" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N258, $O258, "/", $P258, "/", $F258,  $Q258, $S258,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76658_V11_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J259" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M259" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N259, $O259, "/", $P259, "/", $F259,  $Q259, $R259)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N259" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O259" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P259" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q259" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R259" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S259" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T259" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N259, $O259, "/", $P259, "/", $F259,  $Q259, $S259,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76649_V11_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="C260" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J260" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M260" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N260, $O260, "/", $P260, "/", $F260,  $Q260, $R260)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N260" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O260" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P260" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q260" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R260" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S260" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T260" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N260, $O260, "/", $P260, "/", $F260,  $Q260, $S260,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76647_V11_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J261" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M261" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N261, $O261, "/", $P261, "/", $F261,  $Q261, $R261)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N261" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O261" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P261" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q261" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R261" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S261" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T261" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N261, $O261, "/", $P261, "/", $F261,  $Q261, $S261,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76643_V11_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J262" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M262" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N262, $O262, "/", $P262, "/", $F262,  $Q262, $R262)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O262" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P262" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q262" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R262" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S262" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T262" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N262, $O262, "/", $P262, "/", $F262,  $Q262, $S262,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76660_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J263" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M263" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N263, $O263, "/", $P263, "/", $F263,  $Q263, $R263)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O263" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P263" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q263" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R263" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S263" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T263" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N263, $O263, "/", $P263, "/", $F263,  $Q263, $S263,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76661_V5_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J264" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M264" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N264, $O264, "/", $P264, "/", $F264,  $Q264, $R264)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11_combine/outs/molecule_info.h5</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O264" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P264" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q264" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R264" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S264" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T264" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N264, $O264, "/", $P264, "/", $F264,  $Q264, $S264,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220801_Counts/76656_V11_combine/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>20210126</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J265" s="1" t="n">
+        <v>20220815</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M265" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N265, $O265, "/", $P265, "/", $F265,  $Q265, $R265)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5_force10447/outs/molecule_info.h5</v>
+      </c>
+      <c r="N265" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O265" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P265" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q265" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R265" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S265" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T265" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N265, $O265, "/", $P265, "/", $F265,  $Q265, $S265,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/76615_V5_force10447/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="I267" s="3"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0"/>
+      <c r="B269" s="0"/>
+      <c r="C269" s="0"/>
+      <c r="D269" s="0"/>
+      <c r="E269" s="0"/>
+      <c r="F269" s="0"/>
+      <c r="G269" s="0"/>
+      <c r="H269" s="0"/>
+      <c r="I269" s="0"/>
+      <c r="J269" s="0"/>
+      <c r="K269" s="0"/>
+      <c r="L269" s="0"/>
+      <c r="M269" s="0"/>
+      <c r="N269" s="0"/>
+      <c r="O269" s="0"/>
+      <c r="P269" s="0"/>
+      <c r="Q269" s="0"/>
+      <c r="R269" s="0"/>
+      <c r="S269" s="0"/>
+      <c r="T269" s="0"/>
+      <c r="W269" s="0"/>
+      <c r="X269" s="0"/>
+      <c r="Y269" s="0"/>
+      <c r="Z269" s="0"/>
+      <c r="AA269" s="0"/>
+      <c r="AB269" s="0"/>
+      <c r="AC269" s="0"/>
+      <c r="AD269" s="0"/>
+      <c r="AE269" s="0"/>
+      <c r="AF269" s="0"/>
+      <c r="AG269" s="0"/>
+      <c r="AH269" s="0"/>
+      <c r="AI269" s="0"/>
+      <c r="AJ269" s="0"/>
+      <c r="AK269" s="0"/>
+      <c r="AL269" s="0"/>
+      <c r="AM269" s="0"/>
+      <c r="AN269" s="0"/>
+      <c r="AO269" s="0"/>
+      <c r="AP269" s="0"/>
+      <c r="AQ269" s="0"/>
+      <c r="AR269" s="0"/>
+      <c r="AS269" s="0"/>
+      <c r="AT269" s="0"/>
+      <c r="AU269" s="0"/>
+      <c r="AV269" s="0"/>
+      <c r="AW269" s="0"/>
+      <c r="AX269" s="0"/>
+      <c r="AY269" s="0"/>
+      <c r="AZ269" s="0"/>
+      <c r="BA269" s="0"/>
+      <c r="BB269" s="0"/>
+      <c r="BC269" s="0"/>
+      <c r="BD269" s="0"/>
+      <c r="BE269" s="0"/>
+      <c r="BF269" s="0"/>
+      <c r="BG269" s="0"/>
+      <c r="BH269" s="0"/>
+      <c r="BI269" s="0"/>
+      <c r="BJ269" s="0"/>
+      <c r="BK269" s="0"/>
+      <c r="BL269" s="0"/>
+      <c r="BM269" s="0"/>
+      <c r="BN269" s="0"/>
+      <c r="BO269" s="0"/>
+      <c r="BP269" s="0"/>
+      <c r="BQ269" s="0"/>
+      <c r="BR269" s="0"/>
+      <c r="BS269" s="0"/>
+      <c r="BT269" s="0"/>
+      <c r="BU269" s="0"/>
+      <c r="BV269" s="0"/>
+      <c r="BW269" s="0"/>
+      <c r="BX269" s="0"/>
+      <c r="BY269" s="0"/>
+      <c r="BZ269" s="0"/>
+      <c r="CA269" s="0"/>
+      <c r="CB269" s="0"/>
+      <c r="CC269" s="0"/>
+      <c r="CD269" s="0"/>
+      <c r="CE269" s="0"/>
+      <c r="CF269" s="0"/>
+      <c r="CG269" s="0"/>
+      <c r="CH269" s="0"/>
+      <c r="CI269" s="0"/>
+      <c r="CJ269" s="0"/>
+      <c r="CK269" s="0"/>
+      <c r="CL269" s="0"/>
+      <c r="CM269" s="0"/>
+      <c r="CN269" s="0"/>
+      <c r="CO269" s="0"/>
+      <c r="CP269" s="0"/>
+      <c r="CQ269" s="0"/>
+      <c r="CR269" s="0"/>
+      <c r="CS269" s="0"/>
+      <c r="CT269" s="0"/>
+      <c r="CU269" s="0"/>
+      <c r="CV269" s="0"/>
+      <c r="CW269" s="0"/>
+      <c r="CX269" s="0"/>
+      <c r="CY269" s="0"/>
+      <c r="CZ269" s="0"/>
+      <c r="DA269" s="0"/>
+      <c r="DB269" s="0"/>
+      <c r="DC269" s="0"/>
+      <c r="DD269" s="0"/>
+      <c r="DE269" s="0"/>
+      <c r="DF269" s="0"/>
+      <c r="DG269" s="0"/>
+      <c r="DH269" s="0"/>
+      <c r="DI269" s="0"/>
+      <c r="DJ269" s="0"/>
+      <c r="DK269" s="0"/>
+      <c r="DL269" s="0"/>
+      <c r="DM269" s="0"/>
+      <c r="DN269" s="0"/>
+      <c r="DO269" s="0"/>
+      <c r="DP269" s="0"/>
+      <c r="DQ269" s="0"/>
+      <c r="DR269" s="0"/>
+      <c r="DS269" s="0"/>
+      <c r="DT269" s="0"/>
+      <c r="DU269" s="0"/>
+      <c r="DV269" s="0"/>
+      <c r="DW269" s="0"/>
+      <c r="DX269" s="0"/>
+      <c r="DY269" s="0"/>
+      <c r="DZ269" s="0"/>
+      <c r="EA269" s="0"/>
+      <c r="EB269" s="0"/>
+      <c r="EC269" s="0"/>
+      <c r="ED269" s="0"/>
+      <c r="EE269" s="0"/>
+      <c r="EF269" s="0"/>
+      <c r="EG269" s="0"/>
+      <c r="EH269" s="0"/>
+      <c r="EI269" s="0"/>
+      <c r="EJ269" s="0"/>
+      <c r="EK269" s="0"/>
+      <c r="EL269" s="0"/>
+      <c r="EM269" s="0"/>
+      <c r="EN269" s="0"/>
+      <c r="EO269" s="0"/>
+      <c r="EP269" s="0"/>
+      <c r="EQ269" s="0"/>
+      <c r="ER269" s="0"/>
+      <c r="ES269" s="0"/>
+      <c r="ET269" s="0"/>
+      <c r="EU269" s="0"/>
+      <c r="EV269" s="0"/>
+      <c r="EW269" s="0"/>
+      <c r="EX269" s="0"/>
+      <c r="EY269" s="0"/>
+      <c r="EZ269" s="0"/>
+      <c r="FA269" s="0"/>
+      <c r="FB269" s="0"/>
+      <c r="FC269" s="0"/>
+      <c r="FD269" s="0"/>
+      <c r="FE269" s="0"/>
+      <c r="FF269" s="0"/>
+      <c r="FG269" s="0"/>
+      <c r="FH269" s="0"/>
+      <c r="FI269" s="0"/>
+      <c r="FJ269" s="0"/>
+      <c r="FK269" s="0"/>
+      <c r="FL269" s="0"/>
+      <c r="FM269" s="0"/>
+      <c r="FN269" s="0"/>
+      <c r="FO269" s="0"/>
+      <c r="FP269" s="0"/>
+      <c r="FQ269" s="0"/>
+      <c r="FR269" s="0"/>
+      <c r="FS269" s="0"/>
+      <c r="FT269" s="0"/>
+      <c r="FU269" s="0"/>
+      <c r="FV269" s="0"/>
+      <c r="FW269" s="0"/>
+      <c r="FX269" s="0"/>
+      <c r="FY269" s="0"/>
+      <c r="FZ269" s="0"/>
+      <c r="GA269" s="0"/>
+      <c r="GB269" s="0"/>
+      <c r="GC269" s="0"/>
+      <c r="GD269" s="0"/>
+      <c r="GE269" s="0"/>
+      <c r="GF269" s="0"/>
+      <c r="GG269" s="0"/>
+      <c r="GH269" s="0"/>
+      <c r="GI269" s="0"/>
+      <c r="GJ269" s="0"/>
+      <c r="GK269" s="0"/>
+      <c r="GL269" s="0"/>
+      <c r="GM269" s="0"/>
+      <c r="GN269" s="0"/>
+      <c r="GO269" s="0"/>
+      <c r="GP269" s="0"/>
+      <c r="GQ269" s="0"/>
+      <c r="GR269" s="0"/>
+      <c r="GS269" s="0"/>
+      <c r="GT269" s="0"/>
+      <c r="GU269" s="0"/>
+      <c r="GV269" s="0"/>
+      <c r="GW269" s="0"/>
+      <c r="GX269" s="0"/>
+      <c r="GY269" s="0"/>
+      <c r="GZ269" s="0"/>
+      <c r="HA269" s="0"/>
+      <c r="HB269" s="0"/>
+      <c r="HC269" s="0"/>
+      <c r="HD269" s="0"/>
+      <c r="HE269" s="0"/>
+      <c r="HF269" s="0"/>
+      <c r="HG269" s="0"/>
+      <c r="HH269" s="0"/>
+      <c r="HI269" s="0"/>
+      <c r="HJ269" s="0"/>
+      <c r="HK269" s="0"/>
+      <c r="HL269" s="0"/>
+      <c r="HM269" s="0"/>
+      <c r="HN269" s="0"/>
+      <c r="HO269" s="0"/>
+      <c r="HP269" s="0"/>
+      <c r="HQ269" s="0"/>
+      <c r="HR269" s="0"/>
+      <c r="HS269" s="0"/>
+      <c r="HT269" s="0"/>
+      <c r="HU269" s="0"/>
+      <c r="HV269" s="0"/>
+      <c r="HW269" s="0"/>
+      <c r="HX269" s="0"/>
+      <c r="HY269" s="0"/>
+      <c r="HZ269" s="0"/>
+      <c r="IA269" s="0"/>
+      <c r="IB269" s="0"/>
+      <c r="IC269" s="0"/>
+      <c r="ID269" s="0"/>
+      <c r="IE269" s="0"/>
+      <c r="IF269" s="0"/>
+      <c r="IG269" s="0"/>
+      <c r="IH269" s="0"/>
+      <c r="II269" s="0"/>
+      <c r="IJ269" s="0"/>
+      <c r="IK269" s="0"/>
+      <c r="IL269" s="0"/>
+      <c r="IM269" s="0"/>
+      <c r="IN269" s="0"/>
+      <c r="IO269" s="0"/>
+      <c r="IP269" s="0"/>
+      <c r="IQ269" s="0"/>
+      <c r="IR269" s="0"/>
+      <c r="IS269" s="0"/>
+      <c r="IT269" s="0"/>
+      <c r="IU269" s="0"/>
+      <c r="IV269" s="0"/>
+      <c r="IW269" s="0"/>
+      <c r="IX269" s="0"/>
+      <c r="IY269" s="0"/>
+      <c r="IZ269" s="0"/>
+      <c r="JA269" s="0"/>
+      <c r="JB269" s="0"/>
+      <c r="JC269" s="0"/>
+      <c r="JD269" s="0"/>
+      <c r="JE269" s="0"/>
+      <c r="JF269" s="0"/>
+      <c r="JG269" s="0"/>
+      <c r="JH269" s="0"/>
+      <c r="JI269" s="0"/>
+      <c r="JJ269" s="0"/>
+      <c r="JK269" s="0"/>
+      <c r="JL269" s="0"/>
+      <c r="JM269" s="0"/>
+      <c r="JN269" s="0"/>
+      <c r="JO269" s="0"/>
+      <c r="JP269" s="0"/>
+      <c r="JQ269" s="0"/>
+      <c r="JR269" s="0"/>
+      <c r="JS269" s="0"/>
+      <c r="JT269" s="0"/>
+      <c r="JU269" s="0"/>
+      <c r="JV269" s="0"/>
+      <c r="JW269" s="0"/>
+      <c r="JX269" s="0"/>
+      <c r="JY269" s="0"/>
+      <c r="JZ269" s="0"/>
+      <c r="KA269" s="0"/>
+      <c r="KB269" s="0"/>
+      <c r="KC269" s="0"/>
+      <c r="KD269" s="0"/>
+      <c r="KE269" s="0"/>
+      <c r="KF269" s="0"/>
+      <c r="KG269" s="0"/>
+      <c r="KH269" s="0"/>
+      <c r="KI269" s="0"/>
+      <c r="KJ269" s="0"/>
+      <c r="KK269" s="0"/>
+      <c r="KL269" s="0"/>
+      <c r="KM269" s="0"/>
+      <c r="KN269" s="0"/>
+      <c r="KO269" s="0"/>
+      <c r="KP269" s="0"/>
+      <c r="KQ269" s="0"/>
+      <c r="KR269" s="0"/>
+      <c r="KS269" s="0"/>
+      <c r="KT269" s="0"/>
+      <c r="KU269" s="0"/>
+      <c r="KV269" s="0"/>
+      <c r="KW269" s="0"/>
+      <c r="KX269" s="0"/>
+      <c r="KY269" s="0"/>
+      <c r="KZ269" s="0"/>
+      <c r="LA269" s="0"/>
+      <c r="LB269" s="0"/>
+      <c r="LC269" s="0"/>
+      <c r="LD269" s="0"/>
+      <c r="LE269" s="0"/>
+      <c r="LF269" s="0"/>
+      <c r="LG269" s="0"/>
+      <c r="LH269" s="0"/>
+      <c r="LI269" s="0"/>
+      <c r="LJ269" s="0"/>
+      <c r="LK269" s="0"/>
+      <c r="LL269" s="0"/>
+      <c r="LM269" s="0"/>
+      <c r="LN269" s="0"/>
+      <c r="LO269" s="0"/>
+      <c r="LP269" s="0"/>
+      <c r="LQ269" s="0"/>
+      <c r="LR269" s="0"/>
+      <c r="LS269" s="0"/>
+      <c r="LT269" s="0"/>
+      <c r="LU269" s="0"/>
+      <c r="LV269" s="0"/>
+      <c r="LW269" s="0"/>
+      <c r="LX269" s="0"/>
+      <c r="LY269" s="0"/>
+      <c r="LZ269" s="0"/>
+      <c r="MA269" s="0"/>
+      <c r="MB269" s="0"/>
+      <c r="MC269" s="0"/>
+      <c r="MD269" s="0"/>
+      <c r="ME269" s="0"/>
+      <c r="MF269" s="0"/>
+      <c r="MG269" s="0"/>
+      <c r="MH269" s="0"/>
+      <c r="MI269" s="0"/>
+      <c r="MJ269" s="0"/>
+      <c r="MK269" s="0"/>
+      <c r="ML269" s="0"/>
+      <c r="MM269" s="0"/>
+      <c r="MN269" s="0"/>
+      <c r="MO269" s="0"/>
+      <c r="MP269" s="0"/>
+      <c r="MQ269" s="0"/>
+      <c r="MR269" s="0"/>
+      <c r="MS269" s="0"/>
+      <c r="MT269" s="0"/>
+      <c r="MU269" s="0"/>
+      <c r="MV269" s="0"/>
+      <c r="MW269" s="0"/>
+      <c r="MX269" s="0"/>
+      <c r="MY269" s="0"/>
+      <c r="MZ269" s="0"/>
+      <c r="NA269" s="0"/>
+      <c r="NB269" s="0"/>
+      <c r="NC269" s="0"/>
+      <c r="ND269" s="0"/>
+      <c r="NE269" s="0"/>
+      <c r="NF269" s="0"/>
+      <c r="NG269" s="0"/>
+      <c r="NH269" s="0"/>
+      <c r="NI269" s="0"/>
+      <c r="NJ269" s="0"/>
+      <c r="NK269" s="0"/>
+      <c r="NL269" s="0"/>
+      <c r="NM269" s="0"/>
+      <c r="NN269" s="0"/>
+      <c r="NO269" s="0"/>
+      <c r="NP269" s="0"/>
+      <c r="NQ269" s="0"/>
+      <c r="NR269" s="0"/>
+      <c r="NS269" s="0"/>
+      <c r="NT269" s="0"/>
+      <c r="NU269" s="0"/>
+      <c r="NV269" s="0"/>
+      <c r="NW269" s="0"/>
+      <c r="NX269" s="0"/>
+      <c r="NY269" s="0"/>
+      <c r="NZ269" s="0"/>
+      <c r="OA269" s="0"/>
+      <c r="OB269" s="0"/>
+      <c r="OC269" s="0"/>
+      <c r="OD269" s="0"/>
+      <c r="OE269" s="0"/>
+      <c r="OF269" s="0"/>
+      <c r="OG269" s="0"/>
+      <c r="OH269" s="0"/>
+      <c r="OI269" s="0"/>
+      <c r="OJ269" s="0"/>
+      <c r="OK269" s="0"/>
+      <c r="OL269" s="0"/>
+      <c r="OM269" s="0"/>
+      <c r="ON269" s="0"/>
+      <c r="OO269" s="0"/>
+      <c r="OP269" s="0"/>
+      <c r="OQ269" s="0"/>
+      <c r="OR269" s="0"/>
+      <c r="OS269" s="0"/>
+      <c r="OT269" s="0"/>
+      <c r="OU269" s="0"/>
+      <c r="OV269" s="0"/>
+      <c r="OW269" s="0"/>
+      <c r="OX269" s="0"/>
+      <c r="OY269" s="0"/>
+      <c r="OZ269" s="0"/>
+      <c r="PA269" s="0"/>
+      <c r="PB269" s="0"/>
+      <c r="PC269" s="0"/>
+      <c r="PD269" s="0"/>
+      <c r="PE269" s="0"/>
+      <c r="PF269" s="0"/>
+      <c r="PG269" s="0"/>
+      <c r="PH269" s="0"/>
+      <c r="PI269" s="0"/>
+      <c r="PJ269" s="0"/>
+      <c r="PK269" s="0"/>
+      <c r="PL269" s="0"/>
+      <c r="PM269" s="0"/>
+      <c r="PN269" s="0"/>
+      <c r="PO269" s="0"/>
+      <c r="PP269" s="0"/>
+      <c r="PQ269" s="0"/>
+      <c r="PR269" s="0"/>
+      <c r="PS269" s="0"/>
+      <c r="PT269" s="0"/>
+      <c r="PU269" s="0"/>
+      <c r="PV269" s="0"/>
+      <c r="PW269" s="0"/>
+      <c r="PX269" s="0"/>
+      <c r="PY269" s="0"/>
+      <c r="PZ269" s="0"/>
+      <c r="QA269" s="0"/>
+      <c r="QB269" s="0"/>
+      <c r="QC269" s="0"/>
+      <c r="QD269" s="0"/>
+      <c r="QE269" s="0"/>
+      <c r="QF269" s="0"/>
+      <c r="QG269" s="0"/>
+      <c r="QH269" s="0"/>
+      <c r="QI269" s="0"/>
+      <c r="QJ269" s="0"/>
+      <c r="QK269" s="0"/>
+      <c r="QL269" s="0"/>
+      <c r="QM269" s="0"/>
+      <c r="QN269" s="0"/>
+      <c r="QO269" s="0"/>
+      <c r="QP269" s="0"/>
+      <c r="QQ269" s="0"/>
+      <c r="QR269" s="0"/>
+      <c r="QS269" s="0"/>
+      <c r="QT269" s="0"/>
+      <c r="QU269" s="0"/>
+      <c r="QV269" s="0"/>
+      <c r="QW269" s="0"/>
+      <c r="QX269" s="0"/>
+      <c r="QY269" s="0"/>
+      <c r="QZ269" s="0"/>
+      <c r="RA269" s="0"/>
+      <c r="RB269" s="0"/>
+      <c r="RC269" s="0"/>
+      <c r="RD269" s="0"/>
+      <c r="RE269" s="0"/>
+      <c r="RF269" s="0"/>
+      <c r="RG269" s="0"/>
+      <c r="RH269" s="0"/>
+      <c r="RI269" s="0"/>
+      <c r="RJ269" s="0"/>
+      <c r="RK269" s="0"/>
+      <c r="RL269" s="0"/>
+      <c r="RM269" s="0"/>
+      <c r="RN269" s="0"/>
+      <c r="RO269" s="0"/>
+      <c r="RP269" s="0"/>
+      <c r="RQ269" s="0"/>
+      <c r="RR269" s="0"/>
+      <c r="RS269" s="0"/>
+      <c r="RT269" s="0"/>
+      <c r="RU269" s="0"/>
+      <c r="RV269" s="0"/>
+      <c r="RW269" s="0"/>
+      <c r="RX269" s="0"/>
+      <c r="RY269" s="0"/>
+      <c r="RZ269" s="0"/>
+      <c r="SA269" s="0"/>
+      <c r="SB269" s="0"/>
+      <c r="SC269" s="0"/>
+      <c r="SD269" s="0"/>
+      <c r="SE269" s="0"/>
+      <c r="SF269" s="0"/>
+      <c r="SG269" s="0"/>
+      <c r="SH269" s="0"/>
+      <c r="SI269" s="0"/>
+      <c r="SJ269" s="0"/>
+      <c r="SK269" s="0"/>
+      <c r="SL269" s="0"/>
+      <c r="SM269" s="0"/>
+      <c r="SN269" s="0"/>
+      <c r="SO269" s="0"/>
+      <c r="SP269" s="0"/>
+      <c r="SQ269" s="0"/>
+      <c r="SR269" s="0"/>
+      <c r="SS269" s="0"/>
+      <c r="ST269" s="0"/>
+      <c r="SU269" s="0"/>
+      <c r="SV269" s="0"/>
+      <c r="SW269" s="0"/>
+      <c r="SX269" s="0"/>
+      <c r="SY269" s="0"/>
+      <c r="SZ269" s="0"/>
+      <c r="TA269" s="0"/>
+      <c r="TB269" s="0"/>
+      <c r="TC269" s="0"/>
+      <c r="TD269" s="0"/>
+      <c r="TE269" s="0"/>
+      <c r="TF269" s="0"/>
+      <c r="TG269" s="0"/>
+      <c r="TH269" s="0"/>
+      <c r="TI269" s="0"/>
+      <c r="TJ269" s="0"/>
+      <c r="TK269" s="0"/>
+      <c r="TL269" s="0"/>
+      <c r="TM269" s="0"/>
+      <c r="TN269" s="0"/>
+      <c r="TO269" s="0"/>
+      <c r="TP269" s="0"/>
+      <c r="TQ269" s="0"/>
+      <c r="TR269" s="0"/>
+      <c r="TS269" s="0"/>
+      <c r="TT269" s="0"/>
+      <c r="TU269" s="0"/>
+      <c r="TV269" s="0"/>
+      <c r="TW269" s="0"/>
+      <c r="TX269" s="0"/>
+      <c r="TY269" s="0"/>
+      <c r="TZ269" s="0"/>
+      <c r="UA269" s="0"/>
+      <c r="UB269" s="0"/>
+      <c r="UC269" s="0"/>
+      <c r="UD269" s="0"/>
+      <c r="UE269" s="0"/>
+      <c r="UF269" s="0"/>
+      <c r="UG269" s="0"/>
+      <c r="UH269" s="0"/>
+      <c r="UI269" s="0"/>
+      <c r="UJ269" s="0"/>
+      <c r="UK269" s="0"/>
+      <c r="UL269" s="0"/>
+      <c r="UM269" s="0"/>
+      <c r="UN269" s="0"/>
+      <c r="UO269" s="0"/>
+      <c r="UP269" s="0"/>
+      <c r="UQ269" s="0"/>
+      <c r="UR269" s="0"/>
+      <c r="US269" s="0"/>
+      <c r="UT269" s="0"/>
+      <c r="UU269" s="0"/>
+      <c r="UV269" s="0"/>
+      <c r="UW269" s="0"/>
+      <c r="UX269" s="0"/>
+      <c r="UY269" s="0"/>
+      <c r="UZ269" s="0"/>
+      <c r="VA269" s="0"/>
+      <c r="VB269" s="0"/>
+      <c r="VC269" s="0"/>
+      <c r="VD269" s="0"/>
+      <c r="VE269" s="0"/>
+      <c r="VF269" s="0"/>
+      <c r="VG269" s="0"/>
+      <c r="VH269" s="0"/>
+      <c r="VI269" s="0"/>
+      <c r="VJ269" s="0"/>
+      <c r="VK269" s="0"/>
+      <c r="VL269" s="0"/>
+      <c r="VM269" s="0"/>
+      <c r="VN269" s="0"/>
+      <c r="VO269" s="0"/>
+      <c r="VP269" s="0"/>
+      <c r="VQ269" s="0"/>
+      <c r="VR269" s="0"/>
+      <c r="VS269" s="0"/>
+      <c r="VT269" s="0"/>
+      <c r="VU269" s="0"/>
+      <c r="VV269" s="0"/>
+      <c r="VW269" s="0"/>
+      <c r="VX269" s="0"/>
+      <c r="VY269" s="0"/>
+      <c r="VZ269" s="0"/>
+      <c r="WA269" s="0"/>
+      <c r="WB269" s="0"/>
+      <c r="WC269" s="0"/>
+      <c r="WD269" s="0"/>
+      <c r="WE269" s="0"/>
+      <c r="WF269" s="0"/>
+      <c r="WG269" s="0"/>
+      <c r="WH269" s="0"/>
+      <c r="WI269" s="0"/>
+      <c r="WJ269" s="0"/>
+      <c r="WK269" s="0"/>
+      <c r="WL269" s="0"/>
+      <c r="WM269" s="0"/>
+      <c r="WN269" s="0"/>
+      <c r="WO269" s="0"/>
+      <c r="WP269" s="0"/>
+      <c r="WQ269" s="0"/>
+      <c r="WR269" s="0"/>
+      <c r="WS269" s="0"/>
+      <c r="WT269" s="0"/>
+      <c r="WU269" s="0"/>
+      <c r="WV269" s="0"/>
+      <c r="WW269" s="0"/>
+      <c r="WX269" s="0"/>
+      <c r="WY269" s="0"/>
+      <c r="WZ269" s="0"/>
+      <c r="XA269" s="0"/>
+      <c r="XB269" s="0"/>
+      <c r="XC269" s="0"/>
+      <c r="XD269" s="0"/>
+      <c r="XE269" s="0"/>
+      <c r="XF269" s="0"/>
+      <c r="XG269" s="0"/>
+      <c r="XH269" s="0"/>
+      <c r="XI269" s="0"/>
+      <c r="XJ269" s="0"/>
+      <c r="XK269" s="0"/>
+      <c r="XL269" s="0"/>
+      <c r="XM269" s="0"/>
+      <c r="XN269" s="0"/>
+      <c r="XO269" s="0"/>
+      <c r="XP269" s="0"/>
+      <c r="XQ269" s="0"/>
+      <c r="XR269" s="0"/>
+      <c r="XS269" s="0"/>
+      <c r="XT269" s="0"/>
+      <c r="XU269" s="0"/>
+      <c r="XV269" s="0"/>
+      <c r="XW269" s="0"/>
+      <c r="XX269" s="0"/>
+      <c r="XY269" s="0"/>
+      <c r="XZ269" s="0"/>
+      <c r="YA269" s="0"/>
+      <c r="YB269" s="0"/>
+      <c r="YC269" s="0"/>
+      <c r="YD269" s="0"/>
+      <c r="YE269" s="0"/>
+      <c r="YF269" s="0"/>
+      <c r="YG269" s="0"/>
+      <c r="YH269" s="0"/>
+      <c r="YI269" s="0"/>
+      <c r="YJ269" s="0"/>
+      <c r="YK269" s="0"/>
+      <c r="YL269" s="0"/>
+      <c r="YM269" s="0"/>
+      <c r="YN269" s="0"/>
+      <c r="YO269" s="0"/>
+      <c r="YP269" s="0"/>
+      <c r="YQ269" s="0"/>
+      <c r="YR269" s="0"/>
+      <c r="YS269" s="0"/>
+      <c r="YT269" s="0"/>
+      <c r="YU269" s="0"/>
+      <c r="YV269" s="0"/>
+      <c r="YW269" s="0"/>
+      <c r="YX269" s="0"/>
+      <c r="YY269" s="0"/>
+      <c r="YZ269" s="0"/>
+      <c r="ZA269" s="0"/>
+      <c r="ZB269" s="0"/>
+      <c r="ZC269" s="0"/>
+      <c r="ZD269" s="0"/>
+      <c r="ZE269" s="0"/>
+      <c r="ZF269" s="0"/>
+      <c r="ZG269" s="0"/>
+      <c r="ZH269" s="0"/>
+      <c r="ZI269" s="0"/>
+      <c r="ZJ269" s="0"/>
+      <c r="ZK269" s="0"/>
+      <c r="ZL269" s="0"/>
+      <c r="ZM269" s="0"/>
+      <c r="ZN269" s="0"/>
+      <c r="ZO269" s="0"/>
+      <c r="ZP269" s="0"/>
+      <c r="ZQ269" s="0"/>
+      <c r="ZR269" s="0"/>
+      <c r="ZS269" s="0"/>
+      <c r="ZT269" s="0"/>
+      <c r="ZU269" s="0"/>
+      <c r="ZV269" s="0"/>
+      <c r="ZW269" s="0"/>
+      <c r="ZX269" s="0"/>
+      <c r="ZY269" s="0"/>
+      <c r="ZZ269" s="0"/>
+      <c r="AAA269" s="0"/>
+      <c r="AAB269" s="0"/>
+      <c r="AAC269" s="0"/>
+      <c r="AAD269" s="0"/>
+      <c r="AAE269" s="0"/>
+      <c r="AAF269" s="0"/>
+      <c r="AAG269" s="0"/>
+      <c r="AAH269" s="0"/>
+      <c r="AAI269" s="0"/>
+      <c r="AAJ269" s="0"/>
+      <c r="AAK269" s="0"/>
+      <c r="AAL269" s="0"/>
+      <c r="AAM269" s="0"/>
+      <c r="AAN269" s="0"/>
+      <c r="AAO269" s="0"/>
+      <c r="AAP269" s="0"/>
+      <c r="AAQ269" s="0"/>
+      <c r="AAR269" s="0"/>
+      <c r="AAS269" s="0"/>
+      <c r="AAT269" s="0"/>
+      <c r="AAU269" s="0"/>
+      <c r="AAV269" s="0"/>
+      <c r="AAW269" s="0"/>
+      <c r="AAX269" s="0"/>
+      <c r="AAY269" s="0"/>
+      <c r="AAZ269" s="0"/>
+      <c r="ABA269" s="0"/>
+      <c r="ABB269" s="0"/>
+      <c r="ABC269" s="0"/>
+      <c r="ABD269" s="0"/>
+      <c r="ABE269" s="0"/>
+      <c r="ABF269" s="0"/>
+      <c r="ABG269" s="0"/>
+      <c r="ABH269" s="0"/>
+      <c r="ABI269" s="0"/>
+      <c r="ABJ269" s="0"/>
+      <c r="ABK269" s="0"/>
+      <c r="ABL269" s="0"/>
+      <c r="ABM269" s="0"/>
+      <c r="ABN269" s="0"/>
+      <c r="ABO269" s="0"/>
+      <c r="ABP269" s="0"/>
+      <c r="ABQ269" s="0"/>
+      <c r="ABR269" s="0"/>
+      <c r="ABS269" s="0"/>
+      <c r="ABT269" s="0"/>
+      <c r="ABU269" s="0"/>
+      <c r="ABV269" s="0"/>
+      <c r="ABW269" s="0"/>
+      <c r="ABX269" s="0"/>
+      <c r="ABY269" s="0"/>
+      <c r="ABZ269" s="0"/>
+      <c r="ACA269" s="0"/>
+      <c r="ACB269" s="0"/>
+      <c r="ACC269" s="0"/>
+      <c r="ACD269" s="0"/>
+      <c r="ACE269" s="0"/>
+      <c r="ACF269" s="0"/>
+      <c r="ACG269" s="0"/>
+      <c r="ACH269" s="0"/>
+      <c r="ACI269" s="0"/>
+      <c r="ACJ269" s="0"/>
+      <c r="ACK269" s="0"/>
+      <c r="ACL269" s="0"/>
+      <c r="ACM269" s="0"/>
+      <c r="ACN269" s="0"/>
+      <c r="ACO269" s="0"/>
+      <c r="ACP269" s="0"/>
+      <c r="ACQ269" s="0"/>
+      <c r="ACR269" s="0"/>
+      <c r="ACS269" s="0"/>
+      <c r="ACT269" s="0"/>
+      <c r="ACU269" s="0"/>
+      <c r="ACV269" s="0"/>
+      <c r="ACW269" s="0"/>
+      <c r="ACX269" s="0"/>
+      <c r="ACY269" s="0"/>
+      <c r="ACZ269" s="0"/>
+      <c r="ADA269" s="0"/>
+      <c r="ADB269" s="0"/>
+      <c r="ADC269" s="0"/>
+      <c r="ADD269" s="0"/>
+      <c r="ADE269" s="0"/>
+      <c r="ADF269" s="0"/>
+      <c r="ADG269" s="0"/>
+      <c r="ADH269" s="0"/>
+      <c r="ADI269" s="0"/>
+      <c r="ADJ269" s="0"/>
+      <c r="ADK269" s="0"/>
+      <c r="ADL269" s="0"/>
+      <c r="ADM269" s="0"/>
+      <c r="ADN269" s="0"/>
+      <c r="ADO269" s="0"/>
+      <c r="ADP269" s="0"/>
+      <c r="ADQ269" s="0"/>
+      <c r="ADR269" s="0"/>
+      <c r="ADS269" s="0"/>
+      <c r="ADT269" s="0"/>
+      <c r="ADU269" s="0"/>
+      <c r="ADV269" s="0"/>
+      <c r="ADW269" s="0"/>
+      <c r="ADX269" s="0"/>
+      <c r="ADY269" s="0"/>
+      <c r="ADZ269" s="0"/>
+      <c r="AEA269" s="0"/>
+      <c r="AEB269" s="0"/>
+      <c r="AEC269" s="0"/>
+      <c r="AED269" s="0"/>
+      <c r="AEE269" s="0"/>
+      <c r="AEF269" s="0"/>
+      <c r="AEG269" s="0"/>
+      <c r="AEH269" s="0"/>
+      <c r="AEI269" s="0"/>
+      <c r="AEJ269" s="0"/>
+      <c r="AEK269" s="0"/>
+      <c r="AEL269" s="0"/>
+      <c r="AEM269" s="0"/>
+      <c r="AEN269" s="0"/>
+      <c r="AEO269" s="0"/>
+      <c r="AEP269" s="0"/>
+      <c r="AEQ269" s="0"/>
+      <c r="AER269" s="0"/>
+      <c r="AES269" s="0"/>
+      <c r="AET269" s="0"/>
+      <c r="AEU269" s="0"/>
+      <c r="AEV269" s="0"/>
+      <c r="AEW269" s="0"/>
+      <c r="AEX269" s="0"/>
+      <c r="AEY269" s="0"/>
+      <c r="AEZ269" s="0"/>
+      <c r="AFA269" s="0"/>
+      <c r="AFB269" s="0"/>
+      <c r="AFC269" s="0"/>
+      <c r="AFD269" s="0"/>
+      <c r="AFE269" s="0"/>
+      <c r="AFF269" s="0"/>
+      <c r="AFG269" s="0"/>
+      <c r="AFH269" s="0"/>
+      <c r="AFI269" s="0"/>
+      <c r="AFJ269" s="0"/>
+      <c r="AFK269" s="0"/>
+      <c r="AFL269" s="0"/>
+      <c r="AFM269" s="0"/>
+      <c r="AFN269" s="0"/>
+      <c r="AFO269" s="0"/>
+      <c r="AFP269" s="0"/>
+      <c r="AFQ269" s="0"/>
+      <c r="AFR269" s="0"/>
+      <c r="AFS269" s="0"/>
+      <c r="AFT269" s="0"/>
+      <c r="AFU269" s="0"/>
+      <c r="AFV269" s="0"/>
+      <c r="AFW269" s="0"/>
+      <c r="AFX269" s="0"/>
+      <c r="AFY269" s="0"/>
+      <c r="AFZ269" s="0"/>
+      <c r="AGA269" s="0"/>
+      <c r="AGB269" s="0"/>
+      <c r="AGC269" s="0"/>
+      <c r="AGD269" s="0"/>
+      <c r="AGE269" s="0"/>
+      <c r="AGF269" s="0"/>
+      <c r="AGG269" s="0"/>
+      <c r="AGH269" s="0"/>
+      <c r="AGI269" s="0"/>
+      <c r="AGJ269" s="0"/>
+      <c r="AGK269" s="0"/>
+      <c r="AGL269" s="0"/>
+      <c r="AGM269" s="0"/>
+      <c r="AGN269" s="0"/>
+      <c r="AGO269" s="0"/>
+      <c r="AGP269" s="0"/>
+      <c r="AGQ269" s="0"/>
+      <c r="AGR269" s="0"/>
+      <c r="AGS269" s="0"/>
+      <c r="AGT269" s="0"/>
+      <c r="AGU269" s="0"/>
+      <c r="AGV269" s="0"/>
+      <c r="AGW269" s="0"/>
+      <c r="AGX269" s="0"/>
+      <c r="AGY269" s="0"/>
+      <c r="AGZ269" s="0"/>
+      <c r="AHA269" s="0"/>
+      <c r="AHB269" s="0"/>
+      <c r="AHC269" s="0"/>
+      <c r="AHD269" s="0"/>
+      <c r="AHE269" s="0"/>
+      <c r="AHF269" s="0"/>
+      <c r="AHG269" s="0"/>
+      <c r="AHH269" s="0"/>
+      <c r="AHI269" s="0"/>
+      <c r="AHJ269" s="0"/>
+      <c r="AHK269" s="0"/>
+      <c r="AHL269" s="0"/>
+      <c r="AHM269" s="0"/>
+      <c r="AHN269" s="0"/>
+      <c r="AHO269" s="0"/>
+      <c r="AHP269" s="0"/>
+      <c r="AHQ269" s="0"/>
+      <c r="AHR269" s="0"/>
+      <c r="AHS269" s="0"/>
+      <c r="AHT269" s="0"/>
+      <c r="AHU269" s="0"/>
+      <c r="AHV269" s="0"/>
+      <c r="AHW269" s="0"/>
+      <c r="AHX269" s="0"/>
+      <c r="AHY269" s="0"/>
+      <c r="AHZ269" s="0"/>
+      <c r="AIA269" s="0"/>
+      <c r="AIB269" s="0"/>
+      <c r="AIC269" s="0"/>
+      <c r="AID269" s="0"/>
+      <c r="AIE269" s="0"/>
+      <c r="AIF269" s="0"/>
+      <c r="AIG269" s="0"/>
+      <c r="AIH269" s="0"/>
+      <c r="AII269" s="0"/>
+      <c r="AIJ269" s="0"/>
+      <c r="AIK269" s="0"/>
+      <c r="AIL269" s="0"/>
+      <c r="AIM269" s="0"/>
+      <c r="AIN269" s="0"/>
+      <c r="AIO269" s="0"/>
+      <c r="AIP269" s="0"/>
+      <c r="AIQ269" s="0"/>
+      <c r="AIR269" s="0"/>
+      <c r="AIS269" s="0"/>
+      <c r="AIT269" s="0"/>
+      <c r="AIU269" s="0"/>
+      <c r="AIV269" s="0"/>
+      <c r="AIW269" s="0"/>
+      <c r="AIX269" s="0"/>
+      <c r="AIY269" s="0"/>
+      <c r="AIZ269" s="0"/>
+      <c r="AJA269" s="0"/>
+      <c r="AJB269" s="0"/>
+      <c r="AJC269" s="0"/>
+      <c r="AJD269" s="0"/>
+      <c r="AJE269" s="0"/>
+      <c r="AJF269" s="0"/>
+      <c r="AJG269" s="0"/>
+      <c r="AJH269" s="0"/>
+      <c r="AJI269" s="0"/>
+      <c r="AJJ269" s="0"/>
+      <c r="AJK269" s="0"/>
+      <c r="AJL269" s="0"/>
+      <c r="AJM269" s="0"/>
+      <c r="AJN269" s="0"/>
+      <c r="AJO269" s="0"/>
+      <c r="AJP269" s="0"/>
+      <c r="AJQ269" s="0"/>
+      <c r="AJR269" s="0"/>
+      <c r="AJS269" s="0"/>
+      <c r="AJT269" s="0"/>
+      <c r="AJU269" s="0"/>
+      <c r="AJV269" s="0"/>
+      <c r="AJW269" s="0"/>
+      <c r="AJX269" s="0"/>
+      <c r="AJY269" s="0"/>
+      <c r="AJZ269" s="0"/>
+      <c r="AKA269" s="0"/>
+      <c r="AKB269" s="0"/>
+      <c r="AKC269" s="0"/>
+      <c r="AKD269" s="0"/>
+      <c r="AKE269" s="0"/>
+      <c r="AKF269" s="0"/>
+      <c r="AKG269" s="0"/>
+      <c r="AKH269" s="0"/>
+      <c r="AKI269" s="0"/>
+      <c r="AKJ269" s="0"/>
+      <c r="AKK269" s="0"/>
+      <c r="AKL269" s="0"/>
+      <c r="AKM269" s="0"/>
+      <c r="AKN269" s="0"/>
+      <c r="AKO269" s="0"/>
+      <c r="AKP269" s="0"/>
+      <c r="AKQ269" s="0"/>
+      <c r="AKR269" s="0"/>
+      <c r="AKS269" s="0"/>
+      <c r="AKT269" s="0"/>
+      <c r="AKU269" s="0"/>
+      <c r="AKV269" s="0"/>
+      <c r="AKW269" s="0"/>
+      <c r="AKX269" s="0"/>
+      <c r="AKY269" s="0"/>
+      <c r="AKZ269" s="0"/>
+      <c r="ALA269" s="0"/>
+      <c r="ALB269" s="0"/>
+      <c r="ALC269" s="0"/>
+      <c r="ALD269" s="0"/>
+      <c r="ALE269" s="0"/>
+      <c r="ALF269" s="0"/>
+      <c r="ALG269" s="0"/>
+      <c r="ALH269" s="0"/>
+      <c r="ALI269" s="0"/>
+      <c r="ALJ269" s="0"/>
+      <c r="ALK269" s="0"/>
+      <c r="ALL269" s="0"/>
+      <c r="ALM269" s="0"/>
+      <c r="ALN269" s="0"/>
+      <c r="ALO269" s="0"/>
+      <c r="ALP269" s="0"/>
+      <c r="ALQ269" s="0"/>
+      <c r="ALR269" s="0"/>
+      <c r="ALS269" s="0"/>
+      <c r="ALT269" s="0"/>
+      <c r="ALU269" s="0"/>
+      <c r="ALV269" s="0"/>
+      <c r="ALW269" s="0"/>
+      <c r="ALX269" s="0"/>
+      <c r="ALY269" s="0"/>
+      <c r="ALZ269" s="0"/>
+      <c r="AMA269" s="0"/>
+      <c r="AMB269" s="0"/>
+      <c r="AMC269" s="0"/>
+      <c r="AMD269" s="0"/>
+      <c r="AME269" s="0"/>
+      <c r="AMF269" s="0"/>
+      <c r="AMG269" s="0"/>
+      <c r="AMH269" s="0"/>
+      <c r="AMI269" s="0"/>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T259"/>
+  <autoFilter ref="A1:T265"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16668,13 +18176,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>12</v>
@@ -16682,7 +18190,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>28</v>
@@ -16694,271 +18202,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="339">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1117,18 +1117,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1165,7 +1159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1194,10 +1188,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1211,15 +1201,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1239,7 +1220,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A232" activeCellId="0" sqref="A232"/>
-      <selection pane="bottomRight" activeCell="J271" activeCellId="0" sqref="J271"/>
+      <selection pane="bottomRight" activeCell="I270" activeCellId="0" sqref="I270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16625,7 +16606,7 @@
       <c r="F258" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H258" s="1" t="s">
+      <c r="H258" s="5" t="s">
         <v>186</v>
       </c>
       <c r="I258" s="1" t="s">
@@ -16869,7 +16850,7 @@
       <c r="F262" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H262" s="7" t="s">
+      <c r="H262" s="1" t="s">
         <v>186</v>
       </c>
       <c r="I262" s="1" t="s">
@@ -16930,7 +16911,7 @@
       <c r="F263" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H263" s="7" t="s">
+      <c r="H263" s="1" t="s">
         <v>186</v>
       </c>
       <c r="I263" s="1" t="s">
@@ -16991,7 +16972,7 @@
       <c r="F264" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H264" s="7" t="s">
+      <c r="H264" s="1" t="s">
         <v>186</v>
       </c>
       <c r="I264" s="1" t="s">
@@ -17052,9 +17033,7 @@
       <c r="F265" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H265" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="H265" s="5"/>
       <c r="I265" s="1" t="s">
         <v>118</v>
       </c>
@@ -18159,313 +18138,313 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>338</v>
       </c>
     </row>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3665" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="358">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1273,9 +1273,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H246" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H240" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H177" activeCellId="0" sqref="H177"/>
+      <selection pane="bottomLeft" activeCell="G280" activeCellId="0" sqref="G280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16486,7 +16486,7 @@
         <v>47</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>324</v>
@@ -16550,7 +16550,7 @@
         <v>47</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>326</v>
@@ -16609,7 +16609,7 @@
         <v>20</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>327</v>
@@ -16673,7 +16673,7 @@
         <v>20</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>328</v>
@@ -16731,7 +16731,7 @@
         <v>20</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>329</v>
@@ -16789,7 +16789,7 @@
         <v>20</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>330</v>
@@ -16853,7 +16853,7 @@
         <v>20</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>331</v>
@@ -17935,7 +17935,7 @@
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>350</v>
@@ -17996,7 +17996,7 @@
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>351</v>
@@ -18054,10 +18054,13 @@
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>352</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>194</v>
@@ -18112,7 +18115,7 @@
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>353</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -1296,10 +1296,10 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G278" activeCellId="0" sqref="G278:G279"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="H257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J294" activeCellId="0" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18655,7 +18655,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="G278:G279 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="366">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1299,7 +1299,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H257" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J294" activeCellId="0" sqref="J294"/>
+      <selection pane="bottomLeft" activeCell="H279" activeCellId="0" sqref="H279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17907,9 +17907,6 @@
       <c r="G278" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I278" s="1" t="s">
         <v>46</v>
       </c>
@@ -17970,9 +17967,6 @@
       </c>
       <c r="G279" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>46</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$289</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$291</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="368">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1134,6 +1134,12 @@
   </si>
   <si>
     <t xml:space="preserve">76658_V11_combine_force23181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_049_combine_force8535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_077_combine_force13134</t>
   </si>
   <si>
     <t xml:space="preserve">Folder</t>
@@ -1296,10 +1302,10 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H279" activeCellId="0" sqref="H279"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="H266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G297" activeCellId="0" sqref="G297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17477,8 +17483,8 @@
       <c r="F271" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G271" s="1" t="s">
-        <v>97</v>
+      <c r="H271" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I271" s="3" t="s">
         <v>46</v>
@@ -17904,9 +17910,6 @@
       <c r="F278" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G278" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I278" s="1" t="s">
         <v>46</v>
       </c>
@@ -18618,9 +18621,132 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
-      <c r="I290" s="3"/>
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="C290" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J290" s="1" t="n">
+        <v>20220822</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M290" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N290, $O290, "/", $P290, "/", $F290,  $Q290, $R290)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8535/outs/molecule_info.h5</v>
+      </c>
+      <c r="N290" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O290" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P290" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q290" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R290" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S290" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T290" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N290, $O290, "/", $P290, "/", $F290,  $Q290, $S290,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_combine_force8535/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <v>20220722</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J291" s="1" t="n">
+        <v>20220822</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M291" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N291, $O291, "/", $P291, "/", $F291,  $Q291, $R291)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13134/outs/molecule_info.h5</v>
+      </c>
+      <c r="N291" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O291" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P291" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q291" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R291" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S291" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T291" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N291, $O291, "/", $P291, "/", $F291,  $Q291, $S291,)</f>
+        <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13134/outs/metrics_summary.csv</v>
+      </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -18629,7 +18755,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T289"/>
+  <autoFilter ref="A1:T291"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -18671,13 +18797,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>12</v>
@@ -18685,7 +18811,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>28</v>
@@ -18697,271 +18823,271 @@
         <v>53</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="364">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1140,18 +1140,6 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_077_combine_force13134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/media/jianie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outs/molecule_info.h5</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1273,6 +1261,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1303,9 +1295,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H266" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H251" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G297" activeCellId="0" sqref="G297"/>
+      <selection pane="bottomLeft" activeCell="H284" activeCellId="0" sqref="H284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16872,9 +16864,6 @@
       <c r="F261" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I261" s="1" t="s">
         <v>119</v>
       </c>
@@ -16933,9 +16922,6 @@
       <c r="F262" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I262" s="1" t="s">
         <v>119</v>
       </c>
@@ -16994,9 +16980,6 @@
       <c r="F263" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I263" s="1" t="s">
         <v>119</v>
       </c>
@@ -17055,9 +17038,6 @@
       <c r="F264" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I264" s="1" t="s">
         <v>119</v>
       </c>
@@ -18151,9 +18131,7 @@
       <c r="F282" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="H282" s="7"/>
       <c r="I282" s="1" t="s">
         <v>119</v>
       </c>
@@ -18212,9 +18190,7 @@
       <c r="F283" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H283" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="H283" s="7"/>
       <c r="I283" s="3" t="s">
         <v>119</v>
       </c>
@@ -18334,7 +18310,7 @@
       <c r="F285" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="H285" s="1" t="s">
+      <c r="H285" s="5" t="s">
         <v>186</v>
       </c>
       <c r="I285" s="3" t="s">
@@ -18642,9 +18618,6 @@
       <c r="G290" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H290" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I290" s="3" t="s">
         <v>46</v>
       </c>
@@ -18705,9 +18678,6 @@
       </c>
       <c r="G291" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>46</v>
@@ -18772,7 +18742,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
@@ -18780,317 +18750,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.57"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="364">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1234,7 +1234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1261,10 +1261,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1297,7 +1293,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H251" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H284" activeCellId="0" sqref="H284"/>
+      <selection pane="bottomLeft" activeCell="J295" activeCellId="0" sqref="J295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18131,7 +18127,6 @@
       <c r="F282" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H282" s="7"/>
       <c r="I282" s="1" t="s">
         <v>119</v>
       </c>
@@ -18190,7 +18185,6 @@
       <c r="F283" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H283" s="7"/>
       <c r="I283" s="3" t="s">
         <v>119</v>
       </c>
@@ -18310,7 +18304,7 @@
       <c r="F285" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="H285" s="5" t="s">
+      <c r="H285" s="1" t="s">
         <v>186</v>
       </c>
       <c r="I285" s="3" t="s">
@@ -18371,9 +18365,6 @@
       <c r="F286" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H286" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I286" s="1" t="s">
         <v>119</v>
       </c>
@@ -18432,9 +18423,6 @@
       <c r="F287" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H287" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I287" s="1" t="s">
         <v>119</v>
       </c>
@@ -18493,7 +18481,7 @@
       <c r="F288" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H288" s="1" t="s">
+      <c r="H288" s="5" t="s">
         <v>186</v>
       </c>
       <c r="I288" s="3" t="s">
@@ -18750,13 +18738,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="11.57"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="364">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1291,9 +1291,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H251" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H257" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J295" activeCellId="0" sqref="J295"/>
+      <selection pane="bottomLeft" activeCell="H289" activeCellId="0" sqref="H289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10738,6 +10738,9 @@
       <c r="F158" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="H158" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I158" s="3" t="s">
         <v>46</v>
       </c>
@@ -10977,6 +10980,9 @@
       <c r="F162" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="H162" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I162" s="3" t="s">
         <v>119</v>
       </c>
@@ -11035,6 +11041,9 @@
       <c r="F163" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="H163" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>46</v>
       </c>
@@ -11093,6 +11102,9 @@
       <c r="F164" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="H164" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I164" s="3" t="s">
         <v>46</v>
       </c>
@@ -11154,6 +11166,9 @@
       <c r="G165" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="H165" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I165" s="3" t="s">
         <v>46</v>
       </c>
@@ -11740,6 +11755,9 @@
       <c r="G175" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="H175" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I175" s="3" t="s">
         <v>46</v>
       </c>
@@ -11798,6 +11816,9 @@
       <c r="F176" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="H176" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I176" s="3" t="s">
         <v>46</v>
       </c>
@@ -14093,6 +14114,9 @@
       <c r="F214" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="H214" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I214" s="3" t="s">
         <v>46</v>
       </c>
@@ -14209,6 +14233,9 @@
       <c r="F216" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="H216" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I216" s="3" t="s">
         <v>46</v>
       </c>
@@ -15141,6 +15168,9 @@
       <c r="F232" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="H232" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I232" s="1" t="s">
         <v>46</v>
       </c>
@@ -15199,6 +15229,9 @@
       <c r="F233" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="H233" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I233" s="3" t="s">
         <v>46</v>
       </c>
@@ -18243,9 +18276,6 @@
       <c r="F284" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="H284" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I284" s="3" t="s">
         <v>119</v>
       </c>
@@ -18304,9 +18334,6 @@
       <c r="F285" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="H285" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I285" s="3" t="s">
         <v>119</v>
       </c>
@@ -18481,9 +18508,7 @@
       <c r="F288" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H288" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="H288" s="5"/>
       <c r="I288" s="3" t="s">
         <v>119</v>
       </c>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="364">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -18567,9 +18567,6 @@
       <c r="F289" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H289" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I289" s="1" t="s">
         <v>119</v>
       </c>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -1291,9 +1291,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H257" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H289" activeCellId="0" sqref="H289"/>
+      <selection pane="bottomLeft" activeCell="F162" activeCellId="0" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$291</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$299</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="372">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1140,6 +1140,30 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_077_combine_force13134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76632_V5_combine_force9721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V5_combine_force9455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11_combine_force24013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V11_combine_force14711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76649_V11_combine_force23571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V11_combine_force13551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_combine_force17531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V5_combine_force14743</t>
   </si>
 </sst>
 </file>
@@ -1291,9 +1315,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H272" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F162" activeCellId="0" sqref="F162"/>
+      <selection pane="bottomLeft" activeCell="H289" activeCellId="0" sqref="H289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8178,9 +8202,6 @@
       <c r="F116" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I116" s="3" t="s">
         <v>119</v>
       </c>
@@ -8239,9 +8260,6 @@
       <c r="F117" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I117" s="3" t="s">
         <v>119</v>
       </c>
@@ -11517,9 +11535,6 @@
       <c r="F171" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I171" s="3" t="s">
         <v>119</v>
       </c>
@@ -15407,9 +15422,6 @@
       <c r="F236" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G236" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I236" s="3" t="s">
         <v>119</v>
       </c>
@@ -15468,9 +15480,6 @@
       <c r="F237" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G237" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I237" s="3" t="s">
         <v>119</v>
       </c>
@@ -17125,9 +17134,6 @@
       <c r="F265" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G265" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H265" s="5"/>
       <c r="I265" s="1" t="s">
         <v>119</v>
@@ -18160,6 +18166,9 @@
       <c r="F282" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="G282" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I282" s="1" t="s">
         <v>119</v>
       </c>
@@ -18218,6 +18227,9 @@
       <c r="F283" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="G283" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I283" s="3" t="s">
         <v>119</v>
       </c>
@@ -18508,6 +18520,9 @@
       <c r="F288" s="3" t="s">
         <v>360</v>
       </c>
+      <c r="G288" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H288" s="5"/>
       <c r="I288" s="3" t="s">
         <v>119</v>
@@ -18567,11 +18582,17 @@
       <c r="F289" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="G289" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="I289" s="1" t="s">
         <v>119</v>
       </c>
       <c r="J289" s="1" t="n">
-        <v>20220822</v>
+        <v>20220830</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>51</v>
@@ -18726,6 +18747,518 @@
       <c r="T291" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N291, $O291, "/", $P291, "/", $F291,  $Q291, $S291,)</f>
         <v>/media/jianie/SequencingFiles_4/20220715_Counts/STARR_077_combine_force13134/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J292" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M292" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N292, $O292, "/", $P292, "/", $F292,  $Q292, $R292)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine_force9721/outs/molecule_info.h5</v>
+      </c>
+      <c r="N292" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O292" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P292" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q292" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R292" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S292" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T292" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N292, $O292, "/", $P292, "/", $F292,  $Q292, $S292,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine_force9721/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C293" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J293" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M293" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N293, $O293, "/", $P293, "/", $F293,  $Q293, $R293)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/molecule_info.h5</v>
+      </c>
+      <c r="N293" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O293" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P293" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q293" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R293" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T293" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N293, $O293, "/", $P293, "/", $F293,  $Q293, $S293,)</f>
+        <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J294" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M294" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N294, $O294, "/", $P294, "/", $F294,  $Q294, $R294)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/molecule_info.h5</v>
+      </c>
+      <c r="N294" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O294" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P294" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q294" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R294" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S294" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T294" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N294, $O294, "/", $P294, "/", $F294,  $Q294, $S294,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="C295" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J295" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M295" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N295, $O295, "/", $P295, "/", $F295,  $Q295, $R295)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/molecule_info.h5</v>
+      </c>
+      <c r="N295" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O295" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P295" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q295" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R295" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S295" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T295" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N295, $O295, "/", $P295, "/", $F295,  $Q295, $S295,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J296" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M296" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N296, $O296, "/", $P296, "/", $F296,  $Q296, $R296)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/molecule_info.h5</v>
+      </c>
+      <c r="N296" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O296" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P296" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q296" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R296" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S296" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T296" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N296, $O296, "/", $P296, "/", $F296,  $Q296, $S296,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="C297" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J297" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M297" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N297, $O297, "/", $P297, "/", $F297,  $Q297, $R297)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/molecule_info.h5</v>
+      </c>
+      <c r="N297" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O297" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P297" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q297" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R297" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S297" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T297" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N297, $O297, "/", $P297, "/", $F297,  $Q297, $S297,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="C298" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J298" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M298" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N298, $O298, "/", $P298, "/", $F298,  $Q298, $R298)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/molecule_info.h5</v>
+      </c>
+      <c r="N298" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O298" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P298" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q298" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R298" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S298" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T298" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N298, $O298, "/", $P298, "/", $F298,  $Q298, $S298,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="C299" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J299" s="1" t="n">
+        <v>20220830</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M299" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N299, $O299, "/", $P299, "/", $F299,  $Q299, $R299)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/molecule_info.h5</v>
+      </c>
+      <c r="N299" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O299" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P299" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q299" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R299" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S299" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T299" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N299, $O299, "/", $P299, "/", $F299,  $Q299, $S299,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -18735,7 +19268,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T291"/>
+  <autoFilter ref="A1:T299"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="372">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1317,7 +1317,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H272" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H289" activeCellId="0" sqref="H289"/>
+      <selection pane="bottomLeft" activeCell="H299" activeCellId="0" sqref="H299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18585,9 +18585,6 @@
       <c r="G289" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H289" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I289" s="1" t="s">
         <v>119</v>
       </c>
@@ -18771,9 +18768,6 @@
       <c r="G292" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H292" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I292" s="3" t="s">
         <v>119</v>
       </c>
@@ -18835,9 +18829,6 @@
       <c r="G293" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H293" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I293" s="3" t="s">
         <v>119</v>
       </c>
@@ -18899,9 +18890,6 @@
       <c r="G294" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H294" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I294" s="1" t="s">
         <v>119</v>
       </c>
@@ -18963,9 +18951,6 @@
       <c r="G295" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H295" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I295" s="1" t="s">
         <v>119</v>
       </c>
@@ -19027,9 +19012,6 @@
       <c r="G296" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H296" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I296" s="1" t="s">
         <v>119</v>
       </c>
@@ -19091,9 +19073,6 @@
       <c r="G297" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H297" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I297" s="1" t="s">
         <v>119</v>
       </c>
@@ -19155,9 +19134,6 @@
       <c r="G298" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H298" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I298" s="1" t="s">
         <v>119</v>
       </c>
@@ -19218,9 +19194,6 @@
       </c>
       <c r="G299" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>119</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -1315,9 +1315,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H272" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H254" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H299" activeCellId="0" sqref="H299"/>
+      <selection pane="bottomLeft" activeCell="I293" activeCellId="0" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="372">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1315,9 +1315,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H254" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I293" activeCellId="0" sqref="I293"/>
+      <selection pane="bottomLeft" activeCell="H300" activeCellId="0" sqref="H300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18584,6 +18584,9 @@
       </c>
       <c r="G289" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>119</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="372">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1315,9 +1315,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H266" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H300" activeCellId="0" sqref="H300"/>
+      <selection pane="bottomLeft" activeCell="H289" activeCellId="0" sqref="H289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18584,9 +18584,6 @@
       </c>
       <c r="G289" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>119</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$299</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$301</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="374">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1164,6 +1164,12 @@
   </si>
   <si>
     <t xml:space="preserve">76661_V5_combine_force14743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76643_V11_combine_force24368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V5_combine_force17696</t>
   </si>
 </sst>
 </file>
@@ -1315,9 +1321,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H266" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H275" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H289" activeCellId="0" sqref="H289"/>
+      <selection pane="bottomLeft" activeCell="H308" activeCellId="0" sqref="H308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19234,6 +19240,123 @@
         <v>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J300" s="1" t="n">
+        <v>20220912</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M300" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N300, $O300, "/", $P300, "/", $F300,  $Q300, $R300)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/molecule_info.h5</v>
+      </c>
+      <c r="N300" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O300" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P300" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q300" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R300" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S300" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T300" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N300, $O300, "/", $P300, "/", $F300,  $Q300, $S300,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J301" s="1" t="n">
+        <v>20220912</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M301" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N301, $O301, "/", $P301, "/", $F301,  $Q301, $R301)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/molecule_info.h5</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O301" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P301" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R301" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S301" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T301" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N301, $O301, "/", $P301, "/", $F301,  $Q301, $S301,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19241,7 +19364,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T299"/>
+  <autoFilter ref="A1:T301"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="375">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1170,6 +1170,9 @@
   </si>
   <si>
     <t xml:space="preserve">76660_V5_combine_force17696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V11_combine_force23868</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H275" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H308" activeCellId="0" sqref="H308"/>
+      <selection pane="bottomLeft" activeCell="F302" activeCellId="0" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19354,6 +19357,64 @@
       <c r="T301" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($N301, $O301, "/", $P301, "/", $F301,  $Q301, $S301,)</f>
         <v>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>20220801</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J302" s="1" t="n">
+        <v>20220912</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M302" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N302, $O302, "/", $P302, "/", $F302,  $Q302, $R302)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/molecule_info.h5</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O302" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P302" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q302" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R302" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S302" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T302" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($N302, $O302, "/", $P302, "/", $F302,  $Q302, $S302,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$301</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$T$302</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$H$41:$H$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$T$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$T$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="375">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1324,9 +1324,9 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H275" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H266" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F302" activeCellId="0" sqref="F302"/>
+      <selection pane="bottomLeft" activeCell="H302" activeCellId="0" sqref="H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6772,9 +6772,6 @@
       <c r="F93" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I93" s="1" t="s">
         <v>46</v>
       </c>
@@ -7084,7 +7081,7 @@
         <v>159</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>46</v>
@@ -7203,7 +7200,7 @@
         <v>161</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>46</v>
@@ -17385,9 +17382,6 @@
       <c r="F269" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G269" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I269" s="1" t="s">
         <v>46</v>
       </c>
@@ -19262,6 +19256,9 @@
       <c r="F300" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="H300" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="I300" s="1" t="s">
         <v>119</v>
       </c>
@@ -19320,6 +19317,9 @@
       <c r="F301" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="H301" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="I301" s="1" t="s">
         <v>119</v>
       </c>
@@ -19377,6 +19377,9 @@
       </c>
       <c r="F302" s="1" t="s">
         <v>374</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>119</v>
@@ -19425,7 +19428,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:T301"/>
+  <autoFilter ref="A1:T302"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -19445,7 +19448,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="H302 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3834" uniqueCount="375">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1326,7 +1326,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H266" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F307" activeCellId="0" sqref="F307"/>
+      <selection pane="bottomLeft" activeCell="G304" activeCellId="0" sqref="G304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18585,9 +18585,6 @@
       <c r="F289" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G289" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I289" s="1" t="s">
         <v>118</v>
       </c>
@@ -18890,9 +18887,6 @@
       <c r="F294" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G294" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I294" s="1" t="s">
         <v>118</v>
       </c>
@@ -19134,9 +19128,6 @@
       <c r="F298" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G298" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I298" s="1" t="s">
         <v>118</v>
       </c>
@@ -19256,8 +19247,8 @@
       <c r="F300" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H300" s="1" t="s">
-        <v>186</v>
+      <c r="G300" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>118</v>
@@ -19317,8 +19308,8 @@
       <c r="F301" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H301" s="1" t="s">
-        <v>186</v>
+      <c r="G301" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>118</v>
@@ -19378,8 +19369,8 @@
       <c r="F302" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H302" s="1" t="s">
-        <v>186</v>
+      <c r="G302" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>118</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -2195,7 +2195,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H296" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G327" activeCellId="0" sqref="G327"/>
+      <selection pane="bottomLeft" activeCell="G330" activeCellId="0" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="427">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1187,115 +1187,25 @@
     <t xml:space="preserve">20220914_Counts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76647_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
+    <t xml:space="preserve">76647_V5_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220012-GCCRI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_073</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
+    <t xml:space="preserve">STARR_073_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220013</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76638_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76658_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_060</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
+    <t xml:space="preserve">76638_V11_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220014</t>
@@ -1304,178 +1214,34 @@
     <t xml:space="preserve">76662_V11_2nd</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76664_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_082</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
+    <t xml:space="preserve">76664_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_082_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220015</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76662_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76660_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76661_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
+    <t xml:space="preserve">76662_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220016</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_081</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76656_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_083</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
+    <t xml:space="preserve">STARR_081_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220017</t>
@@ -1490,49 +1256,13 @@
     <t xml:space="preserve">STARR_087</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_087</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_087_1st</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_099</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_099</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_099_1st</t>
   </si>
   <si>
     <t xml:space="preserve">P20220018</t>
@@ -1541,73 +1271,19 @@
     <t xml:space="preserve">STARR_098</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_098</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_098_1st</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_097</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_097</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_097_1st</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_093</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_093</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_093_1st</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_051_3_combine</t>
@@ -1629,6 +1305,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_3_combine</t>
     </r>
@@ -1642,16 +1319,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STARR_073</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3</t>
+      <t xml:space="preserve">STARR_073_3</t>
     </r>
     <r>
       <rPr>
@@ -1659,6 +1327,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1672,16 +1341,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">76638_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3</t>
+      <t xml:space="preserve">76638_V11_3</t>
     </r>
     <r>
       <rPr>
@@ -1689,6 +1349,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1702,16 +1363,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">76658_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3</t>
+      <t xml:space="preserve">76658_V5_3</t>
     </r>
     <r>
       <rPr>
@@ -1719,6 +1371,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1732,16 +1385,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STARR_060</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3</t>
+      <t xml:space="preserve">STARR_060_3</t>
     </r>
     <r>
       <rPr>
@@ -1749,6 +1393,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1769,6 +1414,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1782,16 +1428,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">76664_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">76664_V5_2</t>
     </r>
     <r>
       <rPr>
@@ -1799,6 +1436,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1812,16 +1450,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STARR_082</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">STARR_082_2</t>
     </r>
     <r>
       <rPr>
@@ -1829,6 +1458,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1842,16 +1472,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">76662_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">76662_V5_2</t>
     </r>
     <r>
       <rPr>
@@ -1859,6 +1480,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1872,16 +1494,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">76660_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">76660_V11_2</t>
     </r>
     <r>
       <rPr>
@@ -1889,6 +1502,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1902,16 +1516,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">76661_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">76661_V11_2</t>
     </r>
     <r>
       <rPr>
@@ -1919,6 +1524,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1932,16 +1538,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STARR_081</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">STARR_081_2</t>
     </r>
     <r>
       <rPr>
@@ -1949,6 +1546,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1962,16 +1560,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">76656_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">76656_V5_2</t>
     </r>
     <r>
       <rPr>
@@ -1979,6 +1568,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -1992,16 +1582,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">STARR_083</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
+      <t xml:space="preserve">STARR_083_2</t>
     </r>
     <r>
       <rPr>
@@ -2009,6 +1590,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_combine</t>
     </r>
@@ -2021,7 +1603,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2064,16 +1646,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2195,7 +1772,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H296" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G330" activeCellId="0" sqref="G330"/>
+      <selection pane="bottomLeft" activeCell="H313" activeCellId="0" sqref="H313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20625,7 +20202,7 @@
         <v>377</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J303" s="3" t="s">
         <v>47</v>
@@ -20686,7 +20263,7 @@
         <v>379</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J304" s="3" t="s">
         <v>119</v>
@@ -20747,7 +20324,7 @@
         <v>381</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J305" s="3" t="s">
         <v>47</v>
@@ -20798,6 +20375,9 @@
       <c r="C306" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D306" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E306" s="3" t="s">
         <v>382</v>
       </c>
@@ -20859,6 +20439,9 @@
       <c r="C307" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D307" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E307" s="3" t="s">
         <v>382</v>
       </c>
@@ -20920,6 +20503,9 @@
       <c r="C308" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D308" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E308" s="3" t="s">
         <v>382</v>
       </c>
@@ -20981,6 +20567,9 @@
       <c r="C309" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D309" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E309" s="3" t="s">
         <v>386</v>
       </c>
@@ -21042,6 +20631,9 @@
       <c r="C310" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D310" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E310" s="3" t="s">
         <v>386</v>
       </c>
@@ -21103,6 +20695,9 @@
       <c r="C311" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D311" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E311" s="3" t="s">
         <v>386</v>
       </c>
@@ -21164,6 +20759,9 @@
       <c r="C312" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D312" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E312" s="3" t="s">
         <v>390</v>
       </c>
@@ -21225,6 +20823,9 @@
       <c r="C313" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D313" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E313" s="3" t="s">
         <v>390</v>
       </c>
@@ -21286,6 +20887,9 @@
       <c r="C314" s="3" t="n">
         <v>20220914</v>
       </c>
+      <c r="D314" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E314" s="3" t="s">
         <v>390</v>
       </c>
@@ -21357,7 +20961,7 @@
         <v>395</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J315" s="3" t="s">
         <v>47</v>
@@ -21418,7 +21022,7 @@
         <v>396</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J316" s="3" t="s">
         <v>119</v>
@@ -21479,7 +21083,7 @@
         <v>397</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J317" s="3" t="s">
         <v>47</v>
@@ -21540,7 +21144,7 @@
         <v>400</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J318" s="3" t="s">
         <v>119</v>
@@ -21601,7 +21205,7 @@
         <v>402</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J319" s="3" t="s">
         <v>47</v>
@@ -21662,7 +21266,7 @@
         <v>404</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J320" s="3" t="s">
         <v>47</v>
@@ -21723,7 +21327,7 @@
         <v>407</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J321" s="3" t="s">
         <v>47</v>
@@ -21784,7 +21388,7 @@
         <v>409</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J322" s="3" t="s">
         <v>47</v>
@@ -21845,7 +21449,7 @@
         <v>411</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J323" s="3" t="s">
         <v>47</v>
@@ -21905,6 +21509,9 @@
       <c r="G324" s="3" t="s">
         <v>412</v>
       </c>
+      <c r="I324" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J324" s="3" t="s">
         <v>47</v>
       </c>
@@ -21963,6 +21570,9 @@
       <c r="G325" s="8" t="s">
         <v>413</v>
       </c>
+      <c r="I325" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J325" s="3" t="s">
         <v>119</v>
       </c>
@@ -22021,6 +21631,9 @@
       <c r="G326" s="8" t="s">
         <v>414</v>
       </c>
+      <c r="I326" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J326" s="3" t="s">
         <v>47</v>
       </c>
@@ -22311,6 +21924,9 @@
       <c r="G331" s="8" t="s">
         <v>419</v>
       </c>
+      <c r="I331" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J331" s="3" t="s">
         <v>119</v>
       </c>
@@ -22369,6 +21985,9 @@
       <c r="G332" s="8" t="s">
         <v>420</v>
       </c>
+      <c r="I332" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J332" s="3" t="s">
         <v>47</v>
       </c>
@@ -22601,6 +22220,9 @@
       <c r="G336" s="8" t="s">
         <v>424</v>
       </c>
+      <c r="I336" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J336" s="3" t="s">
         <v>47</v>
       </c>
@@ -22659,6 +22281,9 @@
       <c r="G337" s="8" t="s">
         <v>425</v>
       </c>
+      <c r="I337" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="J337" s="3" t="s">
         <v>119</v>
       </c>
@@ -22716,6 +22341,9 @@
       </c>
       <c r="G338" s="8" t="s">
         <v>426</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="J338" s="3" t="s">
         <v>47</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4313" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="435">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1330,6 +1330,30 @@
   <si>
     <t xml:space="preserve">STARR_083_2_combine</t>
   </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3_combine_force21034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V5_3_combine_force22986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060_3_combine_force15976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V11_2_combine_force10812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V5_2_combine_force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V5_2_combine_force9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11_2_combine_force12780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2_combine_force21268</t>
+  </si>
 </sst>
 </file>
 
@@ -1338,7 +1362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1386,12 +1410,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val=""/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1435,7 +1453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1470,10 +1488,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1514,9 +1528,9 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H296" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H308" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G327" activeCellId="0" sqref="G327"/>
+      <selection pane="bottomLeft" activeCell="H341" activeCellId="0" sqref="H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21311,7 +21325,7 @@
       <c r="F325" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G325" s="9" t="s">
+      <c r="G325" s="1" t="s">
         <v>413</v>
       </c>
       <c r="I325" s="1" t="s">
@@ -21372,7 +21386,7 @@
       <c r="F326" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G326" s="9" t="s">
+      <c r="G326" s="1" t="s">
         <v>414</v>
       </c>
       <c r="I326" s="1" t="s">
@@ -21436,7 +21450,7 @@
       <c r="F327" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G327" s="9" t="s">
+      <c r="G327" s="1" t="s">
         <v>415</v>
       </c>
       <c r="J327" s="4" t="s">
@@ -21497,7 +21511,7 @@
       <c r="F328" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G328" s="9" t="s">
+      <c r="G328" s="1" t="s">
         <v>416</v>
       </c>
       <c r="J328" s="4" t="s">
@@ -21558,7 +21572,7 @@
       <c r="F329" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G329" s="9" t="s">
+      <c r="G329" s="1" t="s">
         <v>417</v>
       </c>
       <c r="J329" s="4" t="s">
@@ -21619,7 +21633,7 @@
       <c r="F330" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G330" s="9" t="s">
+      <c r="G330" s="1" t="s">
         <v>418</v>
       </c>
       <c r="J330" s="4" t="s">
@@ -21680,11 +21694,8 @@
       <c r="F331" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G331" s="9" t="s">
+      <c r="G331" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="J331" s="4" t="s">
         <v>119</v>
@@ -21744,7 +21755,7 @@
       <c r="F332" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G332" s="9" t="s">
+      <c r="G332" s="1" t="s">
         <v>420</v>
       </c>
       <c r="J332" s="4" t="s">
@@ -21805,7 +21816,7 @@
       <c r="F333" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G333" s="9" t="s">
+      <c r="G333" s="1" t="s">
         <v>421</v>
       </c>
       <c r="J333" s="4" t="s">
@@ -21866,7 +21877,7 @@
       <c r="F334" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G334" s="9" t="s">
+      <c r="G334" s="1" t="s">
         <v>422</v>
       </c>
       <c r="J334" s="4" t="s">
@@ -21927,7 +21938,7 @@
       <c r="F335" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G335" s="9" t="s">
+      <c r="G335" s="1" t="s">
         <v>423</v>
       </c>
       <c r="J335" s="4" t="s">
@@ -21985,7 +21996,7 @@
       <c r="F336" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G336" s="9" t="s">
+      <c r="G336" s="1" t="s">
         <v>424</v>
       </c>
       <c r="I336" s="1" t="s">
@@ -22046,7 +22057,7 @@
       <c r="F337" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G337" s="9" t="s">
+      <c r="G337" s="1" t="s">
         <v>425</v>
       </c>
       <c r="I337" s="1" t="s">
@@ -22107,7 +22118,7 @@
       <c r="F338" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G338" s="9" t="s">
+      <c r="G338" s="1" t="s">
         <v>426</v>
       </c>
       <c r="I338" s="1" t="s">
@@ -22152,6 +22163,540 @@
         <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_083_2_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="339" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="C339" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J339" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K339" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N339" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O339, $P339, "/", $Q339, "/", $G339,  $R339, $S339)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force21034/outs/molecule_info.h5</v>
+      </c>
+      <c r="O339" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P339" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q339" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R339" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S339" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T339" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U339" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O339, $P339, "/", $Q339, "/", $G339,  $R339, $T339,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force21034/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="C340" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J340" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K340" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M340" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N340" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O340, $P340, "/", $Q340, "/", $G340,  $R340, $S340)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76658_V5_3_combine_force22986/outs/molecule_info.h5</v>
+      </c>
+      <c r="O340" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P340" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q340" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R340" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S340" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U340" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O340, $P340, "/", $Q340, "/", $G340,  $R340, $T340,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76658_V5_3_combine_force22986/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="C341" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K341" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M341" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N341" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O341, $P341, "/", $Q341, "/", $G341,  $R341, $S341)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_060_3_combine_force15976/outs/molecule_info.h5</v>
+      </c>
+      <c r="O341" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P341" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q341" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R341" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S341" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T341" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U341" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O341, $P341, "/", $Q341, "/", $G341,  $R341, $T341,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_060_3_combine_force15976/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="C342" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K342" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M342" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N342" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O342, $P342, "/", $Q342, "/", $G342,  $R342, $S342)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10812/outs/molecule_info.h5</v>
+      </c>
+      <c r="O342" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P342" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q342" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R342" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S342" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T342" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U342" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O342, $P342, "/", $Q342, "/", $G342,  $R342, $T342,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10812/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="C343" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K343" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M343" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N343" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O343, $P343, "/", $Q343, "/", $G343,  $R343, $S343)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force/outs/molecule_info.h5</v>
+      </c>
+      <c r="O343" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P343" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q343" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R343" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S343" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T343" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U343" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O343, $P343, "/", $Q343, "/", $G343,  $R343, $T343,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" s="4" t="n">
+        <v>138</v>
+      </c>
+      <c r="C344" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K344" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M344" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N344" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O344, $P344, "/", $Q344, "/", $G344,  $R344, $S344)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/molecule_info.h5</v>
+      </c>
+      <c r="O344" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P344" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q344" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R344" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S344" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T344" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U344" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O344, $P344, "/", $Q344, "/", $G344,  $R344, $T344,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="C345" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K345" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L345" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M345" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N345" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O345, $P345, "/", $Q345, "/", $G345,  $R345, $S345)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12780/outs/molecule_info.h5</v>
+      </c>
+      <c r="O345" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P345" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q345" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R345" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S345" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T345" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U345" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O345, $P345, "/", $Q345, "/", $G345,  $R345, $T345,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12780/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C346" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K346" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N346" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O346, $P346, "/", $Q346, "/", $G346,  $R346, $S346)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force21268/outs/molecule_info.h5</v>
+      </c>
+      <c r="O346" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P346" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q346" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S346" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T346" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U346" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O346, $P346, "/", $Q346, "/", $G346,  $R346, $T346,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force21268/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -22185,13 +22730,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="12.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="10" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="12.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="9" width="11.57"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="435">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">76662_V11_2_combine_force10812</t>
   </si>
   <si>
-    <t xml:space="preserve">76664_V5_2_combine_force</t>
+    <t xml:space="preserve">76664_V5_2_combine_force13518</t>
   </si>
   <si>
     <t xml:space="preserve">76662_V5_2_combine_force9832</t>
@@ -1530,7 +1530,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H308" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H341" activeCellId="0" sqref="H341"/>
+      <selection pane="bottomLeft" activeCell="G343" activeCellId="0" sqref="G343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22453,6 +22453,9 @@
       <c r="G343" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="H343" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I343" s="1" t="s">
         <v>187</v>
       </c>
@@ -22470,7 +22473,7 @@
       </c>
       <c r="N343" s="3" t="str">
         <f aca="false">_xlfn.CONCAT($O343, $P343, "/", $Q343, "/", $G343,  $R343, $S343)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/molecule_info.h5</v>
       </c>
       <c r="O343" s="3" t="s">
         <v>28</v>
@@ -22492,7 +22495,7 @@
       </c>
       <c r="U343" s="3" t="str">
         <f aca="false">_xlfn.CONCAT($O343, $P343, "/", $Q343, "/", $G343,  $R343, $T343,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="435">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1530,7 +1530,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H308" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G343" activeCellId="0" sqref="G343"/>
+      <selection pane="bottomLeft" activeCell="I336" activeCellId="0" sqref="I336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22188,9 +22188,6 @@
       <c r="H339" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I339" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J339" s="4" t="s">
         <v>119</v>
       </c>
@@ -22255,9 +22252,6 @@
       <c r="H340" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I340" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J340" s="4" t="s">
         <v>119</v>
       </c>
@@ -22322,9 +22316,6 @@
       <c r="H341" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I341" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J341" s="4" t="s">
         <v>47</v>
       </c>
@@ -22389,9 +22380,6 @@
       <c r="H342" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I342" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J342" s="4" t="s">
         <v>119</v>
       </c>
@@ -22456,9 +22444,6 @@
       <c r="H343" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I343" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J343" s="4" t="s">
         <v>119</v>
       </c>
@@ -22523,9 +22508,6 @@
       <c r="H344" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I344" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J344" s="4" t="s">
         <v>119</v>
       </c>
@@ -22590,9 +22572,6 @@
       <c r="H345" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I345" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J345" s="4" t="s">
         <v>119</v>
       </c>
@@ -22656,9 +22635,6 @@
       </c>
       <c r="H346" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="I346" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="J346" s="4" t="s">
         <v>119</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="439">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1353,6 +1353,18 @@
   </si>
   <si>
     <t xml:space="preserve">76661_V11_2_combine_force21268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3_combine_force20626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V11_2_combine_force10955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76660_V11_2_combine_force12699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2_combine_force22803</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1542,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H308" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I336" activeCellId="0" sqref="I336"/>
+      <selection pane="bottomLeft" activeCell="G347" activeCellId="0" sqref="G347:I350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22185,9 +22197,6 @@
       <c r="G339" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H339" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J339" s="4" t="s">
         <v>119</v>
       </c>
@@ -22377,9 +22386,6 @@
       <c r="G342" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H342" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J342" s="4" t="s">
         <v>119</v>
       </c>
@@ -22569,9 +22575,6 @@
       <c r="G345" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H345" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J345" s="4" t="s">
         <v>119</v>
       </c>
@@ -22633,9 +22636,6 @@
       <c r="G346" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H346" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J346" s="4" t="s">
         <v>119</v>
       </c>
@@ -22673,6 +22673,262 @@
       <c r="U346" s="3" t="str">
         <f aca="false">_xlfn.CONCAT($O346, $P346, "/", $Q346, "/", $G346,  $R346, $T346,)</f>
         <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force21268/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="C347" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K347" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M347" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N347" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O347, $P347, "/", $Q347, "/", $G347,  $R347, $S347)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force20626/outs/molecule_info.h5</v>
+      </c>
+      <c r="O347" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P347" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q347" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R347" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S347" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T347" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U347" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O347, $P347, "/", $Q347, "/", $G347,  $R347, $T347,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force20626/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="C348" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J348" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K348" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M348" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N348" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O348, $P348, "/", $Q348, "/", $G348,  $R348, $S348)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10955/outs/molecule_info.h5</v>
+      </c>
+      <c r="O348" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P348" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q348" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R348" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S348" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T348" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U348" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O348, $P348, "/", $Q348, "/", $G348,  $R348, $T348,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10955/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="C349" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J349" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K349" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M349" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N349" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O349, $P349, "/", $Q349, "/", $G349,  $R349, $S349)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12699/outs/molecule_info.h5</v>
+      </c>
+      <c r="O349" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P349" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q349" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R349" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S349" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T349" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U349" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O349, $P349, "/", $Q349, "/", $G349,  $R349, $T349,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12699/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C350" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J350" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K350" s="1" t="n">
+        <v>20220923</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M350" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N350" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O350, $P350, "/", $Q350, "/", $G350,  $R350, $S350)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force22803/outs/molecule_info.h5</v>
+      </c>
+      <c r="O350" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P350" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q350" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R350" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S350" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T350" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U350" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O350, $P350, "/", $Q350, "/", $G350,  $R350, $T350,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force22803/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -22704,7 +22960,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="G347:I350 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -1542,7 +1542,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H308" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G347" activeCellId="0" sqref="G347:I350"/>
+      <selection pane="bottomLeft" activeCell="H348" activeCellId="0" sqref="H348:H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22697,14 +22697,14 @@
       <c r="G347" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I347" s="1" t="s">
-        <v>187</v>
+      <c r="H347" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="J347" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K347" s="1" t="n">
-        <v>20220923</v>
+        <v>20220927</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>52</v>
@@ -22761,14 +22761,14 @@
       <c r="G348" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I348" s="1" t="s">
-        <v>187</v>
+      <c r="H348" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="J348" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K348" s="1" t="n">
-        <v>20220923</v>
+        <v>20220927</v>
       </c>
       <c r="L348" s="1" t="s">
         <v>52</v>
@@ -22825,14 +22825,14 @@
       <c r="G349" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I349" s="1" t="s">
-        <v>187</v>
+      <c r="H349" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="J349" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K349" s="1" t="n">
-        <v>20220923</v>
+        <v>20220927</v>
       </c>
       <c r="L349" s="1" t="s">
         <v>52</v>
@@ -22889,14 +22889,14 @@
       <c r="G350" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I350" s="1" t="s">
-        <v>187</v>
+      <c r="H350" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="J350" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K350" s="1" t="n">
-        <v>20220923</v>
+        <v>20220927</v>
       </c>
       <c r="L350" s="1" t="s">
         <v>52</v>
@@ -22960,7 +22960,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="G347:I350 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="H348:H350 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4489" uniqueCount="440">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1365,6 +1365,9 @@
   </si>
   <si>
     <t xml:space="preserve">76661_V11_2_combine_force22803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2_combine_force23379</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1545,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H308" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H348" activeCellId="0" sqref="H348:H350"/>
+      <selection pane="bottomLeft" activeCell="K326" activeCellId="0" sqref="K326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22889,9 +22892,6 @@
       <c r="G350" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H350" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J350" s="4" t="s">
         <v>119</v>
       </c>
@@ -22929,6 +22929,70 @@
       <c r="U350" s="3" t="str">
         <f aca="false">_xlfn.CONCAT($O350, $P350, "/", $Q350, "/", $G350,  $R350, $T350,)</f>
         <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force22803/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C351" s="4" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J351" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K351" s="1" t="n">
+        <v>20220927</v>
+      </c>
+      <c r="L351" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N351" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O351, $P351, "/", $Q351, "/", $G351,  $R351, $S351)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/molecule_info.h5</v>
+      </c>
+      <c r="O351" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P351" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q351" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="R351" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S351" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T351" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U351" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT($O351, $P351, "/", $Q351, "/", $G351,  $R351, $T351,)</f>
+        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -22960,7 +23024,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="H348:H350 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="464">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1250,22 +1250,28 @@
     <t xml:space="preserve">STARR_051_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">SequencingFiles_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20220012-GCCRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20220013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3rd</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220914_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V5_3rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20220012-GCCRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_073_3rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20220013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">76658_V5_3rd</t>
@@ -1530,7 +1536,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1561,6 +1567,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1597,11 +1611,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G311" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A320" activeCellId="0" sqref="A320"/>
-      <selection pane="bottomRight" activeCell="I332" activeCellId="0" sqref="I332"/>
+      <selection pane="bottomLeft" activeCell="A311" activeCellId="0" sqref="A311"/>
+      <selection pane="bottomRight" activeCell="H330" activeCellId="0" sqref="H330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,7 +1633,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="124.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="124.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="27.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="35.73"/>
@@ -20795,8 +20809,11 @@
       <c r="B303" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="C303" s="1" t="n">
-        <v>20220914</v>
+      <c r="C303" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>398</v>
@@ -20824,16 +20841,16 @@
       </c>
       <c r="N303" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O303, $P303, "/", $Q303, "/", $H303,  $R303, $S303)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_051_3rd/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_051_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="O303" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P303" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q303" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R303" s="2" t="s">
         <v>32</v>
@@ -20846,7 +20863,7 @@
       </c>
       <c r="U303" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O303, $P303, "/", $Q303, "/", $H303,  $R303, $T303,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_051_3rd/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_051_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20856,8 +20873,11 @@
       <c r="B304" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="C304" s="1" t="n">
-        <v>20220914</v>
+      <c r="C304" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>398</v>
@@ -20869,7 +20889,7 @@
         <v>125</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>198</v>
@@ -20885,16 +20905,16 @@
       </c>
       <c r="N304" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O304, $P304, "/", $Q304, "/", $H304,  $R304, $S304)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76647_V5_3rd/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="O304" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q304" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R304" s="2" t="s">
         <v>32</v>
@@ -20907,7 +20927,7 @@
       </c>
       <c r="U304" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O304, $P304, "/", $Q304, "/", $H304,  $R304, $T304,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76647_V5_3rd/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20917,11 +20937,14 @@
       <c r="B305" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="C305" s="1" t="n">
-        <v>20220914</v>
+      <c r="C305" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>230</v>
@@ -20930,7 +20953,7 @@
         <v>46</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>198</v>
@@ -20946,16 +20969,16 @@
       </c>
       <c r="N305" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O305, $P305, "/", $Q305, "/", $H305,  $R305, $S305)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_073_3rd/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3rd/outs/molecule_info.h5</v>
       </c>
       <c r="O305" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q305" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R305" s="2" t="s">
         <v>32</v>
@@ -20968,7 +20991,7 @@
       </c>
       <c r="U305" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O305, $P305, "/", $Q305, "/", $H305,  $R305, $T305,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_073_3rd/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3rd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20985,7 +21008,7 @@
         <v>140</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>187</v>
@@ -20994,7 +21017,7 @@
         <v>125</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>26</v>
@@ -21019,7 +21042,7 @@
         <v>332</v>
       </c>
       <c r="Q306" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R306" s="2" t="s">
         <v>32</v>
@@ -21049,7 +21072,7 @@
         <v>140</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>186</v>
@@ -21058,7 +21081,7 @@
         <v>125</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>26</v>
@@ -21083,7 +21106,7 @@
         <v>332</v>
       </c>
       <c r="Q307" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R307" s="2" t="s">
         <v>32</v>
@@ -21113,7 +21136,7 @@
         <v>140</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>213</v>
@@ -21122,7 +21145,7 @@
         <v>46</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>26</v>
@@ -21147,7 +21170,7 @@
         <v>332</v>
       </c>
       <c r="Q308" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R308" s="2" t="s">
         <v>32</v>
@@ -21177,7 +21200,7 @@
         <v>116</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>268</v>
@@ -21186,7 +21209,7 @@
         <v>125</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>26</v>
@@ -21211,7 +21234,7 @@
         <v>332</v>
       </c>
       <c r="Q309" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R309" s="2" t="s">
         <v>32</v>
@@ -21241,7 +21264,7 @@
         <v>116</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>265</v>
@@ -21250,7 +21273,7 @@
         <v>125</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>26</v>
@@ -21275,7 +21298,7 @@
         <v>332</v>
       </c>
       <c r="Q310" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R310" s="2" t="s">
         <v>32</v>
@@ -21305,7 +21328,7 @@
         <v>116</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>272</v>
@@ -21314,7 +21337,7 @@
         <v>46</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>26</v>
@@ -21339,7 +21362,7 @@
         <v>332</v>
       </c>
       <c r="Q311" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R311" s="2" t="s">
         <v>32</v>
@@ -21369,7 +21392,7 @@
         <v>181</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>262</v>
@@ -21378,7 +21401,7 @@
         <v>125</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>26</v>
@@ -21403,7 +21426,7 @@
         <v>332</v>
       </c>
       <c r="Q312" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R312" s="2" t="s">
         <v>32</v>
@@ -21433,7 +21456,7 @@
         <v>181</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>266</v>
@@ -21442,7 +21465,7 @@
         <v>125</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>26</v>
@@ -21467,7 +21490,7 @@
         <v>332</v>
       </c>
       <c r="Q313" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R313" s="2" t="s">
         <v>32</v>
@@ -21497,7 +21520,7 @@
         <v>181</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>267</v>
@@ -21506,7 +21529,7 @@
         <v>125</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>26</v>
@@ -21531,7 +21554,7 @@
         <v>332</v>
       </c>
       <c r="Q314" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R314" s="2" t="s">
         <v>32</v>
@@ -21554,11 +21577,14 @@
       <c r="B315" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="C315" s="1" t="n">
-        <v>20220914</v>
+      <c r="C315" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>271</v>
@@ -21567,13 +21593,13 @@
         <v>46</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K315" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L315" s="1" t="s">
         <v>54</v>
@@ -21583,16 +21609,16 @@
       </c>
       <c r="N315" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O315, $P315, "/", $Q315, "/", $H315,  $R315, $S315)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_081_2nd/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="O315" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P315" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q315" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R315" s="2" t="s">
         <v>32</v>
@@ -21605,7 +21631,7 @@
       </c>
       <c r="U315" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O315, $P315, "/", $Q315, "/", $H315,  $R315, $T315,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_081_2nd/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2nd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21615,11 +21641,14 @@
       <c r="B316" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="C316" s="1" t="n">
-        <v>20220914</v>
+      <c r="C316" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>185</v>
@@ -21628,13 +21657,13 @@
         <v>125</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K316" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L316" s="1" t="s">
         <v>54</v>
@@ -21644,16 +21673,16 @@
       </c>
       <c r="N316" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O316, $P316, "/", $Q316, "/", $H316,  $R316, $S316)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76656_V5_2nd/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="O316" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P316" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q316" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R316" s="2" t="s">
         <v>32</v>
@@ -21666,7 +21695,7 @@
       </c>
       <c r="U316" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O316, $P316, "/", $Q316, "/", $H316,  $R316, $T316,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76656_V5_2nd/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2nd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21676,11 +21705,14 @@
       <c r="B317" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="C317" s="1" t="n">
-        <v>20220914</v>
+      <c r="C317" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>273</v>
@@ -21689,13 +21721,13 @@
         <v>46</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K317" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L317" s="1" t="s">
         <v>54</v>
@@ -21705,16 +21737,16 @@
       </c>
       <c r="N317" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O317, $P317, "/", $Q317, "/", $H317,  $R317, $S317)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_083_2nd/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_083_2nd/outs/molecule_info.h5</v>
       </c>
       <c r="O317" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P317" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q317" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R317" s="2" t="s">
         <v>32</v>
@@ -21727,7 +21759,7 @@
       </c>
       <c r="U317" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O317, $P317, "/", $Q317, "/", $H317,  $R317, $T317,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_083_2nd/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_083_2nd/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21737,26 +21769,29 @@
       <c r="B318" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="C318" s="1" t="n">
-        <v>20220914</v>
+      <c r="C318" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K318" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L318" s="1" t="s">
         <v>54</v>
@@ -21766,16 +21801,16 @@
       </c>
       <c r="N318" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O318, $P318, "/", $Q318, "/", $H318,  $R318, $S318)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V11_1st/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1st/outs/molecule_info.h5</v>
       </c>
       <c r="O318" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P318" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q318" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R318" s="2" t="s">
         <v>32</v>
@@ -21788,7 +21823,7 @@
       </c>
       <c r="U318" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O318, $P318, "/", $Q318, "/", $H318,  $R318, $T318,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V11_1st/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1st/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21798,26 +21833,29 @@
       <c r="B319" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="C319" s="1" t="n">
-        <v>20220914</v>
+      <c r="C319" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K319" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L319" s="1" t="s">
         <v>54</v>
@@ -21827,16 +21865,16 @@
       </c>
       <c r="N319" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O319, $P319, "/", $Q319, "/", $H319,  $R319, $S319)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_087_1st/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_087_1st/outs/molecule_info.h5</v>
       </c>
       <c r="O319" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P319" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q319" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R319" s="2" t="s">
         <v>32</v>
@@ -21849,7 +21887,7 @@
       </c>
       <c r="U319" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O319, $P319, "/", $Q319, "/", $H319,  $R319, $T319,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_087_1st/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_087_1st/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21859,26 +21897,29 @@
       <c r="B320" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="C320" s="1" t="n">
-        <v>20220914</v>
+      <c r="C320" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K320" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L320" s="1" t="s">
         <v>54</v>
@@ -21888,16 +21929,16 @@
       </c>
       <c r="N320" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O320, $P320, "/", $Q320, "/", $H320,  $R320, $S320)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_099_1st/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_099_1st/outs/molecule_info.h5</v>
       </c>
       <c r="O320" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P320" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q320" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R320" s="2" t="s">
         <v>32</v>
@@ -21910,7 +21951,7 @@
       </c>
       <c r="U320" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O320, $P320, "/", $Q320, "/", $H320,  $R320, $T320,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_099_1st/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_099_1st/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21920,26 +21961,29 @@
       <c r="B321" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="C321" s="1" t="n">
-        <v>20220914</v>
+      <c r="C321" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K321" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L321" s="1" t="s">
         <v>54</v>
@@ -21949,16 +21993,16 @@
       </c>
       <c r="N321" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O321, $P321, "/", $Q321, "/", $H321,  $R321, $S321)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_098_1st/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_098_1st/outs/molecule_info.h5</v>
       </c>
       <c r="O321" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P321" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q321" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R321" s="2" t="s">
         <v>32</v>
@@ -21971,7 +22015,7 @@
       </c>
       <c r="U321" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O321, $P321, "/", $Q321, "/", $H321,  $R321, $T321,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_098_1st/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_098_1st/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21981,26 +22025,29 @@
       <c r="B322" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="C322" s="1" t="n">
-        <v>20220914</v>
+      <c r="C322" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K322" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L322" s="1" t="s">
         <v>54</v>
@@ -22010,16 +22057,16 @@
       </c>
       <c r="N322" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O322, $P322, "/", $Q322, "/", $H322,  $R322, $S322)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_097_1st/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_097_1st/outs/molecule_info.h5</v>
       </c>
       <c r="O322" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P322" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q322" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R322" s="2" t="s">
         <v>32</v>
@@ -22032,7 +22079,7 @@
       </c>
       <c r="U322" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O322, $P322, "/", $Q322, "/", $H322,  $R322, $T322,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_097_1st/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_097_1st/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22042,26 +22089,29 @@
       <c r="B323" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="C323" s="1" t="n">
-        <v>20220914</v>
+      <c r="C323" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K323" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L323" s="1" t="s">
         <v>54</v>
@@ -22071,16 +22121,16 @@
       </c>
       <c r="N323" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O323, $P323, "/", $Q323, "/", $H323,  $R323, $S323)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_093_1st/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_093_1st/outs/molecule_info.h5</v>
       </c>
       <c r="O323" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P323" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q323" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R323" s="2" t="s">
         <v>32</v>
@@ -22093,7 +22143,7 @@
       </c>
       <c r="U323" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O323, $P323, "/", $Q323, "/", $H323,  $R323, $T323,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_093_1st/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_093_1st/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22103,8 +22153,11 @@
       <c r="B324" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="C324" s="1" t="n">
-        <v>20220914</v>
+      <c r="C324" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>398</v>
@@ -22116,13 +22169,13 @@
         <v>46</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K324" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L324" s="1" t="s">
         <v>54</v>
@@ -22132,16 +22185,16 @@
       </c>
       <c r="N324" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O324, $P324, "/", $Q324, "/", $H324,  $R324, $S324)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_051_3_combine/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_051_3_combine/outs/molecule_info.h5</v>
       </c>
       <c r="O324" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P324" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q324" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R324" s="2" t="s">
         <v>32</v>
@@ -22154,7 +22207,7 @@
       </c>
       <c r="U324" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O324, $P324, "/", $Q324, "/", $H324,  $R324, $T324,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_051_3_combine/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_051_3_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22164,8 +22217,11 @@
       <c r="B325" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="C325" s="1" t="n">
-        <v>20220914</v>
+      <c r="C325" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>398</v>
@@ -22177,13 +22233,13 @@
         <v>125</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K325" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L325" s="1" t="s">
         <v>54</v>
@@ -22193,16 +22249,16 @@
       </c>
       <c r="N325" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O325, $P325, "/", $Q325, "/", $H325,  $R325, $S325)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76647_V5_3_combine/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine/outs/molecule_info.h5</v>
       </c>
       <c r="O325" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P325" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q325" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R325" s="2" t="s">
         <v>32</v>
@@ -22215,7 +22271,7 @@
       </c>
       <c r="U325" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O325, $P325, "/", $Q325, "/", $H325,  $R325, $T325,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76647_V5_3_combine/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22225,11 +22281,14 @@
       <c r="B326" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="C326" s="1" t="n">
-        <v>20220914</v>
+      <c r="C326" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>230</v>
@@ -22238,13 +22297,13 @@
         <v>46</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K326" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L326" s="1" t="s">
         <v>54</v>
@@ -22254,16 +22313,16 @@
       </c>
       <c r="N326" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O326, $P326, "/", $Q326, "/", $H326,  $R326, $S326)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_073_3_combine/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine/outs/molecule_info.h5</v>
       </c>
       <c r="O326" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P326" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q326" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R326" s="2" t="s">
         <v>32</v>
@@ -22276,7 +22335,7 @@
       </c>
       <c r="U326" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O326, $P326, "/", $Q326, "/", $H326,  $R326, $T326,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_073_3_combine/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22293,7 +22352,7 @@
         <v>140</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>187</v>
@@ -22302,7 +22361,7 @@
         <v>125</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K327" s="1" t="n">
         <v>20220919</v>
@@ -22324,7 +22383,7 @@
         <v>332</v>
       </c>
       <c r="Q327" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R327" s="2" t="s">
         <v>32</v>
@@ -22354,7 +22413,7 @@
         <v>140</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>186</v>
@@ -22363,7 +22422,7 @@
         <v>125</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K328" s="1" t="n">
         <v>20220919</v>
@@ -22385,7 +22444,7 @@
         <v>332</v>
       </c>
       <c r="Q328" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R328" s="2" t="s">
         <v>32</v>
@@ -22415,7 +22474,7 @@
         <v>140</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>213</v>
@@ -22424,7 +22483,7 @@
         <v>46</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K329" s="1" t="n">
         <v>20220919</v>
@@ -22446,7 +22505,7 @@
         <v>332</v>
       </c>
       <c r="Q329" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R329" s="2" t="s">
         <v>32</v>
@@ -22476,7 +22535,7 @@
         <v>116</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>268</v>
@@ -22485,7 +22544,7 @@
         <v>125</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K330" s="1" t="n">
         <v>20220919</v>
@@ -22507,7 +22566,7 @@
         <v>332</v>
       </c>
       <c r="Q330" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R330" s="2" t="s">
         <v>32</v>
@@ -22537,7 +22596,7 @@
         <v>116</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>265</v>
@@ -22546,7 +22605,7 @@
         <v>125</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K331" s="1" t="n">
         <v>20220919</v>
@@ -22568,7 +22627,7 @@
         <v>332</v>
       </c>
       <c r="Q331" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R331" s="2" t="s">
         <v>32</v>
@@ -22598,7 +22657,7 @@
         <v>116</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>272</v>
@@ -22607,7 +22666,7 @@
         <v>46</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>134</v>
@@ -22632,7 +22691,7 @@
         <v>332</v>
       </c>
       <c r="Q332" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R332" s="2" t="s">
         <v>32</v>
@@ -22662,7 +22721,7 @@
         <v>181</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>262</v>
@@ -22671,7 +22730,7 @@
         <v>125</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K333" s="1" t="n">
         <v>20220919</v>
@@ -22693,7 +22752,7 @@
         <v>332</v>
       </c>
       <c r="Q333" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R333" s="2" t="s">
         <v>32</v>
@@ -22723,7 +22782,7 @@
         <v>181</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>266</v>
@@ -22732,7 +22791,7 @@
         <v>125</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K334" s="1" t="n">
         <v>20220919</v>
@@ -22754,7 +22813,7 @@
         <v>332</v>
       </c>
       <c r="Q334" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R334" s="2" t="s">
         <v>32</v>
@@ -22784,7 +22843,7 @@
         <v>181</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>267</v>
@@ -22793,7 +22852,7 @@
         <v>125</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K335" s="1" t="n">
         <v>20220919</v>
@@ -22815,7 +22874,7 @@
         <v>332</v>
       </c>
       <c r="Q335" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R335" s="2" t="s">
         <v>32</v>
@@ -22838,11 +22897,14 @@
       <c r="B336" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="C336" s="1" t="n">
-        <v>20220914</v>
+      <c r="C336" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>271</v>
@@ -22851,13 +22913,13 @@
         <v>46</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K336" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L336" s="1" t="s">
         <v>54</v>
@@ -22867,16 +22929,16 @@
       </c>
       <c r="N336" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O336, $P336, "/", $Q336, "/", $H336,  $R336, $S336)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_081_2_combine/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine/outs/molecule_info.h5</v>
       </c>
       <c r="O336" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P336" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q336" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R336" s="2" t="s">
         <v>32</v>
@@ -22889,7 +22951,7 @@
       </c>
       <c r="U336" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O336, $P336, "/", $Q336, "/", $H336,  $R336, $T336,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_081_2_combine/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22899,11 +22961,14 @@
       <c r="B337" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="C337" s="1" t="n">
-        <v>20220914</v>
+      <c r="C337" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>185</v>
@@ -22912,13 +22977,13 @@
         <v>125</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K337" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L337" s="1" t="s">
         <v>54</v>
@@ -22928,16 +22993,16 @@
       </c>
       <c r="N337" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O337, $P337, "/", $Q337, "/", $H337,  $R337, $S337)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76656_V5_2_combine/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2_combine/outs/molecule_info.h5</v>
       </c>
       <c r="O337" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P337" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q337" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R337" s="2" t="s">
         <v>32</v>
@@ -22950,7 +23015,7 @@
       </c>
       <c r="U337" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O337, $P337, "/", $Q337, "/", $H337,  $R337, $T337,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/76656_V5_2_combine/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22960,11 +23025,14 @@
       <c r="B338" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="C338" s="1" t="n">
-        <v>20220914</v>
+      <c r="C338" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>273</v>
@@ -22973,13 +23041,13 @@
         <v>46</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K338" s="1" t="n">
-        <v>20220921</v>
+        <v>20220929</v>
       </c>
       <c r="L338" s="1" t="s">
         <v>54</v>
@@ -22989,16 +23057,16 @@
       </c>
       <c r="N338" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O338, $P338, "/", $Q338, "/", $H338,  $R338, $S338)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_083_2_combine/outs/molecule_info.h5</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_083_2_combine/outs/molecule_info.h5</v>
       </c>
       <c r="O338" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P338" s="2" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="Q338" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R338" s="2" t="s">
         <v>32</v>
@@ -23011,7 +23079,7 @@
       </c>
       <c r="U338" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($O338, $P338, "/", $Q338, "/", $H338,  $R338, $T338,)</f>
-        <v>/media/jianie/SequencingFiles_6/20220914_Counts/STARR_083_2_combine/outs/metrics_summary.csv</v>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_083_2_combine/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23028,7 +23096,7 @@
         <v>140</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>187</v>
@@ -23037,7 +23105,7 @@
         <v>125</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K339" s="1" t="n">
         <v>20220923</v>
@@ -23059,7 +23127,7 @@
         <v>332</v>
       </c>
       <c r="Q339" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R339" s="2" t="s">
         <v>32</v>
@@ -23089,7 +23157,7 @@
         <v>140</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>186</v>
@@ -23098,7 +23166,7 @@
         <v>125</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>134</v>
@@ -23123,7 +23191,7 @@
         <v>332</v>
       </c>
       <c r="Q340" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R340" s="2" t="s">
         <v>32</v>
@@ -23153,7 +23221,7 @@
         <v>140</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>213</v>
@@ -23162,7 +23230,7 @@
         <v>46</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I341" s="1" t="s">
         <v>134</v>
@@ -23187,7 +23255,7 @@
         <v>332</v>
       </c>
       <c r="Q341" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R341" s="2" t="s">
         <v>32</v>
@@ -23217,7 +23285,7 @@
         <v>116</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>268</v>
@@ -23226,7 +23294,7 @@
         <v>125</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K342" s="1" t="n">
         <v>20220923</v>
@@ -23248,7 +23316,7 @@
         <v>332</v>
       </c>
       <c r="Q342" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R342" s="2" t="s">
         <v>32</v>
@@ -23278,7 +23346,7 @@
         <v>116</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>265</v>
@@ -23287,7 +23355,7 @@
         <v>125</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I343" s="1" t="s">
         <v>134</v>
@@ -23312,7 +23380,7 @@
         <v>332</v>
       </c>
       <c r="Q343" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R343" s="2" t="s">
         <v>32</v>
@@ -23342,7 +23410,7 @@
         <v>181</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>262</v>
@@ -23351,7 +23419,7 @@
         <v>125</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>134</v>
@@ -23376,7 +23444,7 @@
         <v>332</v>
       </c>
       <c r="Q344" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R344" s="2" t="s">
         <v>32</v>
@@ -23406,7 +23474,7 @@
         <v>181</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>266</v>
@@ -23415,7 +23483,7 @@
         <v>125</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K345" s="1" t="n">
         <v>20220923</v>
@@ -23437,7 +23505,7 @@
         <v>332</v>
       </c>
       <c r="Q345" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R345" s="2" t="s">
         <v>32</v>
@@ -23467,7 +23535,7 @@
         <v>181</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>267</v>
@@ -23476,7 +23544,7 @@
         <v>125</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K346" s="1" t="n">
         <v>20220923</v>
@@ -23498,7 +23566,7 @@
         <v>332</v>
       </c>
       <c r="Q346" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R346" s="2" t="s">
         <v>32</v>
@@ -23528,7 +23596,7 @@
         <v>140</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>187</v>
@@ -23537,7 +23605,7 @@
         <v>125</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I347" s="1" t="s">
         <v>134</v>
@@ -23562,7 +23630,7 @@
         <v>332</v>
       </c>
       <c r="Q347" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R347" s="2" t="s">
         <v>32</v>
@@ -23592,7 +23660,7 @@
         <v>116</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>268</v>
@@ -23601,7 +23669,7 @@
         <v>125</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I348" s="1" t="s">
         <v>134</v>
@@ -23626,7 +23694,7 @@
         <v>332</v>
       </c>
       <c r="Q348" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R348" s="2" t="s">
         <v>32</v>
@@ -23656,7 +23724,7 @@
         <v>181</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>266</v>
@@ -23665,7 +23733,7 @@
         <v>125</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>134</v>
@@ -23690,7 +23758,7 @@
         <v>332</v>
       </c>
       <c r="Q349" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R349" s="2" t="s">
         <v>32</v>
@@ -23720,7 +23788,7 @@
         <v>181</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>267</v>
@@ -23729,7 +23797,7 @@
         <v>125</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K350" s="1" t="n">
         <v>20220927</v>
@@ -23751,7 +23819,7 @@
         <v>332</v>
       </c>
       <c r="Q350" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R350" s="2" t="s">
         <v>32</v>
@@ -23781,7 +23849,7 @@
         <v>181</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>267</v>
@@ -23790,7 +23858,7 @@
         <v>125</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>134</v>
@@ -23815,7 +23883,7 @@
         <v>332</v>
       </c>
       <c r="Q351" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="R351" s="2" t="s">
         <v>32</v>
@@ -23860,7 +23928,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="I332 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="471">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1449,6 +1449,18 @@
   </si>
   <si>
     <t xml:space="preserve">76661_V11_2_combine_force23379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76664_V11_1_force8379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_3_combine_force14101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_051_3_combine_force9998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_097_1_force4676</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1636,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A315" activeCellId="0" sqref="A315"/>
-      <selection pane="bottomRight" activeCell="K339" activeCellId="0" sqref="K339"/>
+      <selection pane="bottomRight" activeCell="K353" activeCellId="0" sqref="K353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22553,7 +22565,7 @@
         <v>201</v>
       </c>
       <c r="L315" s="1" t="n">
-        <v>20221005</v>
+        <v>20221010</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>57</v>
@@ -22620,7 +22632,7 @@
         <v>201</v>
       </c>
       <c r="L316" s="1" t="n">
-        <v>20221005</v>
+        <v>20221010</v>
       </c>
       <c r="M316" s="1" t="s">
         <v>57</v>
@@ -22687,7 +22699,7 @@
         <v>201</v>
       </c>
       <c r="L317" s="1" t="n">
-        <v>20221005</v>
+        <v>20221010</v>
       </c>
       <c r="M317" s="1" t="s">
         <v>57</v>
@@ -23280,9 +23292,6 @@
       <c r="I326" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K326" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L326" s="1" t="n">
         <v>20221005</v>
       </c>
@@ -23930,7 +23939,7 @@
         <v>201</v>
       </c>
       <c r="L336" s="1" t="n">
-        <v>20221005</v>
+        <v>20221010</v>
       </c>
       <c r="M336" s="1" t="s">
         <v>57</v>
@@ -23997,7 +24006,7 @@
         <v>201</v>
       </c>
       <c r="L337" s="1" t="n">
-        <v>20221005</v>
+        <v>20221010</v>
       </c>
       <c r="M337" s="1" t="s">
         <v>57</v>
@@ -24064,7 +24073,7 @@
         <v>201</v>
       </c>
       <c r="L338" s="1" t="n">
-        <v>20221005</v>
+        <v>20221010</v>
       </c>
       <c r="M338" s="1" t="s">
         <v>57</v>
@@ -24953,6 +24962,268 @@
       <c r="V351" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($P351, $Q351, "/", $R351, "/", $I351,  $S351, $U351,)</f>
         <v>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="C352" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="L352" s="1" t="n">
+        <v>20221005</v>
+      </c>
+      <c r="M352" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O352" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P352, $Q352, "/", $R352, "/", $I352,  $S352, $T352)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1_force8379/outs/molecule_info.h5</v>
+      </c>
+      <c r="P352" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q352" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R352" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S352" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T352" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U352" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V352" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P352, $Q352, "/", $R352, "/", $I352,  $S352, $U352,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1_force8379/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C353" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L353" s="1" t="n">
+        <v>20221005</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N353" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O353" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P353, $Q353, "/", $R353, "/", $I353,  $S353, $T353)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine_force14101/outs/molecule_info.h5</v>
+      </c>
+      <c r="P353" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q353" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R353" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S353" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T353" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U353" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V353" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P353, $Q353, "/", $R353, "/", $I353,  $S353, $U353,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine_force14101/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="C354" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L354" s="1" t="n">
+        <v>20221005</v>
+      </c>
+      <c r="M354" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O354" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P354, $Q354, "/", $R354, "/", $I354,  $S354, $T354)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_051_3_combine_force9998/outs/molecule_info.h5</v>
+      </c>
+      <c r="P354" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q354" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R354" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S354" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T354" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U354" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V354" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P354, $Q354, "/", $R354, "/", $I354,  $S354, $U354,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_051_3_combine_force9998/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="C355" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L355" s="1" t="n">
+        <v>20221005</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N355" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O355" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P355, $Q355, "/", $R355, "/", $I355,  $S355, $T355)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_097_1_force4676/outs/molecule_info.h5</v>
+      </c>
+      <c r="P355" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q355" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R355" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S355" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T355" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U355" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V355" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P355, $Q355, "/", $R355, "/", $I355,  $S355, $U355,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_097_1_force4676/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="471">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1632,11 +1632,11 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G324" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A315" activeCellId="0" sqref="A315"/>
-      <selection pane="bottomRight" activeCell="K353" activeCellId="0" sqref="K353"/>
+      <selection pane="bottomLeft" activeCell="A324" activeCellId="0" sqref="A324"/>
+      <selection pane="bottomRight" activeCell="J361" activeCellId="0" sqref="J361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25120,9 +25120,6 @@
       <c r="I354" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K354" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L354" s="1" t="n">
         <v>20221005</v>
       </c>
@@ -25186,9 +25183,6 @@
       </c>
       <c r="I355" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="K355" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="L355" s="1" t="n">
         <v>20221005</v>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$V$351</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$V$355</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$K$41:$K$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$V$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$V$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="472">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_097_1_force4676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3_combine_force23217</t>
   </si>
 </sst>
 </file>
@@ -1632,11 +1635,11 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G324" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G323" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A324" activeCellId="0" sqref="A324"/>
-      <selection pane="bottomRight" activeCell="J361" activeCellId="0" sqref="J361"/>
+      <selection pane="bottomLeft" activeCell="A323" activeCellId="0" sqref="A323"/>
+      <selection pane="bottomRight" activeCell="I334" activeCellId="0" sqref="I334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22562,7 +22565,7 @@
         <v>422</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="L315" s="1" t="n">
         <v>20221010</v>
@@ -22629,7 +22632,7 @@
         <v>423</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="L316" s="1" t="n">
         <v>20221010</v>
@@ -22696,7 +22699,7 @@
         <v>424</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="L317" s="1" t="n">
         <v>20221010</v>
@@ -24992,6 +24995,9 @@
       <c r="I352" s="1" t="s">
         <v>467</v>
       </c>
+      <c r="J352" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L352" s="1" t="n">
         <v>20221005</v>
       </c>
@@ -25056,6 +25062,9 @@
       <c r="I353" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="J353" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L353" s="1" t="n">
         <v>20221005</v>
       </c>
@@ -25120,6 +25129,9 @@
       <c r="I354" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="J354" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L354" s="1" t="n">
         <v>20221005</v>
       </c>
@@ -25184,6 +25196,9 @@
       <c r="I355" s="1" t="s">
         <v>470</v>
       </c>
+      <c r="J355" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L355" s="1" t="n">
         <v>20221005</v>
       </c>
@@ -25218,6 +25233,73 @@
       <c r="V355" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($P355, $Q355, "/", $R355, "/", $I355,  $S355, $U355,)</f>
         <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_097_1_force4676/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="C356" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L356" s="1" t="n">
+        <v>20221010</v>
+      </c>
+      <c r="M356" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O356" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P356, $Q356, "/", $R356, "/", $I356,  $S356, $T356)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force23217/outs/molecule_info.h5</v>
+      </c>
+      <c r="P356" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q356" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R356" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S356" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T356" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U356" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V356" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P356, $Q356, "/", $R356, "/", $I356,  $S356, $U356,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force23217/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -25229,7 +25311,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:V351"/>
+  <autoFilter ref="A1:V355"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$V$355</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$V$356</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$K$41:$K$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$V$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$V$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5205" uniqueCount="472">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1635,11 +1635,11 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G320" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A323" activeCellId="0" sqref="A323"/>
-      <selection pane="bottomRight" activeCell="I334" activeCellId="0" sqref="I334"/>
+      <selection pane="bottomLeft" activeCell="A320" activeCellId="0" sqref="A320"/>
+      <selection pane="bottomRight" activeCell="K348" activeCellId="0" sqref="K348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23938,9 +23938,6 @@
       <c r="I336" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="K336" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L336" s="1" t="n">
         <v>20221010</v>
       </c>
@@ -24005,9 +24002,6 @@
       <c r="I337" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K337" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L337" s="1" t="n">
         <v>20221010</v>
       </c>
@@ -24072,9 +24066,6 @@
       <c r="I338" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K338" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L338" s="1" t="n">
         <v>20221010</v>
       </c>
@@ -25263,8 +25254,8 @@
       <c r="I356" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="K356" s="1" t="s">
-        <v>201</v>
+      <c r="J356" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="L356" s="1" t="n">
         <v>20221010</v>
@@ -25311,7 +25302,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:V355"/>
+  <autoFilter ref="A1:V356"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$V$356</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$V$360</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$K$41:$K$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$V$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$V$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5205" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="476">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1464,6 +1464,18 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_073_3_combine_force23217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3_combine_force25760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081_2_combine_force9353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083_2_combine_force18268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76656_V5_2_combine_force7982</t>
   </si>
 </sst>
 </file>
@@ -1635,11 +1647,11 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G334" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A320" activeCellId="0" sqref="A320"/>
-      <selection pane="bottomRight" activeCell="K348" activeCellId="0" sqref="K348"/>
+      <selection pane="bottomLeft" activeCell="A334" activeCellId="0" sqref="A334"/>
+      <selection pane="bottomRight" activeCell="I357" activeCellId="0" sqref="I357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8487,7 +8499,7 @@
         <v>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/STARR_049_2nd/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
@@ -25254,9 +25266,6 @@
       <c r="I356" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="J356" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="L356" s="1" t="n">
         <v>20221010</v>
       </c>
@@ -25291,6 +25300,262 @@
       <c r="V356" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($P356, $Q356, "/", $R356, "/", $I356,  $S356, $U356,)</f>
         <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force23217/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="C357" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L357" s="1" t="n">
+        <v>20221011</v>
+      </c>
+      <c r="M357" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N357" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O357" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P357, $Q357, "/", $R357, "/", $I357,  $S357, $T357)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force25760/outs/molecule_info.h5</v>
+      </c>
+      <c r="P357" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q357" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R357" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S357" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T357" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U357" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V357" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P357, $Q357, "/", $R357, "/", $I357,  $S357, $U357,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force25760/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="C358" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L358" s="1" t="n">
+        <v>20221011</v>
+      </c>
+      <c r="M358" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O358" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P358, $Q358, "/", $R358, "/", $I358,  $S358, $T358)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9353/outs/molecule_info.h5</v>
+      </c>
+      <c r="P358" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q358" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R358" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S358" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T358" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U358" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V358" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P358, $Q358, "/", $R358, "/", $I358,  $S358, $U358,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9353/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="C359" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L359" s="1" t="n">
+        <v>20221011</v>
+      </c>
+      <c r="M359" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O359" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P359, $Q359, "/", $R359, "/", $I359,  $S359, $T359)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_083_2_combine_force18268/outs/molecule_info.h5</v>
+      </c>
+      <c r="P359" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q359" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R359" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S359" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T359" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U359" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V359" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P359, $Q359, "/", $R359, "/", $I359,  $S359, $U359,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_083_2_combine_force18268/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="C360" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="L360" s="1" t="n">
+        <v>20221011</v>
+      </c>
+      <c r="M360" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O360" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P360, $Q360, "/", $R360, "/", $I360,  $S360, $T360)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2_combine_force7982/outs/molecule_info.h5</v>
+      </c>
+      <c r="P360" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q360" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R360" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S360" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T360" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U360" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V360" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P360, $Q360, "/", $R360, "/", $I360,  $S360, $U360,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2_combine_force7982/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -25302,7 +25567,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:V356"/>
+  <autoFilter ref="A1:V360"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="476">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1651,7 +1651,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A334" activeCellId="0" sqref="A334"/>
-      <selection pane="bottomRight" activeCell="I357" activeCellId="0" sqref="I357"/>
+      <selection pane="bottomRight" activeCell="K358" activeCellId="0" sqref="K358:K359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25330,6 +25330,9 @@
       <c r="I357" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="K357" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="L357" s="1" t="n">
         <v>20221011</v>
       </c>
@@ -25394,6 +25397,9 @@
       <c r="I358" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="K358" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="L358" s="1" t="n">
         <v>20221011</v>
       </c>
@@ -25458,6 +25464,9 @@
       <c r="I359" s="1" t="s">
         <v>474</v>
       </c>
+      <c r="K359" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="L359" s="1" t="n">
         <v>20221011</v>
       </c>
@@ -25521,6 +25530,9 @@
       </c>
       <c r="I360" s="1" t="s">
         <v>475</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="L360" s="1" t="n">
         <v>20221011</v>
@@ -25587,7 +25599,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="K358:K359 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="476">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1647,11 +1647,11 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G334" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G135" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A334" activeCellId="0" sqref="A334"/>
-      <selection pane="bottomRight" activeCell="K358" activeCellId="0" sqref="K358:K359"/>
+      <selection pane="bottomLeft" activeCell="A135" activeCellId="0" sqref="A135"/>
+      <selection pane="bottomRight" activeCell="J365" activeCellId="0" sqref="J365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19785,9 +19785,6 @@
       <c r="I273" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J273" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="L273" s="1" t="n">
         <v>20220818</v>
       </c>
@@ -25330,8 +25327,8 @@
       <c r="I357" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K357" s="1" t="s">
-        <v>201</v>
+      <c r="J357" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="L357" s="1" t="n">
         <v>20221011</v>
@@ -25397,8 +25394,8 @@
       <c r="I358" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="K358" s="1" t="s">
-        <v>201</v>
+      <c r="J358" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="L358" s="1" t="n">
         <v>20221011</v>
@@ -25464,8 +25461,8 @@
       <c r="I359" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K359" s="1" t="s">
-        <v>201</v>
+      <c r="J359" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="L359" s="1" t="n">
         <v>20221011</v>
@@ -25599,7 +25596,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="K358:K359 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5291" uniqueCount="478">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -1476,6 +1476,12 @@
   </si>
   <si>
     <t xml:space="preserve">76656_V5_2_combine_force7982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3_combine_force27242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081_2_combine_force9252</t>
   </si>
 </sst>
 </file>
@@ -1647,11 +1653,11 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G327" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A135" activeCellId="0" sqref="A135"/>
-      <selection pane="bottomRight" activeCell="J365" activeCellId="0" sqref="J365"/>
+      <selection pane="bottomLeft" activeCell="A327" activeCellId="0" sqref="A327"/>
+      <selection pane="bottomRight" activeCell="I364" activeCellId="0" sqref="I364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25327,9 +25333,6 @@
       <c r="I357" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="J357" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="L357" s="1" t="n">
         <v>20221011</v>
       </c>
@@ -25394,9 +25397,6 @@
       <c r="I358" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="J358" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="L358" s="1" t="n">
         <v>20221011</v>
       </c>
@@ -25565,6 +25565,140 @@
       <c r="V360" s="2" t="str">
         <f aca="false">_xlfn.CONCAT($P360, $Q360, "/", $R360, "/", $I360,  $S360, $U360,)</f>
         <v>/media/jianie/SequencingFiles_7/20220926_Counts/76656_V5_2_combine_force7982/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="C361" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L361" s="1" t="n">
+        <v>20221013</v>
+      </c>
+      <c r="M361" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N361" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O361" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P361, $Q361, "/", $R361, "/", $I361,  $S361, $T361)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force27242/outs/molecule_info.h5</v>
+      </c>
+      <c r="P361" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q361" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R361" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S361" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T361" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U361" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V361" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P361, $Q361, "/", $R361, "/", $I361,  $S361, $U361,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_073_3_combine_force27242/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="C362" s="8" t="n">
+        <v>20220926</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L362" s="1" t="n">
+        <v>20221013</v>
+      </c>
+      <c r="M362" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O362" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P362, $Q362, "/", $R362, "/", $I362,  $S362, $T362)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9252/outs/molecule_info.h5</v>
+      </c>
+      <c r="P362" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q362" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="R362" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="S362" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T362" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U362" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V362" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($P362, $Q362, "/", $R362, "/", $I362,  $S362, $U362,)</f>
+        <v>/media/jianie/SequencingFiles_7/20220926_Counts/STARR_081_2_combine_force9252/outs/metrics_summary.csv</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -1644,7 +1644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1687,11 +1687,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1736,7 +1731,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1781,10 +1776,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1818,12 +1809,12 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G374" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="I374" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A374" activeCellId="0" sqref="A374"/>
-      <selection pane="bottomRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="I386" activeCellId="0" sqref="I386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28366,7 +28357,7 @@
       <c r="H400" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I400" s="11" t="s">
+      <c r="I400" s="1" t="s">
         <v>520</v>
       </c>
       <c r="K400" s="1" t="s">
@@ -28974,7 +28965,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -12,7 +12,7 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$W$408</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$W$414</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">aggregation!$L$41:$L$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$W$126</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">aggregation!$A$1:$W$105</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5947" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6092" uniqueCount="551">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -299,6 +299,9 @@
     <t xml:space="preserve">Button_combine_force</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1111191</t>
   </si>
   <si>
@@ -444,9 +447,6 @@
   </si>
   <si>
     <t xml:space="preserve">Masternak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">SequencingFiles_3</t>
@@ -1636,6 +1636,120 @@
   <si>
     <t xml:space="preserve">STARR_104_force8386</t>
   </si>
+  <si>
+    <t xml:space="preserve">KO_HFD_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_HFD/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">KO_ND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">P16_HFD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">P16_ND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_combine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NextSeq 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young_1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young_2nd</t>
+  </si>
 </sst>
 </file>
 
@@ -1644,7 +1758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1687,6 +1801,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1810,11 +1929,11 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="I374" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G396" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A374" activeCellId="0" sqref="A374"/>
-      <selection pane="bottomRight" activeCell="I386" activeCellId="0" sqref="I386"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A396" activeCellId="0" sqref="A396"/>
+      <selection pane="bottomRight" activeCell="F431" activeCellId="0" sqref="F431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4100,6 +4219,9 @@
       <c r="I35" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="M35" s="1" t="n">
         <v>20210820</v>
       </c>
@@ -4150,10 +4272,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>49</v>
@@ -4162,10 +4284,10 @@
         <v>50</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>29</v>
@@ -4190,7 +4312,7 @@
         <v>33</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>35</v>
@@ -4220,10 +4342,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>49</v>
@@ -4232,7 +4354,7 @@
         <v>50</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>52</v>
@@ -4257,7 +4379,7 @@
         <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>35</v>
@@ -4287,10 +4409,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>49</v>
@@ -4299,7 +4421,7 @@
         <v>50</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>52</v>
@@ -4324,7 +4446,7 @@
         <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>35</v>
@@ -4354,10 +4476,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>49</v>
@@ -4366,7 +4488,7 @@
         <v>50</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>52</v>
@@ -4391,7 +4513,7 @@
         <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>35</v>
@@ -4421,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>49</v>
@@ -4433,7 +4555,7 @@
         <v>50</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>52</v>
@@ -4458,7 +4580,7 @@
         <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>35</v>
@@ -4488,10 +4610,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -4500,7 +4622,7 @@
         <v>50</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>52</v>
@@ -4525,7 +4647,7 @@
         <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>35</v>
@@ -4555,10 +4677,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>49</v>
@@ -4567,7 +4689,7 @@
         <v>50</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>52</v>
@@ -4595,7 +4717,7 @@
         <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>35</v>
@@ -4625,10 +4747,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -4637,7 +4759,7 @@
         <v>50</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>52</v>
@@ -4665,7 +4787,7 @@
         <v>33</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>35</v>
@@ -4695,10 +4817,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -4707,7 +4829,7 @@
         <v>50</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>52</v>
@@ -4735,7 +4857,7 @@
         <v>33</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T44" s="2" t="s">
         <v>35</v>
@@ -4765,10 +4887,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>49</v>
@@ -4777,7 +4899,7 @@
         <v>50</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>52</v>
@@ -4805,7 +4927,7 @@
         <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>35</v>
@@ -4835,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -4847,7 +4969,7 @@
         <v>50</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>52</v>
@@ -4875,7 +4997,7 @@
         <v>33</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>35</v>
@@ -4905,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>44</v>
@@ -4917,7 +5039,10 @@
         <v>45</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M47" s="1" t="n">
         <v>20210820</v>
@@ -4939,7 +5064,7 @@
         <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>35</v>
@@ -4969,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>44</v>
@@ -4981,7 +5106,7 @@
         <v>45</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>29</v>
@@ -5006,7 +5131,7 @@
         <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>35</v>
@@ -5036,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>61</v>
@@ -5048,7 +5173,7 @@
         <v>27</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>29</v>
@@ -5073,7 +5198,7 @@
         <v>33</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T49" s="2" t="s">
         <v>35</v>
@@ -5103,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>63</v>
@@ -5115,7 +5240,7 @@
         <v>27</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>29</v>
@@ -5140,7 +5265,7 @@
         <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>35</v>
@@ -5170,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>64</v>
@@ -5182,7 +5307,7 @@
         <v>27</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>29</v>
@@ -5207,7 +5332,7 @@
         <v>33</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>35</v>
@@ -5237,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>65</v>
@@ -5249,7 +5374,7 @@
         <v>27</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>29</v>
@@ -5274,7 +5399,7 @@
         <v>33</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>35</v>
@@ -5304,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>61</v>
@@ -5316,7 +5441,7 @@
         <v>27</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M53" s="1" t="n">
         <v>20210820</v>
@@ -5338,7 +5463,7 @@
         <v>33</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T53" s="2" t="s">
         <v>35</v>
@@ -5368,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>61</v>
@@ -5380,7 +5505,10 @@
         <v>27</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M54" s="1" t="n">
         <v>20210820</v>
@@ -5402,7 +5530,7 @@
         <v>33</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>35</v>
@@ -5432,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>63</v>
@@ -5444,7 +5572,7 @@
         <v>27</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M55" s="1" t="n">
         <v>20210820</v>
@@ -5466,7 +5594,7 @@
         <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>35</v>
@@ -5496,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>63</v>
@@ -5508,7 +5636,10 @@
         <v>27</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M56" s="1" t="n">
         <v>20210820</v>
@@ -5530,7 +5661,7 @@
         <v>33</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>35</v>
@@ -5560,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>63</v>
@@ -5572,7 +5703,7 @@
         <v>27</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M57" s="1" t="n">
         <v>20210820</v>
@@ -5594,7 +5725,7 @@
         <v>33</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>35</v>
@@ -5624,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>64</v>
@@ -5636,7 +5767,7 @@
         <v>27</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M58" s="1" t="n">
         <v>20210820</v>
@@ -5658,7 +5789,7 @@
         <v>33</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>35</v>
@@ -5688,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>64</v>
@@ -5700,7 +5831,10 @@
         <v>27</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M59" s="1" t="n">
         <v>20210820</v>
@@ -5722,7 +5856,7 @@
         <v>33</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>35</v>
@@ -5752,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>65</v>
@@ -5764,7 +5898,10 @@
         <v>27</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M60" s="1" t="n">
         <v>20210820</v>
@@ -5786,7 +5923,7 @@
         <v>33</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>35</v>
@@ -5813,13 +5950,13 @@
         <v>20210114</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>45</v>
@@ -5828,7 +5965,7 @@
         <v>45</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>29</v>
@@ -5853,7 +5990,7 @@
         <v>33</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>35</v>
@@ -5880,13 +6017,13 @@
         <v>20210114</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>45</v>
@@ -5895,7 +6032,7 @@
         <v>45</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>29</v>
@@ -5920,7 +6057,7 @@
         <v>33</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T62" s="2" t="s">
         <v>35</v>
@@ -5947,13 +6084,13 @@
         <v>20210114</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>45</v>
@@ -5962,7 +6099,7 @@
         <v>45</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>29</v>
@@ -5987,7 +6124,7 @@
         <v>33</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>35</v>
@@ -6014,22 +6151,22 @@
         <v>20210126</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>29</v>
@@ -6054,7 +6191,7 @@
         <v>33</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T64" s="2" t="s">
         <v>35</v>
@@ -6081,13 +6218,13 @@
         <v>20210126</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>49</v>
@@ -6096,7 +6233,7 @@
         <v>50</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>29</v>
@@ -6121,7 +6258,7 @@
         <v>33</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>35</v>
@@ -6148,13 +6285,13 @@
         <v>20210126</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>49</v>
@@ -6163,7 +6300,7 @@
         <v>50</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>52</v>
@@ -6191,7 +6328,7 @@
         <v>33</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>35</v>
@@ -6218,13 +6355,13 @@
         <v>20210126</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>49</v>
@@ -6233,7 +6370,7 @@
         <v>50</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>52</v>
@@ -6261,7 +6398,7 @@
         <v>33</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>35</v>
@@ -6288,25 +6425,25 @@
         <v>20210716</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>29</v>
@@ -6358,16 +6495,16 @@
         <v>20210716</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>27</v>
@@ -6376,7 +6513,7 @@
         <v>141</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>29</v>
@@ -6428,16 +6565,16 @@
         <v>20210716</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>27</v>
@@ -6446,7 +6583,7 @@
         <v>142</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>29</v>
@@ -6498,16 +6635,16 @@
         <v>20210716</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>27</v>
@@ -6516,7 +6653,7 @@
         <v>143</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>29</v>
@@ -6577,7 +6714,7 @@
         <v>146</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>50</v>
@@ -6644,7 +6781,7 @@
         <v>145</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>45</v>
@@ -6711,7 +6848,7 @@
         <v>145</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>45</v>
@@ -6775,7 +6912,7 @@
         <v>145</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>45</v>
@@ -6785,6 +6922,9 @@
       </c>
       <c r="I75" s="1" t="s">
         <v>150</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M75" s="1" t="n">
         <v>20211010</v>
@@ -6839,7 +6979,7 @@
         <v>145</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>49</v>
@@ -6848,7 +6988,7 @@
         <v>50</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>52</v>
@@ -6909,7 +7049,7 @@
         <v>145</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>49</v>
@@ -6973,7 +7113,7 @@
         <v>145</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>49</v>
@@ -7043,7 +7183,7 @@
         <v>145</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>49</v>
@@ -7110,7 +7250,7 @@
         <v>145</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>49</v>
@@ -7241,7 +7381,7 @@
         <v>20210830</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>156</v>
@@ -7250,7 +7390,7 @@
         <v>157</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>50</v>
@@ -7311,7 +7451,7 @@
         <v>20210830</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>156</v>
@@ -7320,7 +7460,7 @@
         <v>159</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>50</v>
@@ -7381,7 +7521,7 @@
         <v>20210830</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>156</v>
@@ -7390,7 +7530,7 @@
         <v>160</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>50</v>
@@ -7451,7 +7591,7 @@
         <v>20210830</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>156</v>
@@ -7460,7 +7600,7 @@
         <v>160</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>50</v>
@@ -7518,7 +7658,7 @@
         <v>20210830</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>156</v>
@@ -7527,7 +7667,7 @@
         <v>162</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>50</v>
@@ -7588,7 +7728,7 @@
         <v>20210830</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>156</v>
@@ -7597,7 +7737,7 @@
         <v>163</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>50</v>
@@ -7658,7 +7798,7 @@
         <v>20210830</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>156</v>
@@ -7667,7 +7807,7 @@
         <v>164</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>50</v>
@@ -7728,7 +7868,7 @@
         <v>20210830</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>156</v>
@@ -7801,10 +7941,10 @@
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>49</v>
@@ -7836,7 +7976,7 @@
         <v>33</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T90" s="2" t="s">
         <v>35</v>
@@ -7866,10 +8006,10 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>49</v>
@@ -7906,7 +8046,7 @@
         <v>33</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>35</v>
@@ -7936,10 +8076,10 @@
         <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>49</v>
@@ -7976,7 +8116,7 @@
         <v>33</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>35</v>
@@ -8003,13 +8143,13 @@
         <v>20210126</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>49</v>
@@ -8040,7 +8180,7 @@
         <v>33</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>35</v>
@@ -8137,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>49</v>
@@ -8177,7 +8317,7 @@
         <v>33</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>35</v>
@@ -8207,10 +8347,10 @@
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>49</v>
@@ -8244,7 +8384,7 @@
         <v>33</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>35</v>
@@ -8274,10 +8414,10 @@
         <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>49</v>
@@ -8311,7 +8451,7 @@
         <v>33</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>35</v>
@@ -8341,10 +8481,10 @@
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>49</v>
@@ -8378,7 +8518,7 @@
         <v>33</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>35</v>
@@ -8408,10 +8548,10 @@
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>49</v>
@@ -8442,7 +8582,7 @@
         <v>33</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>35</v>
@@ -8469,13 +8609,13 @@
         <v>20210126</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>49</v>
@@ -8509,7 +8649,7 @@
         <v>33</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>35</v>
@@ -8536,7 +8676,7 @@
         <v>20211105</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>176</v>
@@ -8545,7 +8685,7 @@
         <v>146</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>50</v>
@@ -8606,7 +8746,7 @@
         <v>20211105</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>176</v>
@@ -8676,7 +8816,7 @@
         <v>20211105</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>176</v>
@@ -8685,7 +8825,7 @@
         <v>157</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>50</v>
@@ -8746,7 +8886,7 @@
         <v>20211105</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>176</v>
@@ -8755,7 +8895,7 @@
         <v>162</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>50</v>
@@ -8816,7 +8956,7 @@
         <v>20211105</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>176</v>
@@ -8825,7 +8965,7 @@
         <v>163</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>50</v>
@@ -8886,7 +9026,7 @@
         <v>20211105</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>176</v>
@@ -8956,7 +9096,7 @@
         <v>20211105</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>176</v>
@@ -8965,7 +9105,7 @@
         <v>164</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>50</v>
@@ -9035,7 +9175,7 @@
         <v>160</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>50</v>
@@ -9105,7 +9245,7 @@
         <v>159</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>50</v>
@@ -9175,7 +9315,7 @@
         <v>189</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>50</v>
@@ -9242,7 +9382,7 @@
         <v>190</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>50</v>
@@ -9312,7 +9452,7 @@
         <v>191</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>50</v>
@@ -9373,7 +9513,7 @@
         <v>20211105</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>176</v>
@@ -9440,7 +9580,7 @@
         <v>20211105</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>176</v>
@@ -9507,7 +9647,7 @@
         <v>20211105</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>176</v>
@@ -9516,7 +9656,7 @@
         <v>157</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>50</v>
@@ -9574,7 +9714,7 @@
         <v>20211105</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>176</v>
@@ -9583,7 +9723,7 @@
         <v>146</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>50</v>
@@ -9647,7 +9787,7 @@
         <v>159</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>50</v>
@@ -9711,7 +9851,7 @@
         <v>160</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>50</v>
@@ -9769,7 +9909,7 @@
         <v>20211105</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>176</v>
@@ -9778,7 +9918,7 @@
         <v>162</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>50</v>
@@ -9787,7 +9927,7 @@
         <v>198</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M119" s="1" t="n">
         <v>20211117</v>
@@ -9836,7 +9976,7 @@
         <v>20211105</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>176</v>
@@ -9845,7 +9985,7 @@
         <v>163</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>50</v>
@@ -9903,7 +10043,7 @@
         <v>20211105</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>176</v>
@@ -9912,7 +10052,7 @@
         <v>164</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>50</v>
@@ -9970,16 +10110,16 @@
         <v>20210716</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>27</v>
@@ -10037,16 +10177,16 @@
         <v>20210716</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>203</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>27</v>
@@ -10104,16 +10244,16 @@
         <v>20210716</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>27</v>
@@ -10171,16 +10311,16 @@
         <v>20210716</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>205</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>27</v>
@@ -10247,7 +10387,7 @@
         <v>191</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>50</v>
@@ -10305,7 +10445,7 @@
         <v>20211105</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>176</v>
@@ -10314,7 +10454,7 @@
         <v>164</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>50</v>
@@ -10378,7 +10518,7 @@
         <v>190</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>50</v>
@@ -10445,7 +10585,7 @@
         <v>160</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>50</v>
@@ -10503,13 +10643,13 @@
         <v>20210126</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>49</v>
@@ -10543,7 +10683,7 @@
         <v>33</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>35</v>
@@ -10570,13 +10710,13 @@
         <v>20220616</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>49</v>
@@ -10640,13 +10780,13 @@
         <v>20220616</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>49</v>
@@ -10710,13 +10850,13 @@
         <v>20220616</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>49</v>
@@ -10780,7 +10920,7 @@
         <v>20220616</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>211</v>
@@ -10847,7 +10987,7 @@
         <v>20220616</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>211</v>
@@ -10914,7 +11054,7 @@
         <v>20220616</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>211</v>
@@ -10981,7 +11121,7 @@
         <v>20220620</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>219</v>
@@ -10990,7 +11130,7 @@
         <v>220</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>50</v>
@@ -11048,7 +11188,7 @@
         <v>20220620</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>219</v>
@@ -11057,7 +11197,7 @@
         <v>222</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>50</v>
@@ -11115,7 +11255,7 @@
         <v>20220620</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>219</v>
@@ -11124,7 +11264,7 @@
         <v>223</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>50</v>
@@ -11182,7 +11322,7 @@
         <v>20220620</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>219</v>
@@ -11191,7 +11331,7 @@
         <v>224</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>50</v>
@@ -11258,7 +11398,7 @@
         <v>226</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>50</v>
@@ -11325,7 +11465,7 @@
         <v>191</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>50</v>
@@ -11392,7 +11532,7 @@
         <v>190</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>50</v>
@@ -11459,7 +11599,7 @@
         <v>229</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>50</v>
@@ -11526,7 +11666,7 @@
         <v>230</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>50</v>
@@ -11852,7 +11992,7 @@
         <v>20220616</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>236</v>
@@ -11919,7 +12059,7 @@
         <v>20220616</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>236</v>
@@ -11986,7 +12126,7 @@
         <v>20220616</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>236</v>
@@ -12056,7 +12196,7 @@
         <v>20220616</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>236</v>
@@ -12126,7 +12266,7 @@
         <v>20220616</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>236</v>
@@ -12202,7 +12342,7 @@
         <v>191</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>50</v>
@@ -12259,13 +12399,13 @@
         <v>20220616</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>49</v>
@@ -12326,13 +12466,13 @@
         <v>20220616</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>49</v>
@@ -12344,10 +12484,10 @@
         <v>245</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M157" s="1" t="n">
         <v>20220624</v>
@@ -12396,13 +12536,13 @@
         <v>20220616</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>49</v>
@@ -12463,13 +12603,13 @@
         <v>20220616</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>49</v>
@@ -12539,7 +12679,7 @@
         <v>190</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>50</v>
@@ -12606,7 +12746,7 @@
         <v>190</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>50</v>
@@ -12671,7 +12811,7 @@
         <v>191</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>50</v>
@@ -12735,7 +12875,7 @@
         <v>145</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>49</v>
@@ -12796,7 +12936,7 @@
         <v>20211105</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>176</v>
@@ -12863,13 +13003,13 @@
         <v>20220616</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>49</v>
@@ -12933,13 +13073,13 @@
         <v>20220616</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>49</v>
@@ -12997,7 +13137,7 @@
         <v>20220616</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>236</v>
@@ -13061,7 +13201,7 @@
         <v>20220616</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>236</v>
@@ -13134,7 +13274,7 @@
         <v>189</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>50</v>
@@ -13189,7 +13329,7 @@
         <v>20211105</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>176</v>
@@ -13198,7 +13338,7 @@
         <v>163</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>50</v>
@@ -13253,7 +13393,7 @@
         <v>20211105</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>176</v>
@@ -13262,7 +13402,7 @@
         <v>157</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>50</v>
@@ -13317,7 +13457,7 @@
         <v>20220616</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>236</v>
@@ -13390,7 +13530,7 @@
         <v>191</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>50</v>
@@ -13454,7 +13594,7 @@
         <v>191</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>50</v>
@@ -13509,13 +13649,13 @@
         <v>20220616</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>49</v>
@@ -13579,13 +13719,13 @@
         <v>20220616</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>49</v>
@@ -13646,7 +13786,7 @@
         <v>20220715</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>265</v>
@@ -13655,7 +13795,7 @@
         <v>266</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>50</v>
@@ -13713,7 +13853,7 @@
         <v>20220715</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>265</v>
@@ -13722,7 +13862,7 @@
         <v>269</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>50</v>
@@ -13780,7 +13920,7 @@
         <v>20220715</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>265</v>
@@ -13789,7 +13929,7 @@
         <v>270</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>50</v>
@@ -13847,7 +13987,7 @@
         <v>20220715</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>265</v>
@@ -13856,7 +13996,7 @@
         <v>271</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>50</v>
@@ -13914,7 +14054,7 @@
         <v>20220715</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>265</v>
@@ -13923,7 +14063,7 @@
         <v>272</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>50</v>
@@ -14319,7 +14459,7 @@
         <v>20220718</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>280</v>
@@ -14328,7 +14468,7 @@
         <v>226</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>50</v>
@@ -14386,7 +14526,7 @@
         <v>20220718</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>280</v>
@@ -14395,7 +14535,7 @@
         <v>222</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>50</v>
@@ -14453,7 +14593,7 @@
         <v>20220718</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>280</v>
@@ -14462,7 +14602,7 @@
         <v>223</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>50</v>
@@ -14520,7 +14660,7 @@
         <v>20220718</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>280</v>
@@ -14596,7 +14736,7 @@
         <v>220</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>50</v>
@@ -14663,7 +14803,7 @@
         <v>229</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>50</v>
@@ -14730,7 +14870,7 @@
         <v>230</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>50</v>
@@ -14797,7 +14937,7 @@
         <v>224</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>50</v>
@@ -14925,7 +15065,7 @@
         <v>20220722</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>291</v>
@@ -14992,7 +15132,7 @@
         <v>20220722</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>291</v>
@@ -15059,7 +15199,7 @@
         <v>20220722</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>291</v>
@@ -15126,7 +15266,7 @@
         <v>20220722</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>291</v>
@@ -15193,7 +15333,7 @@
         <v>20220722</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>291</v>
@@ -15260,7 +15400,7 @@
         <v>20220722</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>291</v>
@@ -15528,7 +15668,7 @@
         <v>20220722</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>291</v>
@@ -15592,7 +15732,7 @@
         <v>20220722</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>291</v>
@@ -15656,7 +15796,7 @@
         <v>20220722</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>291</v>
@@ -15720,7 +15860,7 @@
         <v>20220722</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>291</v>
@@ -15784,7 +15924,7 @@
         <v>20220722</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>291</v>
@@ -15848,7 +15988,7 @@
         <v>20220722</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>291</v>
@@ -16106,13 +16246,13 @@
         <v>20220616</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>49</v>
@@ -16173,13 +16313,13 @@
         <v>20220616</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>49</v>
@@ -16237,13 +16377,13 @@
         <v>20220616</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>49</v>
@@ -16304,7 +16444,7 @@
         <v>20220722</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>291</v>
@@ -16562,7 +16702,7 @@
         <v>20220718</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>280</v>
@@ -16626,7 +16766,7 @@
         <v>20220722</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>291</v>
@@ -16754,7 +16894,7 @@
         <v>20220722</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>291</v>
@@ -16882,7 +17022,7 @@
         <v>20220722</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>291</v>
@@ -16946,7 +17086,7 @@
         <v>20220722</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>291</v>
@@ -17074,7 +17214,7 @@
         <v>20220718</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>280</v>
@@ -17156,7 +17296,7 @@
         <v>327</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M230" s="1" t="n">
         <v>20220802</v>
@@ -17220,10 +17360,10 @@
         <v>328</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M231" s="1" t="n">
         <v>20220802</v>
@@ -17278,7 +17418,7 @@
         <v>145</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>49</v>
@@ -17339,7 +17479,7 @@
         <v>20211105</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>176</v>
@@ -17406,7 +17546,7 @@
         <v>20220616</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>211</v>
@@ -17535,7 +17675,7 @@
         <v>20211105</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>176</v>
@@ -17544,7 +17684,7 @@
         <v>163</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>50</v>
@@ -17599,7 +17739,7 @@
         <v>20211105</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>176</v>
@@ -17608,7 +17748,7 @@
         <v>164</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>50</v>
@@ -17663,7 +17803,7 @@
         <v>20220801</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>280</v>
@@ -17672,7 +17812,7 @@
         <v>226</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>50</v>
@@ -17730,7 +17870,7 @@
         <v>20220801</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>280</v>
@@ -17739,7 +17879,7 @@
         <v>222</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>50</v>
@@ -17797,7 +17937,7 @@
         <v>20220801</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>280</v>
@@ -17806,7 +17946,7 @@
         <v>223</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>50</v>
@@ -17873,7 +18013,7 @@
         <v>220</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>50</v>
@@ -17940,7 +18080,7 @@
         <v>229</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>50</v>
@@ -18007,7 +18147,7 @@
         <v>230</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>50</v>
@@ -18074,7 +18214,7 @@
         <v>224</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>50</v>
@@ -18196,7 +18336,7 @@
         <v>20220722</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>291</v>
@@ -18260,7 +18400,7 @@
         <v>20220722</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>291</v>
@@ -18324,13 +18464,13 @@
         <v>20220616</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>49</v>
@@ -18342,10 +18482,10 @@
         <v>347</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M248" s="1" t="n">
         <v>20220810</v>
@@ -18397,10 +18537,10 @@
         <v>2</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>49</v>
@@ -18431,7 +18571,7 @@
         <v>33</v>
       </c>
       <c r="S249" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T249" s="2" t="s">
         <v>35</v>
@@ -18522,10 +18662,10 @@
         <v>2</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>49</v>
@@ -18556,7 +18696,7 @@
         <v>33</v>
       </c>
       <c r="S251" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T251" s="2" t="s">
         <v>35</v>
@@ -18583,13 +18723,13 @@
         <v>20210126</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>49</v>
@@ -18620,7 +18760,7 @@
         <v>33</v>
       </c>
       <c r="S252" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T252" s="2" t="s">
         <v>35</v>
@@ -18647,7 +18787,7 @@
         <v>20220722</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>291</v>
@@ -18775,7 +18915,7 @@
         <v>20220722</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>291</v>
@@ -18793,7 +18933,7 @@
         <v>354</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="L255" s="4"/>
       <c r="M255" s="1" t="n">
@@ -18907,7 +19047,7 @@
         <v>20220722</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>291</v>
@@ -18972,7 +19112,7 @@
         <v>20220801</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>280</v>
@@ -18981,7 +19121,7 @@
         <v>226</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>50</v>
@@ -19037,7 +19177,7 @@
         <v>20220801</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>280</v>
@@ -19046,7 +19186,7 @@
         <v>222</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>50</v>
@@ -19101,7 +19241,7 @@
         <v>20220801</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>280</v>
@@ -19110,7 +19250,7 @@
         <v>223</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>50</v>
@@ -19174,7 +19314,7 @@
         <v>220</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>50</v>
@@ -19238,7 +19378,7 @@
         <v>229</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>50</v>
@@ -19302,7 +19442,7 @@
         <v>230</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>50</v>
@@ -19366,7 +19506,7 @@
         <v>224</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>50</v>
@@ -19421,16 +19561,16 @@
         <v>20210126</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>50</v>
@@ -19459,7 +19599,7 @@
         <v>33</v>
       </c>
       <c r="S265" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T265" s="2" t="s">
         <v>35</v>
@@ -19492,7 +19632,7 @@
         <v>145</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>49</v>
@@ -19504,7 +19644,7 @@
         <v>365</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M266" s="1" t="n">
         <v>20220818</v>
@@ -19568,7 +19708,7 @@
         <v>366</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M267" s="1" t="n">
         <v>20220818</v>
@@ -19620,10 +19760,10 @@
         <v>2</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>49</v>
@@ -19657,7 +19797,7 @@
         <v>33</v>
       </c>
       <c r="S268" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T268" s="2" t="s">
         <v>35</v>
@@ -19687,10 +19827,10 @@
         <v>2</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>49</v>
@@ -19721,7 +19861,7 @@
         <v>33</v>
       </c>
       <c r="S269" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T269" s="2" t="s">
         <v>35</v>
@@ -19748,13 +19888,13 @@
         <v>20220616</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>49</v>
@@ -19766,7 +19906,7 @@
         <v>369</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M270" s="1" t="n">
         <v>20220818</v>
@@ -19815,7 +19955,7 @@
         <v>20211105</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>176</v>
@@ -19882,7 +20022,7 @@
         <v>20220616</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>211</v>
@@ -19900,7 +20040,7 @@
         <v>371</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M272" s="1" t="n">
         <v>20220818</v>
@@ -19949,7 +20089,7 @@
         <v>20220722</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>291</v>
@@ -20013,7 +20153,7 @@
         <v>20220722</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>291</v>
@@ -20031,7 +20171,7 @@
         <v>373</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M274" s="1" t="n">
         <v>20220818</v>
@@ -20080,7 +20220,7 @@
         <v>20220722</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>291</v>
@@ -20098,7 +20238,7 @@
         <v>374</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M275" s="1" t="n">
         <v>20220818</v>
@@ -20165,7 +20305,7 @@
         <v>375</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M276" s="1" t="n">
         <v>20220818</v>
@@ -20232,7 +20372,7 @@
         <v>376</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M277" s="1" t="n">
         <v>20220818</v>
@@ -20281,7 +20421,7 @@
         <v>20220722</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>291</v>
@@ -20345,7 +20485,7 @@
         <v>20220722</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>291</v>
@@ -20363,7 +20503,7 @@
         <v>378</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M279" s="1" t="n">
         <v>20220818</v>
@@ -20430,7 +20570,7 @@
         <v>379</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M280" s="1" t="n">
         <v>20220818</v>
@@ -20479,7 +20619,7 @@
         <v>20220718</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>280</v>
@@ -20497,10 +20637,10 @@
         <v>380</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M281" s="1" t="n">
         <v>20220818</v>
@@ -20549,16 +20689,16 @@
         <v>20210126</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>50</v>
@@ -20567,7 +20707,7 @@
         <v>381</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M282" s="1" t="n">
         <v>20220822</v>
@@ -20589,7 +20729,7 @@
         <v>33</v>
       </c>
       <c r="S282" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T282" s="2" t="s">
         <v>35</v>
@@ -20616,7 +20756,7 @@
         <v>20211105</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>176</v>
@@ -20625,7 +20765,7 @@
         <v>157</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>50</v>
@@ -20634,7 +20774,7 @@
         <v>382</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M283" s="1" t="n">
         <v>20220822</v>
@@ -20683,7 +20823,7 @@
         <v>20211105</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>176</v>
@@ -20692,7 +20832,7 @@
         <v>146</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>50</v>
@@ -20756,7 +20896,7 @@
         <v>159</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>50</v>
@@ -20811,7 +20951,7 @@
         <v>20220801</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>280</v>
@@ -20820,7 +20960,7 @@
         <v>223</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>50</v>
@@ -20875,7 +21015,7 @@
         <v>20220801</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>280</v>
@@ -20884,7 +21024,7 @@
         <v>222</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>50</v>
@@ -20939,7 +21079,7 @@
         <v>20211105</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>176</v>
@@ -20948,7 +21088,7 @@
         <v>164</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>50</v>
@@ -20957,7 +21097,7 @@
         <v>387</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="L288" s="4"/>
       <c r="M288" s="1" t="n">
@@ -21007,7 +21147,7 @@
         <v>20220801</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>280</v>
@@ -21016,7 +21156,7 @@
         <v>226</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>50</v>
@@ -21071,7 +21211,7 @@
         <v>20211105</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>176</v>
@@ -21089,7 +21229,7 @@
         <v>389</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M290" s="1" t="n">
         <v>20220822</v>
@@ -21138,7 +21278,7 @@
         <v>20220722</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>291</v>
@@ -21156,7 +21296,7 @@
         <v>390</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M291" s="1" t="n">
         <v>20220822</v>
@@ -21205,7 +21345,7 @@
         <v>20211105</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>176</v>
@@ -21214,7 +21354,7 @@
         <v>146</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>50</v>
@@ -21223,7 +21363,7 @@
         <v>391</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M292" s="1" t="n">
         <v>20220830</v>
@@ -21281,7 +21421,7 @@
         <v>159</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>50</v>
@@ -21290,7 +21430,7 @@
         <v>392</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M293" s="1" t="n">
         <v>20220830</v>
@@ -21348,7 +21488,7 @@
         <v>220</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>50</v>
@@ -21403,7 +21543,7 @@
         <v>20220801</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>280</v>
@@ -21412,7 +21552,7 @@
         <v>223</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>50</v>
@@ -21421,7 +21561,7 @@
         <v>394</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M295" s="1" t="n">
         <v>20220830</v>
@@ -21470,7 +21610,7 @@
         <v>20220801</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>280</v>
@@ -21479,7 +21619,7 @@
         <v>222</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>50</v>
@@ -21488,7 +21628,7 @@
         <v>395</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M296" s="1" t="n">
         <v>20220830</v>
@@ -21546,7 +21686,7 @@
         <v>224</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>50</v>
@@ -21555,7 +21695,7 @@
         <v>396</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M297" s="1" t="n">
         <v>20220830</v>
@@ -21613,7 +21753,7 @@
         <v>229</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>50</v>
@@ -21677,7 +21817,7 @@
         <v>230</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>50</v>
@@ -21686,7 +21826,7 @@
         <v>398</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M299" s="1" t="n">
         <v>20220830</v>
@@ -21744,7 +21884,7 @@
         <v>220</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>50</v>
@@ -21753,7 +21893,7 @@
         <v>399</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M300" s="1" t="n">
         <v>20220912</v>
@@ -21811,7 +21951,7 @@
         <v>229</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>50</v>
@@ -21820,7 +21960,7 @@
         <v>400</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M301" s="1" t="n">
         <v>20220912</v>
@@ -21869,7 +22009,7 @@
         <v>20220801</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>280</v>
@@ -21878,7 +22018,7 @@
         <v>226</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>50</v>
@@ -21887,7 +22027,7 @@
         <v>401</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M302" s="1" t="n">
         <v>20220912</v>
@@ -21936,7 +22076,7 @@
         <v>20220926</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>402</v>
@@ -22003,7 +22143,7 @@
         <v>20220926</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>402</v>
@@ -22012,7 +22152,7 @@
         <v>163</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>50</v>
@@ -22070,7 +22210,7 @@
         <v>20220926</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>407</v>
@@ -22146,7 +22286,7 @@
         <v>191</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>50</v>
@@ -22213,7 +22353,7 @@
         <v>190</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>50</v>
@@ -22338,7 +22478,7 @@
         <v>20220914</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>414</v>
@@ -22347,7 +22487,7 @@
         <v>272</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>50</v>
@@ -22405,7 +22545,7 @@
         <v>20220914</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>414</v>
@@ -22414,7 +22554,7 @@
         <v>269</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>50</v>
@@ -22472,7 +22612,7 @@
         <v>20220914</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>414</v>
@@ -22548,7 +22688,7 @@
         <v>266</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>50</v>
@@ -22615,7 +22755,7 @@
         <v>270</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>50</v>
@@ -22682,7 +22822,7 @@
         <v>271</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>50</v>
@@ -22816,7 +22956,7 @@
         <v>189</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>50</v>
@@ -22941,7 +23081,7 @@
         <v>20220926</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>426</v>
@@ -22950,7 +23090,7 @@
         <v>427</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>50</v>
@@ -23008,7 +23148,7 @@
         <v>20220926</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>426</v>
@@ -23075,7 +23215,7 @@
         <v>20220926</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>426</v>
@@ -23343,7 +23483,7 @@
         <v>20220926</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>402</v>
@@ -23407,7 +23547,7 @@
         <v>20220926</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>402</v>
@@ -23416,7 +23556,7 @@
         <v>163</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>50</v>
@@ -23471,7 +23611,7 @@
         <v>20220926</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>407</v>
@@ -23544,7 +23684,7 @@
         <v>191</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>50</v>
@@ -23608,7 +23748,7 @@
         <v>190</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>50</v>
@@ -23727,7 +23867,7 @@
         <v>20220914</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>414</v>
@@ -23736,7 +23876,7 @@
         <v>272</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>50</v>
@@ -23791,7 +23931,7 @@
         <v>20220914</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>414</v>
@@ -23800,7 +23940,7 @@
         <v>269</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>50</v>
@@ -23855,7 +23995,7 @@
         <v>20220914</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>414</v>
@@ -23873,10 +24013,10 @@
         <v>448</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M332" s="1" t="n">
         <v>20220919</v>
@@ -23934,7 +24074,7 @@
         <v>266</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>50</v>
@@ -23998,7 +24138,7 @@
         <v>270</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>50</v>
@@ -24062,7 +24202,7 @@
         <v>271</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>50</v>
@@ -24190,7 +24330,7 @@
         <v>189</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>50</v>
@@ -24318,7 +24458,7 @@
         <v>191</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>50</v>
@@ -24382,7 +24522,7 @@
         <v>190</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>50</v>
@@ -24391,7 +24531,7 @@
         <v>456</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M340" s="1" t="n">
         <v>20220923</v>
@@ -24458,7 +24598,7 @@
         <v>457</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M341" s="1" t="n">
         <v>20220923</v>
@@ -24507,7 +24647,7 @@
         <v>20220914</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>414</v>
@@ -24516,7 +24656,7 @@
         <v>272</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>50</v>
@@ -24571,7 +24711,7 @@
         <v>20220914</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>414</v>
@@ -24580,7 +24720,7 @@
         <v>269</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>50</v>
@@ -24589,7 +24729,7 @@
         <v>459</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M343" s="1" t="n">
         <v>20220923</v>
@@ -24647,7 +24787,7 @@
         <v>266</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>50</v>
@@ -24656,7 +24796,7 @@
         <v>460</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M344" s="1" t="n">
         <v>20220923</v>
@@ -24714,7 +24854,7 @@
         <v>270</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>50</v>
@@ -24778,7 +24918,7 @@
         <v>271</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>50</v>
@@ -24842,7 +24982,7 @@
         <v>191</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>50</v>
@@ -24851,7 +24991,7 @@
         <v>463</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M347" s="1" t="n">
         <v>20220927</v>
@@ -24900,7 +25040,7 @@
         <v>20220914</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>414</v>
@@ -24909,7 +25049,7 @@
         <v>272</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>50</v>
@@ -24918,7 +25058,7 @@
         <v>464</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M348" s="1" t="n">
         <v>20220927</v>
@@ -24976,7 +25116,7 @@
         <v>270</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>50</v>
@@ -24985,7 +25125,7 @@
         <v>465</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M349" s="1" t="n">
         <v>20220927</v>
@@ -25043,7 +25183,7 @@
         <v>271</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>50</v>
@@ -25107,7 +25247,7 @@
         <v>271</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>50</v>
@@ -25116,7 +25256,7 @@
         <v>467</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M351" s="1" t="n">
         <v>20220927</v>
@@ -25165,7 +25305,7 @@
         <v>20220926</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>426</v>
@@ -25174,7 +25314,7 @@
         <v>427</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>50</v>
@@ -25183,7 +25323,7 @@
         <v>468</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M352" s="1" t="n">
         <v>20221005</v>
@@ -25232,7 +25372,7 @@
         <v>20220926</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>402</v>
@@ -25241,7 +25381,7 @@
         <v>163</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>50</v>
@@ -25250,7 +25390,7 @@
         <v>469</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M353" s="1" t="n">
         <v>20221005</v>
@@ -25299,7 +25439,7 @@
         <v>20220926</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>402</v>
@@ -25317,7 +25457,7 @@
         <v>470</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M354" s="1" t="n">
         <v>20221005</v>
@@ -25384,7 +25524,7 @@
         <v>471</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M355" s="1" t="n">
         <v>20221005</v>
@@ -25433,7 +25573,7 @@
         <v>20220926</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>407</v>
@@ -25497,7 +25637,7 @@
         <v>20220926</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>407</v>
@@ -25643,10 +25783,10 @@
         <v>475</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K359" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M359" s="1" t="n">
         <v>20221011</v>
@@ -25704,7 +25844,7 @@
         <v>189</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>50</v>
@@ -25713,7 +25853,7 @@
         <v>476</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M360" s="1" t="n">
         <v>20221011</v>
@@ -25762,7 +25902,7 @@
         <v>20220926</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>407</v>
@@ -25780,7 +25920,7 @@
         <v>477</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M361" s="1" t="n">
         <v>20221013</v>
@@ -25847,7 +25987,7 @@
         <v>478</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M362" s="1" t="n">
         <v>20221013</v>
@@ -25887,7 +26027,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>150</v>
@@ -25954,7 +26094,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>151</v>
@@ -26021,7 +26161,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>152</v>
@@ -26088,7 +26228,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>153</v>
@@ -26155,7 +26295,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>154</v>
@@ -26222,7 +26362,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>155</v>
@@ -26289,7 +26429,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>156</v>
@@ -26356,7 +26496,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>157</v>
@@ -26423,7 +26563,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>158</v>
@@ -26490,7 +26630,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>159</v>
@@ -26557,7 +26697,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>160</v>
@@ -26624,7 +26764,7 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>156</v>
@@ -26688,7 +26828,7 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>157</v>
@@ -26752,7 +26892,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>159</v>
@@ -26816,7 +26956,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>160</v>
@@ -26880,7 +27020,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>156</v>
@@ -26907,7 +27047,7 @@
         <v>498</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M378" s="1" t="n">
         <v>20230114</v>
@@ -26947,7 +27087,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>157</v>
@@ -27011,7 +27151,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>159</v>
@@ -27075,7 +27215,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>152</v>
@@ -27139,7 +27279,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>154</v>
@@ -27166,7 +27306,7 @@
         <v>502</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M382" s="1" t="n">
         <v>20230114</v>
@@ -27206,7 +27346,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>152</v>
@@ -27233,7 +27373,7 @@
         <v>503</v>
       </c>
       <c r="M383" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N383" s="1" t="s">
         <v>58</v>
@@ -27270,7 +27410,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>157</v>
@@ -27297,7 +27437,7 @@
         <v>504</v>
       </c>
       <c r="M384" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N384" s="1" t="s">
         <v>58</v>
@@ -27334,7 +27474,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>159</v>
@@ -27361,7 +27501,7 @@
         <v>505</v>
       </c>
       <c r="M385" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N385" s="1" t="s">
         <v>58</v>
@@ -27398,7 +27538,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>18</v>
@@ -27422,7 +27562,7 @@
         <v>506</v>
       </c>
       <c r="K386" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M386" s="1" t="n">
         <v>20230115</v>
@@ -27462,7 +27602,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>48</v>
@@ -27477,7 +27617,7 @@
         <v>145</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G387" s="1" t="s">
         <v>49</v>
@@ -27489,7 +27629,7 @@
         <v>507</v>
       </c>
       <c r="K387" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M387" s="1" t="n">
         <v>20230115</v>
@@ -27529,7 +27669,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>72</v>
@@ -27538,13 +27678,13 @@
         <v>20220616</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G388" s="1" t="s">
         <v>49</v>
@@ -27556,7 +27696,7 @@
         <v>508</v>
       </c>
       <c r="K388" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M388" s="1" t="n">
         <v>20230115</v>
@@ -27596,7 +27736,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>59</v>
@@ -27605,7 +27745,7 @@
         <v>20211105</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>176</v>
@@ -27623,7 +27763,7 @@
         <v>509</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M389" s="1" t="n">
         <v>20230115</v>
@@ -27663,7 +27803,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>129</v>
@@ -27672,7 +27812,7 @@
         <v>20220926</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>402</v>
@@ -27690,7 +27830,7 @@
         <v>510</v>
       </c>
       <c r="K390" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M390" s="1" t="n">
         <v>20230115</v>
@@ -27730,7 +27870,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>73</v>
@@ -27739,7 +27879,7 @@
         <v>20220616</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>211</v>
@@ -27757,7 +27897,7 @@
         <v>511</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M391" s="1" t="n">
         <v>20230115</v>
@@ -27797,7 +27937,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>134</v>
@@ -27824,7 +27964,7 @@
         <v>512</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M392" s="1" t="n">
         <v>20230115</v>
@@ -27864,7 +28004,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>113</v>
@@ -27873,7 +28013,7 @@
         <v>20220722</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>291</v>
@@ -27891,7 +28031,7 @@
         <v>513</v>
       </c>
       <c r="K393" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M393" s="1" t="n">
         <v>20230115</v>
@@ -27931,7 +28071,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>114</v>
@@ -27940,7 +28080,7 @@
         <v>20220722</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>291</v>
@@ -27958,7 +28098,7 @@
         <v>514</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M394" s="1" t="n">
         <v>20230115</v>
@@ -27998,7 +28138,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>119</v>
@@ -28025,7 +28165,7 @@
         <v>515</v>
       </c>
       <c r="K395" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M395" s="1" t="n">
         <v>20230115</v>
@@ -28065,7 +28205,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>116</v>
@@ -28074,7 +28214,7 @@
         <v>20220722</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>291</v>
@@ -28092,7 +28232,7 @@
         <v>516</v>
       </c>
       <c r="K396" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="L396" s="4"/>
       <c r="M396" s="1" t="n">
@@ -28133,7 +28273,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>131</v>
@@ -28142,7 +28282,7 @@
         <v>20220926</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>407</v>
@@ -28160,7 +28300,7 @@
         <v>517</v>
       </c>
       <c r="K397" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M397" s="1" t="n">
         <v>20230115</v>
@@ -28200,7 +28340,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>121</v>
@@ -28227,7 +28367,7 @@
         <v>518</v>
       </c>
       <c r="K398" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M398" s="1" t="n">
         <v>20230115</v>
@@ -28267,7 +28407,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>117</v>
@@ -28276,7 +28416,7 @@
         <v>20220722</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>291</v>
@@ -28294,10 +28434,10 @@
         <v>519</v>
       </c>
       <c r="K399" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M399" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N399" s="1" t="s">
         <v>58</v>
@@ -28334,7 +28474,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>118</v>
@@ -28343,7 +28483,7 @@
         <v>20220722</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>291</v>
@@ -28361,10 +28501,10 @@
         <v>520</v>
       </c>
       <c r="K400" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M400" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N400" s="1" t="s">
         <v>58</v>
@@ -28401,7 +28541,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>141</v>
@@ -28428,10 +28568,10 @@
         <v>521</v>
       </c>
       <c r="K401" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M401" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N401" s="1" t="s">
         <v>58</v>
@@ -28468,7 +28608,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>156</v>
@@ -28495,10 +28635,10 @@
         <v>522</v>
       </c>
       <c r="K402" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M402" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N402" s="1" t="s">
         <v>58</v>
@@ -28535,7 +28675,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>159</v>
@@ -28562,10 +28702,10 @@
         <v>523</v>
       </c>
       <c r="K403" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M403" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N403" s="1" t="s">
         <v>58</v>
@@ -28602,7 +28742,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>154</v>
@@ -28629,10 +28769,10 @@
         <v>524</v>
       </c>
       <c r="K404" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M404" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N404" s="1" t="s">
         <v>58</v>
@@ -28669,7 +28809,7 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>160</v>
@@ -28696,10 +28836,10 @@
         <v>525</v>
       </c>
       <c r="K405" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M405" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N405" s="1" t="s">
         <v>58</v>
@@ -28736,7 +28876,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>157</v>
@@ -28763,10 +28903,10 @@
         <v>526</v>
       </c>
       <c r="K406" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M406" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N406" s="1" t="s">
         <v>58</v>
@@ -28803,7 +28943,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>153</v>
@@ -28830,10 +28970,10 @@
         <v>527</v>
       </c>
       <c r="K407" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M407" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N407" s="1" t="s">
         <v>58</v>
@@ -28870,7 +29010,7 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>152</v>
@@ -28897,10 +29037,10 @@
         <v>528</v>
       </c>
       <c r="K408" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="M408" s="1" t="n">
-        <v>20230115</v>
+        <v>20230124</v>
       </c>
       <c r="N408" s="1" t="s">
         <v>58</v>
@@ -28935,6 +29075,637 @@
         <v>/media/jianie/SequencingFiles_7/20221107_Counts/STARR_104_force8386/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>20210114</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L409" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M409" s="1" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="N409" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O409" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P409" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($Q409, $R409, "/", $S409, "/", $I409,  $T409, $U409)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/molecule_info.h5</v>
+      </c>
+      <c r="Q409" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R409" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S409" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T409" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U409" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V409" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W409" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($Q409, $R409, "/", $S409, "/", $I409,  $T409, $V409,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Evie/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>20210114</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M410" s="1" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="N410" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O410" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P410" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($Q410, $R410, "/", $S410, "/", $I410,  $T410, $U410)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Olaf/outs/molecule_info.h5</v>
+      </c>
+      <c r="Q410" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R410" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S410" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T410" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U410" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V410" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W410" s="2" t="str">
+        <f aca="false">_xlfn.CONCAT($Q410, $R410, "/", $S410, "/", $I410,  $T410, $V410,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20210114_UTA_NovaSeq_L3_Counts/Olaf/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C411" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D411" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M411" s="1" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O411" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P411" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q411" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R411" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S411" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T411" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U411" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V411" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W411" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C412" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D412" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M412" s="1" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="N412" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O412" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P412" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q412" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R412" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S412" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T412" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U412" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V412" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W412" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C413" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D413" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M413" s="1" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O413" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P413" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q413" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R413" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S413" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T413" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U413" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V413" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W413" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C414" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M414" s="1" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O414" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q414" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R414" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S414" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T414" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U414" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V414" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W414" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="C415" s="1" t="n">
+        <v>20180313</v>
+      </c>
+      <c r="D415" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M415" s="1" t="n">
+        <v>20230130</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O415" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="C416" s="1" t="n">
+        <v>20180313</v>
+      </c>
+      <c r="D416" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M416" s="1" t="n">
+        <v>20230130</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O416" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="C417" s="1" t="n">
+        <v>20180313</v>
+      </c>
+      <c r="D417" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M417" s="1" t="n">
+        <v>20230130</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O417" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="C418" s="1" t="n">
+        <v>20180525</v>
+      </c>
+      <c r="D418" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M418" s="1" t="n">
+        <v>20230130</v>
+      </c>
+      <c r="N418" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O418" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="C419" s="1" t="n">
+        <v>20180525</v>
+      </c>
+      <c r="D419" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M419" s="1" t="n">
+        <v>20230130</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O419" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="C420" s="1" t="n">
+        <v>20180525</v>
+      </c>
+      <c r="D420" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M420" s="1" t="n">
+        <v>20230130</v>
+      </c>
+      <c r="N420" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O420" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -28946,7 +29717,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:W408"/>
+  <autoFilter ref="A1:W414"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFiles/Form 3_cellranger_counts_summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6108" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6180" uniqueCount="558">
   <si>
     <t xml:space="preserve">Counts_List</t>
   </si>
@@ -299,82 +299,82 @@
     <t xml:space="preserve">Button_combine_force</t>
   </si>
   <si>
+    <t xml:space="preserve">P1111191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR026h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hf test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1111192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_STARR032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_024_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Mar_combine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_NDYoung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_NDOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_HFDYoung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova_HFDOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Young_combine_force_5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND_Young_combine_force</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1111191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR026h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hf test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1111192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_STARR032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024_2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar_combine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_NDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDYoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova_HFDOld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force_5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young_combine_force</t>
   </si>
   <si>
     <t xml:space="preserve">ND_Old_force</t>
@@ -1707,6 +1707,21 @@
   </si>
   <si>
     <t xml:space="preserve">Young_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button_combine_force10446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evie_force9956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norton_combine_force11753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olaf_force7791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapa_Mar_combine_force5007</t>
   </si>
 </sst>
 </file>
@@ -1876,17 +1891,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G385" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A385" activeCellId="0" sqref="A385"/>
-      <selection pane="bottomRight" activeCell="L410" activeCellId="0" sqref="L410"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I425" activeCellId="0" sqref="I425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1990,7 +2005,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -2057,7 +2072,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -2124,7 +2139,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/P16-HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -2191,7 +2206,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/KO-ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190613_NextSeq_fastq_Counts/Rapa_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -2395,7 +2410,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -2465,7 +2480,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_forced/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -2532,7 +2547,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/STARR_15_premrna/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -2669,7 +2684,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/Buttons_Marmoset/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2736,7 +2751,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -2803,7 +2818,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/ND_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -2870,7 +2885,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Young/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -2937,7 +2952,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190717_NextSeq_fastq_Counts/HFD_Old/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_P16_HFD/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -3129,7 +3144,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_KO_ND/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -3257,7 +3272,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190816_NovaSeq_fastq_Counts/NG_Rapa_Mar/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -3321,7 +3336,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_STARR_015/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/Forced_STARR_016/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20190912_NovaSeq_fastq_Counts/NG_Buttons/outs/metrics_summary.csv</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
